--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW3M\trunk\DataCW3M\CW3MdigitalHandbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C483E98-68D4-4FE9-9311-00E7F6BAD7B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E80DE-4DFF-45AE-9F9E-C98256D2B1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2295" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IDU attributes" sheetId="1" r:id="rId1"/>
-    <sheet name="Reach attributes" sheetId="3" r:id="rId2"/>
-    <sheet name="HRU attributes" sheetId="4" r:id="rId3"/>
-    <sheet name="Conventions" sheetId="6" r:id="rId4"/>
+    <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
+    <sheet name="IDU attributes" sheetId="1" r:id="rId2"/>
+    <sheet name="Reach attributes" sheetId="3" r:id="rId3"/>
+    <sheet name="HRU attributes" sheetId="4" r:id="rId4"/>
+    <sheet name="Conventions" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,30 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="H61" authorId="0" shapeId="0" xr:uid="{9FA6DA1F-393D-4A34-AA3E-57AF95FB6F83}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>mccunem:
+There are more values for ZONED_USE then were defined anywhere in the code, so definitions for other values need to be filled in (16,15,14,12,11,10,9,8,7,6,5,3)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -69,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="846">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2602,6 +2627,12 @@
   </si>
   <si>
     <t>was different from GRID_INDEX in WW2100; no longer used</t>
+  </si>
+  <si>
+    <t>Necessary input data for CW3M, 7/2/20</t>
+  </si>
+  <si>
+    <t>this is LULC_C, the most detailed land-use-land-cover class</t>
   </si>
 </sst>
 </file>
@@ -3257,14 +3288,5317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32F2074-52BE-4F68-B78E-C0A96B41A483}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z781"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="24" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9" style="24" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="45.5703125" style="24" customWidth="1"/>
+    <col min="12" max="21" width="6.42578125" style="24" customWidth="1"/>
+    <col min="22" max="26" width="12.5703125" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" ht="59.25" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A27" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+    </row>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+    </row>
+    <row r="39" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+    </row>
+    <row r="40" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A42" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A44" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="30"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A45" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="H45" s="30"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A49" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>608</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="39"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+    </row>
+    <row r="50" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A50" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+    </row>
+    <row r="51" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+    </row>
+    <row r="52" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+    </row>
+    <row r="56" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+    </row>
+    <row r="57" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="I57" s="32"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="I58" s="32"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+    </row>
+    <row r="59" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="I59" s="32"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="87" t="s">
+        <v>845</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A61" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+    </row>
+    <row r="62" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A62" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+    </row>
+    <row r="63" spans="1:26" ht="59.25" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="7">
+        <v>23773405</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="7">
+        <v>23773403</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="7">
+        <v>23773407</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="7">
+        <v>7</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="E69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="7">
+        <v>6713</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="E70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="E71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="K72" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1739.9274680000001</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="7">
+        <v>6699</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="7">
+        <v>6758</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="24">
+        <v>1</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="E77" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="24">
+        <v>1</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1739.927555</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="7">
+        <v>553659</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="E85" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="7">
+        <v>6772</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F86" s="24">
+        <v>1500</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I86" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K86" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" s="27">
+        <v>1500</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I87" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88" s="27">
+        <v>1500</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I89" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I90" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="B92" s="7"/>
+    </row>
+    <row r="93" spans="1:26" ht="59.25" customHeight="1">
+      <c r="A93" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="30"/>
+      <c r="V93" s="30"/>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J94" s="10"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="J95" s="10"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="J96" s="10"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+    </row>
+    <row r="97" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A97" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="F97" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="50"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="50"/>
+      <c r="P97" s="50"/>
+      <c r="Q97" s="50"/>
+      <c r="R97" s="50"/>
+      <c r="S97" s="50"/>
+      <c r="T97" s="50"/>
+      <c r="U97" s="50"/>
+      <c r="V97" s="50"/>
+    </row>
+    <row r="98" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A98" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="50"/>
+      <c r="P98" s="50"/>
+      <c r="Q98" s="50"/>
+      <c r="R98" s="50"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="50"/>
+      <c r="U98" s="50"/>
+      <c r="V98" s="50"/>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J99" s="10"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+    </row>
+    <row r="100" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A100" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="50"/>
+      <c r="P100" s="50"/>
+      <c r="Q100" s="50"/>
+      <c r="R100" s="50"/>
+      <c r="S100" s="50"/>
+      <c r="T100" s="50"/>
+      <c r="U100" s="50"/>
+      <c r="V100" s="50"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="7"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="7"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="7"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="7"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="7"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="7"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="7"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="7"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="7"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="7"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="7"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="7"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="7"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="7"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="7"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="7"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="7"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="7"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="7"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="7"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="7"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="7"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="7"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="7"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="7"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="7"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="7"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="7"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="7"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="7"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="7"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="7"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="7"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="7"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="7"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="7"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="7"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="7"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="7"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="7"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="7"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="7"/>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="7"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="7"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="7"/>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="7"/>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="7"/>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="7"/>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="7"/>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="7"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="7"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="7"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="7"/>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="7"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="7"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="7"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="7"/>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="7"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="7"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="7"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="7"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="7"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="7"/>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="7"/>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="7"/>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="7"/>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="7"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="7"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="7"/>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="7"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="7"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="7"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="7"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="7"/>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="7"/>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="7"/>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="7"/>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="7"/>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="7"/>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="7"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="7"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="7"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="7"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="7"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="7"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="7"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="7"/>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="7"/>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="7"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="7"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="7"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="7"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="7"/>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="7"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="7"/>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="7"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="7"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="7"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="7"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="7"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="7"/>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="7"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="7"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="7"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="7"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="7"/>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="7"/>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="7"/>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="7"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="7"/>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="7"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="7"/>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="7"/>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="7"/>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="7"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="7"/>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="7"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="7"/>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="7"/>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="7"/>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="7"/>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="7"/>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="7"/>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="7"/>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="7"/>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="7"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="7"/>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="7"/>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="7"/>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="7"/>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="7"/>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="7"/>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="7"/>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="7"/>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="7"/>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="7"/>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="7"/>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="7"/>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="7"/>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="7"/>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="7"/>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="7"/>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="7"/>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="7"/>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="7"/>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="7"/>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="7"/>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="7"/>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="7"/>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="7"/>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="7"/>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="7"/>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="7"/>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="7"/>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="7"/>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="7"/>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="7"/>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="7"/>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="7"/>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="7"/>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="7"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="7"/>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="7"/>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="7"/>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="7"/>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="7"/>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="7"/>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="7"/>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="7"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="7"/>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="7"/>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="7"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="7"/>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="7"/>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="7"/>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="7"/>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="7"/>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="7"/>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="7"/>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="7"/>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="7"/>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="7"/>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="7"/>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="7"/>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="7"/>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="7"/>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="7"/>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="7"/>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="7"/>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="7"/>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="7"/>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="7"/>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="7"/>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="7"/>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="7"/>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="7"/>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="7"/>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="7"/>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="7"/>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="7"/>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="7"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="7"/>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="7"/>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="7"/>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="7"/>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="7"/>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="7"/>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="7"/>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="7"/>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="7"/>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="7"/>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="7"/>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="7"/>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="7"/>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="7"/>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="7"/>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="7"/>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="7"/>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" s="7"/>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="7"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="7"/>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="7"/>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="7"/>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="7"/>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="7"/>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="7"/>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="7"/>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="7"/>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="7"/>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="7"/>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="7"/>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="7"/>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="7"/>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="7"/>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="7"/>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="7"/>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="7"/>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="7"/>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="7"/>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="7"/>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="7"/>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="7"/>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="7"/>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="7"/>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="7"/>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" s="7"/>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" s="7"/>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="7"/>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="7"/>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" s="7"/>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="7"/>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="7"/>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" s="7"/>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="7"/>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" s="7"/>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" s="7"/>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="7"/>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" s="7"/>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" s="7"/>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" s="7"/>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" s="7"/>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" s="7"/>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" s="7"/>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" s="7"/>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" s="7"/>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" s="7"/>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" s="7"/>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" s="7"/>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" s="7"/>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" s="7"/>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" s="7"/>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" s="7"/>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" s="7"/>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" s="7"/>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" s="7"/>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="7"/>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" s="7"/>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="7"/>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="7"/>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="7"/>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" s="7"/>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" s="7"/>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" s="7"/>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="7"/>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="7"/>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" s="7"/>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" s="7"/>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="7"/>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" s="7"/>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="7"/>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="7"/>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="7"/>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="7"/>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="7"/>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="7"/>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="7"/>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="7"/>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="7"/>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="7"/>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="7"/>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="7"/>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="7"/>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="7"/>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="7"/>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="7"/>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="7"/>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="7"/>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="7"/>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="7"/>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="7"/>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="7"/>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="7"/>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="7"/>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="7"/>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="7"/>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="7"/>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="7"/>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="7"/>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="7"/>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="7"/>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="7"/>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" s="7"/>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="7"/>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="7"/>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="7"/>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="7"/>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="7"/>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="7"/>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="7"/>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="7"/>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="7"/>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="7"/>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="7"/>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="7"/>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="7"/>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" s="7"/>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="7"/>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="7"/>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="7"/>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="7"/>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" s="7"/>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" s="7"/>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="7"/>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="7"/>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="7"/>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="7"/>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="7"/>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="7"/>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="7"/>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="7"/>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="7"/>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="7"/>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" s="7"/>
+    </row>
+    <row r="498" spans="2:2">
+      <c r="B498" s="7"/>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" s="7"/>
+    </row>
+    <row r="500" spans="2:2">
+      <c r="B500" s="7"/>
+    </row>
+    <row r="501" spans="2:2">
+      <c r="B501" s="7"/>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" s="7"/>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" s="7"/>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" s="7"/>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" s="7"/>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" s="7"/>
+    </row>
+    <row r="507" spans="2:2">
+      <c r="B507" s="7"/>
+    </row>
+    <row r="508" spans="2:2">
+      <c r="B508" s="7"/>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" s="7"/>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" s="7"/>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" s="7"/>
+    </row>
+    <row r="512" spans="2:2">
+      <c r="B512" s="7"/>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" s="7"/>
+    </row>
+    <row r="514" spans="2:2">
+      <c r="B514" s="7"/>
+    </row>
+    <row r="515" spans="2:2">
+      <c r="B515" s="7"/>
+    </row>
+    <row r="516" spans="2:2">
+      <c r="B516" s="7"/>
+    </row>
+    <row r="517" spans="2:2">
+      <c r="B517" s="7"/>
+    </row>
+    <row r="518" spans="2:2">
+      <c r="B518" s="7"/>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" s="7"/>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" s="7"/>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" s="7"/>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" s="7"/>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" s="7"/>
+    </row>
+    <row r="524" spans="2:2">
+      <c r="B524" s="7"/>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" s="7"/>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" s="7"/>
+    </row>
+    <row r="527" spans="2:2">
+      <c r="B527" s="7"/>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" s="7"/>
+    </row>
+    <row r="529" spans="2:2">
+      <c r="B529" s="7"/>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="7"/>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="7"/>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="7"/>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="7"/>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="7"/>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="7"/>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="7"/>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="7"/>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="7"/>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="7"/>
+    </row>
+    <row r="540" spans="2:2">
+      <c r="B540" s="7"/>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="7"/>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="7"/>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="7"/>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" s="7"/>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="7"/>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="7"/>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="7"/>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="7"/>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="7"/>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="7"/>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="7"/>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="7"/>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="7"/>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="7"/>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" s="7"/>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" s="7"/>
+    </row>
+    <row r="557" spans="2:2">
+      <c r="B557" s="7"/>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" s="7"/>
+    </row>
+    <row r="559" spans="2:2">
+      <c r="B559" s="7"/>
+    </row>
+    <row r="560" spans="2:2">
+      <c r="B560" s="7"/>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="7"/>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="7"/>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="7"/>
+    </row>
+    <row r="564" spans="2:2">
+      <c r="B564" s="7"/>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="7"/>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" s="7"/>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" s="7"/>
+    </row>
+    <row r="568" spans="2:2">
+      <c r="B568" s="7"/>
+    </row>
+    <row r="569" spans="2:2">
+      <c r="B569" s="7"/>
+    </row>
+    <row r="570" spans="2:2">
+      <c r="B570" s="7"/>
+    </row>
+    <row r="571" spans="2:2">
+      <c r="B571" s="7"/>
+    </row>
+    <row r="572" spans="2:2">
+      <c r="B572" s="7"/>
+    </row>
+    <row r="573" spans="2:2">
+      <c r="B573" s="7"/>
+    </row>
+    <row r="574" spans="2:2">
+      <c r="B574" s="7"/>
+    </row>
+    <row r="575" spans="2:2">
+      <c r="B575" s="7"/>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" s="7"/>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="7"/>
+    </row>
+    <row r="578" spans="2:2">
+      <c r="B578" s="7"/>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" s="7"/>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="7"/>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="7"/>
+    </row>
+    <row r="582" spans="2:2">
+      <c r="B582" s="7"/>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" s="7"/>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="7"/>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="7"/>
+    </row>
+    <row r="586" spans="2:2">
+      <c r="B586" s="7"/>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" s="7"/>
+    </row>
+    <row r="588" spans="2:2">
+      <c r="B588" s="7"/>
+    </row>
+    <row r="589" spans="2:2">
+      <c r="B589" s="7"/>
+    </row>
+    <row r="590" spans="2:2">
+      <c r="B590" s="7"/>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" s="7"/>
+    </row>
+    <row r="592" spans="2:2">
+      <c r="B592" s="7"/>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" s="7"/>
+    </row>
+    <row r="594" spans="2:2">
+      <c r="B594" s="7"/>
+    </row>
+    <row r="595" spans="2:2">
+      <c r="B595" s="7"/>
+    </row>
+    <row r="596" spans="2:2">
+      <c r="B596" s="7"/>
+    </row>
+    <row r="597" spans="2:2">
+      <c r="B597" s="7"/>
+    </row>
+    <row r="598" spans="2:2">
+      <c r="B598" s="7"/>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" s="7"/>
+    </row>
+    <row r="600" spans="2:2">
+      <c r="B600" s="7"/>
+    </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="7"/>
+    </row>
+    <row r="602" spans="2:2">
+      <c r="B602" s="7"/>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" s="7"/>
+    </row>
+    <row r="604" spans="2:2">
+      <c r="B604" s="7"/>
+    </row>
+    <row r="605" spans="2:2">
+      <c r="B605" s="7"/>
+    </row>
+    <row r="606" spans="2:2">
+      <c r="B606" s="7"/>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" s="7"/>
+    </row>
+    <row r="608" spans="2:2">
+      <c r="B608" s="7"/>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" s="7"/>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="7"/>
+    </row>
+    <row r="611" spans="2:2">
+      <c r="B611" s="7"/>
+    </row>
+    <row r="612" spans="2:2">
+      <c r="B612" s="7"/>
+    </row>
+    <row r="613" spans="2:2">
+      <c r="B613" s="7"/>
+    </row>
+    <row r="614" spans="2:2">
+      <c r="B614" s="7"/>
+    </row>
+    <row r="615" spans="2:2">
+      <c r="B615" s="7"/>
+    </row>
+    <row r="616" spans="2:2">
+      <c r="B616" s="7"/>
+    </row>
+    <row r="617" spans="2:2">
+      <c r="B617" s="7"/>
+    </row>
+    <row r="618" spans="2:2">
+      <c r="B618" s="7"/>
+    </row>
+    <row r="619" spans="2:2">
+      <c r="B619" s="7"/>
+    </row>
+    <row r="620" spans="2:2">
+      <c r="B620" s="7"/>
+    </row>
+    <row r="621" spans="2:2">
+      <c r="B621" s="7"/>
+    </row>
+    <row r="622" spans="2:2">
+      <c r="B622" s="7"/>
+    </row>
+    <row r="623" spans="2:2">
+      <c r="B623" s="7"/>
+    </row>
+    <row r="624" spans="2:2">
+      <c r="B624" s="7"/>
+    </row>
+    <row r="625" spans="2:2">
+      <c r="B625" s="7"/>
+    </row>
+    <row r="626" spans="2:2">
+      <c r="B626" s="7"/>
+    </row>
+    <row r="627" spans="2:2">
+      <c r="B627" s="7"/>
+    </row>
+    <row r="628" spans="2:2">
+      <c r="B628" s="7"/>
+    </row>
+    <row r="629" spans="2:2">
+      <c r="B629" s="7"/>
+    </row>
+    <row r="630" spans="2:2">
+      <c r="B630" s="7"/>
+    </row>
+    <row r="631" spans="2:2">
+      <c r="B631" s="7"/>
+    </row>
+    <row r="632" spans="2:2">
+      <c r="B632" s="7"/>
+    </row>
+    <row r="633" spans="2:2">
+      <c r="B633" s="7"/>
+    </row>
+    <row r="634" spans="2:2">
+      <c r="B634" s="7"/>
+    </row>
+    <row r="635" spans="2:2">
+      <c r="B635" s="7"/>
+    </row>
+    <row r="636" spans="2:2">
+      <c r="B636" s="7"/>
+    </row>
+    <row r="637" spans="2:2">
+      <c r="B637" s="7"/>
+    </row>
+    <row r="638" spans="2:2">
+      <c r="B638" s="7"/>
+    </row>
+    <row r="639" spans="2:2">
+      <c r="B639" s="7"/>
+    </row>
+    <row r="640" spans="2:2">
+      <c r="B640" s="7"/>
+    </row>
+    <row r="641" spans="2:2">
+      <c r="B641" s="7"/>
+    </row>
+    <row r="642" spans="2:2">
+      <c r="B642" s="7"/>
+    </row>
+    <row r="643" spans="2:2">
+      <c r="B643" s="7"/>
+    </row>
+    <row r="644" spans="2:2">
+      <c r="B644" s="7"/>
+    </row>
+    <row r="645" spans="2:2">
+      <c r="B645" s="7"/>
+    </row>
+    <row r="646" spans="2:2">
+      <c r="B646" s="7"/>
+    </row>
+    <row r="647" spans="2:2">
+      <c r="B647" s="7"/>
+    </row>
+    <row r="648" spans="2:2">
+      <c r="B648" s="7"/>
+    </row>
+    <row r="649" spans="2:2">
+      <c r="B649" s="7"/>
+    </row>
+    <row r="650" spans="2:2">
+      <c r="B650" s="7"/>
+    </row>
+    <row r="651" spans="2:2">
+      <c r="B651" s="7"/>
+    </row>
+    <row r="652" spans="2:2">
+      <c r="B652" s="7"/>
+    </row>
+    <row r="653" spans="2:2">
+      <c r="B653" s="7"/>
+    </row>
+    <row r="654" spans="2:2">
+      <c r="B654" s="7"/>
+    </row>
+    <row r="655" spans="2:2">
+      <c r="B655" s="7"/>
+    </row>
+    <row r="656" spans="2:2">
+      <c r="B656" s="7"/>
+    </row>
+    <row r="657" spans="2:2">
+      <c r="B657" s="7"/>
+    </row>
+    <row r="658" spans="2:2">
+      <c r="B658" s="7"/>
+    </row>
+    <row r="659" spans="2:2">
+      <c r="B659" s="7"/>
+    </row>
+    <row r="660" spans="2:2">
+      <c r="B660" s="7"/>
+    </row>
+    <row r="661" spans="2:2">
+      <c r="B661" s="7"/>
+    </row>
+    <row r="662" spans="2:2">
+      <c r="B662" s="7"/>
+    </row>
+    <row r="663" spans="2:2">
+      <c r="B663" s="7"/>
+    </row>
+    <row r="664" spans="2:2">
+      <c r="B664" s="7"/>
+    </row>
+    <row r="665" spans="2:2">
+      <c r="B665" s="7"/>
+    </row>
+    <row r="666" spans="2:2">
+      <c r="B666" s="7"/>
+    </row>
+    <row r="667" spans="2:2">
+      <c r="B667" s="7"/>
+    </row>
+    <row r="668" spans="2:2">
+      <c r="B668" s="7"/>
+    </row>
+    <row r="669" spans="2:2">
+      <c r="B669" s="7"/>
+    </row>
+    <row r="670" spans="2:2">
+      <c r="B670" s="7"/>
+    </row>
+    <row r="671" spans="2:2">
+      <c r="B671" s="7"/>
+    </row>
+    <row r="672" spans="2:2">
+      <c r="B672" s="7"/>
+    </row>
+    <row r="673" spans="2:2">
+      <c r="B673" s="7"/>
+    </row>
+    <row r="674" spans="2:2">
+      <c r="B674" s="7"/>
+    </row>
+    <row r="675" spans="2:2">
+      <c r="B675" s="7"/>
+    </row>
+    <row r="676" spans="2:2">
+      <c r="B676" s="7"/>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" s="7"/>
+    </row>
+    <row r="678" spans="2:2">
+      <c r="B678" s="7"/>
+    </row>
+    <row r="679" spans="2:2">
+      <c r="B679" s="7"/>
+    </row>
+    <row r="680" spans="2:2">
+      <c r="B680" s="7"/>
+    </row>
+    <row r="681" spans="2:2">
+      <c r="B681" s="7"/>
+    </row>
+    <row r="682" spans="2:2">
+      <c r="B682" s="7"/>
+    </row>
+    <row r="683" spans="2:2">
+      <c r="B683" s="7"/>
+    </row>
+    <row r="684" spans="2:2">
+      <c r="B684" s="7"/>
+    </row>
+    <row r="685" spans="2:2">
+      <c r="B685" s="7"/>
+    </row>
+    <row r="686" spans="2:2">
+      <c r="B686" s="7"/>
+    </row>
+    <row r="687" spans="2:2">
+      <c r="B687" s="7"/>
+    </row>
+    <row r="688" spans="2:2">
+      <c r="B688" s="7"/>
+    </row>
+    <row r="689" spans="2:2">
+      <c r="B689" s="7"/>
+    </row>
+    <row r="690" spans="2:2">
+      <c r="B690" s="7"/>
+    </row>
+    <row r="691" spans="2:2">
+      <c r="B691" s="7"/>
+    </row>
+    <row r="692" spans="2:2">
+      <c r="B692" s="7"/>
+    </row>
+    <row r="693" spans="2:2">
+      <c r="B693" s="7"/>
+    </row>
+    <row r="694" spans="2:2">
+      <c r="B694" s="7"/>
+    </row>
+    <row r="695" spans="2:2">
+      <c r="B695" s="7"/>
+    </row>
+    <row r="696" spans="2:2">
+      <c r="B696" s="7"/>
+    </row>
+    <row r="697" spans="2:2">
+      <c r="B697" s="7"/>
+    </row>
+    <row r="698" spans="2:2">
+      <c r="B698" s="7"/>
+    </row>
+    <row r="699" spans="2:2">
+      <c r="B699" s="7"/>
+    </row>
+    <row r="700" spans="2:2">
+      <c r="B700" s="7"/>
+    </row>
+    <row r="701" spans="2:2">
+      <c r="B701" s="7"/>
+    </row>
+    <row r="702" spans="2:2">
+      <c r="B702" s="7"/>
+    </row>
+    <row r="703" spans="2:2">
+      <c r="B703" s="7"/>
+    </row>
+    <row r="704" spans="2:2">
+      <c r="B704" s="7"/>
+    </row>
+    <row r="705" spans="2:2">
+      <c r="B705" s="7"/>
+    </row>
+    <row r="706" spans="2:2">
+      <c r="B706" s="7"/>
+    </row>
+    <row r="707" spans="2:2">
+      <c r="B707" s="7"/>
+    </row>
+    <row r="708" spans="2:2">
+      <c r="B708" s="7"/>
+    </row>
+    <row r="709" spans="2:2">
+      <c r="B709" s="7"/>
+    </row>
+    <row r="710" spans="2:2">
+      <c r="B710" s="7"/>
+    </row>
+    <row r="711" spans="2:2">
+      <c r="B711" s="7"/>
+    </row>
+    <row r="712" spans="2:2">
+      <c r="B712" s="7"/>
+    </row>
+    <row r="713" spans="2:2">
+      <c r="B713" s="7"/>
+    </row>
+    <row r="714" spans="2:2">
+      <c r="B714" s="7"/>
+    </row>
+    <row r="715" spans="2:2">
+      <c r="B715" s="7"/>
+    </row>
+    <row r="716" spans="2:2">
+      <c r="B716" s="7"/>
+    </row>
+    <row r="717" spans="2:2">
+      <c r="B717" s="7"/>
+    </row>
+    <row r="718" spans="2:2">
+      <c r="B718" s="7"/>
+    </row>
+    <row r="719" spans="2:2">
+      <c r="B719" s="7"/>
+    </row>
+    <row r="720" spans="2:2">
+      <c r="B720" s="7"/>
+    </row>
+    <row r="721" spans="2:2">
+      <c r="B721" s="7"/>
+    </row>
+    <row r="722" spans="2:2">
+      <c r="B722" s="7"/>
+    </row>
+    <row r="723" spans="2:2">
+      <c r="B723" s="7"/>
+    </row>
+    <row r="724" spans="2:2">
+      <c r="B724" s="7"/>
+    </row>
+    <row r="725" spans="2:2">
+      <c r="B725" s="7"/>
+    </row>
+    <row r="726" spans="2:2">
+      <c r="B726" s="7"/>
+    </row>
+    <row r="727" spans="2:2">
+      <c r="B727" s="7"/>
+    </row>
+    <row r="728" spans="2:2">
+      <c r="B728" s="7"/>
+    </row>
+    <row r="729" spans="2:2">
+      <c r="B729" s="7"/>
+    </row>
+    <row r="730" spans="2:2">
+      <c r="B730" s="7"/>
+    </row>
+    <row r="731" spans="2:2">
+      <c r="B731" s="7"/>
+    </row>
+    <row r="732" spans="2:2">
+      <c r="B732" s="7"/>
+    </row>
+    <row r="733" spans="2:2">
+      <c r="B733" s="7"/>
+    </row>
+    <row r="734" spans="2:2">
+      <c r="B734" s="7"/>
+    </row>
+    <row r="735" spans="2:2">
+      <c r="B735" s="7"/>
+    </row>
+    <row r="736" spans="2:2">
+      <c r="B736" s="7"/>
+    </row>
+    <row r="737" spans="2:2">
+      <c r="B737" s="7"/>
+    </row>
+    <row r="738" spans="2:2">
+      <c r="B738" s="7"/>
+    </row>
+    <row r="739" spans="2:2">
+      <c r="B739" s="7"/>
+    </row>
+    <row r="740" spans="2:2">
+      <c r="B740" s="7"/>
+    </row>
+    <row r="741" spans="2:2">
+      <c r="B741" s="7"/>
+    </row>
+    <row r="742" spans="2:2">
+      <c r="B742" s="7"/>
+    </row>
+    <row r="743" spans="2:2">
+      <c r="B743" s="7"/>
+    </row>
+    <row r="744" spans="2:2">
+      <c r="B744" s="7"/>
+    </row>
+    <row r="745" spans="2:2">
+      <c r="B745" s="7"/>
+    </row>
+    <row r="746" spans="2:2">
+      <c r="B746" s="7"/>
+    </row>
+    <row r="747" spans="2:2">
+      <c r="B747" s="7"/>
+    </row>
+    <row r="748" spans="2:2">
+      <c r="B748" s="7"/>
+    </row>
+    <row r="749" spans="2:2">
+      <c r="B749" s="7"/>
+    </row>
+    <row r="750" spans="2:2">
+      <c r="B750" s="7"/>
+    </row>
+    <row r="751" spans="2:2">
+      <c r="B751" s="7"/>
+    </row>
+    <row r="752" spans="2:2">
+      <c r="B752" s="7"/>
+    </row>
+    <row r="753" spans="2:2">
+      <c r="B753" s="7"/>
+    </row>
+    <row r="754" spans="2:2">
+      <c r="B754" s="7"/>
+    </row>
+    <row r="755" spans="2:2">
+      <c r="B755" s="7"/>
+    </row>
+    <row r="756" spans="2:2">
+      <c r="B756" s="7"/>
+    </row>
+    <row r="757" spans="2:2">
+      <c r="B757" s="7"/>
+    </row>
+    <row r="758" spans="2:2">
+      <c r="B758" s="7"/>
+    </row>
+    <row r="759" spans="2:2">
+      <c r="B759" s="7"/>
+    </row>
+    <row r="760" spans="2:2">
+      <c r="B760" s="7"/>
+    </row>
+    <row r="761" spans="2:2">
+      <c r="B761" s="7"/>
+    </row>
+    <row r="762" spans="2:2">
+      <c r="B762" s="7"/>
+    </row>
+    <row r="763" spans="2:2">
+      <c r="B763" s="7"/>
+    </row>
+    <row r="764" spans="2:2">
+      <c r="B764" s="7"/>
+    </row>
+    <row r="765" spans="2:2">
+      <c r="B765" s="7"/>
+    </row>
+    <row r="766" spans="2:2">
+      <c r="B766" s="7"/>
+    </row>
+    <row r="767" spans="2:2">
+      <c r="B767" s="7"/>
+    </row>
+    <row r="768" spans="2:2">
+      <c r="B768" s="7"/>
+    </row>
+    <row r="769" spans="2:2">
+      <c r="B769" s="7"/>
+    </row>
+    <row r="770" spans="2:2">
+      <c r="B770" s="7"/>
+    </row>
+    <row r="771" spans="2:2">
+      <c r="B771" s="7"/>
+    </row>
+    <row r="772" spans="2:2">
+      <c r="B772" s="7"/>
+    </row>
+    <row r="773" spans="2:2">
+      <c r="B773" s="7"/>
+    </row>
+    <row r="774" spans="2:2">
+      <c r="B774" s="7"/>
+    </row>
+    <row r="775" spans="2:2">
+      <c r="B775" s="7"/>
+    </row>
+    <row r="776" spans="2:2">
+      <c r="B776" s="7"/>
+    </row>
+    <row r="777" spans="2:2">
+      <c r="B777" s="7"/>
+    </row>
+    <row r="778" spans="2:2">
+      <c r="B778" s="7"/>
+    </row>
+    <row r="779" spans="2:2">
+      <c r="B779" s="7"/>
+    </row>
+    <row r="780" spans="2:2">
+      <c r="B780" s="7"/>
+    </row>
+    <row r="781" spans="2:2">
+      <c r="B781" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
@@ -14550,7 +19884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14558,8 +19892,8 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16283,7 +21617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16292,7 +21626,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17630,7 +22964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E80DE-4DFF-45AE-9F9E-C98256D2B1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543FF54-8C20-4798-9E79-674439B6BC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2295" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2295" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H249" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="856">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2633,6 +2633,36 @@
   </si>
   <si>
     <t>this is LULC_C, the most detailed land-use-land-cover class</t>
+  </si>
+  <si>
+    <t>WETL_PCT</t>
+  </si>
+  <si>
+    <t>wetlands model</t>
+  </si>
+  <si>
+    <t>the % of this IDU's area which is wetland</t>
+  </si>
+  <si>
+    <t>calculated in wetlands model</t>
+  </si>
+  <si>
+    <t>WETL_CAP</t>
+  </si>
+  <si>
+    <t>constant?</t>
+  </si>
+  <si>
+    <t>storage capacity of wetland</t>
+  </si>
+  <si>
+    <t>WETL_VOL</t>
+  </si>
+  <si>
+    <t>current volume of water stored in the wetland</t>
+  </si>
+  <si>
+    <t>calculated in Flow?</t>
   </si>
 </sst>
 </file>
@@ -3294,9 +3324,9 @@
   </sheetPr>
   <dimension ref="A1:Z781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD109"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4991,73 +5021,66 @@
       <c r="U48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A49" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42" t="s">
-        <v>606</v>
-      </c>
-      <c r="D49" s="43" t="s">
+      <c r="A49" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>608</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-    </row>
-    <row r="50" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A50" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="F50" s="10"/>
+        <v>644</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="G50" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>276</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="I50" s="32"/>
       <c r="J50" s="3"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -5070,33 +5093,36 @@
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1">
       <c r="A51" s="33"/>
       <c r="B51" s="33" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>34</v>
+        <v>650</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32" t="s">
+        <v>651</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="I51" s="32"/>
+        <v>652</v>
+      </c>
+      <c r="I51" s="10"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="7" t="s">
+        <v>653</v>
+      </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -5107,11 +5133,6 @@
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1">
       <c r="A52" s="33"/>
@@ -5119,24 +5140,18 @@
         <v>24</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32" t="s">
-        <v>651</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="30" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="7" t="s">
-        <v>653</v>
-      </c>
+      <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -5154,18 +5169,24 @@
         <v>24</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>662</v>
+        <v>138</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>667</v>
+      </c>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="H53" s="30" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -5183,18 +5204,18 @@
         <v>24</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>138</v>
+        <v>669</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="3"/>
@@ -5218,24 +5239,16 @@
         <v>24</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="10" t="s">
-        <v>670</v>
-      </c>
+      <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>671</v>
-      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="10"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -5253,16 +5266,24 @@
         <v>24</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>672</v>
+        <v>218</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>501</v>
+      </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="I56" s="32"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="7"/>
+      <c r="K56" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -5280,24 +5301,22 @@
         <v>24</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>218</v>
+        <v>714</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -5315,18 +5334,16 @@
         <v>24</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10" t="s">
         <v>497</v>
       </c>
       <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="G58" s="10"/>
       <c r="H58" s="30" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="3"/>
@@ -5348,20 +5365,26 @@
         <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>716</v>
+        <v>14</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10" t="s">
-        <v>497</v>
+        <v>215</v>
       </c>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="I59" s="32"/>
+      <c r="G59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="87" t="s">
+        <v>845</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>132</v>
+      </c>
       <c r="J59" s="3"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -5375,30 +5398,30 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1">
       <c r="A60" s="33"/>
-      <c r="B60" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="B60" s="33"/>
       <c r="C60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="10"/>
+        <v>846</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E60" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F60" s="10"/>
+        <v>245</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>847</v>
+      </c>
       <c r="G60" s="10" t="s">
         <v>29</v>
       </c>
       <c r="H60" s="87" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>132</v>
+        <v>849</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="K60" s="3"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -8595,11 +8618,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1033"/>
+  <dimension ref="A1:Z1036"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15841,7 +15864,7 @@
       <c r="T208" s="7"/>
       <c r="U208" s="7"/>
     </row>
-    <row r="209" spans="1:26" ht="14.25" customHeight="1">
+    <row r="209" spans="1:21" ht="14.25" customHeight="1">
       <c r="A209" s="6"/>
       <c r="B209" s="6" t="s">
         <v>24</v>
@@ -15878,7 +15901,7 @@
       <c r="T209" s="7"/>
       <c r="U209" s="7"/>
     </row>
-    <row r="210" spans="1:26" ht="14.25" customHeight="1">
+    <row r="210" spans="1:21" ht="14.25" customHeight="1">
       <c r="A210" s="6"/>
       <c r="B210" s="6" t="s">
         <v>178</v>
@@ -15905,7 +15928,7 @@
       <c r="T210" s="7"/>
       <c r="U210" s="7"/>
     </row>
-    <row r="211" spans="1:26" ht="14.25" customHeight="1">
+    <row r="211" spans="1:21" ht="14.25" customHeight="1">
       <c r="A211" s="6"/>
       <c r="B211" s="6" t="s">
         <v>178</v>
@@ -15932,7 +15955,7 @@
       <c r="T211" s="7"/>
       <c r="U211" s="7"/>
     </row>
-    <row r="212" spans="1:26" ht="14.25" customHeight="1">
+    <row r="212" spans="1:21" ht="14.25" customHeight="1">
       <c r="A212" s="6"/>
       <c r="B212" s="6" t="s">
         <v>178</v>
@@ -15967,29 +15990,27 @@
       <c r="T212" s="7"/>
       <c r="U212" s="7"/>
     </row>
-    <row r="213" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="20" t="s">
-        <v>528</v>
+    <row r="213" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A213" s="33"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="7" t="s">
+        <v>850</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="F213" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F213" s="10"/>
       <c r="G213" s="10" t="s">
-        <v>29</v>
+        <v>851</v>
       </c>
       <c r="H213" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="I213" s="31" t="s">
-        <v>836</v>
+        <v>852</v>
+      </c>
+      <c r="I213" s="32" t="s">
+        <v>548</v>
       </c>
       <c r="J213" s="3"/>
       <c r="K213" s="7"/>
@@ -16004,27 +16025,29 @@
       <c r="T213" s="7"/>
       <c r="U213" s="7"/>
     </row>
-    <row r="214" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6" t="s">
-        <v>178</v>
-      </c>
+    <row r="214" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A214" s="33"/>
+      <c r="B214" s="33"/>
       <c r="C214" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="F214" s="10"/>
-      <c r="G214" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F214" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="G214" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H214" s="15" t="s">
-        <v>750</v>
+      <c r="H214" s="87" t="s">
+        <v>848</v>
       </c>
       <c r="I214" s="32" t="s">
-        <v>746</v>
+        <v>849</v>
       </c>
       <c r="J214" s="3"/>
       <c r="K214" s="7"/>
@@ -16039,27 +16062,29 @@
       <c r="T214" s="7"/>
       <c r="U214" s="7"/>
     </row>
-    <row r="215" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6" t="s">
-        <v>178</v>
-      </c>
+    <row r="215" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A215" s="33"/>
+      <c r="B215" s="33"/>
       <c r="C215" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F215" s="10"/>
-      <c r="G215" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H215" s="15" t="s">
-        <v>752</v>
+        <v>853</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G215" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215" s="30" t="s">
+        <v>854</v>
       </c>
       <c r="I215" s="32" t="s">
-        <v>746</v>
+        <v>855</v>
       </c>
       <c r="J215" s="3"/>
       <c r="K215" s="7"/>
@@ -16074,27 +16099,29 @@
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
     </row>
-    <row r="216" spans="1:26" ht="14.25" customHeight="1">
+    <row r="216" spans="1:21" ht="42.75" customHeight="1">
       <c r="A216" s="6"/>
-      <c r="B216" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F216" s="10"/>
-      <c r="G216" s="8" t="s">
+      <c r="B216" s="6"/>
+      <c r="C216" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G216" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H216" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="I216" s="32" t="s">
-        <v>746</v>
+      <c r="H216" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="I216" s="31" t="s">
+        <v>836</v>
       </c>
       <c r="J216" s="3"/>
       <c r="K216" s="7"/>
@@ -16109,26 +16136,28 @@
       <c r="T216" s="7"/>
       <c r="U216" s="7"/>
     </row>
-    <row r="217" spans="1:26" ht="14.25" customHeight="1">
+    <row r="217" spans="1:21" ht="42.75" customHeight="1">
       <c r="A217" s="6"/>
       <c r="B217" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8" t="s">
-        <v>82</v>
+        <v>749</v>
       </c>
       <c r="F217" s="10"/>
       <c r="G217" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="I217" s="32"/>
+        <v>750</v>
+      </c>
+      <c r="I217" s="32" t="s">
+        <v>746</v>
+      </c>
       <c r="J217" s="3"/>
       <c r="K217" s="7"/>
       <c r="L217" s="7"/>
@@ -16142,24 +16171,24 @@
       <c r="T217" s="7"/>
       <c r="U217" s="7"/>
     </row>
-    <row r="218" spans="1:26" ht="14.25" customHeight="1">
+    <row r="218" spans="1:21" ht="14.25" customHeight="1">
       <c r="A218" s="6"/>
       <c r="B218" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="F218" s="10"/>
       <c r="G218" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H218" s="15" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I218" s="32" t="s">
         <v>746</v>
@@ -16177,24 +16206,24 @@
       <c r="T218" s="7"/>
       <c r="U218" s="7"/>
     </row>
-    <row r="219" spans="1:26" ht="14.25" customHeight="1">
+    <row r="219" spans="1:21" ht="14.25" customHeight="1">
       <c r="A219" s="6"/>
       <c r="B219" s="6" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D219" s="8"/>
       <c r="E219" s="8" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="F219" s="10"/>
       <c r="G219" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H219" s="15" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I219" s="32" t="s">
         <v>746</v>
@@ -16212,26 +16241,26 @@
       <c r="T219" s="7"/>
       <c r="U219" s="7"/>
     </row>
-    <row r="220" spans="1:26" ht="14.25" customHeight="1">
+    <row r="220" spans="1:21" ht="14.25" customHeight="1">
       <c r="A220" s="6"/>
       <c r="B220" s="6" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
+      <c r="E220" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F220" s="10"/>
       <c r="G220" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="I220" s="32" t="s">
-        <v>132</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="I220" s="32"/>
       <c r="J220" s="3"/>
       <c r="K220" s="7"/>
       <c r="L220" s="7"/>
@@ -16245,27 +16274,27 @@
       <c r="T220" s="7"/>
       <c r="U220" s="7"/>
     </row>
-    <row r="221" spans="1:26" ht="14.25" customHeight="1">
+    <row r="221" spans="1:21" ht="14.25" customHeight="1">
       <c r="A221" s="6"/>
       <c r="B221" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D221" s="8"/>
       <c r="E221" s="8" t="s">
-        <v>764</v>
+        <v>245</v>
       </c>
       <c r="F221" s="10"/>
       <c r="G221" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H221" s="15" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="I221" s="32" t="s">
-        <v>132</v>
+        <v>746</v>
       </c>
       <c r="J221" s="3"/>
       <c r="K221" s="7"/>
@@ -16280,29 +16309,27 @@
       <c r="T221" s="7"/>
       <c r="U221" s="7"/>
     </row>
-    <row r="222" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A222" s="6" t="s">
-        <v>328</v>
-      </c>
+    <row r="222" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A222" s="6"/>
       <c r="B222" s="6" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D222" s="8"/>
       <c r="E222" s="8" t="s">
-        <v>767</v>
+        <v>245</v>
       </c>
       <c r="F222" s="10"/>
       <c r="G222" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="I222" s="32" t="s">
-        <v>132</v>
+        <v>746</v>
       </c>
       <c r="J222" s="3"/>
       <c r="K222" s="7"/>
@@ -16317,32 +16344,28 @@
       <c r="T222" s="7"/>
       <c r="U222" s="7"/>
     </row>
-    <row r="223" spans="1:26" ht="14.25" customHeight="1">
+    <row r="223" spans="1:21" ht="14.25" customHeight="1">
       <c r="A223" s="6"/>
       <c r="B223" s="6" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>399</v>
+        <v>761</v>
       </c>
       <c r="D223" s="8"/>
-      <c r="E223" s="8" t="s">
-        <v>215</v>
-      </c>
+      <c r="E223" s="8"/>
       <c r="F223" s="10"/>
       <c r="G223" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="I223" s="32" t="s">
         <v>132</v>
       </c>
       <c r="J223" s="3"/>
-      <c r="K223" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="K223" s="7"/>
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
       <c r="N223" s="7"/>
@@ -16353,32 +16376,25 @@
       <c r="S223" s="7"/>
       <c r="T223" s="7"/>
       <c r="U223" s="7"/>
-      <c r="V223" s="7"/>
-      <c r="W223" s="7"/>
-      <c r="X223" s="7"/>
-      <c r="Y223" s="7"/>
-      <c r="Z223" s="7"/>
-    </row>
-    <row r="224" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A224" s="6" t="s">
-        <v>770</v>
-      </c>
+    </row>
+    <row r="224" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A224" s="6"/>
       <c r="B224" s="6" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D224" s="8"/>
       <c r="E224" s="8" t="s">
-        <v>82</v>
+        <v>764</v>
       </c>
       <c r="F224" s="10"/>
       <c r="G224" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="I224" s="32" t="s">
         <v>132</v>
@@ -16396,24 +16412,26 @@
       <c r="T224" s="7"/>
       <c r="U224" s="7"/>
     </row>
-    <row r="225" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A225" s="6"/>
+    <row r="225" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A225" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="B225" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D225" s="8"/>
       <c r="E225" s="8" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="F225" s="10"/>
       <c r="G225" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="I225" s="32" t="s">
         <v>132</v>
@@ -16431,30 +16449,32 @@
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
     </row>
-    <row r="226" spans="1:21" ht="14.25" customHeight="1">
+    <row r="226" spans="1:26" ht="14.25" customHeight="1">
       <c r="A226" s="6"/>
       <c r="B226" s="6" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>776</v>
+        <v>399</v>
       </c>
       <c r="D226" s="8"/>
       <c r="E226" s="8" t="s">
-        <v>777</v>
+        <v>215</v>
       </c>
       <c r="F226" s="10"/>
       <c r="G226" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H226" s="15" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="I226" s="32" t="s">
         <v>132</v>
       </c>
       <c r="J226" s="3"/>
-      <c r="K226" s="7"/>
+      <c r="K226" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
       <c r="N226" s="7"/>
@@ -16465,25 +16485,32 @@
       <c r="S226" s="7"/>
       <c r="T226" s="7"/>
       <c r="U226" s="7"/>
-    </row>
-    <row r="227" spans="1:21" ht="14.25" customHeight="1">
+      <c r="V226" s="7"/>
+      <c r="W226" s="7"/>
+      <c r="X226" s="7"/>
+      <c r="Y226" s="7"/>
+      <c r="Z226" s="7"/>
+    </row>
+    <row r="227" spans="1:26" ht="14.25" customHeight="1">
       <c r="A227" s="6" t="s">
-        <v>328</v>
+        <v>770</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>779</v>
+      <c r="C227" s="7" t="s">
+        <v>771</v>
       </c>
       <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
+      <c r="E227" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F227" s="10"/>
       <c r="G227" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H227" s="15" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="I227" s="32" t="s">
         <v>132</v>
@@ -16501,24 +16528,24 @@
       <c r="T227" s="7"/>
       <c r="U227" s="7"/>
     </row>
-    <row r="228" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A228" s="6" t="s">
-        <v>328</v>
-      </c>
+    <row r="228" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A228" s="6"/>
       <c r="B228" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
+      <c r="E228" s="8" t="s">
+        <v>774</v>
+      </c>
       <c r="F228" s="10"/>
       <c r="G228" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="I228" s="32" t="s">
         <v>132</v>
@@ -16536,24 +16563,24 @@
       <c r="T228" s="7"/>
       <c r="U228" s="7"/>
     </row>
-    <row r="229" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A229" s="6" t="s">
-        <v>328</v>
-      </c>
+    <row r="229" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A229" s="6"/>
       <c r="B229" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
+      <c r="E229" s="8" t="s">
+        <v>777</v>
+      </c>
       <c r="F229" s="10"/>
       <c r="G229" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H229" s="15" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I229" s="32" t="s">
         <v>132</v>
@@ -16571,15 +16598,15 @@
       <c r="T229" s="7"/>
       <c r="U229" s="7"/>
     </row>
-    <row r="230" spans="1:21" ht="14.25" customHeight="1">
+    <row r="230" spans="1:26" ht="14.25" customHeight="1">
       <c r="A230" s="6" t="s">
         <v>328</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C230" s="7" t="s">
-        <v>783</v>
+      <c r="C230" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
@@ -16606,7 +16633,7 @@
       <c r="T230" s="7"/>
       <c r="U230" s="7"/>
     </row>
-    <row r="231" spans="1:21" ht="14.25" customHeight="1">
+    <row r="231" spans="1:26" ht="14.25" customHeight="1">
       <c r="A231" s="6" t="s">
         <v>328</v>
       </c>
@@ -16614,7 +16641,7 @@
         <v>24</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
@@ -16641,7 +16668,7 @@
       <c r="T231" s="7"/>
       <c r="U231" s="7"/>
     </row>
-    <row r="232" spans="1:21" ht="14.25" customHeight="1">
+    <row r="232" spans="1:26" ht="14.25" customHeight="1">
       <c r="A232" s="6" t="s">
         <v>328</v>
       </c>
@@ -16649,7 +16676,7 @@
         <v>24</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
@@ -16676,7 +16703,7 @@
       <c r="T232" s="7"/>
       <c r="U232" s="7"/>
     </row>
-    <row r="233" spans="1:21" ht="14.25" customHeight="1">
+    <row r="233" spans="1:26" ht="14.25" customHeight="1">
       <c r="A233" s="6" t="s">
         <v>328</v>
       </c>
@@ -16684,7 +16711,7 @@
         <v>24</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
@@ -16711,7 +16738,7 @@
       <c r="T233" s="7"/>
       <c r="U233" s="7"/>
     </row>
-    <row r="234" spans="1:21" ht="14.25" customHeight="1">
+    <row r="234" spans="1:26" ht="14.25" customHeight="1">
       <c r="A234" s="6" t="s">
         <v>328</v>
       </c>
@@ -16719,7 +16746,7 @@
         <v>24</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
@@ -16746,7 +16773,7 @@
       <c r="T234" s="7"/>
       <c r="U234" s="7"/>
     </row>
-    <row r="235" spans="1:21" ht="14.25" customHeight="1">
+    <row r="235" spans="1:26" ht="14.25" customHeight="1">
       <c r="A235" s="6" t="s">
         <v>328</v>
       </c>
@@ -16754,7 +16781,7 @@
         <v>24</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
@@ -16781,7 +16808,7 @@
       <c r="T235" s="7"/>
       <c r="U235" s="7"/>
     </row>
-    <row r="236" spans="1:21" ht="14.25" customHeight="1">
+    <row r="236" spans="1:26" ht="14.25" customHeight="1">
       <c r="A236" s="6" t="s">
         <v>328</v>
       </c>
@@ -16789,7 +16816,7 @@
         <v>24</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
@@ -16816,7 +16843,7 @@
       <c r="T236" s="7"/>
       <c r="U236" s="7"/>
     </row>
-    <row r="237" spans="1:21" ht="14.25" customHeight="1">
+    <row r="237" spans="1:26" ht="14.25" customHeight="1">
       <c r="A237" s="6" t="s">
         <v>328</v>
       </c>
@@ -16824,7 +16851,7 @@
         <v>24</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
@@ -16851,7 +16878,7 @@
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
     </row>
-    <row r="238" spans="1:21" ht="14.25" customHeight="1">
+    <row r="238" spans="1:26" ht="14.25" customHeight="1">
       <c r="A238" s="6" t="s">
         <v>328</v>
       </c>
@@ -16859,7 +16886,7 @@
         <v>24</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
@@ -16886,7 +16913,7 @@
       <c r="T238" s="7"/>
       <c r="U238" s="7"/>
     </row>
-    <row r="239" spans="1:21" ht="14.25" customHeight="1">
+    <row r="239" spans="1:26" ht="14.25" customHeight="1">
       <c r="A239" s="6" t="s">
         <v>328</v>
       </c>
@@ -16894,7 +16921,7 @@
         <v>24</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
@@ -16921,7 +16948,7 @@
       <c r="T239" s="7"/>
       <c r="U239" s="7"/>
     </row>
-    <row r="240" spans="1:21" ht="14.25" customHeight="1">
+    <row r="240" spans="1:26" ht="14.25" customHeight="1">
       <c r="A240" s="6" t="s">
         <v>328</v>
       </c>
@@ -16929,7 +16956,7 @@
         <v>24</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
@@ -16964,7 +16991,7 @@
         <v>24</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
@@ -16999,7 +17026,7 @@
         <v>24</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
@@ -17034,7 +17061,7 @@
         <v>24</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
@@ -17062,19 +17089,27 @@
       <c r="U243" s="7"/>
     </row>
     <row r="244" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A244" s="6"/>
+      <c r="A244" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="B244" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
       <c r="F244" s="10"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="15"/>
-      <c r="I244" s="32"/>
+      <c r="G244" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="I244" s="32" t="s">
+        <v>132</v>
+      </c>
       <c r="J244" s="3"/>
       <c r="K244" s="7"/>
       <c r="L244" s="7"/>
@@ -17089,25 +17124,27 @@
       <c r="U244" s="7"/>
     </row>
     <row r="245" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A245" s="6"/>
+      <c r="A245" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="B245" s="6" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D245" s="8"/>
-      <c r="E245" s="8" t="s">
-        <v>176</v>
-      </c>
+      <c r="E245" s="8"/>
       <c r="F245" s="10"/>
       <c r="G245" s="8" t="s">
-        <v>799</v>
+        <v>29</v>
       </c>
       <c r="H245" s="15" t="s">
-        <v>800</v>
-      </c>
-      <c r="I245" s="32"/>
+        <v>780</v>
+      </c>
+      <c r="I245" s="32" t="s">
+        <v>132</v>
+      </c>
       <c r="J245" s="3"/>
       <c r="K245" s="7"/>
       <c r="L245" s="7"/>
@@ -17122,25 +17159,27 @@
       <c r="U245" s="7"/>
     </row>
     <row r="246" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A246" s="6"/>
+      <c r="A246" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="B246" s="6" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D246" s="8"/>
-      <c r="E246" s="8" t="s">
-        <v>176</v>
-      </c>
+      <c r="E246" s="8"/>
       <c r="F246" s="10"/>
       <c r="G246" s="8" t="s">
-        <v>799</v>
+        <v>29</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>802</v>
-      </c>
-      <c r="I246" s="32"/>
+        <v>780</v>
+      </c>
+      <c r="I246" s="32" t="s">
+        <v>132</v>
+      </c>
       <c r="J246" s="3"/>
       <c r="K246" s="7"/>
       <c r="L246" s="7"/>
@@ -17160,19 +17199,13 @@
         <v>24</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D247" s="8"/>
-      <c r="E247" s="8" t="s">
-        <v>176</v>
-      </c>
+      <c r="E247" s="8"/>
       <c r="F247" s="10"/>
-      <c r="G247" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="H247" s="15" t="s">
-        <v>804</v>
-      </c>
+      <c r="G247" s="8"/>
+      <c r="H247" s="15"/>
       <c r="I247" s="32"/>
       <c r="J247" s="3"/>
       <c r="K247" s="7"/>
@@ -17188,73 +17221,60 @@
       <c r="U247" s="7"/>
     </row>
     <row r="248" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A248" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B248" s="34"/>
-      <c r="C248" s="42" t="s">
-        <v>805</v>
-      </c>
-      <c r="D248" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E248" s="43" t="s">
-        <v>806</v>
-      </c>
-      <c r="F248" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G248" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H248" s="44" t="s">
-        <v>807</v>
-      </c>
-      <c r="I248" s="36"/>
-      <c r="J248" s="39"/>
-      <c r="K248" s="39"/>
-      <c r="L248" s="35"/>
-      <c r="M248" s="35"/>
-      <c r="N248" s="35"/>
-      <c r="O248" s="35"/>
-      <c r="P248" s="35"/>
-      <c r="Q248" s="35"/>
-      <c r="R248" s="35"/>
-      <c r="S248" s="35"/>
-      <c r="T248" s="35"/>
-      <c r="U248" s="35"/>
-      <c r="V248" s="40"/>
-      <c r="W248" s="40"/>
-      <c r="X248" s="40"/>
-      <c r="Y248" s="40"/>
-      <c r="Z248" s="40"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="D248" s="8"/>
+      <c r="E248" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F248" s="10"/>
+      <c r="G248" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="H248" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="I248" s="32"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="7"/>
+      <c r="L248" s="7"/>
+      <c r="M248" s="7"/>
+      <c r="N248" s="7"/>
+      <c r="O248" s="7"/>
+      <c r="P248" s="7"/>
+      <c r="Q248" s="7"/>
+      <c r="R248" s="7"/>
+      <c r="S248" s="7"/>
+      <c r="T248" s="7"/>
+      <c r="U248" s="7"/>
     </row>
     <row r="249" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A249" s="6" t="s">
-        <v>808</v>
-      </c>
+      <c r="A249" s="6"/>
       <c r="B249" s="6" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>247</v>
+        <v>801</v>
       </c>
       <c r="D249" s="8"/>
       <c r="E249" s="8" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="F249" s="10"/>
       <c r="G249" s="8" t="s">
-        <v>34</v>
+        <v>799</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>809</v>
-      </c>
-      <c r="I249" s="8"/>
+        <v>802</v>
+      </c>
+      <c r="I249" s="32"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="K249" s="7"/>
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
       <c r="N249" s="7"/>
@@ -17268,13 +17288,23 @@
     </row>
     <row r="250" spans="1:26" ht="14.25" customHeight="1">
       <c r="A250" s="6"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="7"/>
+      <c r="B250" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>803</v>
+      </c>
       <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
+      <c r="E250" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="F250" s="10"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="15"/>
+      <c r="G250" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="H250" s="15" t="s">
+        <v>804</v>
+      </c>
       <c r="I250" s="32"/>
       <c r="J250" s="3"/>
       <c r="K250" s="7"/>
@@ -17290,40 +17320,73 @@
       <c r="U250" s="7"/>
     </row>
     <row r="251" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="8"/>
-      <c r="H251" s="15"/>
-      <c r="I251" s="8"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
-      <c r="L251" s="7"/>
-      <c r="M251" s="7"/>
-      <c r="N251" s="7"/>
-      <c r="O251" s="7"/>
-      <c r="P251" s="7"/>
-      <c r="Q251" s="7"/>
-      <c r="R251" s="7"/>
-      <c r="S251" s="7"/>
-      <c r="T251" s="7"/>
-      <c r="U251" s="7"/>
+      <c r="A251" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B251" s="34"/>
+      <c r="C251" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="D251" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E251" s="43" t="s">
+        <v>806</v>
+      </c>
+      <c r="F251" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H251" s="44" t="s">
+        <v>807</v>
+      </c>
+      <c r="I251" s="36"/>
+      <c r="J251" s="39"/>
+      <c r="K251" s="39"/>
+      <c r="L251" s="35"/>
+      <c r="M251" s="35"/>
+      <c r="N251" s="35"/>
+      <c r="O251" s="35"/>
+      <c r="P251" s="35"/>
+      <c r="Q251" s="35"/>
+      <c r="R251" s="35"/>
+      <c r="S251" s="35"/>
+      <c r="T251" s="35"/>
+      <c r="U251" s="35"/>
+      <c r="V251" s="40"/>
+      <c r="W251" s="40"/>
+      <c r="X251" s="40"/>
+      <c r="Y251" s="40"/>
+      <c r="Z251" s="40"/>
     </row>
     <row r="252" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="7"/>
+      <c r="A252" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
+      <c r="E252" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="F252" s="10"/>
-      <c r="G252" s="8"/>
-      <c r="H252" s="15"/>
+      <c r="G252" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H252" s="15" t="s">
+        <v>809</v>
+      </c>
       <c r="I252" s="8"/>
-      <c r="J252" s="7"/>
-      <c r="K252" s="7"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
       <c r="N252" s="7"/>
@@ -17344,8 +17407,8 @@
       <c r="F253" s="10"/>
       <c r="G253" s="8"/>
       <c r="H253" s="15"/>
-      <c r="I253" s="8"/>
-      <c r="J253" s="7"/>
+      <c r="I253" s="32"/>
+      <c r="J253" s="3"/>
       <c r="K253" s="7"/>
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
@@ -17526,8 +17589,8 @@
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
       <c r="F261" s="10"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="7"/>
+      <c r="G261" s="8"/>
+      <c r="H261" s="15"/>
       <c r="I261" s="8"/>
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
@@ -17542,7 +17605,7 @@
       <c r="T261" s="7"/>
       <c r="U261" s="7"/>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" ht="14.25" customHeight="1">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="7"/>
@@ -17550,7 +17613,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="10"/>
       <c r="G262" s="8"/>
-      <c r="H262" s="7"/>
+      <c r="H262" s="15"/>
       <c r="I262" s="8"/>
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
@@ -17565,14 +17628,74 @@
       <c r="T262" s="7"/>
       <c r="U262" s="7"/>
     </row>
-    <row r="263" spans="1:21">
-      <c r="B263" s="7"/>
-    </row>
-    <row r="264" spans="1:21">
-      <c r="B264" s="7"/>
+    <row r="263" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A263" s="6"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="10"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="15"/>
+      <c r="I263" s="8"/>
+      <c r="J263" s="7"/>
+      <c r="K263" s="7"/>
+      <c r="L263" s="7"/>
+      <c r="M263" s="7"/>
+      <c r="N263" s="7"/>
+      <c r="O263" s="7"/>
+      <c r="P263" s="7"/>
+      <c r="Q263" s="7"/>
+      <c r="R263" s="7"/>
+      <c r="S263" s="7"/>
+      <c r="T263" s="7"/>
+      <c r="U263" s="7"/>
+    </row>
+    <row r="264" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="7"/>
+      <c r="I264" s="8"/>
+      <c r="J264" s="7"/>
+      <c r="K264" s="7"/>
+      <c r="L264" s="7"/>
+      <c r="M264" s="7"/>
+      <c r="N264" s="7"/>
+      <c r="O264" s="7"/>
+      <c r="P264" s="7"/>
+      <c r="Q264" s="7"/>
+      <c r="R264" s="7"/>
+      <c r="S264" s="7"/>
+      <c r="T264" s="7"/>
+      <c r="U264" s="7"/>
     </row>
     <row r="265" spans="1:21">
-      <c r="B265" s="7"/>
+      <c r="A265" s="6"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="7"/>
+      <c r="I265" s="8"/>
+      <c r="J265" s="7"/>
+      <c r="K265" s="7"/>
+      <c r="L265" s="7"/>
+      <c r="M265" s="7"/>
+      <c r="N265" s="7"/>
+      <c r="O265" s="7"/>
+      <c r="P265" s="7"/>
+      <c r="Q265" s="7"/>
+      <c r="R265" s="7"/>
+      <c r="S265" s="7"/>
+      <c r="T265" s="7"/>
+      <c r="U265" s="7"/>
     </row>
     <row r="266" spans="1:21">
       <c r="B266" s="7"/>
@@ -19877,6 +20000,15 @@
     </row>
     <row r="1033" spans="2:2">
       <c r="B1033" s="7"/>
+    </row>
+    <row r="1034" spans="2:2">
+      <c r="B1034" s="7"/>
+    </row>
+    <row r="1035" spans="2:2">
+      <c r="B1035" s="7"/>
+    </row>
+    <row r="1036" spans="2:2">
+      <c r="B1036" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543FF54-8C20-4798-9E79-674439B6BC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E1212-2101-4FC9-BF85-8EE21C533EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2295" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-24390" yWindow="585" windowWidth="24030" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8620,7 +8622,7 @@
   </sheetPr>
   <dimension ref="A1:Z1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
     </sheetView>
@@ -20024,8 +20026,8 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD67"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -20531,7 +20533,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="63" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -21756,9 +21758,9 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202B0ED1-2DBE-4BD1-9BFD-886CB132193C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF484EFC-3B63-4826-90EE-DBD4C247E9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1110" windowWidth="24030" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="859">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2665,6 +2665,15 @@
   </si>
   <si>
     <t>HRU_ID of HRU associated with this reach; reaches are assigned to HRUs in FlowModel::AssignReachesToHRUs().  Every reach should be assigned to a single HRU.  See also HRU_FRAC.</t>
+  </si>
+  <si>
+    <t>TEMP_H2O</t>
+  </si>
+  <si>
+    <t>yes, but only for McKenzie</t>
+  </si>
+  <si>
+    <t>water temperature</t>
   </si>
 </sst>
 </file>
@@ -3331,21 +3340,21 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60:I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="24" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="24" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="24" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" style="24" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="45.5703125" style="24" customWidth="1"/>
-    <col min="12" max="21" width="6.42578125" style="24" customWidth="1"/>
-    <col min="22" max="26" width="12.5703125" style="24" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="24"/>
+    <col min="8" max="8" width="43.109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" style="24" customWidth="1"/>
+    <col min="12" max="21" width="6.44140625" style="24" customWidth="1"/>
+    <col min="22" max="26" width="12.5546875" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -5569,7 +5578,7 @@
       <c r="W63" s="30"/>
       <c r="X63" s="30"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="14.4">
       <c r="A64" s="22" t="s">
         <v>24</v>
       </c>
@@ -5599,7 +5608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="14.4">
       <c r="A65" s="22" t="s">
         <v>24</v>
       </c>
@@ -5615,7 +5624,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="14.4">
       <c r="A66" s="22" t="s">
         <v>24</v>
       </c>
@@ -5631,7 +5640,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="14.4">
       <c r="A67" s="22" t="s">
         <v>24</v>
       </c>
@@ -5647,7 +5656,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="14.4">
       <c r="A68" s="22" t="s">
         <v>24</v>
       </c>
@@ -5685,7 +5694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="14.4">
       <c r="A69" s="22" t="s">
         <v>24</v>
       </c>
@@ -5699,7 +5708,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="14.4">
       <c r="A70" s="22" t="s">
         <v>24</v>
       </c>
@@ -5711,7 +5720,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="14.4">
       <c r="A71" s="22" t="s">
         <v>24</v>
       </c>
@@ -5725,7 +5734,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="14.4">
       <c r="A72" s="22" t="s">
         <v>24</v>
       </c>
@@ -5746,7 +5755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="14.4">
       <c r="A73" s="22" t="s">
         <v>24</v>
       </c>
@@ -5776,7 +5785,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="14.4">
       <c r="A74" s="22" t="s">
         <v>24</v>
       </c>
@@ -5795,7 +5804,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="14.4">
       <c r="A75" s="22" t="s">
         <v>24</v>
       </c>
@@ -5814,7 +5823,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="14.4">
       <c r="A76" s="22" t="s">
         <v>24</v>
       </c>
@@ -5840,7 +5849,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="14.4">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="E77" s="24" t="s">
@@ -5865,7 +5874,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="14.4">
       <c r="A78" s="22" t="s">
         <v>24</v>
       </c>
@@ -5881,7 +5890,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="14.4">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="7" t="s">
@@ -5927,7 +5936,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="14.4">
       <c r="A80" s="22" t="s">
         <v>24</v>
       </c>
@@ -5948,7 +5957,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="14.4">
       <c r="A81" s="22" t="s">
         <v>24</v>
       </c>
@@ -5964,7 +5973,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="14.4">
       <c r="A82" s="22" t="s">
         <v>24</v>
       </c>
@@ -5980,7 +5989,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="14.4">
       <c r="A83" s="22" t="s">
         <v>24</v>
       </c>
@@ -6012,7 +6021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="14.4">
       <c r="A84" s="22" t="s">
         <v>24</v>
       </c>
@@ -6044,7 +6053,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="14.4">
       <c r="A85" s="22" t="s">
         <v>24</v>
       </c>
@@ -6058,7 +6067,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="14.4">
       <c r="A86" s="22" t="s">
         <v>24</v>
       </c>
@@ -6090,7 +6099,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="14.4">
       <c r="A87" s="22" t="s">
         <v>24</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="14.4">
       <c r="A88" s="22" t="s">
         <v>24</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="14.4">
       <c r="A89" s="22" t="s">
         <v>24</v>
       </c>
@@ -6186,7 +6195,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="14.4">
       <c r="A90" s="22" t="s">
         <v>24</v>
       </c>
@@ -6218,7 +6227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="14.4">
       <c r="A91" s="22" t="s">
         <v>24</v>
       </c>
@@ -6250,7 +6259,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="14.4">
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="59.25" customHeight="1">
@@ -6301,7 +6310,7 @@
       <c r="U93" s="30"/>
       <c r="V93" s="30"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="14.4">
       <c r="A94" s="33" t="s">
         <v>177</v>
       </c>
@@ -6337,7 +6346,7 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="14.4">
       <c r="A95" s="33" t="s">
         <v>177</v>
       </c>
@@ -6377,7 +6386,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="14.4">
       <c r="A96" s="33" t="s">
         <v>177</v>
       </c>
@@ -6487,7 +6496,7 @@
       <c r="U98" s="50"/>
       <c r="V98" s="50"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="14.4">
       <c r="A99" s="33" t="s">
         <v>177</v>
       </c>
@@ -6555,7 +6564,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="14.4">
       <c r="A101" s="33" t="s">
         <v>24</v>
       </c>
@@ -6569,2044 +6578,2044 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="14.4">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="14.4">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="14.4">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="14.4">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="14.4">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="14.4">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="14.4">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="14.4">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="14.4">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="14.4">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="14.4">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" ht="14.4">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" ht="14.4">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" ht="14.4">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" ht="14.4">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" ht="14.4">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" ht="14.4">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" ht="14.4">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" ht="14.4">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" ht="14.4">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" ht="14.4">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" ht="14.4">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" ht="14.4">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" ht="14.4">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" ht="14.4">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" ht="14.4">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" ht="14.4">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" ht="14.4">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" ht="14.4">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" ht="14.4">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" ht="14.4">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" ht="14.4">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" ht="14.4">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" ht="14.4">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" ht="14.4">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" ht="14.4">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" ht="14.4">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" ht="14.4">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" ht="14.4">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" ht="14.4">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" ht="14.4">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" ht="14.4">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" ht="14.4">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" ht="14.4">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" ht="14.4">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" ht="14.4">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" ht="14.4">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" ht="14.4">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" ht="14.4">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" ht="14.4">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" ht="14.4">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" ht="14.4">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" ht="14.4">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" ht="14.4">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" ht="14.4">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" ht="14.4">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" ht="14.4">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" ht="14.4">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" ht="14.4">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" ht="14.4">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" ht="14.4">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" ht="14.4">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" ht="14.4">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" ht="14.4">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" ht="14.4">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" ht="14.4">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" ht="14.4">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" ht="14.4">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" ht="14.4">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" ht="14.4">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" ht="14.4">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" ht="14.4">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" ht="14.4">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" ht="14.4">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" ht="14.4">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" ht="14.4">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" ht="14.4">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" ht="14.4">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" ht="14.4">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" ht="14.4">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" ht="14.4">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" ht="14.4">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" ht="14.4">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" ht="14.4">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" ht="14.4">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" ht="14.4">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" ht="14.4">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" ht="14.4">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" ht="14.4">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" ht="14.4">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" ht="14.4">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" ht="14.4">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" ht="14.4">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" ht="14.4">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" ht="14.4">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" ht="14.4">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" ht="14.4">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" ht="14.4">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" ht="14.4">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" ht="14.4">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" ht="14.4">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" ht="14.4">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" ht="14.4">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" ht="14.4">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:2" ht="14.4">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" ht="14.4">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" ht="14.4">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" ht="14.4">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" ht="14.4">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" ht="14.4">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" ht="14.4">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" ht="14.4">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" ht="14.4">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" ht="14.4">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:2" ht="14.4">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:2" ht="14.4">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:2" ht="14.4">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:2" ht="14.4">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:2" ht="14.4">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" ht="14.4">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" ht="14.4">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" ht="14.4">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" ht="14.4">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" ht="14.4">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" ht="14.4">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" ht="14.4">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" ht="14.4">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" ht="14.4">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" ht="14.4">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" ht="14.4">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" ht="14.4">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" ht="14.4">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" ht="14.4">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" ht="14.4">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" ht="14.4">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" ht="14.4">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" ht="14.4">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" ht="14.4">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" ht="14.4">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" ht="14.4">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" ht="14.4">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" ht="14.4">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" ht="14.4">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" ht="14.4">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" ht="14.4">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" ht="14.4">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" ht="14.4">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" ht="14.4">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" ht="14.4">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" ht="14.4">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" ht="14.4">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" ht="14.4">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" ht="14.4">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" ht="14.4">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" ht="14.4">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="2:2" ht="14.4">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="2:2" ht="14.4">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" ht="14.4">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" ht="14.4">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" ht="14.4">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" ht="14.4">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" ht="14.4">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" ht="14.4">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" ht="14.4">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" ht="14.4">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" ht="14.4">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" ht="14.4">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" ht="14.4">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" ht="14.4">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" ht="14.4">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" ht="14.4">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" ht="14.4">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" ht="14.4">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" ht="14.4">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" ht="14.4">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" ht="14.4">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" ht="14.4">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" ht="14.4">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" ht="14.4">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" ht="14.4">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" ht="14.4">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" ht="14.4">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" ht="14.4">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" ht="14.4">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" ht="14.4">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" ht="14.4">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" ht="14.4">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" ht="14.4">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" ht="14.4">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" ht="14.4">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" ht="14.4">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" ht="14.4">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" ht="14.4">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" ht="14.4">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" ht="14.4">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" ht="14.4">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" ht="14.4">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" ht="14.4">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" ht="14.4">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" ht="14.4">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" ht="14.4">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" ht="14.4">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" ht="14.4">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" ht="14.4">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" ht="14.4">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" ht="14.4">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" ht="14.4">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" ht="14.4">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" ht="14.4">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" ht="14.4">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" ht="14.4">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" ht="14.4">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" ht="14.4">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" ht="14.4">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" ht="14.4">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" ht="14.4">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" ht="14.4">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" ht="14.4">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" ht="14.4">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" ht="14.4">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" ht="14.4">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" ht="14.4">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" ht="14.4">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" ht="14.4">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" ht="14.4">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" ht="14.4">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" ht="14.4">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" ht="14.4">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" ht="14.4">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" ht="14.4">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" ht="14.4">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" ht="14.4">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" ht="14.4">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" ht="14.4">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" ht="14.4">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" ht="14.4">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" ht="14.4">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" ht="14.4">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" ht="14.4">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" ht="14.4">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" ht="14.4">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" ht="14.4">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" ht="14.4">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" ht="14.4">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" ht="14.4">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" ht="14.4">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" ht="14.4">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" ht="14.4">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" ht="14.4">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" ht="14.4">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" ht="14.4">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" ht="14.4">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" ht="14.4">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" ht="14.4">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" ht="14.4">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" ht="14.4">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" ht="14.4">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" ht="14.4">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" ht="14.4">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" ht="14.4">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" ht="14.4">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" ht="14.4">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" ht="14.4">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" ht="14.4">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" ht="14.4">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" ht="14.4">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" ht="14.4">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" ht="14.4">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" ht="14.4">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" ht="14.4">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" ht="14.4">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" ht="14.4">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" ht="14.4">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" ht="14.4">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" ht="14.4">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" ht="14.4">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" ht="14.4">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" ht="14.4">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" ht="14.4">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" ht="14.4">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" ht="14.4">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" ht="14.4">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" ht="14.4">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" ht="14.4">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" ht="14.4">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" ht="14.4">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" ht="14.4">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" ht="14.4">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" ht="14.4">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" ht="14.4">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" ht="14.4">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" ht="14.4">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" ht="14.4">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" ht="14.4">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" ht="14.4">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" ht="14.4">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" ht="14.4">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" ht="14.4">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" ht="14.4">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" ht="14.4">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" ht="14.4">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" ht="14.4">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" ht="14.4">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" ht="14.4">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" ht="14.4">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" ht="14.4">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" ht="14.4">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" ht="14.4">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" ht="14.4">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" ht="14.4">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" ht="14.4">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" ht="14.4">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" ht="14.4">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" ht="14.4">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" ht="14.4">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" ht="14.4">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" ht="14.4">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" ht="14.4">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" ht="14.4">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" ht="14.4">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" ht="14.4">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" ht="14.4">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" ht="14.4">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" ht="14.4">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" ht="14.4">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" ht="14.4">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" ht="14.4">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" ht="14.4">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" ht="14.4">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" ht="14.4">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" ht="14.4">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" ht="14.4">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" ht="14.4">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" ht="14.4">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" ht="14.4">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" ht="14.4">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" ht="14.4">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" ht="14.4">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" ht="14.4">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" ht="14.4">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" ht="14.4">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" ht="14.4">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" ht="14.4">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" ht="14.4">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" ht="14.4">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" ht="14.4">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" ht="14.4">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" ht="14.4">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" ht="14.4">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" ht="14.4">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" ht="14.4">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" ht="14.4">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" ht="14.4">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" ht="14.4">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" ht="14.4">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" ht="14.4">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" ht="14.4">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" ht="14.4">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" ht="14.4">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" ht="14.4">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" ht="14.4">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" ht="14.4">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" ht="14.4">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" ht="14.4">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" ht="14.4">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" ht="14.4">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" ht="14.4">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" ht="14.4">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" ht="14.4">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" ht="14.4">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" ht="14.4">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" ht="14.4">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" ht="14.4">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" ht="14.4">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" ht="14.4">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" ht="14.4">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" ht="14.4">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" ht="14.4">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" ht="14.4">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" ht="14.4">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" ht="14.4">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" ht="14.4">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" ht="14.4">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" ht="14.4">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" ht="14.4">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" ht="14.4">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" ht="14.4">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" ht="14.4">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" ht="14.4">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" ht="14.4">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" ht="14.4">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" ht="14.4">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" ht="14.4">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" ht="14.4">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" ht="14.4">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" ht="14.4">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" ht="14.4">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" ht="14.4">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" ht="14.4">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" ht="14.4">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" ht="14.4">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" ht="14.4">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" ht="14.4">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" ht="14.4">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" ht="14.4">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" ht="14.4">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" ht="14.4">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" ht="14.4">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" ht="14.4">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" ht="14.4">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" ht="14.4">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" ht="14.4">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" ht="14.4">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" ht="14.4">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" ht="14.4">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" ht="14.4">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" ht="14.4">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" ht="14.4">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2">
+    <row r="520" spans="2:2" ht="14.4">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2">
+    <row r="521" spans="2:2" ht="14.4">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2">
+    <row r="522" spans="2:2" ht="14.4">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2">
+    <row r="523" spans="2:2" ht="14.4">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2">
+    <row r="524" spans="2:2" ht="14.4">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2">
+    <row r="525" spans="2:2" ht="14.4">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2">
+    <row r="526" spans="2:2" ht="14.4">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2">
+    <row r="527" spans="2:2" ht="14.4">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2">
+    <row r="528" spans="2:2" ht="14.4">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2">
+    <row r="529" spans="2:2" ht="14.4">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:2" ht="14.4">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2">
+    <row r="531" spans="2:2" ht="14.4">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:2" ht="14.4">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2">
+    <row r="533" spans="2:2" ht="14.4">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:2" ht="14.4">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:2" ht="14.4">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:2" ht="14.4">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:2" ht="14.4">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:2" ht="14.4">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:2" ht="14.4">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:2" ht="14.4">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:2" ht="14.4">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:2" ht="14.4">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:2" ht="14.4">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:2" ht="14.4">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" ht="14.4">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" ht="14.4">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" ht="14.4">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" ht="14.4">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" ht="14.4">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" ht="14.4">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" ht="14.4">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" ht="14.4">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" ht="14.4">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" ht="14.4">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" ht="14.4">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" ht="14.4">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" ht="14.4">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" ht="14.4">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" ht="14.4">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" ht="14.4">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" ht="14.4">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" ht="14.4">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" ht="14.4">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" ht="14.4">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" ht="14.4">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" ht="14.4">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" ht="14.4">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" ht="14.4">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" ht="14.4">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" ht="14.4">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" ht="14.4">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" ht="14.4">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" ht="14.4">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" ht="14.4">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" ht="14.4">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" ht="14.4">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" ht="14.4">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" ht="14.4">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" ht="14.4">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" ht="14.4">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" ht="14.4">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" ht="14.4">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" ht="14.4">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" ht="14.4">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" ht="14.4">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" ht="14.4">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" ht="14.4">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" ht="14.4">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" ht="14.4">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" ht="14.4">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" ht="14.4">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" ht="14.4">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" ht="14.4">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" ht="14.4">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" ht="14.4">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" ht="14.4">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" ht="14.4">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" ht="14.4">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" ht="14.4">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" ht="14.4">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" ht="14.4">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" ht="14.4">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" ht="14.4">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" ht="14.4">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" ht="14.4">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" ht="14.4">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" ht="14.4">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" ht="14.4">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" ht="14.4">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" ht="14.4">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" ht="14.4">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" ht="14.4">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" ht="14.4">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" ht="14.4">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" ht="14.4">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" ht="14.4">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" ht="14.4">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" ht="14.4">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" ht="14.4">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" ht="14.4">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" ht="14.4">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" ht="14.4">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" ht="14.4">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" ht="14.4">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" ht="14.4">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" ht="14.4">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" ht="14.4">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" ht="14.4">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" ht="14.4">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" ht="14.4">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" ht="14.4">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" ht="14.4">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" ht="14.4">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" ht="14.4">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" ht="14.4">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" ht="14.4">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" ht="14.4">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" ht="14.4">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" ht="14.4">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" ht="14.4">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" ht="14.4">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" ht="14.4">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" ht="14.4">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" ht="14.4">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" ht="14.4">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" ht="14.4">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" ht="14.4">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" ht="14.4">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" ht="14.4">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" ht="14.4">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" ht="14.4">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" ht="14.4">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" ht="14.4">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" ht="14.4">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" ht="14.4">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" ht="14.4">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" ht="14.4">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" ht="14.4">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" ht="14.4">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" ht="14.4">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" ht="14.4">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" ht="14.4">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" ht="14.4">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" ht="14.4">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" ht="14.4">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" ht="14.4">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" ht="14.4">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" ht="14.4">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" ht="14.4">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" ht="14.4">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" ht="14.4">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" ht="14.4">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" ht="14.4">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" ht="14.4">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" ht="14.4">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" ht="14.4">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" ht="14.4">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" ht="14.4">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" ht="14.4">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" ht="14.4">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" ht="14.4">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" ht="14.4">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" ht="14.4">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" ht="14.4">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" ht="14.4">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" ht="14.4">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" ht="14.4">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" ht="14.4">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" ht="14.4">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" ht="14.4">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" ht="14.4">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" ht="14.4">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" ht="14.4">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" ht="14.4">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" ht="14.4">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" ht="14.4">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" ht="14.4">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" ht="14.4">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" ht="14.4">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" ht="14.4">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" ht="14.4">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" ht="14.4">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" ht="14.4">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" ht="14.4">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" ht="14.4">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" ht="14.4">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" ht="14.4">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" ht="14.4">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" ht="14.4">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" ht="14.4">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" ht="14.4">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" ht="14.4">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" ht="14.4">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" ht="14.4">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" ht="14.4">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" ht="14.4">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" ht="14.4">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" ht="14.4">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" ht="14.4">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" ht="14.4">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" ht="14.4">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" ht="14.4">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" ht="14.4">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" ht="14.4">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" ht="14.4">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" ht="14.4">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" ht="14.4">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" ht="14.4">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" ht="14.4">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" ht="14.4">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" ht="14.4">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" ht="14.4">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" ht="14.4">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" ht="14.4">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" ht="14.4">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" ht="14.4">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" ht="14.4">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" ht="14.4">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" ht="14.4">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" ht="14.4">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" ht="14.4">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" ht="14.4">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" ht="14.4">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" ht="14.4">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" ht="14.4">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" ht="14.4">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" ht="14.4">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" ht="14.4">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" ht="14.4">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" ht="14.4">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" ht="14.4">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" ht="14.4">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" ht="14.4">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" ht="14.4">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" ht="14.4">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" ht="14.4">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" ht="14.4">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" ht="14.4">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" ht="14.4">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" ht="14.4">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" ht="14.4">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" ht="14.4">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" ht="14.4">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" ht="14.4">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" ht="14.4">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" ht="14.4">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" ht="14.4">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" ht="14.4">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" ht="14.4">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" ht="14.4">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" ht="14.4">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" ht="14.4">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" ht="14.4">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" ht="14.4">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" ht="14.4">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" ht="14.4">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" ht="14.4">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" ht="14.4">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" ht="14.4">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" ht="14.4">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" ht="14.4">
       <c r="B781" s="7"/>
     </row>
   </sheetData>
@@ -8623,24 +8632,24 @@
   <dimension ref="A1:Z1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="45.5703125" customWidth="1"/>
-    <col min="12" max="21" width="6.42578125" customWidth="1"/>
-    <col min="22" max="26" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" customWidth="1"/>
+    <col min="12" max="21" width="6.44140625" customWidth="1"/>
+    <col min="22" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -10345,7 +10354,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" ht="14.4">
       <c r="A50" s="47" t="s">
         <v>235</v>
       </c>
@@ -10368,7 +10377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="14.4">
       <c r="A51" s="47" t="s">
         <v>235</v>
       </c>
@@ -10391,7 +10400,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" ht="14.4">
       <c r="A52" s="47" t="s">
         <v>235</v>
       </c>
@@ -10414,7 +10423,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" ht="14.4">
       <c r="A53" s="47" t="s">
         <v>235</v>
       </c>
@@ -10437,7 +10446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" ht="14.4">
       <c r="A54" s="47" t="s">
         <v>235</v>
       </c>
@@ -10667,7 +10676,7 @@
       <c r="T60" s="79"/>
       <c r="U60" s="79"/>
     </row>
-    <row r="61" spans="1:21" s="30" customFormat="1" ht="30">
+    <row r="61" spans="1:21" s="30" customFormat="1" ht="28.8">
       <c r="A61" s="93" t="s">
         <v>76</v>
       </c>
@@ -17676,7 +17685,7 @@
       <c r="T264" s="7"/>
       <c r="U264" s="7"/>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" ht="14.4">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -17699,2317 +17708,2317 @@
       <c r="T265" s="7"/>
       <c r="U265" s="7"/>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" ht="14.4">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" ht="14.4">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" ht="14.4">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" ht="14.4">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" ht="14.4">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" ht="14.4">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" ht="14.4">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" ht="14.4">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" ht="14.4">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" ht="14.4">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" ht="14.4">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" ht="14.4">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" ht="14.4">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" ht="14.4">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" ht="14.4">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" ht="14.4">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" ht="14.4">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" ht="14.4">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" ht="14.4">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" ht="14.4">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" ht="14.4">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" ht="14.4">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" ht="14.4">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" ht="14.4">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" ht="14.4">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" ht="14.4">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" ht="14.4">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" ht="14.4">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" ht="14.4">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" ht="14.4">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" ht="14.4">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" ht="14.4">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" ht="14.4">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" ht="14.4">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" ht="14.4">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" ht="14.4">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" ht="14.4">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" ht="14.4">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" ht="14.4">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" ht="14.4">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" ht="14.4">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" ht="14.4">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" ht="14.4">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" ht="14.4">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" ht="14.4">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" ht="14.4">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" ht="14.4">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" ht="14.4">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" ht="14.4">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" ht="14.4">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" ht="14.4">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" ht="14.4">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" ht="14.4">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" ht="14.4">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" ht="14.4">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" ht="14.4">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" ht="14.4">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" ht="14.4">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" ht="14.4">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" ht="14.4">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" ht="14.4">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" ht="14.4">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" ht="14.4">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" ht="14.4">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" ht="14.4">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" ht="14.4">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" ht="14.4">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" ht="14.4">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" ht="14.4">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" ht="14.4">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" ht="14.4">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" ht="14.4">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" ht="14.4">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" ht="14.4">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" ht="14.4">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" ht="14.4">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" ht="14.4">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" ht="14.4">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" ht="14.4">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" ht="14.4">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" ht="14.4">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" ht="14.4">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" ht="14.4">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" ht="14.4">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" ht="14.4">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" ht="14.4">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" ht="14.4">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" ht="14.4">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" ht="14.4">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" ht="14.4">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" ht="14.4">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" ht="14.4">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" ht="14.4">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" ht="14.4">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" ht="14.4">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" ht="14.4">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" ht="14.4">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" ht="14.4">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" ht="14.4">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" ht="14.4">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" ht="14.4">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" ht="14.4">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" ht="14.4">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" ht="14.4">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" ht="14.4">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" ht="14.4">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" ht="14.4">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" ht="14.4">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" ht="14.4">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" ht="14.4">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" ht="14.4">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" ht="14.4">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" ht="14.4">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" ht="14.4">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" ht="14.4">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" ht="14.4">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" ht="14.4">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" ht="14.4">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" ht="14.4">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" ht="14.4">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" ht="14.4">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" ht="14.4">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" ht="14.4">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" ht="14.4">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" ht="14.4">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" ht="14.4">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" ht="14.4">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" ht="14.4">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" ht="14.4">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" ht="14.4">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" ht="14.4">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" ht="14.4">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" ht="14.4">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" ht="14.4">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" ht="14.4">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" ht="14.4">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" ht="14.4">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" ht="14.4">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" ht="14.4">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" ht="14.4">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" ht="14.4">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" ht="14.4">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" ht="14.4">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" ht="14.4">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" ht="14.4">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" ht="14.4">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" ht="14.4">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" ht="14.4">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" ht="14.4">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" ht="14.4">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" ht="14.4">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" ht="14.4">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" ht="14.4">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" ht="14.4">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" ht="14.4">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" ht="14.4">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" ht="14.4">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" ht="14.4">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" ht="14.4">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" ht="14.4">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" ht="14.4">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" ht="14.4">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" ht="14.4">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" ht="14.4">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" ht="14.4">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" ht="14.4">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" ht="14.4">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" ht="14.4">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" ht="14.4">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" ht="14.4">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" ht="14.4">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" ht="14.4">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" ht="14.4">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" ht="14.4">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" ht="14.4">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" ht="14.4">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" ht="14.4">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" ht="14.4">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" ht="14.4">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" ht="14.4">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" ht="14.4">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" ht="14.4">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" ht="14.4">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" ht="14.4">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" ht="14.4">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" ht="14.4">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" ht="14.4">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" ht="14.4">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" ht="14.4">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" ht="14.4">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" ht="14.4">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" ht="14.4">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" ht="14.4">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" ht="14.4">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" ht="14.4">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" ht="14.4">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" ht="14.4">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" ht="14.4">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" ht="14.4">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" ht="14.4">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" ht="14.4">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" ht="14.4">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" ht="14.4">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" ht="14.4">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" ht="14.4">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" ht="14.4">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" ht="14.4">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" ht="14.4">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" ht="14.4">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" ht="14.4">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" ht="14.4">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" ht="14.4">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" ht="14.4">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" ht="14.4">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" ht="14.4">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" ht="14.4">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" ht="14.4">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" ht="14.4">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" ht="14.4">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" ht="14.4">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" ht="14.4">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" ht="14.4">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" ht="14.4">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" ht="14.4">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" ht="14.4">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" ht="14.4">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" ht="14.4">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" ht="14.4">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" ht="14.4">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" ht="14.4">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" ht="14.4">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" ht="14.4">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" ht="14.4">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" ht="14.4">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" ht="14.4">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" ht="14.4">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" ht="14.4">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" ht="14.4">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" ht="14.4">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" ht="14.4">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" ht="14.4">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" ht="14.4">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" ht="14.4">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" ht="14.4">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" ht="14.4">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" ht="14.4">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" ht="14.4">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" ht="14.4">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" ht="14.4">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" ht="14.4">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" ht="14.4">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" ht="14.4">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" ht="14.4">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" ht="14.4">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2">
+    <row r="520" spans="2:2" ht="14.4">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2">
+    <row r="521" spans="2:2" ht="14.4">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2">
+    <row r="522" spans="2:2" ht="14.4">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2">
+    <row r="523" spans="2:2" ht="14.4">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2">
+    <row r="524" spans="2:2" ht="14.4">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2">
+    <row r="525" spans="2:2" ht="14.4">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2">
+    <row r="526" spans="2:2" ht="14.4">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2">
+    <row r="527" spans="2:2" ht="14.4">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2">
+    <row r="528" spans="2:2" ht="14.4">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2">
+    <row r="529" spans="2:2" ht="14.4">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:2" ht="14.4">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2">
+    <row r="531" spans="2:2" ht="14.4">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:2" ht="14.4">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2">
+    <row r="533" spans="2:2" ht="14.4">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:2" ht="14.4">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:2" ht="14.4">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:2" ht="14.4">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:2" ht="14.4">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:2" ht="14.4">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:2" ht="14.4">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:2" ht="14.4">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:2" ht="14.4">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:2" ht="14.4">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:2" ht="14.4">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:2" ht="14.4">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" ht="14.4">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" ht="14.4">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" ht="14.4">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" ht="14.4">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" ht="14.4">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" ht="14.4">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" ht="14.4">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" ht="14.4">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" ht="14.4">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" ht="14.4">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" ht="14.4">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" ht="14.4">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" ht="14.4">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" ht="14.4">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" ht="14.4">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" ht="14.4">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" ht="14.4">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" ht="14.4">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" ht="14.4">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" ht="14.4">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" ht="14.4">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" ht="14.4">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" ht="14.4">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" ht="14.4">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" ht="14.4">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" ht="14.4">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" ht="14.4">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" ht="14.4">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" ht="14.4">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" ht="14.4">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" ht="14.4">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" ht="14.4">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" ht="14.4">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" ht="14.4">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" ht="14.4">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" ht="14.4">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" ht="14.4">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" ht="14.4">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" ht="14.4">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" ht="14.4">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" ht="14.4">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" ht="14.4">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" ht="14.4">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" ht="14.4">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" ht="14.4">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" ht="14.4">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" ht="14.4">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" ht="14.4">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" ht="14.4">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" ht="14.4">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" ht="14.4">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" ht="14.4">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" ht="14.4">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" ht="14.4">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" ht="14.4">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" ht="14.4">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" ht="14.4">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" ht="14.4">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" ht="14.4">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" ht="14.4">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" ht="14.4">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" ht="14.4">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" ht="14.4">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" ht="14.4">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" ht="14.4">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" ht="14.4">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" ht="14.4">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" ht="14.4">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" ht="14.4">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" ht="14.4">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" ht="14.4">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" ht="14.4">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" ht="14.4">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" ht="14.4">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" ht="14.4">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" ht="14.4">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" ht="14.4">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" ht="14.4">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" ht="14.4">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" ht="14.4">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" ht="14.4">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" ht="14.4">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" ht="14.4">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" ht="14.4">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" ht="14.4">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" ht="14.4">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" ht="14.4">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" ht="14.4">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" ht="14.4">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" ht="14.4">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" ht="14.4">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" ht="14.4">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" ht="14.4">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" ht="14.4">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" ht="14.4">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" ht="14.4">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" ht="14.4">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" ht="14.4">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" ht="14.4">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" ht="14.4">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" ht="14.4">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" ht="14.4">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" ht="14.4">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" ht="14.4">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" ht="14.4">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" ht="14.4">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" ht="14.4">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" ht="14.4">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" ht="14.4">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" ht="14.4">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" ht="14.4">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" ht="14.4">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" ht="14.4">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" ht="14.4">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" ht="14.4">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" ht="14.4">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" ht="14.4">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" ht="14.4">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" ht="14.4">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" ht="14.4">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" ht="14.4">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" ht="14.4">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" ht="14.4">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" ht="14.4">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" ht="14.4">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" ht="14.4">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" ht="14.4">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" ht="14.4">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" ht="14.4">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" ht="14.4">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" ht="14.4">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" ht="14.4">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" ht="14.4">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" ht="14.4">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" ht="14.4">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" ht="14.4">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" ht="14.4">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" ht="14.4">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" ht="14.4">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" ht="14.4">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" ht="14.4">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" ht="14.4">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" ht="14.4">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" ht="14.4">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" ht="14.4">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" ht="14.4">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" ht="14.4">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" ht="14.4">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" ht="14.4">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" ht="14.4">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" ht="14.4">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" ht="14.4">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" ht="14.4">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" ht="14.4">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" ht="14.4">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" ht="14.4">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" ht="14.4">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" ht="14.4">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" ht="14.4">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" ht="14.4">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" ht="14.4">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" ht="14.4">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" ht="14.4">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" ht="14.4">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" ht="14.4">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" ht="14.4">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" ht="14.4">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" ht="14.4">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" ht="14.4">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" ht="14.4">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" ht="14.4">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" ht="14.4">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" ht="14.4">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" ht="14.4">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" ht="14.4">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" ht="14.4">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" ht="14.4">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" ht="14.4">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" ht="14.4">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" ht="14.4">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" ht="14.4">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" ht="14.4">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" ht="14.4">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" ht="14.4">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" ht="14.4">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" ht="14.4">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" ht="14.4">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" ht="14.4">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" ht="14.4">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" ht="14.4">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" ht="14.4">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" ht="14.4">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" ht="14.4">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" ht="14.4">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" ht="14.4">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" ht="14.4">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" ht="14.4">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" ht="14.4">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" ht="14.4">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" ht="14.4">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" ht="14.4">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" ht="14.4">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" ht="14.4">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" ht="14.4">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" ht="14.4">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" ht="14.4">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" ht="14.4">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" ht="14.4">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" ht="14.4">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" ht="14.4">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" ht="14.4">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" ht="14.4">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" ht="14.4">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" ht="14.4">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" ht="14.4">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" ht="14.4">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" ht="14.4">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" ht="14.4">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" ht="14.4">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" ht="14.4">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" ht="14.4">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" ht="14.4">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" ht="14.4">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" ht="14.4">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" ht="14.4">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" ht="14.4">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" ht="14.4">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" ht="14.4">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" ht="14.4">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" ht="14.4">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" ht="14.4">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" ht="14.4">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" ht="14.4">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" ht="14.4">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" ht="14.4">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" ht="14.4">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" ht="14.4">
       <c r="B781" s="7"/>
     </row>
-    <row r="782" spans="2:2">
+    <row r="782" spans="2:2" ht="14.4">
       <c r="B782" s="7"/>
     </row>
-    <row r="783" spans="2:2">
+    <row r="783" spans="2:2" ht="14.4">
       <c r="B783" s="7"/>
     </row>
-    <row r="784" spans="2:2">
+    <row r="784" spans="2:2" ht="14.4">
       <c r="B784" s="7"/>
     </row>
-    <row r="785" spans="2:2">
+    <row r="785" spans="2:2" ht="14.4">
       <c r="B785" s="7"/>
     </row>
-    <row r="786" spans="2:2">
+    <row r="786" spans="2:2" ht="14.4">
       <c r="B786" s="7"/>
     </row>
-    <row r="787" spans="2:2">
+    <row r="787" spans="2:2" ht="14.4">
       <c r="B787" s="7"/>
     </row>
-    <row r="788" spans="2:2">
+    <row r="788" spans="2:2" ht="14.4">
       <c r="B788" s="7"/>
     </row>
-    <row r="789" spans="2:2">
+    <row r="789" spans="2:2" ht="14.4">
       <c r="B789" s="7"/>
     </row>
-    <row r="790" spans="2:2">
+    <row r="790" spans="2:2" ht="14.4">
       <c r="B790" s="7"/>
     </row>
-    <row r="791" spans="2:2">
+    <row r="791" spans="2:2" ht="14.4">
       <c r="B791" s="7"/>
     </row>
-    <row r="792" spans="2:2">
+    <row r="792" spans="2:2" ht="14.4">
       <c r="B792" s="7"/>
     </row>
-    <row r="793" spans="2:2">
+    <row r="793" spans="2:2" ht="14.4">
       <c r="B793" s="7"/>
     </row>
-    <row r="794" spans="2:2">
+    <row r="794" spans="2:2" ht="14.4">
       <c r="B794" s="7"/>
     </row>
-    <row r="795" spans="2:2">
+    <row r="795" spans="2:2" ht="14.4">
       <c r="B795" s="7"/>
     </row>
-    <row r="796" spans="2:2">
+    <row r="796" spans="2:2" ht="14.4">
       <c r="B796" s="7"/>
     </row>
-    <row r="797" spans="2:2">
+    <row r="797" spans="2:2" ht="14.4">
       <c r="B797" s="7"/>
     </row>
-    <row r="798" spans="2:2">
+    <row r="798" spans="2:2" ht="14.4">
       <c r="B798" s="7"/>
     </row>
-    <row r="799" spans="2:2">
+    <row r="799" spans="2:2" ht="14.4">
       <c r="B799" s="7"/>
     </row>
-    <row r="800" spans="2:2">
+    <row r="800" spans="2:2" ht="14.4">
       <c r="B800" s="7"/>
     </row>
-    <row r="801" spans="2:2">
+    <row r="801" spans="2:2" ht="14.4">
       <c r="B801" s="7"/>
     </row>
-    <row r="802" spans="2:2">
+    <row r="802" spans="2:2" ht="14.4">
       <c r="B802" s="7"/>
     </row>
-    <row r="803" spans="2:2">
+    <row r="803" spans="2:2" ht="14.4">
       <c r="B803" s="7"/>
     </row>
-    <row r="804" spans="2:2">
+    <row r="804" spans="2:2" ht="14.4">
       <c r="B804" s="7"/>
     </row>
-    <row r="805" spans="2:2">
+    <row r="805" spans="2:2" ht="14.4">
       <c r="B805" s="7"/>
     </row>
-    <row r="806" spans="2:2">
+    <row r="806" spans="2:2" ht="14.4">
       <c r="B806" s="7"/>
     </row>
-    <row r="807" spans="2:2">
+    <row r="807" spans="2:2" ht="14.4">
       <c r="B807" s="7"/>
     </row>
-    <row r="808" spans="2:2">
+    <row r="808" spans="2:2" ht="14.4">
       <c r="B808" s="7"/>
     </row>
-    <row r="809" spans="2:2">
+    <row r="809" spans="2:2" ht="14.4">
       <c r="B809" s="7"/>
     </row>
-    <row r="810" spans="2:2">
+    <row r="810" spans="2:2" ht="14.4">
       <c r="B810" s="7"/>
     </row>
-    <row r="811" spans="2:2">
+    <row r="811" spans="2:2" ht="14.4">
       <c r="B811" s="7"/>
     </row>
-    <row r="812" spans="2:2">
+    <row r="812" spans="2:2" ht="14.4">
       <c r="B812" s="7"/>
     </row>
-    <row r="813" spans="2:2">
+    <row r="813" spans="2:2" ht="14.4">
       <c r="B813" s="7"/>
     </row>
-    <row r="814" spans="2:2">
+    <row r="814" spans="2:2" ht="14.4">
       <c r="B814" s="7"/>
     </row>
-    <row r="815" spans="2:2">
+    <row r="815" spans="2:2" ht="14.4">
       <c r="B815" s="7"/>
     </row>
-    <row r="816" spans="2:2">
+    <row r="816" spans="2:2" ht="14.4">
       <c r="B816" s="7"/>
     </row>
-    <row r="817" spans="2:2">
+    <row r="817" spans="2:2" ht="14.4">
       <c r="B817" s="7"/>
     </row>
-    <row r="818" spans="2:2">
+    <row r="818" spans="2:2" ht="14.4">
       <c r="B818" s="7"/>
     </row>
-    <row r="819" spans="2:2">
+    <row r="819" spans="2:2" ht="14.4">
       <c r="B819" s="7"/>
     </row>
-    <row r="820" spans="2:2">
+    <row r="820" spans="2:2" ht="14.4">
       <c r="B820" s="7"/>
     </row>
-    <row r="821" spans="2:2">
+    <row r="821" spans="2:2" ht="14.4">
       <c r="B821" s="7"/>
     </row>
-    <row r="822" spans="2:2">
+    <row r="822" spans="2:2" ht="14.4">
       <c r="B822" s="7"/>
     </row>
-    <row r="823" spans="2:2">
+    <row r="823" spans="2:2" ht="14.4">
       <c r="B823" s="7"/>
     </row>
-    <row r="824" spans="2:2">
+    <row r="824" spans="2:2" ht="14.4">
       <c r="B824" s="7"/>
     </row>
-    <row r="825" spans="2:2">
+    <row r="825" spans="2:2" ht="14.4">
       <c r="B825" s="7"/>
     </row>
-    <row r="826" spans="2:2">
+    <row r="826" spans="2:2" ht="14.4">
       <c r="B826" s="7"/>
     </row>
-    <row r="827" spans="2:2">
+    <row r="827" spans="2:2" ht="14.4">
       <c r="B827" s="7"/>
     </row>
-    <row r="828" spans="2:2">
+    <row r="828" spans="2:2" ht="14.4">
       <c r="B828" s="7"/>
     </row>
-    <row r="829" spans="2:2">
+    <row r="829" spans="2:2" ht="14.4">
       <c r="B829" s="7"/>
     </row>
-    <row r="830" spans="2:2">
+    <row r="830" spans="2:2" ht="14.4">
       <c r="B830" s="7"/>
     </row>
-    <row r="831" spans="2:2">
+    <row r="831" spans="2:2" ht="14.4">
       <c r="B831" s="7"/>
     </row>
-    <row r="832" spans="2:2">
+    <row r="832" spans="2:2" ht="14.4">
       <c r="B832" s="7"/>
     </row>
-    <row r="833" spans="2:2">
+    <row r="833" spans="2:2" ht="14.4">
       <c r="B833" s="7"/>
     </row>
-    <row r="834" spans="2:2">
+    <row r="834" spans="2:2" ht="14.4">
       <c r="B834" s="7"/>
     </row>
-    <row r="835" spans="2:2">
+    <row r="835" spans="2:2" ht="14.4">
       <c r="B835" s="7"/>
     </row>
-    <row r="836" spans="2:2">
+    <row r="836" spans="2:2" ht="14.4">
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="2:2">
+    <row r="837" spans="2:2" ht="14.4">
       <c r="B837" s="7"/>
     </row>
-    <row r="838" spans="2:2">
+    <row r="838" spans="2:2" ht="14.4">
       <c r="B838" s="7"/>
     </row>
-    <row r="839" spans="2:2">
+    <row r="839" spans="2:2" ht="14.4">
       <c r="B839" s="7"/>
     </row>
-    <row r="840" spans="2:2">
+    <row r="840" spans="2:2" ht="14.4">
       <c r="B840" s="7"/>
     </row>
-    <row r="841" spans="2:2">
+    <row r="841" spans="2:2" ht="14.4">
       <c r="B841" s="7"/>
     </row>
-    <row r="842" spans="2:2">
+    <row r="842" spans="2:2" ht="14.4">
       <c r="B842" s="7"/>
     </row>
-    <row r="843" spans="2:2">
+    <row r="843" spans="2:2" ht="14.4">
       <c r="B843" s="7"/>
     </row>
-    <row r="844" spans="2:2">
+    <row r="844" spans="2:2" ht="14.4">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="2:2">
+    <row r="845" spans="2:2" ht="14.4">
       <c r="B845" s="7"/>
     </row>
-    <row r="846" spans="2:2">
+    <row r="846" spans="2:2" ht="14.4">
       <c r="B846" s="7"/>
     </row>
-    <row r="847" spans="2:2">
+    <row r="847" spans="2:2" ht="14.4">
       <c r="B847" s="7"/>
     </row>
-    <row r="848" spans="2:2">
+    <row r="848" spans="2:2" ht="14.4">
       <c r="B848" s="7"/>
     </row>
-    <row r="849" spans="2:2">
+    <row r="849" spans="2:2" ht="14.4">
       <c r="B849" s="7"/>
     </row>
-    <row r="850" spans="2:2">
+    <row r="850" spans="2:2" ht="14.4">
       <c r="B850" s="7"/>
     </row>
-    <row r="851" spans="2:2">
+    <row r="851" spans="2:2" ht="14.4">
       <c r="B851" s="7"/>
     </row>
-    <row r="852" spans="2:2">
+    <row r="852" spans="2:2" ht="14.4">
       <c r="B852" s="7"/>
     </row>
-    <row r="853" spans="2:2">
+    <row r="853" spans="2:2" ht="14.4">
       <c r="B853" s="7"/>
     </row>
-    <row r="854" spans="2:2">
+    <row r="854" spans="2:2" ht="14.4">
       <c r="B854" s="7"/>
     </row>
-    <row r="855" spans="2:2">
+    <row r="855" spans="2:2" ht="14.4">
       <c r="B855" s="7"/>
     </row>
-    <row r="856" spans="2:2">
+    <row r="856" spans="2:2" ht="14.4">
       <c r="B856" s="7"/>
     </row>
-    <row r="857" spans="2:2">
+    <row r="857" spans="2:2" ht="14.4">
       <c r="B857" s="7"/>
     </row>
-    <row r="858" spans="2:2">
+    <row r="858" spans="2:2" ht="14.4">
       <c r="B858" s="7"/>
     </row>
-    <row r="859" spans="2:2">
+    <row r="859" spans="2:2" ht="14.4">
       <c r="B859" s="7"/>
     </row>
-    <row r="860" spans="2:2">
+    <row r="860" spans="2:2" ht="14.4">
       <c r="B860" s="7"/>
     </row>
-    <row r="861" spans="2:2">
+    <row r="861" spans="2:2" ht="14.4">
       <c r="B861" s="7"/>
     </row>
-    <row r="862" spans="2:2">
+    <row r="862" spans="2:2" ht="14.4">
       <c r="B862" s="7"/>
     </row>
-    <row r="863" spans="2:2">
+    <row r="863" spans="2:2" ht="14.4">
       <c r="B863" s="7"/>
     </row>
-    <row r="864" spans="2:2">
+    <row r="864" spans="2:2" ht="14.4">
       <c r="B864" s="7"/>
     </row>
-    <row r="865" spans="2:2">
+    <row r="865" spans="2:2" ht="14.4">
       <c r="B865" s="7"/>
     </row>
-    <row r="866" spans="2:2">
+    <row r="866" spans="2:2" ht="14.4">
       <c r="B866" s="7"/>
     </row>
-    <row r="867" spans="2:2">
+    <row r="867" spans="2:2" ht="14.4">
       <c r="B867" s="7"/>
     </row>
-    <row r="868" spans="2:2">
+    <row r="868" spans="2:2" ht="14.4">
       <c r="B868" s="7"/>
     </row>
-    <row r="869" spans="2:2">
+    <row r="869" spans="2:2" ht="14.4">
       <c r="B869" s="7"/>
     </row>
-    <row r="870" spans="2:2">
+    <row r="870" spans="2:2" ht="14.4">
       <c r="B870" s="7"/>
     </row>
-    <row r="871" spans="2:2">
+    <row r="871" spans="2:2" ht="14.4">
       <c r="B871" s="7"/>
     </row>
-    <row r="872" spans="2:2">
+    <row r="872" spans="2:2" ht="14.4">
       <c r="B872" s="7"/>
     </row>
-    <row r="873" spans="2:2">
+    <row r="873" spans="2:2" ht="14.4">
       <c r="B873" s="7"/>
     </row>
-    <row r="874" spans="2:2">
+    <row r="874" spans="2:2" ht="14.4">
       <c r="B874" s="7"/>
     </row>
-    <row r="875" spans="2:2">
+    <row r="875" spans="2:2" ht="14.4">
       <c r="B875" s="7"/>
     </row>
-    <row r="876" spans="2:2">
+    <row r="876" spans="2:2" ht="14.4">
       <c r="B876" s="7"/>
     </row>
-    <row r="877" spans="2:2">
+    <row r="877" spans="2:2" ht="14.4">
       <c r="B877" s="7"/>
     </row>
-    <row r="878" spans="2:2">
+    <row r="878" spans="2:2" ht="14.4">
       <c r="B878" s="7"/>
     </row>
-    <row r="879" spans="2:2">
+    <row r="879" spans="2:2" ht="14.4">
       <c r="B879" s="7"/>
     </row>
-    <row r="880" spans="2:2">
+    <row r="880" spans="2:2" ht="14.4">
       <c r="B880" s="7"/>
     </row>
-    <row r="881" spans="2:2">
+    <row r="881" spans="2:2" ht="14.4">
       <c r="B881" s="7"/>
     </row>
-    <row r="882" spans="2:2">
+    <row r="882" spans="2:2" ht="14.4">
       <c r="B882" s="7"/>
     </row>
-    <row r="883" spans="2:2">
+    <row r="883" spans="2:2" ht="14.4">
       <c r="B883" s="7"/>
     </row>
-    <row r="884" spans="2:2">
+    <row r="884" spans="2:2" ht="14.4">
       <c r="B884" s="7"/>
     </row>
-    <row r="885" spans="2:2">
+    <row r="885" spans="2:2" ht="14.4">
       <c r="B885" s="7"/>
     </row>
-    <row r="886" spans="2:2">
+    <row r="886" spans="2:2" ht="14.4">
       <c r="B886" s="7"/>
     </row>
-    <row r="887" spans="2:2">
+    <row r="887" spans="2:2" ht="14.4">
       <c r="B887" s="7"/>
     </row>
-    <row r="888" spans="2:2">
+    <row r="888" spans="2:2" ht="14.4">
       <c r="B888" s="7"/>
     </row>
-    <row r="889" spans="2:2">
+    <row r="889" spans="2:2" ht="14.4">
       <c r="B889" s="7"/>
     </row>
-    <row r="890" spans="2:2">
+    <row r="890" spans="2:2" ht="14.4">
       <c r="B890" s="7"/>
     </row>
-    <row r="891" spans="2:2">
+    <row r="891" spans="2:2" ht="14.4">
       <c r="B891" s="7"/>
     </row>
-    <row r="892" spans="2:2">
+    <row r="892" spans="2:2" ht="14.4">
       <c r="B892" s="7"/>
     </row>
-    <row r="893" spans="2:2">
+    <row r="893" spans="2:2" ht="14.4">
       <c r="B893" s="7"/>
     </row>
-    <row r="894" spans="2:2">
+    <row r="894" spans="2:2" ht="14.4">
       <c r="B894" s="7"/>
     </row>
-    <row r="895" spans="2:2">
+    <row r="895" spans="2:2" ht="14.4">
       <c r="B895" s="7"/>
     </row>
-    <row r="896" spans="2:2">
+    <row r="896" spans="2:2" ht="14.4">
       <c r="B896" s="7"/>
     </row>
-    <row r="897" spans="2:2">
+    <row r="897" spans="2:2" ht="14.4">
       <c r="B897" s="7"/>
     </row>
-    <row r="898" spans="2:2">
+    <row r="898" spans="2:2" ht="14.4">
       <c r="B898" s="7"/>
     </row>
-    <row r="899" spans="2:2">
+    <row r="899" spans="2:2" ht="14.4">
       <c r="B899" s="7"/>
     </row>
-    <row r="900" spans="2:2">
+    <row r="900" spans="2:2" ht="14.4">
       <c r="B900" s="7"/>
     </row>
-    <row r="901" spans="2:2">
+    <row r="901" spans="2:2" ht="14.4">
       <c r="B901" s="7"/>
     </row>
-    <row r="902" spans="2:2">
+    <row r="902" spans="2:2" ht="14.4">
       <c r="B902" s="7"/>
     </row>
-    <row r="903" spans="2:2">
+    <row r="903" spans="2:2" ht="14.4">
       <c r="B903" s="7"/>
     </row>
-    <row r="904" spans="2:2">
+    <row r="904" spans="2:2" ht="14.4">
       <c r="B904" s="7"/>
     </row>
-    <row r="905" spans="2:2">
+    <row r="905" spans="2:2" ht="14.4">
       <c r="B905" s="7"/>
     </row>
-    <row r="906" spans="2:2">
+    <row r="906" spans="2:2" ht="14.4">
       <c r="B906" s="7"/>
     </row>
-    <row r="907" spans="2:2">
+    <row r="907" spans="2:2" ht="14.4">
       <c r="B907" s="7"/>
     </row>
-    <row r="908" spans="2:2">
+    <row r="908" spans="2:2" ht="14.4">
       <c r="B908" s="7"/>
     </row>
-    <row r="909" spans="2:2">
+    <row r="909" spans="2:2" ht="14.4">
       <c r="B909" s="7"/>
     </row>
-    <row r="910" spans="2:2">
+    <row r="910" spans="2:2" ht="14.4">
       <c r="B910" s="7"/>
     </row>
-    <row r="911" spans="2:2">
+    <row r="911" spans="2:2" ht="14.4">
       <c r="B911" s="7"/>
     </row>
-    <row r="912" spans="2:2">
+    <row r="912" spans="2:2" ht="14.4">
       <c r="B912" s="7"/>
     </row>
-    <row r="913" spans="2:2">
+    <row r="913" spans="2:2" ht="14.4">
       <c r="B913" s="7"/>
     </row>
-    <row r="914" spans="2:2">
+    <row r="914" spans="2:2" ht="14.4">
       <c r="B914" s="7"/>
     </row>
-    <row r="915" spans="2:2">
+    <row r="915" spans="2:2" ht="14.4">
       <c r="B915" s="7"/>
     </row>
-    <row r="916" spans="2:2">
+    <row r="916" spans="2:2" ht="14.4">
       <c r="B916" s="7"/>
     </row>
-    <row r="917" spans="2:2">
+    <row r="917" spans="2:2" ht="14.4">
       <c r="B917" s="7"/>
     </row>
-    <row r="918" spans="2:2">
+    <row r="918" spans="2:2" ht="14.4">
       <c r="B918" s="7"/>
     </row>
-    <row r="919" spans="2:2">
+    <row r="919" spans="2:2" ht="14.4">
       <c r="B919" s="7"/>
     </row>
-    <row r="920" spans="2:2">
+    <row r="920" spans="2:2" ht="14.4">
       <c r="B920" s="7"/>
     </row>
-    <row r="921" spans="2:2">
+    <row r="921" spans="2:2" ht="14.4">
       <c r="B921" s="7"/>
     </row>
-    <row r="922" spans="2:2">
+    <row r="922" spans="2:2" ht="14.4">
       <c r="B922" s="7"/>
     </row>
-    <row r="923" spans="2:2">
+    <row r="923" spans="2:2" ht="14.4">
       <c r="B923" s="7"/>
     </row>
-    <row r="924" spans="2:2">
+    <row r="924" spans="2:2" ht="14.4">
       <c r="B924" s="7"/>
     </row>
-    <row r="925" spans="2:2">
+    <row r="925" spans="2:2" ht="14.4">
       <c r="B925" s="7"/>
     </row>
-    <row r="926" spans="2:2">
+    <row r="926" spans="2:2" ht="14.4">
       <c r="B926" s="7"/>
     </row>
-    <row r="927" spans="2:2">
+    <row r="927" spans="2:2" ht="14.4">
       <c r="B927" s="7"/>
     </row>
-    <row r="928" spans="2:2">
+    <row r="928" spans="2:2" ht="14.4">
       <c r="B928" s="7"/>
     </row>
-    <row r="929" spans="2:2">
+    <row r="929" spans="2:2" ht="14.4">
       <c r="B929" s="7"/>
     </row>
-    <row r="930" spans="2:2">
+    <row r="930" spans="2:2" ht="14.4">
       <c r="B930" s="7"/>
     </row>
-    <row r="931" spans="2:2">
+    <row r="931" spans="2:2" ht="14.4">
       <c r="B931" s="7"/>
     </row>
-    <row r="932" spans="2:2">
+    <row r="932" spans="2:2" ht="14.4">
       <c r="B932" s="7"/>
     </row>
-    <row r="933" spans="2:2">
+    <row r="933" spans="2:2" ht="14.4">
       <c r="B933" s="7"/>
     </row>
-    <row r="934" spans="2:2">
+    <row r="934" spans="2:2" ht="14.4">
       <c r="B934" s="7"/>
     </row>
-    <row r="935" spans="2:2">
+    <row r="935" spans="2:2" ht="14.4">
       <c r="B935" s="7"/>
     </row>
-    <row r="936" spans="2:2">
+    <row r="936" spans="2:2" ht="14.4">
       <c r="B936" s="7"/>
     </row>
-    <row r="937" spans="2:2">
+    <row r="937" spans="2:2" ht="14.4">
       <c r="B937" s="7"/>
     </row>
-    <row r="938" spans="2:2">
+    <row r="938" spans="2:2" ht="14.4">
       <c r="B938" s="7"/>
     </row>
-    <row r="939" spans="2:2">
+    <row r="939" spans="2:2" ht="14.4">
       <c r="B939" s="7"/>
     </row>
-    <row r="940" spans="2:2">
+    <row r="940" spans="2:2" ht="14.4">
       <c r="B940" s="7"/>
     </row>
-    <row r="941" spans="2:2">
+    <row r="941" spans="2:2" ht="14.4">
       <c r="B941" s="7"/>
     </row>
-    <row r="942" spans="2:2">
+    <row r="942" spans="2:2" ht="14.4">
       <c r="B942" s="7"/>
     </row>
-    <row r="943" spans="2:2">
+    <row r="943" spans="2:2" ht="14.4">
       <c r="B943" s="7"/>
     </row>
-    <row r="944" spans="2:2">
+    <row r="944" spans="2:2" ht="14.4">
       <c r="B944" s="7"/>
     </row>
-    <row r="945" spans="2:2">
+    <row r="945" spans="2:2" ht="14.4">
       <c r="B945" s="7"/>
     </row>
-    <row r="946" spans="2:2">
+    <row r="946" spans="2:2" ht="14.4">
       <c r="B946" s="7"/>
     </row>
-    <row r="947" spans="2:2">
+    <row r="947" spans="2:2" ht="14.4">
       <c r="B947" s="7"/>
     </row>
-    <row r="948" spans="2:2">
+    <row r="948" spans="2:2" ht="14.4">
       <c r="B948" s="7"/>
     </row>
-    <row r="949" spans="2:2">
+    <row r="949" spans="2:2" ht="14.4">
       <c r="B949" s="7"/>
     </row>
-    <row r="950" spans="2:2">
+    <row r="950" spans="2:2" ht="14.4">
       <c r="B950" s="7"/>
     </row>
-    <row r="951" spans="2:2">
+    <row r="951" spans="2:2" ht="14.4">
       <c r="B951" s="7"/>
     </row>
-    <row r="952" spans="2:2">
+    <row r="952" spans="2:2" ht="14.4">
       <c r="B952" s="7"/>
     </row>
-    <row r="953" spans="2:2">
+    <row r="953" spans="2:2" ht="14.4">
       <c r="B953" s="7"/>
     </row>
-    <row r="954" spans="2:2">
+    <row r="954" spans="2:2" ht="14.4">
       <c r="B954" s="7"/>
     </row>
-    <row r="955" spans="2:2">
+    <row r="955" spans="2:2" ht="14.4">
       <c r="B955" s="7"/>
     </row>
-    <row r="956" spans="2:2">
+    <row r="956" spans="2:2" ht="14.4">
       <c r="B956" s="7"/>
     </row>
-    <row r="957" spans="2:2">
+    <row r="957" spans="2:2" ht="14.4">
       <c r="B957" s="7"/>
     </row>
-    <row r="958" spans="2:2">
+    <row r="958" spans="2:2" ht="14.4">
       <c r="B958" s="7"/>
     </row>
-    <row r="959" spans="2:2">
+    <row r="959" spans="2:2" ht="14.4">
       <c r="B959" s="7"/>
     </row>
-    <row r="960" spans="2:2">
+    <row r="960" spans="2:2" ht="14.4">
       <c r="B960" s="7"/>
     </row>
-    <row r="961" spans="2:2">
+    <row r="961" spans="2:2" ht="14.4">
       <c r="B961" s="7"/>
     </row>
-    <row r="962" spans="2:2">
+    <row r="962" spans="2:2" ht="14.4">
       <c r="B962" s="7"/>
     </row>
-    <row r="963" spans="2:2">
+    <row r="963" spans="2:2" ht="14.4">
       <c r="B963" s="7"/>
     </row>
-    <row r="964" spans="2:2">
+    <row r="964" spans="2:2" ht="14.4">
       <c r="B964" s="7"/>
     </row>
-    <row r="965" spans="2:2">
+    <row r="965" spans="2:2" ht="14.4">
       <c r="B965" s="7"/>
     </row>
-    <row r="966" spans="2:2">
+    <row r="966" spans="2:2" ht="14.4">
       <c r="B966" s="7"/>
     </row>
-    <row r="967" spans="2:2">
+    <row r="967" spans="2:2" ht="14.4">
       <c r="B967" s="7"/>
     </row>
-    <row r="968" spans="2:2">
+    <row r="968" spans="2:2" ht="14.4">
       <c r="B968" s="7"/>
     </row>
-    <row r="969" spans="2:2">
+    <row r="969" spans="2:2" ht="14.4">
       <c r="B969" s="7"/>
     </row>
-    <row r="970" spans="2:2">
+    <row r="970" spans="2:2" ht="14.4">
       <c r="B970" s="7"/>
     </row>
-    <row r="971" spans="2:2">
+    <row r="971" spans="2:2" ht="14.4">
       <c r="B971" s="7"/>
     </row>
-    <row r="972" spans="2:2">
+    <row r="972" spans="2:2" ht="14.4">
       <c r="B972" s="7"/>
     </row>
-    <row r="973" spans="2:2">
+    <row r="973" spans="2:2" ht="14.4">
       <c r="B973" s="7"/>
     </row>
-    <row r="974" spans="2:2">
+    <row r="974" spans="2:2" ht="14.4">
       <c r="B974" s="7"/>
     </row>
-    <row r="975" spans="2:2">
+    <row r="975" spans="2:2" ht="14.4">
       <c r="B975" s="7"/>
     </row>
-    <row r="976" spans="2:2">
+    <row r="976" spans="2:2" ht="14.4">
       <c r="B976" s="7"/>
     </row>
-    <row r="977" spans="2:2">
+    <row r="977" spans="2:2" ht="14.4">
       <c r="B977" s="7"/>
     </row>
-    <row r="978" spans="2:2">
+    <row r="978" spans="2:2" ht="14.4">
       <c r="B978" s="7"/>
     </row>
-    <row r="979" spans="2:2">
+    <row r="979" spans="2:2" ht="14.4">
       <c r="B979" s="7"/>
     </row>
-    <row r="980" spans="2:2">
+    <row r="980" spans="2:2" ht="14.4">
       <c r="B980" s="7"/>
     </row>
-    <row r="981" spans="2:2">
+    <row r="981" spans="2:2" ht="14.4">
       <c r="B981" s="7"/>
     </row>
-    <row r="982" spans="2:2">
+    <row r="982" spans="2:2" ht="14.4">
       <c r="B982" s="7"/>
     </row>
-    <row r="983" spans="2:2">
+    <row r="983" spans="2:2" ht="14.4">
       <c r="B983" s="7"/>
     </row>
-    <row r="984" spans="2:2">
+    <row r="984" spans="2:2" ht="14.4">
       <c r="B984" s="7"/>
     </row>
-    <row r="985" spans="2:2">
+    <row r="985" spans="2:2" ht="14.4">
       <c r="B985" s="7"/>
     </row>
-    <row r="986" spans="2:2">
+    <row r="986" spans="2:2" ht="14.4">
       <c r="B986" s="7"/>
     </row>
-    <row r="987" spans="2:2">
+    <row r="987" spans="2:2" ht="14.4">
       <c r="B987" s="7"/>
     </row>
-    <row r="988" spans="2:2">
+    <row r="988" spans="2:2" ht="14.4">
       <c r="B988" s="7"/>
     </row>
-    <row r="989" spans="2:2">
+    <row r="989" spans="2:2" ht="14.4">
       <c r="B989" s="7"/>
     </row>
-    <row r="990" spans="2:2">
+    <row r="990" spans="2:2" ht="14.4">
       <c r="B990" s="7"/>
     </row>
-    <row r="991" spans="2:2">
+    <row r="991" spans="2:2" ht="14.4">
       <c r="B991" s="7"/>
     </row>
-    <row r="992" spans="2:2">
+    <row r="992" spans="2:2" ht="14.4">
       <c r="B992" s="7"/>
     </row>
-    <row r="993" spans="2:2">
+    <row r="993" spans="2:2" ht="14.4">
       <c r="B993" s="7"/>
     </row>
-    <row r="994" spans="2:2">
+    <row r="994" spans="2:2" ht="14.4">
       <c r="B994" s="7"/>
     </row>
-    <row r="995" spans="2:2">
+    <row r="995" spans="2:2" ht="14.4">
       <c r="B995" s="7"/>
     </row>
-    <row r="996" spans="2:2">
+    <row r="996" spans="2:2" ht="14.4">
       <c r="B996" s="7"/>
     </row>
-    <row r="997" spans="2:2">
+    <row r="997" spans="2:2" ht="14.4">
       <c r="B997" s="7"/>
     </row>
-    <row r="998" spans="2:2">
+    <row r="998" spans="2:2" ht="14.4">
       <c r="B998" s="7"/>
     </row>
-    <row r="999" spans="2:2">
+    <row r="999" spans="2:2" ht="14.4">
       <c r="B999" s="7"/>
     </row>
-    <row r="1000" spans="2:2">
+    <row r="1000" spans="2:2" ht="14.4">
       <c r="B1000" s="7"/>
     </row>
-    <row r="1001" spans="2:2">
+    <row r="1001" spans="2:2" ht="14.4">
       <c r="B1001" s="7"/>
     </row>
-    <row r="1002" spans="2:2">
+    <row r="1002" spans="2:2" ht="14.4">
       <c r="B1002" s="7"/>
     </row>
-    <row r="1003" spans="2:2">
+    <row r="1003" spans="2:2" ht="14.4">
       <c r="B1003" s="7"/>
     </row>
-    <row r="1004" spans="2:2">
+    <row r="1004" spans="2:2" ht="14.4">
       <c r="B1004" s="7"/>
     </row>
-    <row r="1005" spans="2:2">
+    <row r="1005" spans="2:2" ht="14.4">
       <c r="B1005" s="7"/>
     </row>
-    <row r="1006" spans="2:2">
+    <row r="1006" spans="2:2" ht="14.4">
       <c r="B1006" s="7"/>
     </row>
-    <row r="1007" spans="2:2">
+    <row r="1007" spans="2:2" ht="14.4">
       <c r="B1007" s="7"/>
     </row>
-    <row r="1008" spans="2:2">
+    <row r="1008" spans="2:2" ht="14.4">
       <c r="B1008" s="7"/>
     </row>
-    <row r="1009" spans="2:2">
+    <row r="1009" spans="2:2" ht="14.4">
       <c r="B1009" s="7"/>
     </row>
-    <row r="1010" spans="2:2">
+    <row r="1010" spans="2:2" ht="14.4">
       <c r="B1010" s="7"/>
     </row>
-    <row r="1011" spans="2:2">
+    <row r="1011" spans="2:2" ht="14.4">
       <c r="B1011" s="7"/>
     </row>
-    <row r="1012" spans="2:2">
+    <row r="1012" spans="2:2" ht="14.4">
       <c r="B1012" s="7"/>
     </row>
-    <row r="1013" spans="2:2">
+    <row r="1013" spans="2:2" ht="14.4">
       <c r="B1013" s="7"/>
     </row>
-    <row r="1014" spans="2:2">
+    <row r="1014" spans="2:2" ht="14.4">
       <c r="B1014" s="7"/>
     </row>
-    <row r="1015" spans="2:2">
+    <row r="1015" spans="2:2" ht="14.4">
       <c r="B1015" s="7"/>
     </row>
-    <row r="1016" spans="2:2">
+    <row r="1016" spans="2:2" ht="14.4">
       <c r="B1016" s="7"/>
     </row>
-    <row r="1017" spans="2:2">
+    <row r="1017" spans="2:2" ht="14.4">
       <c r="B1017" s="7"/>
     </row>
-    <row r="1018" spans="2:2">
+    <row r="1018" spans="2:2" ht="14.4">
       <c r="B1018" s="7"/>
     </row>
-    <row r="1019" spans="2:2">
+    <row r="1019" spans="2:2" ht="14.4">
       <c r="B1019" s="7"/>
     </row>
-    <row r="1020" spans="2:2">
+    <row r="1020" spans="2:2" ht="14.4">
       <c r="B1020" s="7"/>
     </row>
-    <row r="1021" spans="2:2">
+    <row r="1021" spans="2:2" ht="14.4">
       <c r="B1021" s="7"/>
     </row>
-    <row r="1022" spans="2:2">
+    <row r="1022" spans="2:2" ht="14.4">
       <c r="B1022" s="7"/>
     </row>
-    <row r="1023" spans="2:2">
+    <row r="1023" spans="2:2" ht="14.4">
       <c r="B1023" s="7"/>
     </row>
-    <row r="1024" spans="2:2">
+    <row r="1024" spans="2:2" ht="14.4">
       <c r="B1024" s="7"/>
     </row>
-    <row r="1025" spans="2:2">
+    <row r="1025" spans="2:2" ht="14.4">
       <c r="B1025" s="7"/>
     </row>
-    <row r="1026" spans="2:2">
+    <row r="1026" spans="2:2" ht="14.4">
       <c r="B1026" s="7"/>
     </row>
-    <row r="1027" spans="2:2">
+    <row r="1027" spans="2:2" ht="14.4">
       <c r="B1027" s="7"/>
     </row>
-    <row r="1028" spans="2:2">
+    <row r="1028" spans="2:2" ht="14.4">
       <c r="B1028" s="7"/>
     </row>
-    <row r="1029" spans="2:2">
+    <row r="1029" spans="2:2" ht="14.4">
       <c r="B1029" s="7"/>
     </row>
-    <row r="1030" spans="2:2">
+    <row r="1030" spans="2:2" ht="14.4">
       <c r="B1030" s="7"/>
     </row>
-    <row r="1031" spans="2:2">
+    <row r="1031" spans="2:2" ht="14.4">
       <c r="B1031" s="7"/>
     </row>
-    <row r="1032" spans="2:2">
+    <row r="1032" spans="2:2" ht="14.4">
       <c r="B1032" s="7"/>
     </row>
-    <row r="1033" spans="2:2">
+    <row r="1033" spans="2:2" ht="14.4">
       <c r="B1033" s="7"/>
     </row>
-    <row r="1034" spans="2:2">
+    <row r="1034" spans="2:2" ht="14.4">
       <c r="B1034" s="7"/>
     </row>
-    <row r="1035" spans="2:2">
+    <row r="1035" spans="2:2" ht="14.4">
       <c r="B1035" s="7"/>
     </row>
-    <row r="1036" spans="2:2">
+    <row r="1036" spans="2:2" ht="14.4">
       <c r="B1036" s="7"/>
     </row>
   </sheetData>
@@ -20023,24 +20032,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="64" customWidth="1"/>
-    <col min="13" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="26" width="12.5703125" customWidth="1"/>
+    <col min="13" max="24" width="7.5546875" customWidth="1"/>
+    <col min="25" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20185,7 +20194,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:26" s="65" customFormat="1">
+    <row r="5" spans="1:26" s="65" customFormat="1" ht="14.4">
       <c r="A5" s="64" t="s">
         <v>24</v>
       </c>
@@ -20217,7 +20226,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30">
+    <row r="6" spans="1:26" ht="28.8">
       <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
@@ -20249,7 +20258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
@@ -20265,7 +20274,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
@@ -20295,7 +20304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -20311,7 +20320,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -20327,7 +20336,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
@@ -20343,7 +20352,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="17" t="s">
         <v>24</v>
       </c>
@@ -20362,7 +20371,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
@@ -20381,7 +20390,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
@@ -20400,7 +20409,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
@@ -20419,7 +20428,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
@@ -20448,7 +20457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
@@ -20486,7 +20495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="14.4">
       <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
@@ -20502,7 +20511,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.4">
       <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
@@ -20516,7 +20525,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="14.4">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -20528,7 +20537,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.4">
       <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
@@ -20542,7 +20551,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="14.4">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
@@ -20610,7 +20619,7 @@
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="14.4">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="D24" s="19" t="s">
@@ -20635,7 +20644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.4">
       <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
@@ -20651,7 +20660,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.4">
       <c r="A26" s="17" t="s">
         <v>24</v>
       </c>
@@ -20667,7 +20676,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="14.4">
       <c r="A27" s="17" t="s">
         <v>24</v>
       </c>
@@ -20683,7 +20692,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="14.4">
       <c r="A28" s="17"/>
       <c r="B28" s="18" t="s">
         <v>25</v>
@@ -20711,7 +20720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="24" customFormat="1">
+    <row r="29" spans="1:26" s="24" customFormat="1" ht="14.4">
       <c r="A29" s="22" t="s">
         <v>24</v>
       </c>
@@ -20739,7 +20748,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="14.4">
       <c r="A30" s="17" t="s">
         <v>24</v>
       </c>
@@ -20760,7 +20769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="17" t="s">
         <v>24</v>
       </c>
@@ -20786,7 +20795,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="14.4">
       <c r="A32" s="17" t="s">
         <v>24</v>
       </c>
@@ -20809,7 +20818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="14.4">
       <c r="A33" s="17" t="s">
         <v>24</v>
       </c>
@@ -20832,7 +20841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="14.4">
       <c r="A34" s="17" t="s">
         <v>24</v>
       </c>
@@ -20855,7 +20864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="67" customFormat="1">
+    <row r="35" spans="1:11" s="67" customFormat="1" ht="14.4">
       <c r="A35" s="64" t="s">
         <v>24</v>
       </c>
@@ -20885,7 +20894,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="14.4">
       <c r="A36" s="17" t="s">
         <v>24</v>
       </c>
@@ -20915,7 +20924,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="14.4">
       <c r="A37" s="17" t="s">
         <v>24</v>
       </c>
@@ -20934,7 +20943,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="14.4">
       <c r="A38" s="17" t="s">
         <v>24</v>
       </c>
@@ -20950,7 +20959,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="14.4">
       <c r="A39" s="17" t="s">
         <v>24</v>
       </c>
@@ -20969,7 +20978,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:11" ht="60">
+    <row r="40" spans="1:11" ht="57.6">
       <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
@@ -20997,7 +21006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="14.4">
       <c r="A41" s="17" t="s">
         <v>24</v>
       </c>
@@ -21016,7 +21025,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:11" s="24" customFormat="1">
+    <row r="42" spans="1:11" s="24" customFormat="1" ht="14.4">
       <c r="A42" s="22" t="s">
         <v>24</v>
       </c>
@@ -21046,7 +21055,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="24" customFormat="1">
+    <row r="43" spans="1:11" s="24" customFormat="1" ht="14.4">
       <c r="A43" s="22" t="s">
         <v>24</v>
       </c>
@@ -21076,7 +21085,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="14.4">
       <c r="A44" s="17" t="s">
         <v>24</v>
       </c>
@@ -21099,7 +21108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="14.4">
       <c r="A45" s="17" t="s">
         <v>24</v>
       </c>
@@ -21118,7 +21127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="14.4">
       <c r="A46" s="18" t="s">
         <v>24</v>
       </c>
@@ -21151,7 +21160,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="14.4">
       <c r="A47" s="17" t="s">
         <v>24</v>
       </c>
@@ -21177,7 +21186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="14.4">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="E48" s="20" t="s">
@@ -21240,7 +21249,7 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="14.4">
       <c r="A50" s="17" t="s">
         <v>24</v>
       </c>
@@ -21256,7 +21265,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="14.4">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="7" t="s">
@@ -21302,7 +21311,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="14.4">
       <c r="A52" s="17" t="s">
         <v>24</v>
       </c>
@@ -21323,7 +21332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="14.4">
       <c r="A53" s="17" t="s">
         <v>24</v>
       </c>
@@ -21355,7 +21364,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="14.4">
       <c r="A54" s="17" t="s">
         <v>24</v>
       </c>
@@ -21371,7 +21380,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="14.4">
       <c r="A55" s="17" t="s">
         <v>24</v>
       </c>
@@ -21387,7 +21396,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="14.4">
       <c r="A56" s="17" t="s">
         <v>24</v>
       </c>
@@ -21419,7 +21428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="14.4">
       <c r="A57" s="17" t="s">
         <v>24</v>
       </c>
@@ -21451,23 +21460,28 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="17" t="s">
+    <row r="58" spans="1:26" s="24" customFormat="1" ht="14.4">
+      <c r="A58" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>144</v>
+      <c r="C58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>145</v>
+        <v>856</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="H58" s="7" t="s">
         <v>146</v>
       </c>
@@ -21478,59 +21492,64 @@
         <v>29</v>
       </c>
       <c r="K58" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="14.4">
+      <c r="A59" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="E59" s="7" t="s">
+    <row r="60" spans="1:26" ht="14.4">
+      <c r="A60" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="E60" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>6772</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:26" s="24" customFormat="1">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="D60" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="28" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" s="24" customFormat="1">
-      <c r="A61" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:26" s="24" customFormat="1" ht="14.4">
+      <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="D61" s="62" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="63" t="s">
@@ -21546,42 +21565,38 @@
         <v>29</v>
       </c>
       <c r="K61" s="28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" s="24" customFormat="1" ht="14.4">
+      <c r="A62" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="D62" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="28" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F62" s="20">
-        <v>1500</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="14.4">
       <c r="A63" s="17" t="s">
         <v>24</v>
       </c>
@@ -21591,16 +21606,16 @@
       <c r="D63" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F63" s="19">
+      <c r="E63" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="20">
         <v>1500</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="20" t="s">
         <v>96</v>
       </c>
       <c r="I63" s="19" t="s">
@@ -21610,10 +21625,10 @@
         <v>34</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="14.4">
       <c r="A64" s="17" t="s">
         <v>24</v>
       </c>
@@ -21624,7 +21639,7 @@
         <v>150</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F64" s="19">
         <v>1500</v>
@@ -21642,24 +21657,24 @@
         <v>34</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4">
       <c r="A65" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F65" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>126</v>
@@ -21674,10 +21689,10 @@
         <v>34</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.4">
       <c r="A66" s="17" t="s">
         <v>24</v>
       </c>
@@ -21688,7 +21703,7 @@
         <v>150</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F66" s="19">
         <v>1000</v>
@@ -21697,7 +21712,7 @@
         <v>126</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I66" s="19" t="s">
         <v>40</v>
@@ -21706,10 +21721,10 @@
         <v>34</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.4">
       <c r="A67" s="17" t="s">
         <v>24</v>
       </c>
@@ -21720,7 +21735,7 @@
         <v>150</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F67" s="19">
         <v>1000</v>
@@ -21738,6 +21753,38 @@
         <v>34</v>
       </c>
       <c r="K67" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4">
+      <c r="A68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="19" t="s">
         <v>168</v>
       </c>
     </row>
@@ -21758,23 +21805,23 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="22" width="7.5703125" customWidth="1"/>
-    <col min="23" max="26" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" customWidth="1"/>
+    <col min="11" max="22" width="7.5546875" customWidth="1"/>
+    <col min="23" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -21851,7 +21898,7 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:26" s="80" customFormat="1">
+    <row r="3" spans="1:26" s="80" customFormat="1" ht="14.4">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
       <c r="C3" s="74"/>
@@ -21877,7 +21924,7 @@
       <c r="U3" s="76"/>
       <c r="V3" s="76"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="6" t="s">
         <v>177</v>
       </c>
@@ -21913,7 +21960,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="6" t="s">
         <v>177</v>
       </c>
@@ -21953,7 +22000,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="30">
+    <row r="6" spans="1:26" ht="28.8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -21993,7 +22040,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="6" t="s">
         <v>177</v>
       </c>
@@ -22103,7 +22150,7 @@
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -22139,7 +22186,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -22173,7 +22220,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -22207,7 +22254,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="6" t="s">
         <v>177</v>
       </c>
@@ -22245,7 +22292,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="6" t="s">
         <v>177</v>
       </c>
@@ -22887,7 +22934,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -22901,7 +22948,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="14.4">
       <c r="A32" s="33" t="s">
         <v>177</v>
       </c>
@@ -22922,7 +22969,7 @@
       </c>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="14.4">
       <c r="A33" s="33" t="s">
         <v>177</v>
       </c>
@@ -22943,7 +22990,7 @@
       </c>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="14.4">
       <c r="A34" s="33" t="s">
         <v>177</v>
       </c>
@@ -22964,7 +23011,7 @@
       </c>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="14.4">
       <c r="A35" s="33" t="s">
         <v>24</v>
       </c>
@@ -22985,7 +23032,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="14.4">
       <c r="A36" s="33" t="s">
         <v>24</v>
       </c>
@@ -23008,7 +23055,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="14.4">
       <c r="A37" s="33" t="s">
         <v>24</v>
       </c>
@@ -23031,7 +23078,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="14.4">
       <c r="A38" s="33" t="s">
         <v>24</v>
       </c>
@@ -23054,7 +23101,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="14.4">
       <c r="A39" s="33" t="s">
         <v>24</v>
       </c>
@@ -23077,7 +23124,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="14.4">
       <c r="A40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -23085,7 +23132,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="14.4">
       <c r="A41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -23109,9 +23156,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" customWidth="1"/>
+    <col min="1" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF484EFC-3B63-4826-90EE-DBD4C247E9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896E368-8671-4193-AF26-088B676FC298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29490" yWindow="-5775" windowWidth="24870" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="863">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2674,6 +2674,18 @@
   </si>
   <si>
     <t>water temperature</t>
+  </si>
+  <si>
+    <t>RAD_SW_IN</t>
+  </si>
+  <si>
+    <t>RAD_LW_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> net longwave radiation out of the stream to the atmosphere; positive values for energy going from the stream to the atmosphere</t>
+  </si>
+  <si>
+    <t>insolation flux; positive for energy going into the stream</t>
   </si>
 </sst>
 </file>
@@ -3340,21 +3352,21 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60:I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="24" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="24" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="24" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" style="24" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="45.5546875" style="24" customWidth="1"/>
-    <col min="12" max="21" width="6.44140625" style="24" customWidth="1"/>
-    <col min="22" max="26" width="12.5546875" style="24" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="24"/>
+    <col min="8" max="8" width="43.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="45.5703125" style="24" customWidth="1"/>
+    <col min="12" max="21" width="6.42578125" style="24" customWidth="1"/>
+    <col min="22" max="26" width="12.5703125" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -5578,7 +5590,7 @@
       <c r="W63" s="30"/>
       <c r="X63" s="30"/>
     </row>
-    <row r="64" spans="1:26" ht="14.4">
+    <row r="64" spans="1:26">
       <c r="A64" s="22" t="s">
         <v>24</v>
       </c>
@@ -5608,7 +5620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="14.4">
+    <row r="65" spans="1:26">
       <c r="A65" s="22" t="s">
         <v>24</v>
       </c>
@@ -5624,7 +5636,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:26" ht="14.4">
+    <row r="66" spans="1:26">
       <c r="A66" s="22" t="s">
         <v>24</v>
       </c>
@@ -5640,7 +5652,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:26" ht="14.4">
+    <row r="67" spans="1:26">
       <c r="A67" s="22" t="s">
         <v>24</v>
       </c>
@@ -5656,7 +5668,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:26" ht="14.4">
+    <row r="68" spans="1:26">
       <c r="A68" s="22" t="s">
         <v>24</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="14.4">
+    <row r="69" spans="1:26">
       <c r="A69" s="22" t="s">
         <v>24</v>
       </c>
@@ -5708,7 +5720,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:26" ht="14.4">
+    <row r="70" spans="1:26">
       <c r="A70" s="22" t="s">
         <v>24</v>
       </c>
@@ -5720,7 +5732,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:26" ht="14.4">
+    <row r="71" spans="1:26">
       <c r="A71" s="22" t="s">
         <v>24</v>
       </c>
@@ -5734,7 +5746,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:26" ht="14.4">
+    <row r="72" spans="1:26">
       <c r="A72" s="22" t="s">
         <v>24</v>
       </c>
@@ -5755,7 +5767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="14.4">
+    <row r="73" spans="1:26">
       <c r="A73" s="22" t="s">
         <v>24</v>
       </c>
@@ -5785,7 +5797,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="14.4">
+    <row r="74" spans="1:26">
       <c r="A74" s="22" t="s">
         <v>24</v>
       </c>
@@ -5804,7 +5816,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:26" ht="14.4">
+    <row r="75" spans="1:26">
       <c r="A75" s="22" t="s">
         <v>24</v>
       </c>
@@ -5823,7 +5835,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:26" ht="14.4">
+    <row r="76" spans="1:26">
       <c r="A76" s="22" t="s">
         <v>24</v>
       </c>
@@ -5849,7 +5861,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="14.4">
+    <row r="77" spans="1:26">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="E77" s="24" t="s">
@@ -5874,7 +5886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="14.4">
+    <row r="78" spans="1:26">
       <c r="A78" s="22" t="s">
         <v>24</v>
       </c>
@@ -5890,7 +5902,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:26" ht="14.4">
+    <row r="79" spans="1:26">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="7" t="s">
@@ -5936,7 +5948,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" spans="1:26" ht="14.4">
+    <row r="80" spans="1:26">
       <c r="A80" s="22" t="s">
         <v>24</v>
       </c>
@@ -5957,7 +5969,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="14.4">
+    <row r="81" spans="1:26">
       <c r="A81" s="22" t="s">
         <v>24</v>
       </c>
@@ -5973,7 +5985,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:26" ht="14.4">
+    <row r="82" spans="1:26">
       <c r="A82" s="22" t="s">
         <v>24</v>
       </c>
@@ -5989,7 +6001,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:26" ht="14.4">
+    <row r="83" spans="1:26">
       <c r="A83" s="22" t="s">
         <v>24</v>
       </c>
@@ -6021,7 +6033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="14.4">
+    <row r="84" spans="1:26">
       <c r="A84" s="22" t="s">
         <v>24</v>
       </c>
@@ -6053,7 +6065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="14.4">
+    <row r="85" spans="1:26">
       <c r="A85" s="22" t="s">
         <v>24</v>
       </c>
@@ -6067,7 +6079,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:26" ht="14.4">
+    <row r="86" spans="1:26">
       <c r="A86" s="22" t="s">
         <v>24</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="14.4">
+    <row r="87" spans="1:26">
       <c r="A87" s="22" t="s">
         <v>24</v>
       </c>
@@ -6131,7 +6143,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="14.4">
+    <row r="88" spans="1:26">
       <c r="A88" s="22" t="s">
         <v>24</v>
       </c>
@@ -6163,7 +6175,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="14.4">
+    <row r="89" spans="1:26">
       <c r="A89" s="22" t="s">
         <v>24</v>
       </c>
@@ -6195,7 +6207,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="14.4">
+    <row r="90" spans="1:26">
       <c r="A90" s="22" t="s">
         <v>24</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="14.4">
+    <row r="91" spans="1:26">
       <c r="A91" s="22" t="s">
         <v>24</v>
       </c>
@@ -6259,7 +6271,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="14.4">
+    <row r="92" spans="1:26">
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="59.25" customHeight="1">
@@ -6310,7 +6322,7 @@
       <c r="U93" s="30"/>
       <c r="V93" s="30"/>
     </row>
-    <row r="94" spans="1:26" ht="14.4">
+    <row r="94" spans="1:26">
       <c r="A94" s="33" t="s">
         <v>177</v>
       </c>
@@ -6346,7 +6358,7 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
     </row>
-    <row r="95" spans="1:26" ht="14.4">
+    <row r="95" spans="1:26">
       <c r="A95" s="33" t="s">
         <v>177</v>
       </c>
@@ -6386,7 +6398,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26" ht="14.4">
+    <row r="96" spans="1:26">
       <c r="A96" s="33" t="s">
         <v>177</v>
       </c>
@@ -6496,7 +6508,7 @@
       <c r="U98" s="50"/>
       <c r="V98" s="50"/>
     </row>
-    <row r="99" spans="1:26" ht="14.4">
+    <row r="99" spans="1:26">
       <c r="A99" s="33" t="s">
         <v>177</v>
       </c>
@@ -6564,7 +6576,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26" ht="14.4">
+    <row r="101" spans="1:26">
       <c r="A101" s="33" t="s">
         <v>24</v>
       </c>
@@ -6578,2044 +6590,2044 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:26" ht="14.4">
+    <row r="102" spans="1:26">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:26" ht="14.4">
+    <row r="103" spans="1:26">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:26" ht="14.4">
+    <row r="104" spans="1:26">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:26" ht="14.4">
+    <row r="105" spans="1:26">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:26" ht="14.4">
+    <row r="106" spans="1:26">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:26" ht="14.4">
+    <row r="107" spans="1:26">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:26" ht="14.4">
+    <row r="108" spans="1:26">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:26" ht="14.4">
+    <row r="109" spans="1:26">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:26" ht="14.4">
+    <row r="110" spans="1:26">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:26" ht="14.4">
+    <row r="111" spans="1:26">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:26" ht="14.4">
+    <row r="112" spans="1:26">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" ht="14.4">
+    <row r="113" spans="2:2">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" ht="14.4">
+    <row r="114" spans="2:2">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" ht="14.4">
+    <row r="115" spans="2:2">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" ht="14.4">
+    <row r="116" spans="2:2">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" ht="14.4">
+    <row r="117" spans="2:2">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" ht="14.4">
+    <row r="118" spans="2:2">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" ht="14.4">
+    <row r="119" spans="2:2">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" ht="14.4">
+    <row r="120" spans="2:2">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" ht="14.4">
+    <row r="121" spans="2:2">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" ht="14.4">
+    <row r="122" spans="2:2">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" ht="14.4">
+    <row r="123" spans="2:2">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" ht="14.4">
+    <row r="124" spans="2:2">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" ht="14.4">
+    <row r="125" spans="2:2">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" ht="14.4">
+    <row r="126" spans="2:2">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" ht="14.4">
+    <row r="127" spans="2:2">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" ht="14.4">
+    <row r="128" spans="2:2">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" ht="14.4">
+    <row r="129" spans="2:2">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" ht="14.4">
+    <row r="130" spans="2:2">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" ht="14.4">
+    <row r="131" spans="2:2">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" ht="14.4">
+    <row r="132" spans="2:2">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" ht="14.4">
+    <row r="133" spans="2:2">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" ht="14.4">
+    <row r="134" spans="2:2">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" ht="14.4">
+    <row r="135" spans="2:2">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" ht="14.4">
+    <row r="136" spans="2:2">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" ht="14.4">
+    <row r="137" spans="2:2">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" ht="14.4">
+    <row r="138" spans="2:2">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" ht="14.4">
+    <row r="139" spans="2:2">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" ht="14.4">
+    <row r="140" spans="2:2">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" ht="14.4">
+    <row r="141" spans="2:2">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" ht="14.4">
+    <row r="142" spans="2:2">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" ht="14.4">
+    <row r="143" spans="2:2">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" ht="14.4">
+    <row r="144" spans="2:2">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" ht="14.4">
+    <row r="145" spans="2:2">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" ht="14.4">
+    <row r="146" spans="2:2">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" ht="14.4">
+    <row r="147" spans="2:2">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" ht="14.4">
+    <row r="148" spans="2:2">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" ht="14.4">
+    <row r="149" spans="2:2">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" ht="14.4">
+    <row r="150" spans="2:2">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" ht="14.4">
+    <row r="151" spans="2:2">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" ht="14.4">
+    <row r="152" spans="2:2">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" ht="14.4">
+    <row r="153" spans="2:2">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" ht="14.4">
+    <row r="154" spans="2:2">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" ht="14.4">
+    <row r="155" spans="2:2">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" ht="14.4">
+    <row r="156" spans="2:2">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" ht="14.4">
+    <row r="157" spans="2:2">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" ht="14.4">
+    <row r="158" spans="2:2">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" ht="14.4">
+    <row r="159" spans="2:2">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" ht="14.4">
+    <row r="160" spans="2:2">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" ht="14.4">
+    <row r="161" spans="2:2">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" ht="14.4">
+    <row r="162" spans="2:2">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" ht="14.4">
+    <row r="163" spans="2:2">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" ht="14.4">
+    <row r="164" spans="2:2">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" ht="14.4">
+    <row r="165" spans="2:2">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" ht="14.4">
+    <row r="166" spans="2:2">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" ht="14.4">
+    <row r="167" spans="2:2">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" ht="14.4">
+    <row r="168" spans="2:2">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" ht="14.4">
+    <row r="169" spans="2:2">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" ht="14.4">
+    <row r="170" spans="2:2">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" ht="14.4">
+    <row r="171" spans="2:2">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" ht="14.4">
+    <row r="172" spans="2:2">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" ht="14.4">
+    <row r="173" spans="2:2">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" ht="14.4">
+    <row r="174" spans="2:2">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" ht="14.4">
+    <row r="175" spans="2:2">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" ht="14.4">
+    <row r="176" spans="2:2">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" ht="14.4">
+    <row r="177" spans="2:2">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" ht="14.4">
+    <row r="178" spans="2:2">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" ht="14.4">
+    <row r="179" spans="2:2">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" ht="14.4">
+    <row r="180" spans="2:2">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" ht="14.4">
+    <row r="181" spans="2:2">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" ht="14.4">
+    <row r="182" spans="2:2">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" ht="14.4">
+    <row r="183" spans="2:2">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" ht="14.4">
+    <row r="184" spans="2:2">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" ht="14.4">
+    <row r="185" spans="2:2">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" ht="14.4">
+    <row r="186" spans="2:2">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" ht="14.4">
+    <row r="187" spans="2:2">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" ht="14.4">
+    <row r="188" spans="2:2">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" ht="14.4">
+    <row r="189" spans="2:2">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" ht="14.4">
+    <row r="190" spans="2:2">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" ht="14.4">
+    <row r="191" spans="2:2">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" ht="14.4">
+    <row r="192" spans="2:2">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" ht="14.4">
+    <row r="193" spans="2:2">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" ht="14.4">
+    <row r="194" spans="2:2">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" ht="14.4">
+    <row r="195" spans="2:2">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" ht="14.4">
+    <row r="196" spans="2:2">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" ht="14.4">
+    <row r="197" spans="2:2">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" ht="14.4">
+    <row r="198" spans="2:2">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" ht="14.4">
+    <row r="199" spans="2:2">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" ht="14.4">
+    <row r="200" spans="2:2">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" ht="14.4">
+    <row r="201" spans="2:2">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" ht="14.4">
+    <row r="202" spans="2:2">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" ht="14.4">
+    <row r="203" spans="2:2">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" ht="14.4">
+    <row r="204" spans="2:2">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" ht="14.4">
+    <row r="205" spans="2:2">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" ht="14.4">
+    <row r="206" spans="2:2">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" ht="14.4">
+    <row r="207" spans="2:2">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" ht="14.4">
+    <row r="208" spans="2:2">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" ht="14.4">
+    <row r="209" spans="2:2">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" ht="14.4">
+    <row r="210" spans="2:2">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" ht="14.4">
+    <row r="211" spans="2:2">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" ht="14.4">
+    <row r="212" spans="2:2">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" ht="14.4">
+    <row r="213" spans="2:2">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" ht="14.4">
+    <row r="214" spans="2:2">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" ht="14.4">
+    <row r="215" spans="2:2">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" ht="14.4">
+    <row r="216" spans="2:2">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" ht="14.4">
+    <row r="217" spans="2:2">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" ht="14.4">
+    <row r="218" spans="2:2">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" ht="14.4">
+    <row r="219" spans="2:2">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" ht="14.4">
+    <row r="220" spans="2:2">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" ht="14.4">
+    <row r="221" spans="2:2">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" ht="14.4">
+    <row r="222" spans="2:2">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" ht="14.4">
+    <row r="223" spans="2:2">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" ht="14.4">
+    <row r="224" spans="2:2">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" ht="14.4">
+    <row r="225" spans="2:2">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" ht="14.4">
+    <row r="226" spans="2:2">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" ht="14.4">
+    <row r="227" spans="2:2">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" ht="14.4">
+    <row r="228" spans="2:2">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" ht="14.4">
+    <row r="229" spans="2:2">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" ht="14.4">
+    <row r="230" spans="2:2">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" ht="14.4">
+    <row r="231" spans="2:2">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" ht="14.4">
+    <row r="232" spans="2:2">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" ht="14.4">
+    <row r="233" spans="2:2">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" ht="14.4">
+    <row r="234" spans="2:2">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" ht="14.4">
+    <row r="235" spans="2:2">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" ht="14.4">
+    <row r="236" spans="2:2">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" ht="14.4">
+    <row r="237" spans="2:2">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" ht="14.4">
+    <row r="238" spans="2:2">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" ht="14.4">
+    <row r="239" spans="2:2">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" ht="14.4">
+    <row r="240" spans="2:2">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" ht="14.4">
+    <row r="241" spans="2:2">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" ht="14.4">
+    <row r="242" spans="2:2">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" ht="14.4">
+    <row r="243" spans="2:2">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" ht="14.4">
+    <row r="244" spans="2:2">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" ht="14.4">
+    <row r="245" spans="2:2">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" ht="14.4">
+    <row r="246" spans="2:2">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" ht="14.4">
+    <row r="247" spans="2:2">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" ht="14.4">
+    <row r="248" spans="2:2">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" ht="14.4">
+    <row r="249" spans="2:2">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" ht="14.4">
+    <row r="250" spans="2:2">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" ht="14.4">
+    <row r="251" spans="2:2">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" ht="14.4">
+    <row r="252" spans="2:2">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" ht="14.4">
+    <row r="253" spans="2:2">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" ht="14.4">
+    <row r="254" spans="2:2">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" ht="14.4">
+    <row r="255" spans="2:2">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" ht="14.4">
+    <row r="256" spans="2:2">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" ht="14.4">
+    <row r="257" spans="2:2">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" ht="14.4">
+    <row r="258" spans="2:2">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" ht="14.4">
+    <row r="259" spans="2:2">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" ht="14.4">
+    <row r="260" spans="2:2">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" ht="14.4">
+    <row r="261" spans="2:2">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" ht="14.4">
+    <row r="262" spans="2:2">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" ht="14.4">
+    <row r="263" spans="2:2">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" ht="14.4">
+    <row r="264" spans="2:2">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" ht="14.4">
+    <row r="265" spans="2:2">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" ht="14.4">
+    <row r="266" spans="2:2">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" ht="14.4">
+    <row r="267" spans="2:2">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" ht="14.4">
+    <row r="268" spans="2:2">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" ht="14.4">
+    <row r="269" spans="2:2">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" ht="14.4">
+    <row r="270" spans="2:2">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" ht="14.4">
+    <row r="271" spans="2:2">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" ht="14.4">
+    <row r="272" spans="2:2">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" ht="14.4">
+    <row r="273" spans="2:2">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" ht="14.4">
+    <row r="274" spans="2:2">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" ht="14.4">
+    <row r="275" spans="2:2">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" ht="14.4">
+    <row r="276" spans="2:2">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" ht="14.4">
+    <row r="277" spans="2:2">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" ht="14.4">
+    <row r="278" spans="2:2">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" ht="14.4">
+    <row r="279" spans="2:2">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" ht="14.4">
+    <row r="280" spans="2:2">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" ht="14.4">
+    <row r="281" spans="2:2">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" ht="14.4">
+    <row r="282" spans="2:2">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" ht="14.4">
+    <row r="283" spans="2:2">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" ht="14.4">
+    <row r="284" spans="2:2">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" ht="14.4">
+    <row r="285" spans="2:2">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" ht="14.4">
+    <row r="286" spans="2:2">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" ht="14.4">
+    <row r="287" spans="2:2">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" ht="14.4">
+    <row r="288" spans="2:2">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" ht="14.4">
+    <row r="289" spans="2:2">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" ht="14.4">
+    <row r="290" spans="2:2">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" ht="14.4">
+    <row r="291" spans="2:2">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" ht="14.4">
+    <row r="292" spans="2:2">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" ht="14.4">
+    <row r="293" spans="2:2">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" ht="14.4">
+    <row r="294" spans="2:2">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" ht="14.4">
+    <row r="295" spans="2:2">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" ht="14.4">
+    <row r="296" spans="2:2">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" ht="14.4">
+    <row r="297" spans="2:2">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" ht="14.4">
+    <row r="298" spans="2:2">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" ht="14.4">
+    <row r="299" spans="2:2">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" ht="14.4">
+    <row r="300" spans="2:2">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" ht="14.4">
+    <row r="301" spans="2:2">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" ht="14.4">
+    <row r="302" spans="2:2">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" ht="14.4">
+    <row r="303" spans="2:2">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" ht="14.4">
+    <row r="304" spans="2:2">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" ht="14.4">
+    <row r="305" spans="2:2">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" ht="14.4">
+    <row r="306" spans="2:2">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" ht="14.4">
+    <row r="307" spans="2:2">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" ht="14.4">
+    <row r="308" spans="2:2">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" ht="14.4">
+    <row r="309" spans="2:2">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" ht="14.4">
+    <row r="310" spans="2:2">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" ht="14.4">
+    <row r="311" spans="2:2">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" ht="14.4">
+    <row r="312" spans="2:2">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" ht="14.4">
+    <row r="313" spans="2:2">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" ht="14.4">
+    <row r="314" spans="2:2">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" ht="14.4">
+    <row r="315" spans="2:2">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" ht="14.4">
+    <row r="316" spans="2:2">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" ht="14.4">
+    <row r="317" spans="2:2">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" ht="14.4">
+    <row r="318" spans="2:2">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" ht="14.4">
+    <row r="319" spans="2:2">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" ht="14.4">
+    <row r="320" spans="2:2">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" ht="14.4">
+    <row r="321" spans="2:2">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" ht="14.4">
+    <row r="322" spans="2:2">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" ht="14.4">
+    <row r="323" spans="2:2">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" ht="14.4">
+    <row r="324" spans="2:2">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" ht="14.4">
+    <row r="325" spans="2:2">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" ht="14.4">
+    <row r="326" spans="2:2">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" ht="14.4">
+    <row r="327" spans="2:2">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" ht="14.4">
+    <row r="328" spans="2:2">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" ht="14.4">
+    <row r="329" spans="2:2">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" ht="14.4">
+    <row r="330" spans="2:2">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" ht="14.4">
+    <row r="331" spans="2:2">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" ht="14.4">
+    <row r="332" spans="2:2">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" ht="14.4">
+    <row r="333" spans="2:2">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" ht="14.4">
+    <row r="334" spans="2:2">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" ht="14.4">
+    <row r="335" spans="2:2">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" ht="14.4">
+    <row r="336" spans="2:2">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" ht="14.4">
+    <row r="337" spans="2:2">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" ht="14.4">
+    <row r="338" spans="2:2">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" ht="14.4">
+    <row r="339" spans="2:2">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" ht="14.4">
+    <row r="340" spans="2:2">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" ht="14.4">
+    <row r="341" spans="2:2">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" ht="14.4">
+    <row r="342" spans="2:2">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" ht="14.4">
+    <row r="343" spans="2:2">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" ht="14.4">
+    <row r="344" spans="2:2">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" ht="14.4">
+    <row r="345" spans="2:2">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" ht="14.4">
+    <row r="346" spans="2:2">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" ht="14.4">
+    <row r="347" spans="2:2">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" ht="14.4">
+    <row r="348" spans="2:2">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" ht="14.4">
+    <row r="349" spans="2:2">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" ht="14.4">
+    <row r="350" spans="2:2">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" ht="14.4">
+    <row r="351" spans="2:2">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" ht="14.4">
+    <row r="352" spans="2:2">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" ht="14.4">
+    <row r="353" spans="2:2">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" ht="14.4">
+    <row r="354" spans="2:2">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" ht="14.4">
+    <row r="355" spans="2:2">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" ht="14.4">
+    <row r="356" spans="2:2">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" ht="14.4">
+    <row r="357" spans="2:2">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" ht="14.4">
+    <row r="358" spans="2:2">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" ht="14.4">
+    <row r="359" spans="2:2">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" ht="14.4">
+    <row r="360" spans="2:2">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" ht="14.4">
+    <row r="361" spans="2:2">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" ht="14.4">
+    <row r="362" spans="2:2">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" ht="14.4">
+    <row r="363" spans="2:2">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" ht="14.4">
+    <row r="364" spans="2:2">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" ht="14.4">
+    <row r="365" spans="2:2">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" ht="14.4">
+    <row r="366" spans="2:2">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" ht="14.4">
+    <row r="367" spans="2:2">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" ht="14.4">
+    <row r="368" spans="2:2">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" ht="14.4">
+    <row r="369" spans="2:2">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" ht="14.4">
+    <row r="370" spans="2:2">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" ht="14.4">
+    <row r="371" spans="2:2">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" ht="14.4">
+    <row r="372" spans="2:2">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" ht="14.4">
+    <row r="373" spans="2:2">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" ht="14.4">
+    <row r="374" spans="2:2">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" ht="14.4">
+    <row r="375" spans="2:2">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" ht="14.4">
+    <row r="376" spans="2:2">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" ht="14.4">
+    <row r="377" spans="2:2">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" ht="14.4">
+    <row r="378" spans="2:2">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" ht="14.4">
+    <row r="379" spans="2:2">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" ht="14.4">
+    <row r="380" spans="2:2">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" ht="14.4">
+    <row r="381" spans="2:2">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" ht="14.4">
+    <row r="382" spans="2:2">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" ht="14.4">
+    <row r="383" spans="2:2">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" ht="14.4">
+    <row r="384" spans="2:2">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" ht="14.4">
+    <row r="385" spans="2:2">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" ht="14.4">
+    <row r="386" spans="2:2">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" ht="14.4">
+    <row r="387" spans="2:2">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" ht="14.4">
+    <row r="388" spans="2:2">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" ht="14.4">
+    <row r="389" spans="2:2">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" ht="14.4">
+    <row r="390" spans="2:2">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" ht="14.4">
+    <row r="391" spans="2:2">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" ht="14.4">
+    <row r="392" spans="2:2">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" ht="14.4">
+    <row r="393" spans="2:2">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" ht="14.4">
+    <row r="394" spans="2:2">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" ht="14.4">
+    <row r="395" spans="2:2">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" ht="14.4">
+    <row r="396" spans="2:2">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" ht="14.4">
+    <row r="397" spans="2:2">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" ht="14.4">
+    <row r="398" spans="2:2">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" ht="14.4">
+    <row r="399" spans="2:2">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" ht="14.4">
+    <row r="400" spans="2:2">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" ht="14.4">
+    <row r="401" spans="2:2">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" ht="14.4">
+    <row r="402" spans="2:2">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" ht="14.4">
+    <row r="403" spans="2:2">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" ht="14.4">
+    <row r="404" spans="2:2">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" ht="14.4">
+    <row r="405" spans="2:2">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" ht="14.4">
+    <row r="406" spans="2:2">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" ht="14.4">
+    <row r="407" spans="2:2">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" ht="14.4">
+    <row r="408" spans="2:2">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" ht="14.4">
+    <row r="409" spans="2:2">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" ht="14.4">
+    <row r="410" spans="2:2">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" ht="14.4">
+    <row r="411" spans="2:2">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" ht="14.4">
+    <row r="412" spans="2:2">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" ht="14.4">
+    <row r="413" spans="2:2">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" ht="14.4">
+    <row r="414" spans="2:2">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" ht="14.4">
+    <row r="415" spans="2:2">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" ht="14.4">
+    <row r="416" spans="2:2">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" ht="14.4">
+    <row r="417" spans="2:2">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" ht="14.4">
+    <row r="418" spans="2:2">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" ht="14.4">
+    <row r="419" spans="2:2">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" ht="14.4">
+    <row r="420" spans="2:2">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" ht="14.4">
+    <row r="421" spans="2:2">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" ht="14.4">
+    <row r="422" spans="2:2">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" ht="14.4">
+    <row r="423" spans="2:2">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" ht="14.4">
+    <row r="424" spans="2:2">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" ht="14.4">
+    <row r="425" spans="2:2">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" ht="14.4">
+    <row r="426" spans="2:2">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" ht="14.4">
+    <row r="427" spans="2:2">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" ht="14.4">
+    <row r="428" spans="2:2">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" ht="14.4">
+    <row r="429" spans="2:2">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" ht="14.4">
+    <row r="430" spans="2:2">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" ht="14.4">
+    <row r="431" spans="2:2">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" ht="14.4">
+    <row r="432" spans="2:2">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" ht="14.4">
+    <row r="433" spans="2:2">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" ht="14.4">
+    <row r="434" spans="2:2">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" ht="14.4">
+    <row r="435" spans="2:2">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" ht="14.4">
+    <row r="436" spans="2:2">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" ht="14.4">
+    <row r="437" spans="2:2">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" ht="14.4">
+    <row r="438" spans="2:2">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" ht="14.4">
+    <row r="439" spans="2:2">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" ht="14.4">
+    <row r="440" spans="2:2">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" ht="14.4">
+    <row r="441" spans="2:2">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" ht="14.4">
+    <row r="442" spans="2:2">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" ht="14.4">
+    <row r="443" spans="2:2">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" ht="14.4">
+    <row r="444" spans="2:2">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" ht="14.4">
+    <row r="445" spans="2:2">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" ht="14.4">
+    <row r="446" spans="2:2">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" ht="14.4">
+    <row r="447" spans="2:2">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" ht="14.4">
+    <row r="448" spans="2:2">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" ht="14.4">
+    <row r="449" spans="2:2">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" ht="14.4">
+    <row r="450" spans="2:2">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" ht="14.4">
+    <row r="451" spans="2:2">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" ht="14.4">
+    <row r="452" spans="2:2">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" ht="14.4">
+    <row r="453" spans="2:2">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" ht="14.4">
+    <row r="454" spans="2:2">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" ht="14.4">
+    <row r="455" spans="2:2">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" ht="14.4">
+    <row r="456" spans="2:2">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" ht="14.4">
+    <row r="457" spans="2:2">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" ht="14.4">
+    <row r="458" spans="2:2">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" ht="14.4">
+    <row r="459" spans="2:2">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" ht="14.4">
+    <row r="460" spans="2:2">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" ht="14.4">
+    <row r="461" spans="2:2">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" ht="14.4">
+    <row r="462" spans="2:2">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" ht="14.4">
+    <row r="463" spans="2:2">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" ht="14.4">
+    <row r="464" spans="2:2">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" ht="14.4">
+    <row r="465" spans="2:2">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" ht="14.4">
+    <row r="466" spans="2:2">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" ht="14.4">
+    <row r="467" spans="2:2">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" ht="14.4">
+    <row r="468" spans="2:2">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" ht="14.4">
+    <row r="469" spans="2:2">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" ht="14.4">
+    <row r="470" spans="2:2">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" ht="14.4">
+    <row r="471" spans="2:2">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" ht="14.4">
+    <row r="472" spans="2:2">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" ht="14.4">
+    <row r="473" spans="2:2">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" ht="14.4">
+    <row r="474" spans="2:2">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" ht="14.4">
+    <row r="475" spans="2:2">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" ht="14.4">
+    <row r="476" spans="2:2">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" ht="14.4">
+    <row r="477" spans="2:2">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" ht="14.4">
+    <row r="478" spans="2:2">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" ht="14.4">
+    <row r="479" spans="2:2">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" ht="14.4">
+    <row r="480" spans="2:2">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" ht="14.4">
+    <row r="481" spans="2:2">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" ht="14.4">
+    <row r="482" spans="2:2">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" ht="14.4">
+    <row r="483" spans="2:2">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" ht="14.4">
+    <row r="484" spans="2:2">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" ht="14.4">
+    <row r="485" spans="2:2">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" ht="14.4">
+    <row r="486" spans="2:2">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" ht="14.4">
+    <row r="487" spans="2:2">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" ht="14.4">
+    <row r="488" spans="2:2">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" ht="14.4">
+    <row r="489" spans="2:2">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" ht="14.4">
+    <row r="490" spans="2:2">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" ht="14.4">
+    <row r="491" spans="2:2">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" ht="14.4">
+    <row r="492" spans="2:2">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" ht="14.4">
+    <row r="493" spans="2:2">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" ht="14.4">
+    <row r="494" spans="2:2">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" ht="14.4">
+    <row r="495" spans="2:2">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" ht="14.4">
+    <row r="496" spans="2:2">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" ht="14.4">
+    <row r="497" spans="2:2">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" ht="14.4">
+    <row r="498" spans="2:2">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" ht="14.4">
+    <row r="499" spans="2:2">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" ht="14.4">
+    <row r="500" spans="2:2">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" ht="14.4">
+    <row r="501" spans="2:2">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" ht="14.4">
+    <row r="502" spans="2:2">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" ht="14.4">
+    <row r="503" spans="2:2">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" ht="14.4">
+    <row r="504" spans="2:2">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" ht="14.4">
+    <row r="505" spans="2:2">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" ht="14.4">
+    <row r="506" spans="2:2">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" ht="14.4">
+    <row r="507" spans="2:2">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" ht="14.4">
+    <row r="508" spans="2:2">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" ht="14.4">
+    <row r="509" spans="2:2">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" ht="14.4">
+    <row r="510" spans="2:2">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" ht="14.4">
+    <row r="511" spans="2:2">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" ht="14.4">
+    <row r="512" spans="2:2">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" ht="14.4">
+    <row r="513" spans="2:2">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" ht="14.4">
+    <row r="514" spans="2:2">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" ht="14.4">
+    <row r="515" spans="2:2">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" ht="14.4">
+    <row r="516" spans="2:2">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" ht="14.4">
+    <row r="517" spans="2:2">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" ht="14.4">
+    <row r="518" spans="2:2">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" ht="14.4">
+    <row r="519" spans="2:2">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" ht="14.4">
+    <row r="520" spans="2:2">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" ht="14.4">
+    <row r="521" spans="2:2">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" ht="14.4">
+    <row r="522" spans="2:2">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" ht="14.4">
+    <row r="523" spans="2:2">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" ht="14.4">
+    <row r="524" spans="2:2">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" ht="14.4">
+    <row r="525" spans="2:2">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" ht="14.4">
+    <row r="526" spans="2:2">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" ht="14.4">
+    <row r="527" spans="2:2">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" ht="14.4">
+    <row r="528" spans="2:2">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" ht="14.4">
+    <row r="529" spans="2:2">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" ht="14.4">
+    <row r="530" spans="2:2">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" ht="14.4">
+    <row r="531" spans="2:2">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" ht="14.4">
+    <row r="532" spans="2:2">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" ht="14.4">
+    <row r="533" spans="2:2">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" ht="14.4">
+    <row r="534" spans="2:2">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" ht="14.4">
+    <row r="535" spans="2:2">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" ht="14.4">
+    <row r="536" spans="2:2">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" ht="14.4">
+    <row r="537" spans="2:2">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" ht="14.4">
+    <row r="538" spans="2:2">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" ht="14.4">
+    <row r="539" spans="2:2">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" ht="14.4">
+    <row r="540" spans="2:2">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" ht="14.4">
+    <row r="541" spans="2:2">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" ht="14.4">
+    <row r="542" spans="2:2">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" ht="14.4">
+    <row r="543" spans="2:2">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" ht="14.4">
+    <row r="544" spans="2:2">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" ht="14.4">
+    <row r="545" spans="2:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" ht="14.4">
+    <row r="546" spans="2:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" ht="14.4">
+    <row r="547" spans="2:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" ht="14.4">
+    <row r="548" spans="2:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" ht="14.4">
+    <row r="549" spans="2:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" ht="14.4">
+    <row r="550" spans="2:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" ht="14.4">
+    <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" ht="14.4">
+    <row r="552" spans="2:2">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" ht="14.4">
+    <row r="553" spans="2:2">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" ht="14.4">
+    <row r="554" spans="2:2">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" ht="14.4">
+    <row r="555" spans="2:2">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" ht="14.4">
+    <row r="556" spans="2:2">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" ht="14.4">
+    <row r="557" spans="2:2">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" ht="14.4">
+    <row r="558" spans="2:2">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" ht="14.4">
+    <row r="559" spans="2:2">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" ht="14.4">
+    <row r="560" spans="2:2">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" ht="14.4">
+    <row r="561" spans="2:2">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" ht="14.4">
+    <row r="562" spans="2:2">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" ht="14.4">
+    <row r="563" spans="2:2">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" ht="14.4">
+    <row r="564" spans="2:2">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" ht="14.4">
+    <row r="565" spans="2:2">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" ht="14.4">
+    <row r="566" spans="2:2">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" ht="14.4">
+    <row r="567" spans="2:2">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" ht="14.4">
+    <row r="568" spans="2:2">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" ht="14.4">
+    <row r="569" spans="2:2">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" ht="14.4">
+    <row r="570" spans="2:2">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" ht="14.4">
+    <row r="571" spans="2:2">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" ht="14.4">
+    <row r="572" spans="2:2">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" ht="14.4">
+    <row r="573" spans="2:2">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" ht="14.4">
+    <row r="574" spans="2:2">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" ht="14.4">
+    <row r="575" spans="2:2">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" ht="14.4">
+    <row r="576" spans="2:2">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" ht="14.4">
+    <row r="577" spans="2:2">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" ht="14.4">
+    <row r="578" spans="2:2">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" ht="14.4">
+    <row r="579" spans="2:2">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" ht="14.4">
+    <row r="580" spans="2:2">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" ht="14.4">
+    <row r="581" spans="2:2">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" ht="14.4">
+    <row r="582" spans="2:2">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" ht="14.4">
+    <row r="583" spans="2:2">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" ht="14.4">
+    <row r="584" spans="2:2">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" ht="14.4">
+    <row r="585" spans="2:2">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" ht="14.4">
+    <row r="586" spans="2:2">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" ht="14.4">
+    <row r="587" spans="2:2">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" ht="14.4">
+    <row r="588" spans="2:2">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" ht="14.4">
+    <row r="589" spans="2:2">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" ht="14.4">
+    <row r="590" spans="2:2">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" ht="14.4">
+    <row r="591" spans="2:2">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" ht="14.4">
+    <row r="592" spans="2:2">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" ht="14.4">
+    <row r="593" spans="2:2">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" ht="14.4">
+    <row r="594" spans="2:2">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" ht="14.4">
+    <row r="595" spans="2:2">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" ht="14.4">
+    <row r="596" spans="2:2">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" ht="14.4">
+    <row r="597" spans="2:2">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" ht="14.4">
+    <row r="598" spans="2:2">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" ht="14.4">
+    <row r="599" spans="2:2">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" ht="14.4">
+    <row r="600" spans="2:2">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" ht="14.4">
+    <row r="601" spans="2:2">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2" ht="14.4">
+    <row r="602" spans="2:2">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2" ht="14.4">
+    <row r="603" spans="2:2">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2" ht="14.4">
+    <row r="604" spans="2:2">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2" ht="14.4">
+    <row r="605" spans="2:2">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2" ht="14.4">
+    <row r="606" spans="2:2">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2" ht="14.4">
+    <row r="607" spans="2:2">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2" ht="14.4">
+    <row r="608" spans="2:2">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2" ht="14.4">
+    <row r="609" spans="2:2">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2" ht="14.4">
+    <row r="610" spans="2:2">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2" ht="14.4">
+    <row r="611" spans="2:2">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2" ht="14.4">
+    <row r="612" spans="2:2">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2" ht="14.4">
+    <row r="613" spans="2:2">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2" ht="14.4">
+    <row r="614" spans="2:2">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2" ht="14.4">
+    <row r="615" spans="2:2">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2" ht="14.4">
+    <row r="616" spans="2:2">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2" ht="14.4">
+    <row r="617" spans="2:2">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2" ht="14.4">
+    <row r="618" spans="2:2">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2" ht="14.4">
+    <row r="619" spans="2:2">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2" ht="14.4">
+    <row r="620" spans="2:2">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2" ht="14.4">
+    <row r="621" spans="2:2">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2" ht="14.4">
+    <row r="622" spans="2:2">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2" ht="14.4">
+    <row r="623" spans="2:2">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2" ht="14.4">
+    <row r="624" spans="2:2">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2" ht="14.4">
+    <row r="625" spans="2:2">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2" ht="14.4">
+    <row r="626" spans="2:2">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2" ht="14.4">
+    <row r="627" spans="2:2">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2" ht="14.4">
+    <row r="628" spans="2:2">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2" ht="14.4">
+    <row r="629" spans="2:2">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2" ht="14.4">
+    <row r="630" spans="2:2">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2" ht="14.4">
+    <row r="631" spans="2:2">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2" ht="14.4">
+    <row r="632" spans="2:2">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2" ht="14.4">
+    <row r="633" spans="2:2">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2" ht="14.4">
+    <row r="634" spans="2:2">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2" ht="14.4">
+    <row r="635" spans="2:2">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2" ht="14.4">
+    <row r="636" spans="2:2">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2" ht="14.4">
+    <row r="637" spans="2:2">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2" ht="14.4">
+    <row r="638" spans="2:2">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2" ht="14.4">
+    <row r="639" spans="2:2">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2" ht="14.4">
+    <row r="640" spans="2:2">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2" ht="14.4">
+    <row r="641" spans="2:2">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2" ht="14.4">
+    <row r="642" spans="2:2">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2" ht="14.4">
+    <row r="643" spans="2:2">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2" ht="14.4">
+    <row r="644" spans="2:2">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2" ht="14.4">
+    <row r="645" spans="2:2">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2" ht="14.4">
+    <row r="646" spans="2:2">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2" ht="14.4">
+    <row r="647" spans="2:2">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2" ht="14.4">
+    <row r="648" spans="2:2">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2" ht="14.4">
+    <row r="649" spans="2:2">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2" ht="14.4">
+    <row r="650" spans="2:2">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2" ht="14.4">
+    <row r="651" spans="2:2">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2" ht="14.4">
+    <row r="652" spans="2:2">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2" ht="14.4">
+    <row r="653" spans="2:2">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2" ht="14.4">
+    <row r="654" spans="2:2">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2" ht="14.4">
+    <row r="655" spans="2:2">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2" ht="14.4">
+    <row r="656" spans="2:2">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2" ht="14.4">
+    <row r="657" spans="2:2">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2" ht="14.4">
+    <row r="658" spans="2:2">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2" ht="14.4">
+    <row r="659" spans="2:2">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2" ht="14.4">
+    <row r="660" spans="2:2">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2" ht="14.4">
+    <row r="661" spans="2:2">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2" ht="14.4">
+    <row r="662" spans="2:2">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2" ht="14.4">
+    <row r="663" spans="2:2">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2" ht="14.4">
+    <row r="664" spans="2:2">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2" ht="14.4">
+    <row r="665" spans="2:2">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2" ht="14.4">
+    <row r="666" spans="2:2">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2" ht="14.4">
+    <row r="667" spans="2:2">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2" ht="14.4">
+    <row r="668" spans="2:2">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2" ht="14.4">
+    <row r="669" spans="2:2">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2" ht="14.4">
+    <row r="670" spans="2:2">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2" ht="14.4">
+    <row r="671" spans="2:2">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2" ht="14.4">
+    <row r="672" spans="2:2">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2" ht="14.4">
+    <row r="673" spans="2:2">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2" ht="14.4">
+    <row r="674" spans="2:2">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2" ht="14.4">
+    <row r="675" spans="2:2">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2" ht="14.4">
+    <row r="676" spans="2:2">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2" ht="14.4">
+    <row r="677" spans="2:2">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2" ht="14.4">
+    <row r="678" spans="2:2">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2" ht="14.4">
+    <row r="679" spans="2:2">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2" ht="14.4">
+    <row r="680" spans="2:2">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2" ht="14.4">
+    <row r="681" spans="2:2">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2" ht="14.4">
+    <row r="682" spans="2:2">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2" ht="14.4">
+    <row r="683" spans="2:2">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2" ht="14.4">
+    <row r="684" spans="2:2">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2" ht="14.4">
+    <row r="685" spans="2:2">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2" ht="14.4">
+    <row r="686" spans="2:2">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2" ht="14.4">
+    <row r="687" spans="2:2">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2" ht="14.4">
+    <row r="688" spans="2:2">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2" ht="14.4">
+    <row r="689" spans="2:2">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2" ht="14.4">
+    <row r="690" spans="2:2">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2" ht="14.4">
+    <row r="691" spans="2:2">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2" ht="14.4">
+    <row r="692" spans="2:2">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2" ht="14.4">
+    <row r="693" spans="2:2">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2" ht="14.4">
+    <row r="694" spans="2:2">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2" ht="14.4">
+    <row r="695" spans="2:2">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2" ht="14.4">
+    <row r="696" spans="2:2">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2" ht="14.4">
+    <row r="697" spans="2:2">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2" ht="14.4">
+    <row r="698" spans="2:2">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2" ht="14.4">
+    <row r="699" spans="2:2">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2" ht="14.4">
+    <row r="700" spans="2:2">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2" ht="14.4">
+    <row r="701" spans="2:2">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2" ht="14.4">
+    <row r="702" spans="2:2">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2" ht="14.4">
+    <row r="703" spans="2:2">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2" ht="14.4">
+    <row r="704" spans="2:2">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2" ht="14.4">
+    <row r="705" spans="2:2">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2" ht="14.4">
+    <row r="706" spans="2:2">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2" ht="14.4">
+    <row r="707" spans="2:2">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2" ht="14.4">
+    <row r="708" spans="2:2">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2" ht="14.4">
+    <row r="709" spans="2:2">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2" ht="14.4">
+    <row r="710" spans="2:2">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2" ht="14.4">
+    <row r="711" spans="2:2">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2" ht="14.4">
+    <row r="712" spans="2:2">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2" ht="14.4">
+    <row r="713" spans="2:2">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2" ht="14.4">
+    <row r="714" spans="2:2">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2" ht="14.4">
+    <row r="715" spans="2:2">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2" ht="14.4">
+    <row r="716" spans="2:2">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2" ht="14.4">
+    <row r="717" spans="2:2">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2" ht="14.4">
+    <row r="718" spans="2:2">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2" ht="14.4">
+    <row r="719" spans="2:2">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2" ht="14.4">
+    <row r="720" spans="2:2">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2" ht="14.4">
+    <row r="721" spans="2:2">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2" ht="14.4">
+    <row r="722" spans="2:2">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2" ht="14.4">
+    <row r="723" spans="2:2">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2" ht="14.4">
+    <row r="724" spans="2:2">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2" ht="14.4">
+    <row r="725" spans="2:2">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2" ht="14.4">
+    <row r="726" spans="2:2">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2" ht="14.4">
+    <row r="727" spans="2:2">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2" ht="14.4">
+    <row r="728" spans="2:2">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2" ht="14.4">
+    <row r="729" spans="2:2">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2" ht="14.4">
+    <row r="730" spans="2:2">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2" ht="14.4">
+    <row r="731" spans="2:2">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2" ht="14.4">
+    <row r="732" spans="2:2">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2" ht="14.4">
+    <row r="733" spans="2:2">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2" ht="14.4">
+    <row r="734" spans="2:2">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2" ht="14.4">
+    <row r="735" spans="2:2">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2" ht="14.4">
+    <row r="736" spans="2:2">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2" ht="14.4">
+    <row r="737" spans="2:2">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2" ht="14.4">
+    <row r="738" spans="2:2">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2" ht="14.4">
+    <row r="739" spans="2:2">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2" ht="14.4">
+    <row r="740" spans="2:2">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2" ht="14.4">
+    <row r="741" spans="2:2">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2" ht="14.4">
+    <row r="742" spans="2:2">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2" ht="14.4">
+    <row r="743" spans="2:2">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2" ht="14.4">
+    <row r="744" spans="2:2">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2" ht="14.4">
+    <row r="745" spans="2:2">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2" ht="14.4">
+    <row r="746" spans="2:2">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2" ht="14.4">
+    <row r="747" spans="2:2">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2" ht="14.4">
+    <row r="748" spans="2:2">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2" ht="14.4">
+    <row r="749" spans="2:2">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2" ht="14.4">
+    <row r="750" spans="2:2">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2" ht="14.4">
+    <row r="751" spans="2:2">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2" ht="14.4">
+    <row r="752" spans="2:2">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2" ht="14.4">
+    <row r="753" spans="2:2">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2" ht="14.4">
+    <row r="754" spans="2:2">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2" ht="14.4">
+    <row r="755" spans="2:2">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2" ht="14.4">
+    <row r="756" spans="2:2">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2" ht="14.4">
+    <row r="757" spans="2:2">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2" ht="14.4">
+    <row r="758" spans="2:2">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2" ht="14.4">
+    <row r="759" spans="2:2">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2" ht="14.4">
+    <row r="760" spans="2:2">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2" ht="14.4">
+    <row r="761" spans="2:2">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2" ht="14.4">
+    <row r="762" spans="2:2">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2" ht="14.4">
+    <row r="763" spans="2:2">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2" ht="14.4">
+    <row r="764" spans="2:2">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2" ht="14.4">
+    <row r="765" spans="2:2">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2" ht="14.4">
+    <row r="766" spans="2:2">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2" ht="14.4">
+    <row r="767" spans="2:2">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2" ht="14.4">
+    <row r="768" spans="2:2">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2" ht="14.4">
+    <row r="769" spans="2:2">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2" ht="14.4">
+    <row r="770" spans="2:2">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2" ht="14.4">
+    <row r="771" spans="2:2">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2" ht="14.4">
+    <row r="772" spans="2:2">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2" ht="14.4">
+    <row r="773" spans="2:2">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2" ht="14.4">
+    <row r="774" spans="2:2">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2" ht="14.4">
+    <row r="775" spans="2:2">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2" ht="14.4">
+    <row r="776" spans="2:2">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2" ht="14.4">
+    <row r="777" spans="2:2">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2" ht="14.4">
+    <row r="778" spans="2:2">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2" ht="14.4">
+    <row r="779" spans="2:2">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2" ht="14.4">
+    <row r="780" spans="2:2">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2" ht="14.4">
+    <row r="781" spans="2:2">
       <c r="B781" s="7"/>
     </row>
   </sheetData>
@@ -8632,24 +8644,24 @@
   <dimension ref="A1:Z1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="45.5546875" customWidth="1"/>
-    <col min="12" max="21" width="6.44140625" customWidth="1"/>
-    <col min="22" max="26" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="45.5703125" customWidth="1"/>
+    <col min="12" max="21" width="6.42578125" customWidth="1"/>
+    <col min="22" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -10354,7 +10366,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" ht="14.4">
+    <row r="50" spans="1:21">
       <c r="A50" s="47" t="s">
         <v>235</v>
       </c>
@@ -10377,7 +10389,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.4">
+    <row r="51" spans="1:21">
       <c r="A51" s="47" t="s">
         <v>235</v>
       </c>
@@ -10400,7 +10412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="14.4">
+    <row r="52" spans="1:21">
       <c r="A52" s="47" t="s">
         <v>235</v>
       </c>
@@ -10423,7 +10435,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.4">
+    <row r="53" spans="1:21">
       <c r="A53" s="47" t="s">
         <v>235</v>
       </c>
@@ -10446,7 +10458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="14.4">
+    <row r="54" spans="1:21">
       <c r="A54" s="47" t="s">
         <v>235</v>
       </c>
@@ -10676,7 +10688,7 @@
       <c r="T60" s="79"/>
       <c r="U60" s="79"/>
     </row>
-    <row r="61" spans="1:21" s="30" customFormat="1" ht="28.8">
+    <row r="61" spans="1:21" s="30" customFormat="1" ht="30">
       <c r="A61" s="93" t="s">
         <v>76</v>
       </c>
@@ -17685,7 +17697,7 @@
       <c r="T264" s="7"/>
       <c r="U264" s="7"/>
     </row>
-    <row r="265" spans="1:21" ht="14.4">
+    <row r="265" spans="1:21">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -17708,2317 +17720,2317 @@
       <c r="T265" s="7"/>
       <c r="U265" s="7"/>
     </row>
-    <row r="266" spans="1:21" ht="14.4">
+    <row r="266" spans="1:21">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="1:21" ht="14.4">
+    <row r="267" spans="1:21">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="1:21" ht="14.4">
+    <row r="268" spans="1:21">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="1:21" ht="14.4">
+    <row r="269" spans="1:21">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="1:21" ht="14.4">
+    <row r="270" spans="1:21">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="1:21" ht="14.4">
+    <row r="271" spans="1:21">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="1:21" ht="14.4">
+    <row r="272" spans="1:21">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" ht="14.4">
+    <row r="273" spans="2:2">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" ht="14.4">
+    <row r="274" spans="2:2">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" ht="14.4">
+    <row r="275" spans="2:2">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" ht="14.4">
+    <row r="276" spans="2:2">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" ht="14.4">
+    <row r="277" spans="2:2">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" ht="14.4">
+    <row r="278" spans="2:2">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" ht="14.4">
+    <row r="279" spans="2:2">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" ht="14.4">
+    <row r="280" spans="2:2">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" ht="14.4">
+    <row r="281" spans="2:2">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" ht="14.4">
+    <row r="282" spans="2:2">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" ht="14.4">
+    <row r="283" spans="2:2">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" ht="14.4">
+    <row r="284" spans="2:2">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" ht="14.4">
+    <row r="285" spans="2:2">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" ht="14.4">
+    <row r="286" spans="2:2">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" ht="14.4">
+    <row r="287" spans="2:2">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" ht="14.4">
+    <row r="288" spans="2:2">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" ht="14.4">
+    <row r="289" spans="2:2">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" ht="14.4">
+    <row r="290" spans="2:2">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" ht="14.4">
+    <row r="291" spans="2:2">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" ht="14.4">
+    <row r="292" spans="2:2">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" ht="14.4">
+    <row r="293" spans="2:2">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" ht="14.4">
+    <row r="294" spans="2:2">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" ht="14.4">
+    <row r="295" spans="2:2">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" ht="14.4">
+    <row r="296" spans="2:2">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" ht="14.4">
+    <row r="297" spans="2:2">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" ht="14.4">
+    <row r="298" spans="2:2">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" ht="14.4">
+    <row r="299" spans="2:2">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" ht="14.4">
+    <row r="300" spans="2:2">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" ht="14.4">
+    <row r="301" spans="2:2">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" ht="14.4">
+    <row r="302" spans="2:2">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" ht="14.4">
+    <row r="303" spans="2:2">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" ht="14.4">
+    <row r="304" spans="2:2">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" ht="14.4">
+    <row r="305" spans="2:2">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" ht="14.4">
+    <row r="306" spans="2:2">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" ht="14.4">
+    <row r="307" spans="2:2">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" ht="14.4">
+    <row r="308" spans="2:2">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" ht="14.4">
+    <row r="309" spans="2:2">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" ht="14.4">
+    <row r="310" spans="2:2">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" ht="14.4">
+    <row r="311" spans="2:2">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" ht="14.4">
+    <row r="312" spans="2:2">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" ht="14.4">
+    <row r="313" spans="2:2">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" ht="14.4">
+    <row r="314" spans="2:2">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" ht="14.4">
+    <row r="315" spans="2:2">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" ht="14.4">
+    <row r="316" spans="2:2">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" ht="14.4">
+    <row r="317" spans="2:2">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" ht="14.4">
+    <row r="318" spans="2:2">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" ht="14.4">
+    <row r="319" spans="2:2">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" ht="14.4">
+    <row r="320" spans="2:2">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" ht="14.4">
+    <row r="321" spans="2:2">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" ht="14.4">
+    <row r="322" spans="2:2">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" ht="14.4">
+    <row r="323" spans="2:2">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" ht="14.4">
+    <row r="324" spans="2:2">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" ht="14.4">
+    <row r="325" spans="2:2">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" ht="14.4">
+    <row r="326" spans="2:2">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" ht="14.4">
+    <row r="327" spans="2:2">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" ht="14.4">
+    <row r="328" spans="2:2">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" ht="14.4">
+    <row r="329" spans="2:2">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" ht="14.4">
+    <row r="330" spans="2:2">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" ht="14.4">
+    <row r="331" spans="2:2">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" ht="14.4">
+    <row r="332" spans="2:2">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" ht="14.4">
+    <row r="333" spans="2:2">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" ht="14.4">
+    <row r="334" spans="2:2">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" ht="14.4">
+    <row r="335" spans="2:2">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" ht="14.4">
+    <row r="336" spans="2:2">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" ht="14.4">
+    <row r="337" spans="2:2">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" ht="14.4">
+    <row r="338" spans="2:2">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" ht="14.4">
+    <row r="339" spans="2:2">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" ht="14.4">
+    <row r="340" spans="2:2">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" ht="14.4">
+    <row r="341" spans="2:2">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" ht="14.4">
+    <row r="342" spans="2:2">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" ht="14.4">
+    <row r="343" spans="2:2">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" ht="14.4">
+    <row r="344" spans="2:2">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" ht="14.4">
+    <row r="345" spans="2:2">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" ht="14.4">
+    <row r="346" spans="2:2">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" ht="14.4">
+    <row r="347" spans="2:2">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" ht="14.4">
+    <row r="348" spans="2:2">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" ht="14.4">
+    <row r="349" spans="2:2">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" ht="14.4">
+    <row r="350" spans="2:2">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" ht="14.4">
+    <row r="351" spans="2:2">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" ht="14.4">
+    <row r="352" spans="2:2">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" ht="14.4">
+    <row r="353" spans="2:2">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" ht="14.4">
+    <row r="354" spans="2:2">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" ht="14.4">
+    <row r="355" spans="2:2">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" ht="14.4">
+    <row r="356" spans="2:2">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" ht="14.4">
+    <row r="357" spans="2:2">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" ht="14.4">
+    <row r="358" spans="2:2">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" ht="14.4">
+    <row r="359" spans="2:2">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" ht="14.4">
+    <row r="360" spans="2:2">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" ht="14.4">
+    <row r="361" spans="2:2">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" ht="14.4">
+    <row r="362" spans="2:2">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" ht="14.4">
+    <row r="363" spans="2:2">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" ht="14.4">
+    <row r="364" spans="2:2">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" ht="14.4">
+    <row r="365" spans="2:2">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" ht="14.4">
+    <row r="366" spans="2:2">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" ht="14.4">
+    <row r="367" spans="2:2">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" ht="14.4">
+    <row r="368" spans="2:2">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" ht="14.4">
+    <row r="369" spans="2:2">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" ht="14.4">
+    <row r="370" spans="2:2">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" ht="14.4">
+    <row r="371" spans="2:2">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" ht="14.4">
+    <row r="372" spans="2:2">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" ht="14.4">
+    <row r="373" spans="2:2">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" ht="14.4">
+    <row r="374" spans="2:2">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" ht="14.4">
+    <row r="375" spans="2:2">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" ht="14.4">
+    <row r="376" spans="2:2">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" ht="14.4">
+    <row r="377" spans="2:2">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" ht="14.4">
+    <row r="378" spans="2:2">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" ht="14.4">
+    <row r="379" spans="2:2">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" ht="14.4">
+    <row r="380" spans="2:2">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" ht="14.4">
+    <row r="381" spans="2:2">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" ht="14.4">
+    <row r="382" spans="2:2">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" ht="14.4">
+    <row r="383" spans="2:2">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" ht="14.4">
+    <row r="384" spans="2:2">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" ht="14.4">
+    <row r="385" spans="2:2">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" ht="14.4">
+    <row r="386" spans="2:2">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" ht="14.4">
+    <row r="387" spans="2:2">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" ht="14.4">
+    <row r="388" spans="2:2">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" ht="14.4">
+    <row r="389" spans="2:2">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" ht="14.4">
+    <row r="390" spans="2:2">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" ht="14.4">
+    <row r="391" spans="2:2">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" ht="14.4">
+    <row r="392" spans="2:2">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" ht="14.4">
+    <row r="393" spans="2:2">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" ht="14.4">
+    <row r="394" spans="2:2">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" ht="14.4">
+    <row r="395" spans="2:2">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" ht="14.4">
+    <row r="396" spans="2:2">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" ht="14.4">
+    <row r="397" spans="2:2">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" ht="14.4">
+    <row r="398" spans="2:2">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" ht="14.4">
+    <row r="399" spans="2:2">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" ht="14.4">
+    <row r="400" spans="2:2">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" ht="14.4">
+    <row r="401" spans="2:2">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" ht="14.4">
+    <row r="402" spans="2:2">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" ht="14.4">
+    <row r="403" spans="2:2">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" ht="14.4">
+    <row r="404" spans="2:2">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" ht="14.4">
+    <row r="405" spans="2:2">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" ht="14.4">
+    <row r="406" spans="2:2">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" ht="14.4">
+    <row r="407" spans="2:2">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" ht="14.4">
+    <row r="408" spans="2:2">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" ht="14.4">
+    <row r="409" spans="2:2">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" ht="14.4">
+    <row r="410" spans="2:2">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" ht="14.4">
+    <row r="411" spans="2:2">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" ht="14.4">
+    <row r="412" spans="2:2">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" ht="14.4">
+    <row r="413" spans="2:2">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" ht="14.4">
+    <row r="414" spans="2:2">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" ht="14.4">
+    <row r="415" spans="2:2">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" ht="14.4">
+    <row r="416" spans="2:2">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" ht="14.4">
+    <row r="417" spans="2:2">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" ht="14.4">
+    <row r="418" spans="2:2">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" ht="14.4">
+    <row r="419" spans="2:2">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" ht="14.4">
+    <row r="420" spans="2:2">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" ht="14.4">
+    <row r="421" spans="2:2">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" ht="14.4">
+    <row r="422" spans="2:2">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" ht="14.4">
+    <row r="423" spans="2:2">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" ht="14.4">
+    <row r="424" spans="2:2">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" ht="14.4">
+    <row r="425" spans="2:2">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" ht="14.4">
+    <row r="426" spans="2:2">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" ht="14.4">
+    <row r="427" spans="2:2">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" ht="14.4">
+    <row r="428" spans="2:2">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" ht="14.4">
+    <row r="429" spans="2:2">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" ht="14.4">
+    <row r="430" spans="2:2">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" ht="14.4">
+    <row r="431" spans="2:2">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" ht="14.4">
+    <row r="432" spans="2:2">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" ht="14.4">
+    <row r="433" spans="2:2">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" ht="14.4">
+    <row r="434" spans="2:2">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" ht="14.4">
+    <row r="435" spans="2:2">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" ht="14.4">
+    <row r="436" spans="2:2">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" ht="14.4">
+    <row r="437" spans="2:2">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" ht="14.4">
+    <row r="438" spans="2:2">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" ht="14.4">
+    <row r="439" spans="2:2">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" ht="14.4">
+    <row r="440" spans="2:2">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" ht="14.4">
+    <row r="441" spans="2:2">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" ht="14.4">
+    <row r="442" spans="2:2">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" ht="14.4">
+    <row r="443" spans="2:2">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" ht="14.4">
+    <row r="444" spans="2:2">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" ht="14.4">
+    <row r="445" spans="2:2">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" ht="14.4">
+    <row r="446" spans="2:2">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" ht="14.4">
+    <row r="447" spans="2:2">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" ht="14.4">
+    <row r="448" spans="2:2">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" ht="14.4">
+    <row r="449" spans="2:2">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" ht="14.4">
+    <row r="450" spans="2:2">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" ht="14.4">
+    <row r="451" spans="2:2">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" ht="14.4">
+    <row r="452" spans="2:2">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" ht="14.4">
+    <row r="453" spans="2:2">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" ht="14.4">
+    <row r="454" spans="2:2">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" ht="14.4">
+    <row r="455" spans="2:2">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" ht="14.4">
+    <row r="456" spans="2:2">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" ht="14.4">
+    <row r="457" spans="2:2">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" ht="14.4">
+    <row r="458" spans="2:2">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" ht="14.4">
+    <row r="459" spans="2:2">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" ht="14.4">
+    <row r="460" spans="2:2">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" ht="14.4">
+    <row r="461" spans="2:2">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" ht="14.4">
+    <row r="462" spans="2:2">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" ht="14.4">
+    <row r="463" spans="2:2">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" ht="14.4">
+    <row r="464" spans="2:2">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" ht="14.4">
+    <row r="465" spans="2:2">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" ht="14.4">
+    <row r="466" spans="2:2">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" ht="14.4">
+    <row r="467" spans="2:2">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" ht="14.4">
+    <row r="468" spans="2:2">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" ht="14.4">
+    <row r="469" spans="2:2">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" ht="14.4">
+    <row r="470" spans="2:2">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" ht="14.4">
+    <row r="471" spans="2:2">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" ht="14.4">
+    <row r="472" spans="2:2">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" ht="14.4">
+    <row r="473" spans="2:2">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" ht="14.4">
+    <row r="474" spans="2:2">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" ht="14.4">
+    <row r="475" spans="2:2">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" ht="14.4">
+    <row r="476" spans="2:2">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" ht="14.4">
+    <row r="477" spans="2:2">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" ht="14.4">
+    <row r="478" spans="2:2">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" ht="14.4">
+    <row r="479" spans="2:2">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" ht="14.4">
+    <row r="480" spans="2:2">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" ht="14.4">
+    <row r="481" spans="2:2">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" ht="14.4">
+    <row r="482" spans="2:2">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" ht="14.4">
+    <row r="483" spans="2:2">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" ht="14.4">
+    <row r="484" spans="2:2">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" ht="14.4">
+    <row r="485" spans="2:2">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" ht="14.4">
+    <row r="486" spans="2:2">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" ht="14.4">
+    <row r="487" spans="2:2">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" ht="14.4">
+    <row r="488" spans="2:2">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" ht="14.4">
+    <row r="489" spans="2:2">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" ht="14.4">
+    <row r="490" spans="2:2">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" ht="14.4">
+    <row r="491" spans="2:2">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" ht="14.4">
+    <row r="492" spans="2:2">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" ht="14.4">
+    <row r="493" spans="2:2">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" ht="14.4">
+    <row r="494" spans="2:2">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" ht="14.4">
+    <row r="495" spans="2:2">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" ht="14.4">
+    <row r="496" spans="2:2">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" ht="14.4">
+    <row r="497" spans="2:2">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" ht="14.4">
+    <row r="498" spans="2:2">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" ht="14.4">
+    <row r="499" spans="2:2">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" ht="14.4">
+    <row r="500" spans="2:2">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" ht="14.4">
+    <row r="501" spans="2:2">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" ht="14.4">
+    <row r="502" spans="2:2">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" ht="14.4">
+    <row r="503" spans="2:2">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" ht="14.4">
+    <row r="504" spans="2:2">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" ht="14.4">
+    <row r="505" spans="2:2">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" ht="14.4">
+    <row r="506" spans="2:2">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" ht="14.4">
+    <row r="507" spans="2:2">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" ht="14.4">
+    <row r="508" spans="2:2">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" ht="14.4">
+    <row r="509" spans="2:2">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" ht="14.4">
+    <row r="510" spans="2:2">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" ht="14.4">
+    <row r="511" spans="2:2">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" ht="14.4">
+    <row r="512" spans="2:2">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" ht="14.4">
+    <row r="513" spans="2:2">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" ht="14.4">
+    <row r="514" spans="2:2">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" ht="14.4">
+    <row r="515" spans="2:2">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" ht="14.4">
+    <row r="516" spans="2:2">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" ht="14.4">
+    <row r="517" spans="2:2">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" ht="14.4">
+    <row r="518" spans="2:2">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" ht="14.4">
+    <row r="519" spans="2:2">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" ht="14.4">
+    <row r="520" spans="2:2">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" ht="14.4">
+    <row r="521" spans="2:2">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" ht="14.4">
+    <row r="522" spans="2:2">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" ht="14.4">
+    <row r="523" spans="2:2">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" ht="14.4">
+    <row r="524" spans="2:2">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" ht="14.4">
+    <row r="525" spans="2:2">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" ht="14.4">
+    <row r="526" spans="2:2">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" ht="14.4">
+    <row r="527" spans="2:2">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" ht="14.4">
+    <row r="528" spans="2:2">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" ht="14.4">
+    <row r="529" spans="2:2">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" ht="14.4">
+    <row r="530" spans="2:2">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" ht="14.4">
+    <row r="531" spans="2:2">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" ht="14.4">
+    <row r="532" spans="2:2">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" ht="14.4">
+    <row r="533" spans="2:2">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" ht="14.4">
+    <row r="534" spans="2:2">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" ht="14.4">
+    <row r="535" spans="2:2">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" ht="14.4">
+    <row r="536" spans="2:2">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" ht="14.4">
+    <row r="537" spans="2:2">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" ht="14.4">
+    <row r="538" spans="2:2">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" ht="14.4">
+    <row r="539" spans="2:2">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" ht="14.4">
+    <row r="540" spans="2:2">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" ht="14.4">
+    <row r="541" spans="2:2">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" ht="14.4">
+    <row r="542" spans="2:2">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" ht="14.4">
+    <row r="543" spans="2:2">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" ht="14.4">
+    <row r="544" spans="2:2">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" ht="14.4">
+    <row r="545" spans="2:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" ht="14.4">
+    <row r="546" spans="2:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" ht="14.4">
+    <row r="547" spans="2:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" ht="14.4">
+    <row r="548" spans="2:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" ht="14.4">
+    <row r="549" spans="2:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" ht="14.4">
+    <row r="550" spans="2:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" ht="14.4">
+    <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" ht="14.4">
+    <row r="552" spans="2:2">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" ht="14.4">
+    <row r="553" spans="2:2">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" ht="14.4">
+    <row r="554" spans="2:2">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" ht="14.4">
+    <row r="555" spans="2:2">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" ht="14.4">
+    <row r="556" spans="2:2">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" ht="14.4">
+    <row r="557" spans="2:2">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" ht="14.4">
+    <row r="558" spans="2:2">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" ht="14.4">
+    <row r="559" spans="2:2">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" ht="14.4">
+    <row r="560" spans="2:2">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" ht="14.4">
+    <row r="561" spans="2:2">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" ht="14.4">
+    <row r="562" spans="2:2">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" ht="14.4">
+    <row r="563" spans="2:2">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" ht="14.4">
+    <row r="564" spans="2:2">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" ht="14.4">
+    <row r="565" spans="2:2">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" ht="14.4">
+    <row r="566" spans="2:2">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" ht="14.4">
+    <row r="567" spans="2:2">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" ht="14.4">
+    <row r="568" spans="2:2">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" ht="14.4">
+    <row r="569" spans="2:2">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" ht="14.4">
+    <row r="570" spans="2:2">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" ht="14.4">
+    <row r="571" spans="2:2">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" ht="14.4">
+    <row r="572" spans="2:2">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" ht="14.4">
+    <row r="573" spans="2:2">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" ht="14.4">
+    <row r="574" spans="2:2">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" ht="14.4">
+    <row r="575" spans="2:2">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" ht="14.4">
+    <row r="576" spans="2:2">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" ht="14.4">
+    <row r="577" spans="2:2">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" ht="14.4">
+    <row r="578" spans="2:2">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" ht="14.4">
+    <row r="579" spans="2:2">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" ht="14.4">
+    <row r="580" spans="2:2">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" ht="14.4">
+    <row r="581" spans="2:2">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" ht="14.4">
+    <row r="582" spans="2:2">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" ht="14.4">
+    <row r="583" spans="2:2">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" ht="14.4">
+    <row r="584" spans="2:2">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" ht="14.4">
+    <row r="585" spans="2:2">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" ht="14.4">
+    <row r="586" spans="2:2">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" ht="14.4">
+    <row r="587" spans="2:2">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" ht="14.4">
+    <row r="588" spans="2:2">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" ht="14.4">
+    <row r="589" spans="2:2">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" ht="14.4">
+    <row r="590" spans="2:2">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" ht="14.4">
+    <row r="591" spans="2:2">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" ht="14.4">
+    <row r="592" spans="2:2">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" ht="14.4">
+    <row r="593" spans="2:2">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" ht="14.4">
+    <row r="594" spans="2:2">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" ht="14.4">
+    <row r="595" spans="2:2">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" ht="14.4">
+    <row r="596" spans="2:2">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" ht="14.4">
+    <row r="597" spans="2:2">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" ht="14.4">
+    <row r="598" spans="2:2">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" ht="14.4">
+    <row r="599" spans="2:2">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" ht="14.4">
+    <row r="600" spans="2:2">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" ht="14.4">
+    <row r="601" spans="2:2">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2" ht="14.4">
+    <row r="602" spans="2:2">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2" ht="14.4">
+    <row r="603" spans="2:2">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2" ht="14.4">
+    <row r="604" spans="2:2">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2" ht="14.4">
+    <row r="605" spans="2:2">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2" ht="14.4">
+    <row r="606" spans="2:2">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2" ht="14.4">
+    <row r="607" spans="2:2">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2" ht="14.4">
+    <row r="608" spans="2:2">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2" ht="14.4">
+    <row r="609" spans="2:2">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2" ht="14.4">
+    <row r="610" spans="2:2">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2" ht="14.4">
+    <row r="611" spans="2:2">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2" ht="14.4">
+    <row r="612" spans="2:2">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2" ht="14.4">
+    <row r="613" spans="2:2">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2" ht="14.4">
+    <row r="614" spans="2:2">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2" ht="14.4">
+    <row r="615" spans="2:2">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2" ht="14.4">
+    <row r="616" spans="2:2">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2" ht="14.4">
+    <row r="617" spans="2:2">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2" ht="14.4">
+    <row r="618" spans="2:2">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2" ht="14.4">
+    <row r="619" spans="2:2">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2" ht="14.4">
+    <row r="620" spans="2:2">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2" ht="14.4">
+    <row r="621" spans="2:2">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2" ht="14.4">
+    <row r="622" spans="2:2">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2" ht="14.4">
+    <row r="623" spans="2:2">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2" ht="14.4">
+    <row r="624" spans="2:2">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2" ht="14.4">
+    <row r="625" spans="2:2">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2" ht="14.4">
+    <row r="626" spans="2:2">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2" ht="14.4">
+    <row r="627" spans="2:2">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2" ht="14.4">
+    <row r="628" spans="2:2">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2" ht="14.4">
+    <row r="629" spans="2:2">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2" ht="14.4">
+    <row r="630" spans="2:2">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2" ht="14.4">
+    <row r="631" spans="2:2">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2" ht="14.4">
+    <row r="632" spans="2:2">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2" ht="14.4">
+    <row r="633" spans="2:2">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2" ht="14.4">
+    <row r="634" spans="2:2">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2" ht="14.4">
+    <row r="635" spans="2:2">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2" ht="14.4">
+    <row r="636" spans="2:2">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2" ht="14.4">
+    <row r="637" spans="2:2">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2" ht="14.4">
+    <row r="638" spans="2:2">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2" ht="14.4">
+    <row r="639" spans="2:2">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2" ht="14.4">
+    <row r="640" spans="2:2">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2" ht="14.4">
+    <row r="641" spans="2:2">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2" ht="14.4">
+    <row r="642" spans="2:2">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2" ht="14.4">
+    <row r="643" spans="2:2">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2" ht="14.4">
+    <row r="644" spans="2:2">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2" ht="14.4">
+    <row r="645" spans="2:2">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2" ht="14.4">
+    <row r="646" spans="2:2">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2" ht="14.4">
+    <row r="647" spans="2:2">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2" ht="14.4">
+    <row r="648" spans="2:2">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2" ht="14.4">
+    <row r="649" spans="2:2">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2" ht="14.4">
+    <row r="650" spans="2:2">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2" ht="14.4">
+    <row r="651" spans="2:2">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2" ht="14.4">
+    <row r="652" spans="2:2">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2" ht="14.4">
+    <row r="653" spans="2:2">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2" ht="14.4">
+    <row r="654" spans="2:2">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2" ht="14.4">
+    <row r="655" spans="2:2">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2" ht="14.4">
+    <row r="656" spans="2:2">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2" ht="14.4">
+    <row r="657" spans="2:2">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2" ht="14.4">
+    <row r="658" spans="2:2">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2" ht="14.4">
+    <row r="659" spans="2:2">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2" ht="14.4">
+    <row r="660" spans="2:2">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2" ht="14.4">
+    <row r="661" spans="2:2">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2" ht="14.4">
+    <row r="662" spans="2:2">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2" ht="14.4">
+    <row r="663" spans="2:2">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2" ht="14.4">
+    <row r="664" spans="2:2">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2" ht="14.4">
+    <row r="665" spans="2:2">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2" ht="14.4">
+    <row r="666" spans="2:2">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2" ht="14.4">
+    <row r="667" spans="2:2">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2" ht="14.4">
+    <row r="668" spans="2:2">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2" ht="14.4">
+    <row r="669" spans="2:2">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2" ht="14.4">
+    <row r="670" spans="2:2">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2" ht="14.4">
+    <row r="671" spans="2:2">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2" ht="14.4">
+    <row r="672" spans="2:2">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2" ht="14.4">
+    <row r="673" spans="2:2">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2" ht="14.4">
+    <row r="674" spans="2:2">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2" ht="14.4">
+    <row r="675" spans="2:2">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2" ht="14.4">
+    <row r="676" spans="2:2">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2" ht="14.4">
+    <row r="677" spans="2:2">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2" ht="14.4">
+    <row r="678" spans="2:2">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2" ht="14.4">
+    <row r="679" spans="2:2">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2" ht="14.4">
+    <row r="680" spans="2:2">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2" ht="14.4">
+    <row r="681" spans="2:2">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2" ht="14.4">
+    <row r="682" spans="2:2">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2" ht="14.4">
+    <row r="683" spans="2:2">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2" ht="14.4">
+    <row r="684" spans="2:2">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2" ht="14.4">
+    <row r="685" spans="2:2">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2" ht="14.4">
+    <row r="686" spans="2:2">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2" ht="14.4">
+    <row r="687" spans="2:2">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2" ht="14.4">
+    <row r="688" spans="2:2">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2" ht="14.4">
+    <row r="689" spans="2:2">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2" ht="14.4">
+    <row r="690" spans="2:2">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2" ht="14.4">
+    <row r="691" spans="2:2">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2" ht="14.4">
+    <row r="692" spans="2:2">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2" ht="14.4">
+    <row r="693" spans="2:2">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2" ht="14.4">
+    <row r="694" spans="2:2">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2" ht="14.4">
+    <row r="695" spans="2:2">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2" ht="14.4">
+    <row r="696" spans="2:2">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2" ht="14.4">
+    <row r="697" spans="2:2">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2" ht="14.4">
+    <row r="698" spans="2:2">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2" ht="14.4">
+    <row r="699" spans="2:2">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2" ht="14.4">
+    <row r="700" spans="2:2">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2" ht="14.4">
+    <row r="701" spans="2:2">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2" ht="14.4">
+    <row r="702" spans="2:2">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2" ht="14.4">
+    <row r="703" spans="2:2">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2" ht="14.4">
+    <row r="704" spans="2:2">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2" ht="14.4">
+    <row r="705" spans="2:2">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2" ht="14.4">
+    <row r="706" spans="2:2">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2" ht="14.4">
+    <row r="707" spans="2:2">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2" ht="14.4">
+    <row r="708" spans="2:2">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2" ht="14.4">
+    <row r="709" spans="2:2">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2" ht="14.4">
+    <row r="710" spans="2:2">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2" ht="14.4">
+    <row r="711" spans="2:2">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2" ht="14.4">
+    <row r="712" spans="2:2">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2" ht="14.4">
+    <row r="713" spans="2:2">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2" ht="14.4">
+    <row r="714" spans="2:2">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2" ht="14.4">
+    <row r="715" spans="2:2">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2" ht="14.4">
+    <row r="716" spans="2:2">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2" ht="14.4">
+    <row r="717" spans="2:2">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2" ht="14.4">
+    <row r="718" spans="2:2">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2" ht="14.4">
+    <row r="719" spans="2:2">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2" ht="14.4">
+    <row r="720" spans="2:2">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2" ht="14.4">
+    <row r="721" spans="2:2">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2" ht="14.4">
+    <row r="722" spans="2:2">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2" ht="14.4">
+    <row r="723" spans="2:2">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2" ht="14.4">
+    <row r="724" spans="2:2">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2" ht="14.4">
+    <row r="725" spans="2:2">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2" ht="14.4">
+    <row r="726" spans="2:2">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2" ht="14.4">
+    <row r="727" spans="2:2">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2" ht="14.4">
+    <row r="728" spans="2:2">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2" ht="14.4">
+    <row r="729" spans="2:2">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2" ht="14.4">
+    <row r="730" spans="2:2">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2" ht="14.4">
+    <row r="731" spans="2:2">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2" ht="14.4">
+    <row r="732" spans="2:2">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2" ht="14.4">
+    <row r="733" spans="2:2">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2" ht="14.4">
+    <row r="734" spans="2:2">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2" ht="14.4">
+    <row r="735" spans="2:2">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2" ht="14.4">
+    <row r="736" spans="2:2">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2" ht="14.4">
+    <row r="737" spans="2:2">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2" ht="14.4">
+    <row r="738" spans="2:2">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2" ht="14.4">
+    <row r="739" spans="2:2">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2" ht="14.4">
+    <row r="740" spans="2:2">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2" ht="14.4">
+    <row r="741" spans="2:2">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2" ht="14.4">
+    <row r="742" spans="2:2">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2" ht="14.4">
+    <row r="743" spans="2:2">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2" ht="14.4">
+    <row r="744" spans="2:2">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2" ht="14.4">
+    <row r="745" spans="2:2">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2" ht="14.4">
+    <row r="746" spans="2:2">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2" ht="14.4">
+    <row r="747" spans="2:2">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2" ht="14.4">
+    <row r="748" spans="2:2">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2" ht="14.4">
+    <row r="749" spans="2:2">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2" ht="14.4">
+    <row r="750" spans="2:2">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2" ht="14.4">
+    <row r="751" spans="2:2">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2" ht="14.4">
+    <row r="752" spans="2:2">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2" ht="14.4">
+    <row r="753" spans="2:2">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2" ht="14.4">
+    <row r="754" spans="2:2">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2" ht="14.4">
+    <row r="755" spans="2:2">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2" ht="14.4">
+    <row r="756" spans="2:2">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2" ht="14.4">
+    <row r="757" spans="2:2">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2" ht="14.4">
+    <row r="758" spans="2:2">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2" ht="14.4">
+    <row r="759" spans="2:2">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2" ht="14.4">
+    <row r="760" spans="2:2">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2" ht="14.4">
+    <row r="761" spans="2:2">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2" ht="14.4">
+    <row r="762" spans="2:2">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2" ht="14.4">
+    <row r="763" spans="2:2">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2" ht="14.4">
+    <row r="764" spans="2:2">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2" ht="14.4">
+    <row r="765" spans="2:2">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2" ht="14.4">
+    <row r="766" spans="2:2">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2" ht="14.4">
+    <row r="767" spans="2:2">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2" ht="14.4">
+    <row r="768" spans="2:2">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2" ht="14.4">
+    <row r="769" spans="2:2">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2" ht="14.4">
+    <row r="770" spans="2:2">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2" ht="14.4">
+    <row r="771" spans="2:2">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2" ht="14.4">
+    <row r="772" spans="2:2">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2" ht="14.4">
+    <row r="773" spans="2:2">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2" ht="14.4">
+    <row r="774" spans="2:2">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2" ht="14.4">
+    <row r="775" spans="2:2">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2" ht="14.4">
+    <row r="776" spans="2:2">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2" ht="14.4">
+    <row r="777" spans="2:2">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2" ht="14.4">
+    <row r="778" spans="2:2">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2" ht="14.4">
+    <row r="779" spans="2:2">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2" ht="14.4">
+    <row r="780" spans="2:2">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2" ht="14.4">
+    <row r="781" spans="2:2">
       <c r="B781" s="7"/>
     </row>
-    <row r="782" spans="2:2" ht="14.4">
+    <row r="782" spans="2:2">
       <c r="B782" s="7"/>
     </row>
-    <row r="783" spans="2:2" ht="14.4">
+    <row r="783" spans="2:2">
       <c r="B783" s="7"/>
     </row>
-    <row r="784" spans="2:2" ht="14.4">
+    <row r="784" spans="2:2">
       <c r="B784" s="7"/>
     </row>
-    <row r="785" spans="2:2" ht="14.4">
+    <row r="785" spans="2:2">
       <c r="B785" s="7"/>
     </row>
-    <row r="786" spans="2:2" ht="14.4">
+    <row r="786" spans="2:2">
       <c r="B786" s="7"/>
     </row>
-    <row r="787" spans="2:2" ht="14.4">
+    <row r="787" spans="2:2">
       <c r="B787" s="7"/>
     </row>
-    <row r="788" spans="2:2" ht="14.4">
+    <row r="788" spans="2:2">
       <c r="B788" s="7"/>
     </row>
-    <row r="789" spans="2:2" ht="14.4">
+    <row r="789" spans="2:2">
       <c r="B789" s="7"/>
     </row>
-    <row r="790" spans="2:2" ht="14.4">
+    <row r="790" spans="2:2">
       <c r="B790" s="7"/>
     </row>
-    <row r="791" spans="2:2" ht="14.4">
+    <row r="791" spans="2:2">
       <c r="B791" s="7"/>
     </row>
-    <row r="792" spans="2:2" ht="14.4">
+    <row r="792" spans="2:2">
       <c r="B792" s="7"/>
     </row>
-    <row r="793" spans="2:2" ht="14.4">
+    <row r="793" spans="2:2">
       <c r="B793" s="7"/>
     </row>
-    <row r="794" spans="2:2" ht="14.4">
+    <row r="794" spans="2:2">
       <c r="B794" s="7"/>
     </row>
-    <row r="795" spans="2:2" ht="14.4">
+    <row r="795" spans="2:2">
       <c r="B795" s="7"/>
     </row>
-    <row r="796" spans="2:2" ht="14.4">
+    <row r="796" spans="2:2">
       <c r="B796" s="7"/>
     </row>
-    <row r="797" spans="2:2" ht="14.4">
+    <row r="797" spans="2:2">
       <c r="B797" s="7"/>
     </row>
-    <row r="798" spans="2:2" ht="14.4">
+    <row r="798" spans="2:2">
       <c r="B798" s="7"/>
     </row>
-    <row r="799" spans="2:2" ht="14.4">
+    <row r="799" spans="2:2">
       <c r="B799" s="7"/>
     </row>
-    <row r="800" spans="2:2" ht="14.4">
+    <row r="800" spans="2:2">
       <c r="B800" s="7"/>
     </row>
-    <row r="801" spans="2:2" ht="14.4">
+    <row r="801" spans="2:2">
       <c r="B801" s="7"/>
     </row>
-    <row r="802" spans="2:2" ht="14.4">
+    <row r="802" spans="2:2">
       <c r="B802" s="7"/>
     </row>
-    <row r="803" spans="2:2" ht="14.4">
+    <row r="803" spans="2:2">
       <c r="B803" s="7"/>
     </row>
-    <row r="804" spans="2:2" ht="14.4">
+    <row r="804" spans="2:2">
       <c r="B804" s="7"/>
     </row>
-    <row r="805" spans="2:2" ht="14.4">
+    <row r="805" spans="2:2">
       <c r="B805" s="7"/>
     </row>
-    <row r="806" spans="2:2" ht="14.4">
+    <row r="806" spans="2:2">
       <c r="B806" s="7"/>
     </row>
-    <row r="807" spans="2:2" ht="14.4">
+    <row r="807" spans="2:2">
       <c r="B807" s="7"/>
     </row>
-    <row r="808" spans="2:2" ht="14.4">
+    <row r="808" spans="2:2">
       <c r="B808" s="7"/>
     </row>
-    <row r="809" spans="2:2" ht="14.4">
+    <row r="809" spans="2:2">
       <c r="B809" s="7"/>
     </row>
-    <row r="810" spans="2:2" ht="14.4">
+    <row r="810" spans="2:2">
       <c r="B810" s="7"/>
     </row>
-    <row r="811" spans="2:2" ht="14.4">
+    <row r="811" spans="2:2">
       <c r="B811" s="7"/>
     </row>
-    <row r="812" spans="2:2" ht="14.4">
+    <row r="812" spans="2:2">
       <c r="B812" s="7"/>
     </row>
-    <row r="813" spans="2:2" ht="14.4">
+    <row r="813" spans="2:2">
       <c r="B813" s="7"/>
     </row>
-    <row r="814" spans="2:2" ht="14.4">
+    <row r="814" spans="2:2">
       <c r="B814" s="7"/>
     </row>
-    <row r="815" spans="2:2" ht="14.4">
+    <row r="815" spans="2:2">
       <c r="B815" s="7"/>
     </row>
-    <row r="816" spans="2:2" ht="14.4">
+    <row r="816" spans="2:2">
       <c r="B816" s="7"/>
     </row>
-    <row r="817" spans="2:2" ht="14.4">
+    <row r="817" spans="2:2">
       <c r="B817" s="7"/>
     </row>
-    <row r="818" spans="2:2" ht="14.4">
+    <row r="818" spans="2:2">
       <c r="B818" s="7"/>
     </row>
-    <row r="819" spans="2:2" ht="14.4">
+    <row r="819" spans="2:2">
       <c r="B819" s="7"/>
     </row>
-    <row r="820" spans="2:2" ht="14.4">
+    <row r="820" spans="2:2">
       <c r="B820" s="7"/>
     </row>
-    <row r="821" spans="2:2" ht="14.4">
+    <row r="821" spans="2:2">
       <c r="B821" s="7"/>
     </row>
-    <row r="822" spans="2:2" ht="14.4">
+    <row r="822" spans="2:2">
       <c r="B822" s="7"/>
     </row>
-    <row r="823" spans="2:2" ht="14.4">
+    <row r="823" spans="2:2">
       <c r="B823" s="7"/>
     </row>
-    <row r="824" spans="2:2" ht="14.4">
+    <row r="824" spans="2:2">
       <c r="B824" s="7"/>
     </row>
-    <row r="825" spans="2:2" ht="14.4">
+    <row r="825" spans="2:2">
       <c r="B825" s="7"/>
     </row>
-    <row r="826" spans="2:2" ht="14.4">
+    <row r="826" spans="2:2">
       <c r="B826" s="7"/>
     </row>
-    <row r="827" spans="2:2" ht="14.4">
+    <row r="827" spans="2:2">
       <c r="B827" s="7"/>
     </row>
-    <row r="828" spans="2:2" ht="14.4">
+    <row r="828" spans="2:2">
       <c r="B828" s="7"/>
     </row>
-    <row r="829" spans="2:2" ht="14.4">
+    <row r="829" spans="2:2">
       <c r="B829" s="7"/>
     </row>
-    <row r="830" spans="2:2" ht="14.4">
+    <row r="830" spans="2:2">
       <c r="B830" s="7"/>
     </row>
-    <row r="831" spans="2:2" ht="14.4">
+    <row r="831" spans="2:2">
       <c r="B831" s="7"/>
     </row>
-    <row r="832" spans="2:2" ht="14.4">
+    <row r="832" spans="2:2">
       <c r="B832" s="7"/>
     </row>
-    <row r="833" spans="2:2" ht="14.4">
+    <row r="833" spans="2:2">
       <c r="B833" s="7"/>
     </row>
-    <row r="834" spans="2:2" ht="14.4">
+    <row r="834" spans="2:2">
       <c r="B834" s="7"/>
     </row>
-    <row r="835" spans="2:2" ht="14.4">
+    <row r="835" spans="2:2">
       <c r="B835" s="7"/>
     </row>
-    <row r="836" spans="2:2" ht="14.4">
+    <row r="836" spans="2:2">
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="2:2" ht="14.4">
+    <row r="837" spans="2:2">
       <c r="B837" s="7"/>
     </row>
-    <row r="838" spans="2:2" ht="14.4">
+    <row r="838" spans="2:2">
       <c r="B838" s="7"/>
     </row>
-    <row r="839" spans="2:2" ht="14.4">
+    <row r="839" spans="2:2">
       <c r="B839" s="7"/>
     </row>
-    <row r="840" spans="2:2" ht="14.4">
+    <row r="840" spans="2:2">
       <c r="B840" s="7"/>
     </row>
-    <row r="841" spans="2:2" ht="14.4">
+    <row r="841" spans="2:2">
       <c r="B841" s="7"/>
     </row>
-    <row r="842" spans="2:2" ht="14.4">
+    <row r="842" spans="2:2">
       <c r="B842" s="7"/>
     </row>
-    <row r="843" spans="2:2" ht="14.4">
+    <row r="843" spans="2:2">
       <c r="B843" s="7"/>
     </row>
-    <row r="844" spans="2:2" ht="14.4">
+    <row r="844" spans="2:2">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="2:2" ht="14.4">
+    <row r="845" spans="2:2">
       <c r="B845" s="7"/>
     </row>
-    <row r="846" spans="2:2" ht="14.4">
+    <row r="846" spans="2:2">
       <c r="B846" s="7"/>
     </row>
-    <row r="847" spans="2:2" ht="14.4">
+    <row r="847" spans="2:2">
       <c r="B847" s="7"/>
     </row>
-    <row r="848" spans="2:2" ht="14.4">
+    <row r="848" spans="2:2">
       <c r="B848" s="7"/>
     </row>
-    <row r="849" spans="2:2" ht="14.4">
+    <row r="849" spans="2:2">
       <c r="B849" s="7"/>
     </row>
-    <row r="850" spans="2:2" ht="14.4">
+    <row r="850" spans="2:2">
       <c r="B850" s="7"/>
     </row>
-    <row r="851" spans="2:2" ht="14.4">
+    <row r="851" spans="2:2">
       <c r="B851" s="7"/>
     </row>
-    <row r="852" spans="2:2" ht="14.4">
+    <row r="852" spans="2:2">
       <c r="B852" s="7"/>
     </row>
-    <row r="853" spans="2:2" ht="14.4">
+    <row r="853" spans="2:2">
       <c r="B853" s="7"/>
     </row>
-    <row r="854" spans="2:2" ht="14.4">
+    <row r="854" spans="2:2">
       <c r="B854" s="7"/>
     </row>
-    <row r="855" spans="2:2" ht="14.4">
+    <row r="855" spans="2:2">
       <c r="B855" s="7"/>
     </row>
-    <row r="856" spans="2:2" ht="14.4">
+    <row r="856" spans="2:2">
       <c r="B856" s="7"/>
     </row>
-    <row r="857" spans="2:2" ht="14.4">
+    <row r="857" spans="2:2">
       <c r="B857" s="7"/>
     </row>
-    <row r="858" spans="2:2" ht="14.4">
+    <row r="858" spans="2:2">
       <c r="B858" s="7"/>
     </row>
-    <row r="859" spans="2:2" ht="14.4">
+    <row r="859" spans="2:2">
       <c r="B859" s="7"/>
     </row>
-    <row r="860" spans="2:2" ht="14.4">
+    <row r="860" spans="2:2">
       <c r="B860" s="7"/>
     </row>
-    <row r="861" spans="2:2" ht="14.4">
+    <row r="861" spans="2:2">
       <c r="B861" s="7"/>
     </row>
-    <row r="862" spans="2:2" ht="14.4">
+    <row r="862" spans="2:2">
       <c r="B862" s="7"/>
     </row>
-    <row r="863" spans="2:2" ht="14.4">
+    <row r="863" spans="2:2">
       <c r="B863" s="7"/>
     </row>
-    <row r="864" spans="2:2" ht="14.4">
+    <row r="864" spans="2:2">
       <c r="B864" s="7"/>
     </row>
-    <row r="865" spans="2:2" ht="14.4">
+    <row r="865" spans="2:2">
       <c r="B865" s="7"/>
     </row>
-    <row r="866" spans="2:2" ht="14.4">
+    <row r="866" spans="2:2">
       <c r="B866" s="7"/>
     </row>
-    <row r="867" spans="2:2" ht="14.4">
+    <row r="867" spans="2:2">
       <c r="B867" s="7"/>
     </row>
-    <row r="868" spans="2:2" ht="14.4">
+    <row r="868" spans="2:2">
       <c r="B868" s="7"/>
     </row>
-    <row r="869" spans="2:2" ht="14.4">
+    <row r="869" spans="2:2">
       <c r="B869" s="7"/>
     </row>
-    <row r="870" spans="2:2" ht="14.4">
+    <row r="870" spans="2:2">
       <c r="B870" s="7"/>
     </row>
-    <row r="871" spans="2:2" ht="14.4">
+    <row r="871" spans="2:2">
       <c r="B871" s="7"/>
     </row>
-    <row r="872" spans="2:2" ht="14.4">
+    <row r="872" spans="2:2">
       <c r="B872" s="7"/>
     </row>
-    <row r="873" spans="2:2" ht="14.4">
+    <row r="873" spans="2:2">
       <c r="B873" s="7"/>
     </row>
-    <row r="874" spans="2:2" ht="14.4">
+    <row r="874" spans="2:2">
       <c r="B874" s="7"/>
     </row>
-    <row r="875" spans="2:2" ht="14.4">
+    <row r="875" spans="2:2">
       <c r="B875" s="7"/>
     </row>
-    <row r="876" spans="2:2" ht="14.4">
+    <row r="876" spans="2:2">
       <c r="B876" s="7"/>
     </row>
-    <row r="877" spans="2:2" ht="14.4">
+    <row r="877" spans="2:2">
       <c r="B877" s="7"/>
     </row>
-    <row r="878" spans="2:2" ht="14.4">
+    <row r="878" spans="2:2">
       <c r="B878" s="7"/>
     </row>
-    <row r="879" spans="2:2" ht="14.4">
+    <row r="879" spans="2:2">
       <c r="B879" s="7"/>
     </row>
-    <row r="880" spans="2:2" ht="14.4">
+    <row r="880" spans="2:2">
       <c r="B880" s="7"/>
     </row>
-    <row r="881" spans="2:2" ht="14.4">
+    <row r="881" spans="2:2">
       <c r="B881" s="7"/>
     </row>
-    <row r="882" spans="2:2" ht="14.4">
+    <row r="882" spans="2:2">
       <c r="B882" s="7"/>
     </row>
-    <row r="883" spans="2:2" ht="14.4">
+    <row r="883" spans="2:2">
       <c r="B883" s="7"/>
     </row>
-    <row r="884" spans="2:2" ht="14.4">
+    <row r="884" spans="2:2">
       <c r="B884" s="7"/>
     </row>
-    <row r="885" spans="2:2" ht="14.4">
+    <row r="885" spans="2:2">
       <c r="B885" s="7"/>
     </row>
-    <row r="886" spans="2:2" ht="14.4">
+    <row r="886" spans="2:2">
       <c r="B886" s="7"/>
     </row>
-    <row r="887" spans="2:2" ht="14.4">
+    <row r="887" spans="2:2">
       <c r="B887" s="7"/>
     </row>
-    <row r="888" spans="2:2" ht="14.4">
+    <row r="888" spans="2:2">
       <c r="B888" s="7"/>
     </row>
-    <row r="889" spans="2:2" ht="14.4">
+    <row r="889" spans="2:2">
       <c r="B889" s="7"/>
     </row>
-    <row r="890" spans="2:2" ht="14.4">
+    <row r="890" spans="2:2">
       <c r="B890" s="7"/>
     </row>
-    <row r="891" spans="2:2" ht="14.4">
+    <row r="891" spans="2:2">
       <c r="B891" s="7"/>
     </row>
-    <row r="892" spans="2:2" ht="14.4">
+    <row r="892" spans="2:2">
       <c r="B892" s="7"/>
     </row>
-    <row r="893" spans="2:2" ht="14.4">
+    <row r="893" spans="2:2">
       <c r="B893" s="7"/>
     </row>
-    <row r="894" spans="2:2" ht="14.4">
+    <row r="894" spans="2:2">
       <c r="B894" s="7"/>
     </row>
-    <row r="895" spans="2:2" ht="14.4">
+    <row r="895" spans="2:2">
       <c r="B895" s="7"/>
     </row>
-    <row r="896" spans="2:2" ht="14.4">
+    <row r="896" spans="2:2">
       <c r="B896" s="7"/>
     </row>
-    <row r="897" spans="2:2" ht="14.4">
+    <row r="897" spans="2:2">
       <c r="B897" s="7"/>
     </row>
-    <row r="898" spans="2:2" ht="14.4">
+    <row r="898" spans="2:2">
       <c r="B898" s="7"/>
     </row>
-    <row r="899" spans="2:2" ht="14.4">
+    <row r="899" spans="2:2">
       <c r="B899" s="7"/>
     </row>
-    <row r="900" spans="2:2" ht="14.4">
+    <row r="900" spans="2:2">
       <c r="B900" s="7"/>
     </row>
-    <row r="901" spans="2:2" ht="14.4">
+    <row r="901" spans="2:2">
       <c r="B901" s="7"/>
     </row>
-    <row r="902" spans="2:2" ht="14.4">
+    <row r="902" spans="2:2">
       <c r="B902" s="7"/>
     </row>
-    <row r="903" spans="2:2" ht="14.4">
+    <row r="903" spans="2:2">
       <c r="B903" s="7"/>
     </row>
-    <row r="904" spans="2:2" ht="14.4">
+    <row r="904" spans="2:2">
       <c r="B904" s="7"/>
     </row>
-    <row r="905" spans="2:2" ht="14.4">
+    <row r="905" spans="2:2">
       <c r="B905" s="7"/>
     </row>
-    <row r="906" spans="2:2" ht="14.4">
+    <row r="906" spans="2:2">
       <c r="B906" s="7"/>
     </row>
-    <row r="907" spans="2:2" ht="14.4">
+    <row r="907" spans="2:2">
       <c r="B907" s="7"/>
     </row>
-    <row r="908" spans="2:2" ht="14.4">
+    <row r="908" spans="2:2">
       <c r="B908" s="7"/>
     </row>
-    <row r="909" spans="2:2" ht="14.4">
+    <row r="909" spans="2:2">
       <c r="B909" s="7"/>
     </row>
-    <row r="910" spans="2:2" ht="14.4">
+    <row r="910" spans="2:2">
       <c r="B910" s="7"/>
     </row>
-    <row r="911" spans="2:2" ht="14.4">
+    <row r="911" spans="2:2">
       <c r="B911" s="7"/>
     </row>
-    <row r="912" spans="2:2" ht="14.4">
+    <row r="912" spans="2:2">
       <c r="B912" s="7"/>
     </row>
-    <row r="913" spans="2:2" ht="14.4">
+    <row r="913" spans="2:2">
       <c r="B913" s="7"/>
     </row>
-    <row r="914" spans="2:2" ht="14.4">
+    <row r="914" spans="2:2">
       <c r="B914" s="7"/>
     </row>
-    <row r="915" spans="2:2" ht="14.4">
+    <row r="915" spans="2:2">
       <c r="B915" s="7"/>
     </row>
-    <row r="916" spans="2:2" ht="14.4">
+    <row r="916" spans="2:2">
       <c r="B916" s="7"/>
     </row>
-    <row r="917" spans="2:2" ht="14.4">
+    <row r="917" spans="2:2">
       <c r="B917" s="7"/>
     </row>
-    <row r="918" spans="2:2" ht="14.4">
+    <row r="918" spans="2:2">
       <c r="B918" s="7"/>
     </row>
-    <row r="919" spans="2:2" ht="14.4">
+    <row r="919" spans="2:2">
       <c r="B919" s="7"/>
     </row>
-    <row r="920" spans="2:2" ht="14.4">
+    <row r="920" spans="2:2">
       <c r="B920" s="7"/>
     </row>
-    <row r="921" spans="2:2" ht="14.4">
+    <row r="921" spans="2:2">
       <c r="B921" s="7"/>
     </row>
-    <row r="922" spans="2:2" ht="14.4">
+    <row r="922" spans="2:2">
       <c r="B922" s="7"/>
     </row>
-    <row r="923" spans="2:2" ht="14.4">
+    <row r="923" spans="2:2">
       <c r="B923" s="7"/>
     </row>
-    <row r="924" spans="2:2" ht="14.4">
+    <row r="924" spans="2:2">
       <c r="B924" s="7"/>
     </row>
-    <row r="925" spans="2:2" ht="14.4">
+    <row r="925" spans="2:2">
       <c r="B925" s="7"/>
     </row>
-    <row r="926" spans="2:2" ht="14.4">
+    <row r="926" spans="2:2">
       <c r="B926" s="7"/>
     </row>
-    <row r="927" spans="2:2" ht="14.4">
+    <row r="927" spans="2:2">
       <c r="B927" s="7"/>
     </row>
-    <row r="928" spans="2:2" ht="14.4">
+    <row r="928" spans="2:2">
       <c r="B928" s="7"/>
     </row>
-    <row r="929" spans="2:2" ht="14.4">
+    <row r="929" spans="2:2">
       <c r="B929" s="7"/>
     </row>
-    <row r="930" spans="2:2" ht="14.4">
+    <row r="930" spans="2:2">
       <c r="B930" s="7"/>
     </row>
-    <row r="931" spans="2:2" ht="14.4">
+    <row r="931" spans="2:2">
       <c r="B931" s="7"/>
     </row>
-    <row r="932" spans="2:2" ht="14.4">
+    <row r="932" spans="2:2">
       <c r="B932" s="7"/>
     </row>
-    <row r="933" spans="2:2" ht="14.4">
+    <row r="933" spans="2:2">
       <c r="B933" s="7"/>
     </row>
-    <row r="934" spans="2:2" ht="14.4">
+    <row r="934" spans="2:2">
       <c r="B934" s="7"/>
     </row>
-    <row r="935" spans="2:2" ht="14.4">
+    <row r="935" spans="2:2">
       <c r="B935" s="7"/>
     </row>
-    <row r="936" spans="2:2" ht="14.4">
+    <row r="936" spans="2:2">
       <c r="B936" s="7"/>
     </row>
-    <row r="937" spans="2:2" ht="14.4">
+    <row r="937" spans="2:2">
       <c r="B937" s="7"/>
     </row>
-    <row r="938" spans="2:2" ht="14.4">
+    <row r="938" spans="2:2">
       <c r="B938" s="7"/>
     </row>
-    <row r="939" spans="2:2" ht="14.4">
+    <row r="939" spans="2:2">
       <c r="B939" s="7"/>
     </row>
-    <row r="940" spans="2:2" ht="14.4">
+    <row r="940" spans="2:2">
       <c r="B940" s="7"/>
     </row>
-    <row r="941" spans="2:2" ht="14.4">
+    <row r="941" spans="2:2">
       <c r="B941" s="7"/>
     </row>
-    <row r="942" spans="2:2" ht="14.4">
+    <row r="942" spans="2:2">
       <c r="B942" s="7"/>
     </row>
-    <row r="943" spans="2:2" ht="14.4">
+    <row r="943" spans="2:2">
       <c r="B943" s="7"/>
     </row>
-    <row r="944" spans="2:2" ht="14.4">
+    <row r="944" spans="2:2">
       <c r="B944" s="7"/>
     </row>
-    <row r="945" spans="2:2" ht="14.4">
+    <row r="945" spans="2:2">
       <c r="B945" s="7"/>
     </row>
-    <row r="946" spans="2:2" ht="14.4">
+    <row r="946" spans="2:2">
       <c r="B946" s="7"/>
     </row>
-    <row r="947" spans="2:2" ht="14.4">
+    <row r="947" spans="2:2">
       <c r="B947" s="7"/>
     </row>
-    <row r="948" spans="2:2" ht="14.4">
+    <row r="948" spans="2:2">
       <c r="B948" s="7"/>
     </row>
-    <row r="949" spans="2:2" ht="14.4">
+    <row r="949" spans="2:2">
       <c r="B949" s="7"/>
     </row>
-    <row r="950" spans="2:2" ht="14.4">
+    <row r="950" spans="2:2">
       <c r="B950" s="7"/>
     </row>
-    <row r="951" spans="2:2" ht="14.4">
+    <row r="951" spans="2:2">
       <c r="B951" s="7"/>
     </row>
-    <row r="952" spans="2:2" ht="14.4">
+    <row r="952" spans="2:2">
       <c r="B952" s="7"/>
     </row>
-    <row r="953" spans="2:2" ht="14.4">
+    <row r="953" spans="2:2">
       <c r="B953" s="7"/>
     </row>
-    <row r="954" spans="2:2" ht="14.4">
+    <row r="954" spans="2:2">
       <c r="B954" s="7"/>
     </row>
-    <row r="955" spans="2:2" ht="14.4">
+    <row r="955" spans="2:2">
       <c r="B955" s="7"/>
     </row>
-    <row r="956" spans="2:2" ht="14.4">
+    <row r="956" spans="2:2">
       <c r="B956" s="7"/>
     </row>
-    <row r="957" spans="2:2" ht="14.4">
+    <row r="957" spans="2:2">
       <c r="B957" s="7"/>
     </row>
-    <row r="958" spans="2:2" ht="14.4">
+    <row r="958" spans="2:2">
       <c r="B958" s="7"/>
     </row>
-    <row r="959" spans="2:2" ht="14.4">
+    <row r="959" spans="2:2">
       <c r="B959" s="7"/>
     </row>
-    <row r="960" spans="2:2" ht="14.4">
+    <row r="960" spans="2:2">
       <c r="B960" s="7"/>
     </row>
-    <row r="961" spans="2:2" ht="14.4">
+    <row r="961" spans="2:2">
       <c r="B961" s="7"/>
     </row>
-    <row r="962" spans="2:2" ht="14.4">
+    <row r="962" spans="2:2">
       <c r="B962" s="7"/>
     </row>
-    <row r="963" spans="2:2" ht="14.4">
+    <row r="963" spans="2:2">
       <c r="B963" s="7"/>
     </row>
-    <row r="964" spans="2:2" ht="14.4">
+    <row r="964" spans="2:2">
       <c r="B964" s="7"/>
     </row>
-    <row r="965" spans="2:2" ht="14.4">
+    <row r="965" spans="2:2">
       <c r="B965" s="7"/>
     </row>
-    <row r="966" spans="2:2" ht="14.4">
+    <row r="966" spans="2:2">
       <c r="B966" s="7"/>
     </row>
-    <row r="967" spans="2:2" ht="14.4">
+    <row r="967" spans="2:2">
       <c r="B967" s="7"/>
     </row>
-    <row r="968" spans="2:2" ht="14.4">
+    <row r="968" spans="2:2">
       <c r="B968" s="7"/>
     </row>
-    <row r="969" spans="2:2" ht="14.4">
+    <row r="969" spans="2:2">
       <c r="B969" s="7"/>
     </row>
-    <row r="970" spans="2:2" ht="14.4">
+    <row r="970" spans="2:2">
       <c r="B970" s="7"/>
     </row>
-    <row r="971" spans="2:2" ht="14.4">
+    <row r="971" spans="2:2">
       <c r="B971" s="7"/>
     </row>
-    <row r="972" spans="2:2" ht="14.4">
+    <row r="972" spans="2:2">
       <c r="B972" s="7"/>
     </row>
-    <row r="973" spans="2:2" ht="14.4">
+    <row r="973" spans="2:2">
       <c r="B973" s="7"/>
     </row>
-    <row r="974" spans="2:2" ht="14.4">
+    <row r="974" spans="2:2">
       <c r="B974" s="7"/>
     </row>
-    <row r="975" spans="2:2" ht="14.4">
+    <row r="975" spans="2:2">
       <c r="B975" s="7"/>
     </row>
-    <row r="976" spans="2:2" ht="14.4">
+    <row r="976" spans="2:2">
       <c r="B976" s="7"/>
     </row>
-    <row r="977" spans="2:2" ht="14.4">
+    <row r="977" spans="2:2">
       <c r="B977" s="7"/>
     </row>
-    <row r="978" spans="2:2" ht="14.4">
+    <row r="978" spans="2:2">
       <c r="B978" s="7"/>
     </row>
-    <row r="979" spans="2:2" ht="14.4">
+    <row r="979" spans="2:2">
       <c r="B979" s="7"/>
     </row>
-    <row r="980" spans="2:2" ht="14.4">
+    <row r="980" spans="2:2">
       <c r="B980" s="7"/>
     </row>
-    <row r="981" spans="2:2" ht="14.4">
+    <row r="981" spans="2:2">
       <c r="B981" s="7"/>
     </row>
-    <row r="982" spans="2:2" ht="14.4">
+    <row r="982" spans="2:2">
       <c r="B982" s="7"/>
     </row>
-    <row r="983" spans="2:2" ht="14.4">
+    <row r="983" spans="2:2">
       <c r="B983" s="7"/>
     </row>
-    <row r="984" spans="2:2" ht="14.4">
+    <row r="984" spans="2:2">
       <c r="B984" s="7"/>
     </row>
-    <row r="985" spans="2:2" ht="14.4">
+    <row r="985" spans="2:2">
       <c r="B985" s="7"/>
     </row>
-    <row r="986" spans="2:2" ht="14.4">
+    <row r="986" spans="2:2">
       <c r="B986" s="7"/>
     </row>
-    <row r="987" spans="2:2" ht="14.4">
+    <row r="987" spans="2:2">
       <c r="B987" s="7"/>
     </row>
-    <row r="988" spans="2:2" ht="14.4">
+    <row r="988" spans="2:2">
       <c r="B988" s="7"/>
     </row>
-    <row r="989" spans="2:2" ht="14.4">
+    <row r="989" spans="2:2">
       <c r="B989" s="7"/>
     </row>
-    <row r="990" spans="2:2" ht="14.4">
+    <row r="990" spans="2:2">
       <c r="B990" s="7"/>
     </row>
-    <row r="991" spans="2:2" ht="14.4">
+    <row r="991" spans="2:2">
       <c r="B991" s="7"/>
     </row>
-    <row r="992" spans="2:2" ht="14.4">
+    <row r="992" spans="2:2">
       <c r="B992" s="7"/>
     </row>
-    <row r="993" spans="2:2" ht="14.4">
+    <row r="993" spans="2:2">
       <c r="B993" s="7"/>
     </row>
-    <row r="994" spans="2:2" ht="14.4">
+    <row r="994" spans="2:2">
       <c r="B994" s="7"/>
     </row>
-    <row r="995" spans="2:2" ht="14.4">
+    <row r="995" spans="2:2">
       <c r="B995" s="7"/>
     </row>
-    <row r="996" spans="2:2" ht="14.4">
+    <row r="996" spans="2:2">
       <c r="B996" s="7"/>
     </row>
-    <row r="997" spans="2:2" ht="14.4">
+    <row r="997" spans="2:2">
       <c r="B997" s="7"/>
     </row>
-    <row r="998" spans="2:2" ht="14.4">
+    <row r="998" spans="2:2">
       <c r="B998" s="7"/>
     </row>
-    <row r="999" spans="2:2" ht="14.4">
+    <row r="999" spans="2:2">
       <c r="B999" s="7"/>
     </row>
-    <row r="1000" spans="2:2" ht="14.4">
+    <row r="1000" spans="2:2">
       <c r="B1000" s="7"/>
     </row>
-    <row r="1001" spans="2:2" ht="14.4">
+    <row r="1001" spans="2:2">
       <c r="B1001" s="7"/>
     </row>
-    <row r="1002" spans="2:2" ht="14.4">
+    <row r="1002" spans="2:2">
       <c r="B1002" s="7"/>
     </row>
-    <row r="1003" spans="2:2" ht="14.4">
+    <row r="1003" spans="2:2">
       <c r="B1003" s="7"/>
     </row>
-    <row r="1004" spans="2:2" ht="14.4">
+    <row r="1004" spans="2:2">
       <c r="B1004" s="7"/>
     </row>
-    <row r="1005" spans="2:2" ht="14.4">
+    <row r="1005" spans="2:2">
       <c r="B1005" s="7"/>
     </row>
-    <row r="1006" spans="2:2" ht="14.4">
+    <row r="1006" spans="2:2">
       <c r="B1006" s="7"/>
     </row>
-    <row r="1007" spans="2:2" ht="14.4">
+    <row r="1007" spans="2:2">
       <c r="B1007" s="7"/>
     </row>
-    <row r="1008" spans="2:2" ht="14.4">
+    <row r="1008" spans="2:2">
       <c r="B1008" s="7"/>
     </row>
-    <row r="1009" spans="2:2" ht="14.4">
+    <row r="1009" spans="2:2">
       <c r="B1009" s="7"/>
     </row>
-    <row r="1010" spans="2:2" ht="14.4">
+    <row r="1010" spans="2:2">
       <c r="B1010" s="7"/>
     </row>
-    <row r="1011" spans="2:2" ht="14.4">
+    <row r="1011" spans="2:2">
       <c r="B1011" s="7"/>
     </row>
-    <row r="1012" spans="2:2" ht="14.4">
+    <row r="1012" spans="2:2">
       <c r="B1012" s="7"/>
     </row>
-    <row r="1013" spans="2:2" ht="14.4">
+    <row r="1013" spans="2:2">
       <c r="B1013" s="7"/>
     </row>
-    <row r="1014" spans="2:2" ht="14.4">
+    <row r="1014" spans="2:2">
       <c r="B1014" s="7"/>
     </row>
-    <row r="1015" spans="2:2" ht="14.4">
+    <row r="1015" spans="2:2">
       <c r="B1015" s="7"/>
     </row>
-    <row r="1016" spans="2:2" ht="14.4">
+    <row r="1016" spans="2:2">
       <c r="B1016" s="7"/>
     </row>
-    <row r="1017" spans="2:2" ht="14.4">
+    <row r="1017" spans="2:2">
       <c r="B1017" s="7"/>
     </row>
-    <row r="1018" spans="2:2" ht="14.4">
+    <row r="1018" spans="2:2">
       <c r="B1018" s="7"/>
     </row>
-    <row r="1019" spans="2:2" ht="14.4">
+    <row r="1019" spans="2:2">
       <c r="B1019" s="7"/>
     </row>
-    <row r="1020" spans="2:2" ht="14.4">
+    <row r="1020" spans="2:2">
       <c r="B1020" s="7"/>
     </row>
-    <row r="1021" spans="2:2" ht="14.4">
+    <row r="1021" spans="2:2">
       <c r="B1021" s="7"/>
     </row>
-    <row r="1022" spans="2:2" ht="14.4">
+    <row r="1022" spans="2:2">
       <c r="B1022" s="7"/>
     </row>
-    <row r="1023" spans="2:2" ht="14.4">
+    <row r="1023" spans="2:2">
       <c r="B1023" s="7"/>
     </row>
-    <row r="1024" spans="2:2" ht="14.4">
+    <row r="1024" spans="2:2">
       <c r="B1024" s="7"/>
     </row>
-    <row r="1025" spans="2:2" ht="14.4">
+    <row r="1025" spans="2:2">
       <c r="B1025" s="7"/>
     </row>
-    <row r="1026" spans="2:2" ht="14.4">
+    <row r="1026" spans="2:2">
       <c r="B1026" s="7"/>
     </row>
-    <row r="1027" spans="2:2" ht="14.4">
+    <row r="1027" spans="2:2">
       <c r="B1027" s="7"/>
     </row>
-    <row r="1028" spans="2:2" ht="14.4">
+    <row r="1028" spans="2:2">
       <c r="B1028" s="7"/>
     </row>
-    <row r="1029" spans="2:2" ht="14.4">
+    <row r="1029" spans="2:2">
       <c r="B1029" s="7"/>
     </row>
-    <row r="1030" spans="2:2" ht="14.4">
+    <row r="1030" spans="2:2">
       <c r="B1030" s="7"/>
     </row>
-    <row r="1031" spans="2:2" ht="14.4">
+    <row r="1031" spans="2:2">
       <c r="B1031" s="7"/>
     </row>
-    <row r="1032" spans="2:2" ht="14.4">
+    <row r="1032" spans="2:2">
       <c r="B1032" s="7"/>
     </row>
-    <row r="1033" spans="2:2" ht="14.4">
+    <row r="1033" spans="2:2">
       <c r="B1033" s="7"/>
     </row>
-    <row r="1034" spans="2:2" ht="14.4">
+    <row r="1034" spans="2:2">
       <c r="B1034" s="7"/>
     </row>
-    <row r="1035" spans="2:2" ht="14.4">
+    <row r="1035" spans="2:2">
       <c r="B1035" s="7"/>
     </row>
-    <row r="1036" spans="2:2" ht="14.4">
+    <row r="1036" spans="2:2">
       <c r="B1036" s="7"/>
     </row>
   </sheetData>
@@ -20032,24 +20044,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="10" width="7.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="6" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
     <col min="12" max="12" width="64" customWidth="1"/>
-    <col min="13" max="24" width="7.5546875" customWidth="1"/>
-    <col min="25" max="26" width="12.5546875" customWidth="1"/>
+    <col min="13" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20194,7 +20206,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:26" s="65" customFormat="1" ht="14.4">
+    <row r="5" spans="1:26" s="65" customFormat="1">
       <c r="A5" s="64" t="s">
         <v>24</v>
       </c>
@@ -20226,7 +20238,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="28.8">
+    <row r="6" spans="1:26" ht="30">
       <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
@@ -20258,7 +20270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.4">
+    <row r="7" spans="1:26">
       <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
@@ -20274,7 +20286,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="14.4">
+    <row r="8" spans="1:26">
       <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
@@ -20304,7 +20316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.4">
+    <row r="9" spans="1:26">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -20320,7 +20332,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="14.4">
+    <row r="10" spans="1:26">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -20336,7 +20348,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="14.4">
+    <row r="11" spans="1:26">
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
@@ -20352,7 +20364,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="14.4">
+    <row r="12" spans="1:26">
       <c r="A12" s="17" t="s">
         <v>24</v>
       </c>
@@ -20371,7 +20383,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4">
+    <row r="13" spans="1:26">
       <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
@@ -20390,7 +20402,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14" spans="1:26">
       <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
@@ -20409,7 +20421,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14.4">
+    <row r="15" spans="1:26">
       <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
@@ -20428,7 +20440,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4">
+    <row r="16" spans="1:26">
       <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
@@ -20457,7 +20469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14.4">
+    <row r="17" spans="1:26">
       <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
@@ -20495,7 +20507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14.4">
+    <row r="18" spans="1:26">
       <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
@@ -20511,7 +20523,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="14.4">
+    <row r="19" spans="1:26">
       <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
@@ -20525,7 +20537,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="14.4">
+    <row r="20" spans="1:26">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -20537,7 +20549,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:26" ht="14.4">
+    <row r="21" spans="1:26">
       <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
@@ -20551,7 +20563,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="14.4">
+    <row r="22" spans="1:26">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
@@ -20619,7 +20631,7 @@
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
     </row>
-    <row r="24" spans="1:26" ht="14.4">
+    <row r="24" spans="1:26">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="D24" s="19" t="s">
@@ -20644,7 +20656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14.4">
+    <row r="25" spans="1:26">
       <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
@@ -20660,7 +20672,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="14.4">
+    <row r="26" spans="1:26">
       <c r="A26" s="17" t="s">
         <v>24</v>
       </c>
@@ -20676,7 +20688,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="14.4">
+    <row r="27" spans="1:26">
       <c r="A27" s="17" t="s">
         <v>24</v>
       </c>
@@ -20692,7 +20704,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="14.4">
+    <row r="28" spans="1:26">
       <c r="A28" s="17"/>
       <c r="B28" s="18" t="s">
         <v>25</v>
@@ -20720,7 +20732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="24" customFormat="1" ht="14.4">
+    <row r="29" spans="1:26" s="24" customFormat="1">
       <c r="A29" s="22" t="s">
         <v>24</v>
       </c>
@@ -20748,7 +20760,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14.4">
+    <row r="30" spans="1:26">
       <c r="A30" s="17" t="s">
         <v>24</v>
       </c>
@@ -20769,7 +20781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14.4">
+    <row r="31" spans="1:26">
       <c r="A31" s="17" t="s">
         <v>24</v>
       </c>
@@ -20795,7 +20807,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14.4">
+    <row r="32" spans="1:26">
       <c r="A32" s="17" t="s">
         <v>24</v>
       </c>
@@ -20818,7 +20830,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.4">
+    <row r="33" spans="1:11">
       <c r="A33" s="17" t="s">
         <v>24</v>
       </c>
@@ -20841,7 +20853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4">
+    <row r="34" spans="1:11">
       <c r="A34" s="17" t="s">
         <v>24</v>
       </c>
@@ -20864,7 +20876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="67" customFormat="1" ht="14.4">
+    <row r="35" spans="1:11" s="67" customFormat="1">
       <c r="A35" s="64" t="s">
         <v>24</v>
       </c>
@@ -20894,7 +20906,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4">
+    <row r="36" spans="1:11">
       <c r="A36" s="17" t="s">
         <v>24</v>
       </c>
@@ -20924,7 +20936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4">
+    <row r="37" spans="1:11">
       <c r="A37" s="17" t="s">
         <v>24</v>
       </c>
@@ -20943,7 +20955,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:11" ht="14.4">
+    <row r="38" spans="1:11">
       <c r="A38" s="17" t="s">
         <v>24</v>
       </c>
@@ -20959,7 +20971,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4">
+    <row r="39" spans="1:11">
       <c r="A39" s="17" t="s">
         <v>24</v>
       </c>
@@ -20978,7 +20990,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:11" ht="57.6">
+    <row r="40" spans="1:11" ht="60">
       <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
@@ -21006,7 +21018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.4">
+    <row r="41" spans="1:11">
       <c r="A41" s="17" t="s">
         <v>24</v>
       </c>
@@ -21025,7 +21037,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:11" s="24" customFormat="1" ht="14.4">
+    <row r="42" spans="1:11" s="24" customFormat="1">
       <c r="A42" s="22" t="s">
         <v>24</v>
       </c>
@@ -21055,7 +21067,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="24" customFormat="1" ht="14.4">
+    <row r="43" spans="1:11" s="24" customFormat="1">
       <c r="A43" s="22" t="s">
         <v>24</v>
       </c>
@@ -21085,7 +21097,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.4">
+    <row r="44" spans="1:11">
       <c r="A44" s="17" t="s">
         <v>24</v>
       </c>
@@ -21108,7 +21120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.4">
+    <row r="45" spans="1:11">
       <c r="A45" s="17" t="s">
         <v>24</v>
       </c>
@@ -21127,176 +21139,156 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.4">
-      <c r="A46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="29" t="s">
+    <row r="46" spans="1:11" s="24" customFormat="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="E46" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="24" customFormat="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="E47" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E48" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="20" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H48" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.4">
-      <c r="A47" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="20">
-        <v>1</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="E48" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="20">
-        <v>1</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>116</v>
       </c>
       <c r="I48" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="20">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="K49" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="E50" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="20">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="7" t="s">
+    <row r="51" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="85" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="85" t="s">
+      <c r="H51" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="85" t="s">
+      <c r="I51" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="J49" s="85" t="s">
+      <c r="J51" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="62" t="s">
+      <c r="K51" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="L49" s="85" t="s">
+      <c r="L51" s="85" t="s">
         <v>834</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-    </row>
-    <row r="50" spans="1:26" ht="14.4">
-      <c r="A50" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:26" ht="14.4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="3"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
@@ -21308,359 +21300,355 @@
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-    </row>
-    <row r="52" spans="1:26" ht="14.4">
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F54" s="7">
         <v>1739.927555</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="14.4">
-      <c r="A53" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="7">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="14.4">
-      <c r="A54" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:26" ht="14.4">
+    <row r="55" spans="1:26">
       <c r="A55" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="C55" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E55" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F55" s="7">
-        <v>4891208</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:26" ht="14.4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E56" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F56" s="7">
-        <v>1</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="14.4">
+        <v>553659</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="C58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" s="24" customFormat="1" ht="14.4">
-      <c r="A58" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="F58" s="7">
-        <v>5</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K58" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="14.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>144</v>
+      <c r="C59" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F59" s="7">
         <v>0</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="H59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" s="24" customFormat="1">
+      <c r="A60" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="F60" s="7">
+        <v>5</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K60" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="14.4">
-      <c r="A60" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="E60" s="7" t="s">
+    <row r="62" spans="1:26">
+      <c r="A62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="E62" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F62" s="7">
         <v>6772</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:26" s="24" customFormat="1" ht="14.4">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="D61" s="62" t="s">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:26" s="24" customFormat="1">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="D63" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="63" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I61" s="28" t="s">
+      <c r="I63" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J63" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K61" s="28" t="s">
+      <c r="K63" s="28" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="24" customFormat="1" ht="14.4">
-      <c r="A62" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="D62" s="62" t="s">
+    <row r="64" spans="1:26" s="24" customFormat="1">
+      <c r="A64" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="D64" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="63" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I62" s="28" t="s">
+      <c r="I64" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J64" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K62" s="28" t="s">
+      <c r="K64" s="28" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="14.4">
-      <c r="A63" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F63" s="20">
-        <v>1500</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" ht="14.4">
-      <c r="A64" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="19">
-        <v>1500</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J64" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="14.4">
+    <row r="65" spans="1:11">
       <c r="A65" s="17" t="s">
         <v>24</v>
       </c>
@@ -21670,16 +21658,16 @@
       <c r="D65" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="19">
+      <c r="E65" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="20">
         <v>1500</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="20" t="s">
         <v>96</v>
       </c>
       <c r="I65" s="19" t="s">
@@ -21689,24 +21677,24 @@
         <v>34</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="14.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F66" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>126</v>
@@ -21721,30 +21709,30 @@
         <v>34</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="14.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F67" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G67" s="20" t="s">
         <v>126</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I67" s="19" t="s">
         <v>40</v>
@@ -21753,10 +21741,10 @@
         <v>34</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="14.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="17" t="s">
         <v>24</v>
       </c>
@@ -21767,7 +21755,7 @@
         <v>150</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F68" s="19">
         <v>1000</v>
@@ -21776,7 +21764,7 @@
         <v>126</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I68" s="19" t="s">
         <v>40</v>
@@ -21785,13 +21773,77 @@
         <v>34</v>
       </c>
       <c r="K68" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="19" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B48">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B46))&gt;0</formula>
+      <formula>LEN(TRIM(B48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21810,18 +21862,18 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.109375" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" customWidth="1"/>
-    <col min="11" max="22" width="7.5546875" customWidth="1"/>
-    <col min="23" max="26" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="22" width="7.5703125" customWidth="1"/>
+    <col min="23" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -21898,7 +21950,7 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:26" s="80" customFormat="1" ht="14.4">
+    <row r="3" spans="1:26" s="80" customFormat="1">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
       <c r="C3" s="74"/>
@@ -21924,7 +21976,7 @@
       <c r="U3" s="76"/>
       <c r="V3" s="76"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>177</v>
       </c>
@@ -21960,7 +22012,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
         <v>177</v>
       </c>
@@ -22000,7 +22052,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="28.8">
+    <row r="6" spans="1:26" ht="30">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -22040,7 +22092,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="14.4">
+    <row r="7" spans="1:26">
       <c r="A7" s="6" t="s">
         <v>177</v>
       </c>
@@ -22150,7 +22202,7 @@
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
     </row>
-    <row r="10" spans="1:26" ht="14.4">
+    <row r="10" spans="1:26">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -22186,7 +22238,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="14.4">
+    <row r="11" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -22220,7 +22272,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="14.4">
+    <row r="12" spans="1:26">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -22254,7 +22306,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4">
+    <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
         <v>177</v>
       </c>
@@ -22292,7 +22344,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14" spans="1:26">
       <c r="A14" s="6" t="s">
         <v>177</v>
       </c>
@@ -22934,7 +22986,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="14.4">
+    <row r="31" spans="1:26">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -22948,7 +23000,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="14.4">
+    <row r="32" spans="1:26">
       <c r="A32" s="33" t="s">
         <v>177</v>
       </c>
@@ -22969,7 +23021,7 @@
       </c>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
+    <row r="33" spans="1:10">
       <c r="A33" s="33" t="s">
         <v>177</v>
       </c>
@@ -22990,7 +23042,7 @@
       </c>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
+    <row r="34" spans="1:10">
       <c r="A34" s="33" t="s">
         <v>177</v>
       </c>
@@ -23011,7 +23063,7 @@
       </c>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4">
+    <row r="35" spans="1:10">
       <c r="A35" s="33" t="s">
         <v>24</v>
       </c>
@@ -23032,7 +23084,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4">
+    <row r="36" spans="1:10">
       <c r="A36" s="33" t="s">
         <v>24</v>
       </c>
@@ -23055,7 +23107,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
+    <row r="37" spans="1:10">
       <c r="A37" s="33" t="s">
         <v>24</v>
       </c>
@@ -23078,7 +23130,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4">
+    <row r="38" spans="1:10">
       <c r="A38" s="33" t="s">
         <v>24</v>
       </c>
@@ -23101,7 +23153,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
+    <row r="39" spans="1:10">
       <c r="A39" s="33" t="s">
         <v>24</v>
       </c>
@@ -23124,7 +23176,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10">
       <c r="A40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -23132,7 +23184,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
+    <row r="41" spans="1:10">
       <c r="A41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -23156,9 +23208,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="12.5546875" customWidth="1"/>
+    <col min="1" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896E368-8671-4193-AF26-088B676FC298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B780A7-7392-4370-B582-E3052141F473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="-5775" windowWidth="24870" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="872">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2686,6 +2686,33 @@
   </si>
   <si>
     <t>insolation flux; positive for energy going into the stream</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>TURNOVER</t>
+  </si>
+  <si>
+    <t>day-1</t>
+  </si>
+  <si>
+    <t>how many times each day the water in the reach turns over = (Q cms * SEC_PER_DAY)) / VOLUME m3</t>
+  </si>
+  <si>
+    <t>DEPTH</t>
+  </si>
+  <si>
+    <t>average depth of reach = length-weighted average of subreach depths</t>
+  </si>
+  <si>
+    <t>average width of stream reach = length-weighted average of subreach widths</t>
+  </si>
+  <si>
+    <t>surface area of water in reach</t>
+  </si>
+  <si>
+    <t>AREA_H2O</t>
   </si>
 </sst>
 </file>
@@ -8644,7 +8671,7 @@
   <dimension ref="A1:Z1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
@@ -20044,11 +20071,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -20238,53 +20265,61 @@
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30">
-      <c r="A6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:26" s="65" customFormat="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66" t="s">
+        <v>871</v>
+      </c>
+      <c r="F6" s="66">
+        <v>5.2</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="30">
+      <c r="A7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F7" s="20">
         <v>2</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3220</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="17" t="s">
@@ -20293,28 +20328,14 @@
       <c r="B8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7">
-        <v>23773405</v>
+        <v>3220</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="17" t="s">
@@ -20323,14 +20344,28 @@
       <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7">
-        <v>23773403</v>
+        <v>23773405</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="17" t="s">
@@ -20340,10 +20375,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7">
-        <v>23773407</v>
+        <v>23773403</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -20356,10 +20391,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>23773407</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -20371,11 +20406,8 @@
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -20394,7 +20426,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -20410,10 +20442,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -20429,44 +20461,41 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7">
-        <v>6772</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="16" spans="1:26" s="24" customFormat="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>867</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>54</v>
+        <v>643</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -20476,36 +20505,17 @@
       <c r="B17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F17" s="7">
-        <v>7</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>6772</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="17" t="s">
@@ -20514,38 +20524,79 @@
       <c r="B18" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7">
-        <v>6713</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
@@ -20554,11 +20605,11 @@
         <v>24</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="E21" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7">
+        <v>6713</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -20567,126 +20618,120 @@
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="17"/>
+      <c r="E22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="E23" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F24" s="7">
         <v>34</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21" t="s">
+    <row r="25" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F25" s="25">
         <v>6737</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G25" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="27" t="s">
+      <c r="I25" s="23"/>
+      <c r="J25" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K25" s="28" t="s">
         <v>855</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="D24" s="19" t="s">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="D26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F26" s="20">
         <v>1</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H26" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K26" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="7">
-        <v>104</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="7">
-        <v>589</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="17" t="s">
@@ -20696,115 +20741,100 @@
         <v>30</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="7">
+        <v>589</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="20" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K30" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="24" customFormat="1">
-      <c r="A29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="22" t="s">
+    <row r="31" spans="1:26" s="24" customFormat="1">
+      <c r="A31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="24" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="62" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="62" t="s">
+      <c r="H31" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I31" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="K31" s="28" t="s">
         <v>828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="K30" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -20815,19 +20845,17 @@
         <v>25</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F32" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>88</v>
+      <c r="G32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="K32" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -20837,8 +20865,11 @@
       <c r="B33" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F33" s="7">
         <v>0</v>
@@ -20850,7 +20881,7 @@
         <v>84</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -20861,7 +20892,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F34" s="7">
         <v>0</v>
@@ -20870,40 +20901,33 @@
         <v>53</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="67" customFormat="1">
-      <c r="A35" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="69">
+      <c r="E35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="69"/>
-      <c r="H35" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="I35" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="65" t="s">
-        <v>818</v>
+      <c r="G35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -20913,63 +20937,81 @@
       <c r="B36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="67" customFormat="1">
+      <c r="A37" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="7">
-        <v>6699</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="D37" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="69">
+        <v>0</v>
+      </c>
+      <c r="G37" s="69"/>
+      <c r="H37" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="65" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F38" s="7">
-        <v>0</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="17" t="s">
@@ -20979,44 +21021,32 @@
         <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39" s="7">
-        <v>0</v>
+        <v>6699</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:11" ht="60">
+    <row r="40" spans="1:11">
       <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F40" s="7">
         <v>0</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="17" t="s">
@@ -21026,329 +21056,316 @@
         <v>25</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F41" s="7">
-        <v>6758</v>
+        <v>0</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:11" s="24" customFormat="1">
-      <c r="A42" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="22" t="s">
+    <row r="42" spans="1:11" ht="60">
+      <c r="A42" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="7">
+        <v>6758</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" s="24" customFormat="1">
+      <c r="A44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H44" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I44" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="62" t="s">
+      <c r="J44" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="62" t="s">
+      <c r="K44" s="62" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="24" customFormat="1">
-      <c r="A43" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="22" t="s">
+    <row r="45" spans="1:11" s="24" customFormat="1">
+      <c r="A45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E45" s="63" t="s">
         <v>822</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H45" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="62" t="s">
+      <c r="I45" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="62" t="s">
+      <c r="J45" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="62" t="s">
+      <c r="K45" s="62" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="17" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F46" s="7">
         <v>0</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="62" t="s">
+      <c r="H46" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I46" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="17" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F47" s="7">
         <v>0</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="K45" s="19" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="K47" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="24" customFormat="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="E46" s="7" t="s">
+    <row r="48" spans="1:11" s="24" customFormat="1">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="E48" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I48" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="28" t="s">
+      <c r="K48" s="28" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="24" customFormat="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="E47" s="7" t="s">
+    <row r="49" spans="1:26" s="24" customFormat="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="E49" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="28" t="s">
+      <c r="K49" s="28" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="29" t="s">
+    <row r="50" spans="1:26">
+      <c r="A50" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D50" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E50" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="20" t="s">
+      <c r="F50" s="7"/>
+      <c r="G50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H50" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="20">
-        <v>1</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="E50" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="20">
-        <v>1</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>116</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="20">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="K51" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="E52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="20">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="7" t="s">
+    <row r="53" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="85" t="s">
+      <c r="F53" s="7"/>
+      <c r="G53" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="85" t="s">
+      <c r="H53" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="I51" s="85" t="s">
+      <c r="I53" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="85" t="s">
+      <c r="J53" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="62" t="s">
+      <c r="K53" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="L51" s="85" t="s">
+      <c r="L53" s="85" t="s">
         <v>834</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="3"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
@@ -21360,77 +21377,89 @@
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F54" s="7">
-        <v>1739.927555</v>
+        <v>-1</v>
       </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>25</v>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F55" s="7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F56" s="7">
-        <v>553659</v>
+        <v>1739.927555</v>
       </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="17" t="s">
@@ -21439,14 +21468,30 @@
       <c r="B57" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="C57" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E57" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F57" s="7">
-        <v>4891208</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="17" t="s">
@@ -21455,30 +21500,14 @@
       <c r="B58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E58" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F58" s="7">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>140</v>
-      </c>
+        <v>553659</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="17" t="s">
@@ -21487,67 +21516,45 @@
       <c r="B59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="E59" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="C60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" s="24" customFormat="1">
-      <c r="A60" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="F60" s="7">
-        <v>5</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K60" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -21557,223 +21564,212 @@
       <c r="B61" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>144</v>
+      <c r="C61" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="H61" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" s="24" customFormat="1">
+      <c r="A62" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="F62" s="7">
+        <v>5</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K62" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="L62" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="E62" s="7" t="s">
+    <row r="64" spans="1:26">
+      <c r="A64" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="E64" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F64" s="7">
         <v>6772</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:26" s="24" customFormat="1">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="D63" s="62" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" s="24" customFormat="1">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="E65" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="24" customFormat="1">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="E66" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F66" s="7">
+        <v>10</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="24" customFormat="1">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="D67" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="63" t="s">
+      <c r="F67" s="7"/>
+      <c r="G67" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I63" s="28" t="s">
+      <c r="I67" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="28" t="s">
+      <c r="J67" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K63" s="28" t="s">
+      <c r="K67" s="28" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="24" customFormat="1">
-      <c r="A64" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="D64" s="62" t="s">
+    <row r="68" spans="1:11" s="24" customFormat="1">
+      <c r="A68" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="D68" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="63" t="s">
+      <c r="F68" s="7"/>
+      <c r="G68" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I64" s="28" t="s">
+      <c r="I68" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J64" s="28" t="s">
+      <c r="J68" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K64" s="28" t="s">
+      <c r="K68" s="28" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F65" s="20">
-        <v>1500</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K65" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" s="19">
-        <v>1500</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67" s="19">
-        <v>1500</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F68" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -21781,22 +21777,22 @@
         <v>24</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F69" s="19">
-        <v>1000</v>
+      <c r="E69" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="20">
+        <v>1500</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H69" s="19" t="s">
-        <v>123</v>
+      <c r="H69" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="I69" s="19" t="s">
         <v>40</v>
@@ -21805,7 +21801,7 @@
         <v>34</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -21813,22 +21809,22 @@
         <v>24</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F70" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>126</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I70" s="19" t="s">
         <v>40</v>
@@ -21837,13 +21833,141 @@
         <v>34</v>
       </c>
       <c r="K70" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="19">
+        <v>1500</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="19" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B50">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B48))&gt;0</formula>
+      <formula>LEN(TRIM(B50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B780A7-7392-4370-B582-E3052141F473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A4E76-1D46-4837-B8F1-73D1EF8AD65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="874">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2713,6 +2713,12 @@
   </si>
   <si>
     <t>AREA_H2O</t>
+  </si>
+  <si>
+    <t>REACH_EVAP</t>
+  </si>
+  <si>
+    <t>daily evaporation from reach</t>
   </si>
 </sst>
 </file>
@@ -8671,7 +8677,7 @@
   <dimension ref="A1:Z1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
@@ -20071,11 +20077,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -21256,70 +21262,71 @@
         <v>861</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="29" t="s">
+    <row r="50" spans="1:26" s="24" customFormat="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="E50" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D51" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E51" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="20" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H51" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I51" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J51" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="K51" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="17" t="s">
+    <row r="52" spans="1:26">
+      <c r="A52" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F51" s="20">
-        <v>1</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="E52" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="F52" s="20">
         <v>1</v>
@@ -21330,167 +21337,157 @@
       <c r="H52" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J52" s="19" t="s">
         <v>34</v>
       </c>
       <c r="K52" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="E53" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="20">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="7" t="s">
+    <row r="54" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="85" t="s">
+      <c r="F54" s="7"/>
+      <c r="G54" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="85" t="s">
+      <c r="H54" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="I53" s="85" t="s">
+      <c r="I54" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="J53" s="85" t="s">
+      <c r="J54" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K53" s="62" t="s">
+      <c r="K54" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="L53" s="85" t="s">
+      <c r="L54" s="85" t="s">
         <v>834</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="17" t="s">
+      <c r="M54" s="3"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>-1</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="7" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>0.6</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="7">
-        <v>1739.927555</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F57" s="7">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>1739.927555</v>
+      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -21500,14 +21497,30 @@
       <c r="B58" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="C58" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E58" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F58" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="17" t="s">
@@ -21517,10 +21530,10 @@
         <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F59" s="7">
-        <v>4891208</v>
+        <v>553659</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -21532,30 +21545,14 @@
       <c r="B60" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E60" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" s="7">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>140</v>
-      </c>
+        <v>4891208</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="17" t="s">
@@ -21568,10 +21565,10 @@
         <v>25</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>53</v>
@@ -21586,64 +21583,63 @@
         <v>34</v>
       </c>
       <c r="K61" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="24" customFormat="1">
-      <c r="A62" s="22" t="s">
+    <row r="63" spans="1:26" s="24" customFormat="1">
+      <c r="A63" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B63" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D63" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>5</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="L62" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
         <v>146</v>
       </c>
@@ -21654,85 +21650,92 @@
         <v>29</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>147</v>
+        <v>858</v>
+      </c>
+      <c r="L63" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E64" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="E65" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>6772</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:11" s="24" customFormat="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="E65" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="28" t="s">
-        <v>866</v>
-      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:11" s="24" customFormat="1">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="E66" s="7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F66" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>643</v>
+        <v>865</v>
       </c>
       <c r="I66" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" s="28" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="24" customFormat="1">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
-      <c r="D67" s="62" t="s">
-        <v>26</v>
-      </c>
       <c r="E67" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="63" t="s">
-        <v>32</v>
+        <v>863</v>
+      </c>
+      <c r="F67" s="7">
+        <v>10</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>84</v>
+        <v>643</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>28</v>
@@ -21741,19 +21744,17 @@
         <v>29</v>
       </c>
       <c r="K67" s="28" t="s">
-        <v>814</v>
+        <v>869</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="24" customFormat="1">
-      <c r="A68" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="D68" s="62" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="63" t="s">
@@ -21769,39 +21770,35 @@
         <v>29</v>
       </c>
       <c r="K68" s="28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="24" customFormat="1">
+      <c r="A69" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="D69" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="28" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="20">
-        <v>1500</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K69" s="19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -21814,16 +21811,16 @@
       <c r="D70" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E70" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F70" s="19">
+      <c r="E70" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="20">
         <v>1500</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="20" t="s">
         <v>96</v>
       </c>
       <c r="I70" s="19" t="s">
@@ -21833,7 +21830,7 @@
         <v>34</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -21847,7 +21844,7 @@
         <v>150</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F71" s="19">
         <v>1500</v>
@@ -21865,7 +21862,7 @@
         <v>34</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -21873,16 +21870,16 @@
         <v>24</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F72" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>126</v>
@@ -21897,7 +21894,7 @@
         <v>34</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -21911,7 +21908,7 @@
         <v>150</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F73" s="19">
         <v>1000</v>
@@ -21920,7 +21917,7 @@
         <v>126</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I73" s="19" t="s">
         <v>40</v>
@@ -21929,7 +21926,7 @@
         <v>34</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -21943,7 +21940,7 @@
         <v>150</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F74" s="19">
         <v>1000</v>
@@ -21961,13 +21958,45 @@
         <v>34</v>
       </c>
       <c r="K74" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" s="19" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B50))&gt;0</formula>
+      <formula>LEN(TRIM(B51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A4E76-1D46-4837-B8F1-73D1EF8AD65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF104903-FA85-4134-8C96-09E3B4306CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="875">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2685,9 +2685,6 @@
     <t xml:space="preserve"> net longwave radiation out of the stream to the atmosphere; positive values for energy going from the stream to the atmosphere</t>
   </si>
   <si>
-    <t>insolation flux; positive for energy going into the stream</t>
-  </si>
-  <si>
     <t>WIDTH</t>
   </si>
   <si>
@@ -2719,6 +2716,12 @@
   </si>
   <si>
     <t>daily evaporation from reach</t>
+  </si>
+  <si>
+    <t>EVAP_MM</t>
+  </si>
+  <si>
+    <t>net insolation flux after taking shading and cloudiness into account; positive for energy going into the stream</t>
   </si>
 </sst>
 </file>
@@ -20077,10 +20080,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -20276,7 +20279,7 @@
       <c r="B6" s="64"/>
       <c r="D6" s="66"/>
       <c r="E6" s="66" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F6" s="66">
         <v>5.2</v>
@@ -20292,7 +20295,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30">
@@ -20483,7 +20486,7 @@
       <c r="B16" s="22"/>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -20501,7 +20504,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -20590,32 +20593,46 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="20" spans="1:26" s="24" customFormat="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>873</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7">
-        <v>6713</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -20626,9 +20643,11 @@
       </c>
       <c r="B22" s="17"/>
       <c r="E22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6713</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
@@ -20637,12 +20656,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="E23" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="E23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
@@ -20650,110 +20667,108 @@
       <c r="A24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="17"/>
+      <c r="E24" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>34</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="21" t="s">
+    <row r="26" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F26" s="25">
         <v>6737</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="27" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K26" s="28" t="s">
         <v>855</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="D26" s="19" t="s">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="D27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F27" s="20">
         <v>1</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J27" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K27" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="7">
-        <v>104</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="17" t="s">
@@ -20763,10 +20778,10 @@
         <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="7">
-        <v>589</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -20779,89 +20794,84 @@
         <v>30</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="20" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J31" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K31" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="24" customFormat="1">
-      <c r="A31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="32" spans="1:26" s="24" customFormat="1">
+      <c r="A32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="24" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="62" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H32" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I32" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K32" s="28" t="s">
         <v>828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="K32" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -20871,23 +20881,18 @@
       <c r="B33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F33" s="7">
         <v>0</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>85</v>
+      <c r="G33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="K33" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -20897,20 +20902,23 @@
       <c r="B34" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F34" s="7">
         <v>0</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -20921,19 +20929,19 @@
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -20944,79 +20952,72 @@
         <v>25</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
       </c>
       <c r="G36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H37" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K37" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="67" customFormat="1">
-      <c r="A37" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="64" t="s">
+    <row r="38" spans="1:11" s="67" customFormat="1">
+      <c r="A38" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D38" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E38" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="69">
+      <c r="F38" s="69">
         <v>0</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="68" t="s">
+      <c r="G38" s="69"/>
+      <c r="H38" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="68" t="s">
+      <c r="I38" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="68" t="s">
+      <c r="J38" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="65" t="s">
+      <c r="K38" s="65" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -21026,30 +21027,44 @@
       <c r="B39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>50</v>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7">
-        <v>6699</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="7">
-        <v>0</v>
+        <v>6699</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -21059,13 +21074,10 @@
         <v>24</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -21073,7 +21085,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:11" ht="60">
+    <row r="42" spans="1:11">
       <c r="A42" s="17" t="s">
         <v>24</v>
       </c>
@@ -21081,27 +21093,18 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F42" s="7">
         <v>0</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" ht="60">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -21109,46 +21112,44 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>6758</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" s="24" customFormat="1">
-      <c r="A44" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="62" t="s">
-        <v>823</v>
-      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:11" s="24" customFormat="1">
       <c r="A45" s="22" t="s">
@@ -21158,10 +21159,10 @@
         <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>822</v>
+        <v>824</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>821</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
@@ -21177,30 +21178,37 @@
         <v>29</v>
       </c>
       <c r="K45" s="62" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="24" customFormat="1">
+      <c r="A46" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>822</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="62" t="s">
         <v>826</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -21211,41 +21219,44 @@
         <v>25</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="7">
         <v>0</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="K47" s="19" t="s">
+      <c r="G47" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="K48" s="19" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="24" customFormat="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="E48" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="49" spans="1:26" s="24" customFormat="1">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="63" t="s">
         <v>860</v>
       </c>
       <c r="F49" s="7"/>
@@ -21266,89 +21277,87 @@
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="E50" s="7" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>112</v>
+        <v>492</v>
       </c>
       <c r="I50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="K50" s="28" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" s="67" customFormat="1">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="E51" s="69" t="s">
+        <v>871</v>
+      </c>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="28" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="29" t="s">
+      <c r="K51" s="65" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D52" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E52" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="20" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H52" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I52" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J52" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K52" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="17" t="s">
+    <row r="53" spans="1:26">
+      <c r="A53" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F52" s="20">
-        <v>1</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="E53" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="F53" s="20">
         <v>1</v>
@@ -21359,167 +21368,157 @@
       <c r="H53" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I53" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="J53" s="19" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="E54" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="20">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="7" t="s">
+    <row r="55" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="85" t="s">
+      <c r="F55" s="7"/>
+      <c r="G55" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="85" t="s">
+      <c r="H55" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="I54" s="85" t="s">
+      <c r="I55" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="J54" s="85" t="s">
+      <c r="J55" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="62" t="s">
+      <c r="K55" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="L54" s="85" t="s">
+      <c r="L55" s="85" t="s">
         <v>834</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="17" t="s">
+      <c r="M55" s="3"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>-1</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="7" t="s">
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>0.6</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1739.927555</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F58" s="7">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>1739.927555</v>
+      </c>
+      <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -21529,14 +21528,30 @@
       <c r="B59" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="C59" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E59" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F59" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="17" t="s">
@@ -21546,10 +21561,10 @@
         <v>25</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F60" s="7">
-        <v>4891208</v>
+        <v>553659</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -21561,30 +21576,14 @@
       <c r="B61" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E61" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61" s="7">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>140</v>
-      </c>
+        <v>4891208</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="17" t="s">
@@ -21597,10 +21596,10 @@
         <v>25</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>53</v>
@@ -21615,64 +21614,63 @@
         <v>34</v>
       </c>
       <c r="K62" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="24" customFormat="1">
-      <c r="A63" s="22" t="s">
+    <row r="64" spans="1:26" s="24" customFormat="1">
+      <c r="A64" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B64" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D64" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="7">
         <v>5</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="L63" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="7">
-        <v>0</v>
-      </c>
-      <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
         <v>146</v>
       </c>
@@ -21683,44 +21681,55 @@
         <v>29</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>147</v>
+        <v>858</v>
+      </c>
+      <c r="L64" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E65" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="E66" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>6772</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:11" s="24" customFormat="1">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="E66" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="F66" s="7">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="28" t="s">
-        <v>866</v>
-      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:11" s="24" customFormat="1">
       <c r="A67" s="22"/>
@@ -21729,39 +21738,35 @@
         <v>863</v>
       </c>
       <c r="F67" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>643</v>
+        <v>864</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" s="28" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="24" customFormat="1">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
-      <c r="D68" s="62" t="s">
-        <v>26</v>
-      </c>
       <c r="E68" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="63" t="s">
-        <v>32</v>
+        <v>862</v>
+      </c>
+      <c r="F68" s="7">
+        <v>10</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>84</v>
+        <v>643</v>
       </c>
       <c r="I68" s="28" t="s">
         <v>28</v>
@@ -21770,19 +21775,17 @@
         <v>29</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>814</v>
+        <v>868</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="24" customFormat="1">
-      <c r="A69" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="D69" s="62" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="63" t="s">
@@ -21798,39 +21801,35 @@
         <v>29</v>
       </c>
       <c r="K69" s="28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="24" customFormat="1">
+      <c r="A70" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="D70" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="28" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="20">
-        <v>1500</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -21843,16 +21842,16 @@
       <c r="D71" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F71" s="19">
+      <c r="E71" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="20">
         <v>1500</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="20" t="s">
         <v>96</v>
       </c>
       <c r="I71" s="19" t="s">
@@ -21862,7 +21861,7 @@
         <v>34</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -21876,7 +21875,7 @@
         <v>150</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F72" s="19">
         <v>1500</v>
@@ -21894,7 +21893,7 @@
         <v>34</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -21902,16 +21901,16 @@
         <v>24</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F73" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>126</v>
@@ -21926,7 +21925,7 @@
         <v>34</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -21940,7 +21939,7 @@
         <v>150</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F74" s="19">
         <v>1000</v>
@@ -21949,7 +21948,7 @@
         <v>126</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>40</v>
@@ -21958,7 +21957,7 @@
         <v>34</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -21972,7 +21971,7 @@
         <v>150</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F75" s="19">
         <v>1000</v>
@@ -21990,13 +21989,45 @@
         <v>34</v>
       </c>
       <c r="K75" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" s="19" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B52">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B51))&gt;0</formula>
+      <formula>LEN(TRIM(B52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF104903-FA85-4134-8C96-09E3B4306CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857B367-538E-4106-9982-93434C3F898F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="882">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2722,6 +2722,27 @@
   </si>
   <si>
     <t>net insolation flux after taking shading and cloudiness into account; positive for energy going into the stream</t>
+  </si>
+  <si>
+    <t>SPRING_CMS</t>
+  </si>
+  <si>
+    <t>specified in the Flow XML file</t>
+  </si>
+  <si>
+    <t>inflow from springs</t>
+  </si>
+  <si>
+    <t>IN_RUNOFF</t>
+  </si>
+  <si>
+    <t>addition to reach as lateral flow in over and through the stream banks and stream bottom, from the precipitation-runoff model (HBV)</t>
+  </si>
+  <si>
+    <t>Q_MIN</t>
+  </si>
+  <si>
+    <t>nominal low flow</t>
   </si>
 </sst>
 </file>
@@ -3388,21 +3409,21 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60:I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="24" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="24" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="24" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" style="24" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="45.5703125" style="24" customWidth="1"/>
-    <col min="12" max="21" width="6.42578125" style="24" customWidth="1"/>
-    <col min="22" max="26" width="12.5703125" style="24" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="24"/>
+    <col min="8" max="8" width="43.109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" style="24" customWidth="1"/>
+    <col min="12" max="21" width="6.44140625" style="24" customWidth="1"/>
+    <col min="22" max="26" width="12.5546875" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -5626,7 +5647,7 @@
       <c r="W63" s="30"/>
       <c r="X63" s="30"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="14.4">
       <c r="A64" s="22" t="s">
         <v>24</v>
       </c>
@@ -5656,7 +5677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="14.4">
       <c r="A65" s="22" t="s">
         <v>24</v>
       </c>
@@ -5672,7 +5693,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="14.4">
       <c r="A66" s="22" t="s">
         <v>24</v>
       </c>
@@ -5688,7 +5709,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="14.4">
       <c r="A67" s="22" t="s">
         <v>24</v>
       </c>
@@ -5704,7 +5725,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="14.4">
       <c r="A68" s="22" t="s">
         <v>24</v>
       </c>
@@ -5742,7 +5763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="14.4">
       <c r="A69" s="22" t="s">
         <v>24</v>
       </c>
@@ -5756,7 +5777,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="14.4">
       <c r="A70" s="22" t="s">
         <v>24</v>
       </c>
@@ -5768,7 +5789,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="14.4">
       <c r="A71" s="22" t="s">
         <v>24</v>
       </c>
@@ -5782,7 +5803,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="14.4">
       <c r="A72" s="22" t="s">
         <v>24</v>
       </c>
@@ -5803,7 +5824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="14.4">
       <c r="A73" s="22" t="s">
         <v>24</v>
       </c>
@@ -5833,7 +5854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="14.4">
       <c r="A74" s="22" t="s">
         <v>24</v>
       </c>
@@ -5852,7 +5873,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="14.4">
       <c r="A75" s="22" t="s">
         <v>24</v>
       </c>
@@ -5871,7 +5892,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="14.4">
       <c r="A76" s="22" t="s">
         <v>24</v>
       </c>
@@ -5897,7 +5918,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="14.4">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="E77" s="24" t="s">
@@ -5922,7 +5943,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="14.4">
       <c r="A78" s="22" t="s">
         <v>24</v>
       </c>
@@ -5938,7 +5959,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="14.4">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="7" t="s">
@@ -5984,7 +6005,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="14.4">
       <c r="A80" s="22" t="s">
         <v>24</v>
       </c>
@@ -6005,7 +6026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="14.4">
       <c r="A81" s="22" t="s">
         <v>24</v>
       </c>
@@ -6021,7 +6042,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="14.4">
       <c r="A82" s="22" t="s">
         <v>24</v>
       </c>
@@ -6037,7 +6058,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="14.4">
       <c r="A83" s="22" t="s">
         <v>24</v>
       </c>
@@ -6069,7 +6090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="14.4">
       <c r="A84" s="22" t="s">
         <v>24</v>
       </c>
@@ -6101,7 +6122,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="14.4">
       <c r="A85" s="22" t="s">
         <v>24</v>
       </c>
@@ -6115,7 +6136,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="14.4">
       <c r="A86" s="22" t="s">
         <v>24</v>
       </c>
@@ -6147,7 +6168,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="14.4">
       <c r="A87" s="22" t="s">
         <v>24</v>
       </c>
@@ -6179,7 +6200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="14.4">
       <c r="A88" s="22" t="s">
         <v>24</v>
       </c>
@@ -6211,7 +6232,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="14.4">
       <c r="A89" s="22" t="s">
         <v>24</v>
       </c>
@@ -6243,7 +6264,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="14.4">
       <c r="A90" s="22" t="s">
         <v>24</v>
       </c>
@@ -6275,7 +6296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="14.4">
       <c r="A91" s="22" t="s">
         <v>24</v>
       </c>
@@ -6307,7 +6328,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="14.4">
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="59.25" customHeight="1">
@@ -6358,7 +6379,7 @@
       <c r="U93" s="30"/>
       <c r="V93" s="30"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="14.4">
       <c r="A94" s="33" t="s">
         <v>177</v>
       </c>
@@ -6394,7 +6415,7 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="14.4">
       <c r="A95" s="33" t="s">
         <v>177</v>
       </c>
@@ -6434,7 +6455,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="14.4">
       <c r="A96" s="33" t="s">
         <v>177</v>
       </c>
@@ -6544,7 +6565,7 @@
       <c r="U98" s="50"/>
       <c r="V98" s="50"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="14.4">
       <c r="A99" s="33" t="s">
         <v>177</v>
       </c>
@@ -6612,7 +6633,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="14.4">
       <c r="A101" s="33" t="s">
         <v>24</v>
       </c>
@@ -6626,2044 +6647,2044 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="14.4">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="14.4">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="14.4">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="14.4">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="14.4">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="14.4">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="14.4">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="14.4">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="14.4">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="14.4">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="14.4">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" ht="14.4">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" ht="14.4">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" ht="14.4">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" ht="14.4">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" ht="14.4">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" ht="14.4">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" ht="14.4">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" ht="14.4">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" ht="14.4">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" ht="14.4">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" ht="14.4">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" ht="14.4">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" ht="14.4">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" ht="14.4">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" ht="14.4">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" ht="14.4">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" ht="14.4">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" ht="14.4">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" ht="14.4">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" ht="14.4">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" ht="14.4">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" ht="14.4">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" ht="14.4">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" ht="14.4">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" ht="14.4">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" ht="14.4">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" ht="14.4">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" ht="14.4">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" ht="14.4">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" ht="14.4">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" ht="14.4">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" ht="14.4">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" ht="14.4">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" ht="14.4">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" ht="14.4">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" ht="14.4">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" ht="14.4">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" ht="14.4">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" ht="14.4">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" ht="14.4">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" ht="14.4">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" ht="14.4">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" ht="14.4">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" ht="14.4">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" ht="14.4">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" ht="14.4">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" ht="14.4">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" ht="14.4">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" ht="14.4">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" ht="14.4">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" ht="14.4">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" ht="14.4">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" ht="14.4">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" ht="14.4">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" ht="14.4">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" ht="14.4">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" ht="14.4">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" ht="14.4">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" ht="14.4">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" ht="14.4">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" ht="14.4">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" ht="14.4">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" ht="14.4">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" ht="14.4">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" ht="14.4">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" ht="14.4">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" ht="14.4">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" ht="14.4">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" ht="14.4">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" ht="14.4">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" ht="14.4">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" ht="14.4">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" ht="14.4">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" ht="14.4">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" ht="14.4">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" ht="14.4">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" ht="14.4">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" ht="14.4">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" ht="14.4">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" ht="14.4">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" ht="14.4">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" ht="14.4">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" ht="14.4">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" ht="14.4">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" ht="14.4">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" ht="14.4">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" ht="14.4">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" ht="14.4">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" ht="14.4">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" ht="14.4">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" ht="14.4">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" ht="14.4">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" ht="14.4">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:2" ht="14.4">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" ht="14.4">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" ht="14.4">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" ht="14.4">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" ht="14.4">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" ht="14.4">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" ht="14.4">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" ht="14.4">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" ht="14.4">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" ht="14.4">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:2" ht="14.4">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:2" ht="14.4">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:2" ht="14.4">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:2" ht="14.4">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:2" ht="14.4">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" ht="14.4">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" ht="14.4">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" ht="14.4">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" ht="14.4">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" ht="14.4">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" ht="14.4">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" ht="14.4">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" ht="14.4">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" ht="14.4">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" ht="14.4">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" ht="14.4">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" ht="14.4">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" ht="14.4">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" ht="14.4">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" ht="14.4">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" ht="14.4">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" ht="14.4">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" ht="14.4">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" ht="14.4">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" ht="14.4">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" ht="14.4">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" ht="14.4">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" ht="14.4">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" ht="14.4">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" ht="14.4">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" ht="14.4">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" ht="14.4">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" ht="14.4">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" ht="14.4">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" ht="14.4">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" ht="14.4">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" ht="14.4">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" ht="14.4">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" ht="14.4">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" ht="14.4">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" ht="14.4">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="2:2" ht="14.4">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="2:2" ht="14.4">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" ht="14.4">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" ht="14.4">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" ht="14.4">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" ht="14.4">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" ht="14.4">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" ht="14.4">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" ht="14.4">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" ht="14.4">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" ht="14.4">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" ht="14.4">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" ht="14.4">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" ht="14.4">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" ht="14.4">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" ht="14.4">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" ht="14.4">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" ht="14.4">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" ht="14.4">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" ht="14.4">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" ht="14.4">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" ht="14.4">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" ht="14.4">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" ht="14.4">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" ht="14.4">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" ht="14.4">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" ht="14.4">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" ht="14.4">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" ht="14.4">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" ht="14.4">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" ht="14.4">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" ht="14.4">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" ht="14.4">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" ht="14.4">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" ht="14.4">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" ht="14.4">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" ht="14.4">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" ht="14.4">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" ht="14.4">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" ht="14.4">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" ht="14.4">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" ht="14.4">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" ht="14.4">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" ht="14.4">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" ht="14.4">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" ht="14.4">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" ht="14.4">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" ht="14.4">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" ht="14.4">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" ht="14.4">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" ht="14.4">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" ht="14.4">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" ht="14.4">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" ht="14.4">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" ht="14.4">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" ht="14.4">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" ht="14.4">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" ht="14.4">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" ht="14.4">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" ht="14.4">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" ht="14.4">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" ht="14.4">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" ht="14.4">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" ht="14.4">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" ht="14.4">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" ht="14.4">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" ht="14.4">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" ht="14.4">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" ht="14.4">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" ht="14.4">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" ht="14.4">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" ht="14.4">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" ht="14.4">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" ht="14.4">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" ht="14.4">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" ht="14.4">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" ht="14.4">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" ht="14.4">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" ht="14.4">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" ht="14.4">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" ht="14.4">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" ht="14.4">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" ht="14.4">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" ht="14.4">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" ht="14.4">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" ht="14.4">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" ht="14.4">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" ht="14.4">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" ht="14.4">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" ht="14.4">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" ht="14.4">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" ht="14.4">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" ht="14.4">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" ht="14.4">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" ht="14.4">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" ht="14.4">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" ht="14.4">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" ht="14.4">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" ht="14.4">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" ht="14.4">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" ht="14.4">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" ht="14.4">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" ht="14.4">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" ht="14.4">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" ht="14.4">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" ht="14.4">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" ht="14.4">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" ht="14.4">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" ht="14.4">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" ht="14.4">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" ht="14.4">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" ht="14.4">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" ht="14.4">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" ht="14.4">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" ht="14.4">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" ht="14.4">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" ht="14.4">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" ht="14.4">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" ht="14.4">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" ht="14.4">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" ht="14.4">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" ht="14.4">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" ht="14.4">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" ht="14.4">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" ht="14.4">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" ht="14.4">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" ht="14.4">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" ht="14.4">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" ht="14.4">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" ht="14.4">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" ht="14.4">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" ht="14.4">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" ht="14.4">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" ht="14.4">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" ht="14.4">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" ht="14.4">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" ht="14.4">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" ht="14.4">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" ht="14.4">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" ht="14.4">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" ht="14.4">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" ht="14.4">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" ht="14.4">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" ht="14.4">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" ht="14.4">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" ht="14.4">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" ht="14.4">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" ht="14.4">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" ht="14.4">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" ht="14.4">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" ht="14.4">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" ht="14.4">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" ht="14.4">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" ht="14.4">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" ht="14.4">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" ht="14.4">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" ht="14.4">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" ht="14.4">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" ht="14.4">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" ht="14.4">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" ht="14.4">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" ht="14.4">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" ht="14.4">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" ht="14.4">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" ht="14.4">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" ht="14.4">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" ht="14.4">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" ht="14.4">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" ht="14.4">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" ht="14.4">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" ht="14.4">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" ht="14.4">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" ht="14.4">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" ht="14.4">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" ht="14.4">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" ht="14.4">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" ht="14.4">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" ht="14.4">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" ht="14.4">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" ht="14.4">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" ht="14.4">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" ht="14.4">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" ht="14.4">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" ht="14.4">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" ht="14.4">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" ht="14.4">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" ht="14.4">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" ht="14.4">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" ht="14.4">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" ht="14.4">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" ht="14.4">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" ht="14.4">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" ht="14.4">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" ht="14.4">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" ht="14.4">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" ht="14.4">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" ht="14.4">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" ht="14.4">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" ht="14.4">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" ht="14.4">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" ht="14.4">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" ht="14.4">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" ht="14.4">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" ht="14.4">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" ht="14.4">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" ht="14.4">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" ht="14.4">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" ht="14.4">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" ht="14.4">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" ht="14.4">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" ht="14.4">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" ht="14.4">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" ht="14.4">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" ht="14.4">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" ht="14.4">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" ht="14.4">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" ht="14.4">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" ht="14.4">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" ht="14.4">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" ht="14.4">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" ht="14.4">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" ht="14.4">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" ht="14.4">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" ht="14.4">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" ht="14.4">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" ht="14.4">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" ht="14.4">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" ht="14.4">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" ht="14.4">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" ht="14.4">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" ht="14.4">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" ht="14.4">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" ht="14.4">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" ht="14.4">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" ht="14.4">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" ht="14.4">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" ht="14.4">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" ht="14.4">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" ht="14.4">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" ht="14.4">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" ht="14.4">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" ht="14.4">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" ht="14.4">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" ht="14.4">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" ht="14.4">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" ht="14.4">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" ht="14.4">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" ht="14.4">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" ht="14.4">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" ht="14.4">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" ht="14.4">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" ht="14.4">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" ht="14.4">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" ht="14.4">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" ht="14.4">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" ht="14.4">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" ht="14.4">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" ht="14.4">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" ht="14.4">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" ht="14.4">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" ht="14.4">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" ht="14.4">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" ht="14.4">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2">
+    <row r="520" spans="2:2" ht="14.4">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2">
+    <row r="521" spans="2:2" ht="14.4">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2">
+    <row r="522" spans="2:2" ht="14.4">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2">
+    <row r="523" spans="2:2" ht="14.4">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2">
+    <row r="524" spans="2:2" ht="14.4">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2">
+    <row r="525" spans="2:2" ht="14.4">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2">
+    <row r="526" spans="2:2" ht="14.4">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2">
+    <row r="527" spans="2:2" ht="14.4">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2">
+    <row r="528" spans="2:2" ht="14.4">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2">
+    <row r="529" spans="2:2" ht="14.4">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:2" ht="14.4">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2">
+    <row r="531" spans="2:2" ht="14.4">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:2" ht="14.4">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2">
+    <row r="533" spans="2:2" ht="14.4">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:2" ht="14.4">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:2" ht="14.4">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:2" ht="14.4">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:2" ht="14.4">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:2" ht="14.4">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:2" ht="14.4">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:2" ht="14.4">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:2" ht="14.4">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:2" ht="14.4">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:2" ht="14.4">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:2" ht="14.4">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" ht="14.4">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" ht="14.4">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" ht="14.4">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" ht="14.4">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" ht="14.4">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" ht="14.4">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" ht="14.4">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" ht="14.4">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" ht="14.4">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" ht="14.4">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" ht="14.4">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" ht="14.4">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" ht="14.4">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" ht="14.4">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" ht="14.4">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" ht="14.4">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" ht="14.4">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" ht="14.4">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" ht="14.4">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" ht="14.4">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" ht="14.4">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" ht="14.4">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" ht="14.4">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" ht="14.4">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" ht="14.4">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" ht="14.4">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" ht="14.4">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" ht="14.4">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" ht="14.4">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" ht="14.4">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" ht="14.4">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" ht="14.4">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" ht="14.4">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" ht="14.4">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" ht="14.4">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" ht="14.4">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" ht="14.4">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" ht="14.4">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" ht="14.4">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" ht="14.4">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" ht="14.4">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" ht="14.4">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" ht="14.4">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" ht="14.4">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" ht="14.4">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" ht="14.4">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" ht="14.4">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" ht="14.4">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" ht="14.4">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" ht="14.4">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" ht="14.4">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" ht="14.4">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" ht="14.4">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" ht="14.4">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" ht="14.4">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" ht="14.4">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" ht="14.4">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" ht="14.4">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" ht="14.4">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" ht="14.4">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" ht="14.4">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" ht="14.4">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" ht="14.4">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" ht="14.4">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" ht="14.4">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" ht="14.4">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" ht="14.4">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" ht="14.4">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" ht="14.4">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" ht="14.4">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" ht="14.4">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" ht="14.4">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" ht="14.4">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" ht="14.4">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" ht="14.4">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" ht="14.4">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" ht="14.4">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" ht="14.4">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" ht="14.4">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" ht="14.4">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" ht="14.4">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" ht="14.4">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" ht="14.4">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" ht="14.4">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" ht="14.4">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" ht="14.4">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" ht="14.4">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" ht="14.4">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" ht="14.4">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" ht="14.4">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" ht="14.4">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" ht="14.4">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" ht="14.4">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" ht="14.4">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" ht="14.4">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" ht="14.4">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" ht="14.4">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" ht="14.4">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" ht="14.4">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" ht="14.4">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" ht="14.4">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" ht="14.4">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" ht="14.4">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" ht="14.4">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" ht="14.4">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" ht="14.4">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" ht="14.4">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" ht="14.4">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" ht="14.4">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" ht="14.4">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" ht="14.4">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" ht="14.4">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" ht="14.4">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" ht="14.4">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" ht="14.4">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" ht="14.4">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" ht="14.4">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" ht="14.4">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" ht="14.4">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" ht="14.4">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" ht="14.4">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" ht="14.4">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" ht="14.4">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" ht="14.4">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" ht="14.4">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" ht="14.4">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" ht="14.4">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" ht="14.4">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" ht="14.4">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" ht="14.4">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" ht="14.4">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" ht="14.4">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" ht="14.4">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" ht="14.4">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" ht="14.4">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" ht="14.4">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" ht="14.4">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" ht="14.4">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" ht="14.4">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" ht="14.4">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" ht="14.4">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" ht="14.4">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" ht="14.4">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" ht="14.4">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" ht="14.4">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" ht="14.4">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" ht="14.4">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" ht="14.4">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" ht="14.4">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" ht="14.4">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" ht="14.4">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" ht="14.4">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" ht="14.4">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" ht="14.4">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" ht="14.4">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" ht="14.4">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" ht="14.4">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" ht="14.4">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" ht="14.4">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" ht="14.4">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" ht="14.4">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" ht="14.4">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" ht="14.4">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" ht="14.4">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" ht="14.4">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" ht="14.4">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" ht="14.4">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" ht="14.4">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" ht="14.4">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" ht="14.4">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" ht="14.4">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" ht="14.4">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" ht="14.4">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" ht="14.4">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" ht="14.4">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" ht="14.4">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" ht="14.4">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" ht="14.4">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" ht="14.4">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" ht="14.4">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" ht="14.4">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" ht="14.4">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" ht="14.4">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" ht="14.4">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" ht="14.4">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" ht="14.4">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" ht="14.4">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" ht="14.4">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" ht="14.4">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" ht="14.4">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" ht="14.4">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" ht="14.4">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" ht="14.4">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" ht="14.4">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" ht="14.4">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" ht="14.4">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" ht="14.4">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" ht="14.4">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" ht="14.4">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" ht="14.4">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" ht="14.4">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" ht="14.4">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" ht="14.4">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" ht="14.4">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" ht="14.4">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" ht="14.4">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" ht="14.4">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" ht="14.4">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" ht="14.4">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" ht="14.4">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" ht="14.4">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" ht="14.4">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" ht="14.4">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" ht="14.4">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" ht="14.4">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" ht="14.4">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" ht="14.4">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" ht="14.4">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" ht="14.4">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" ht="14.4">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" ht="14.4">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" ht="14.4">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" ht="14.4">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" ht="14.4">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" ht="14.4">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" ht="14.4">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" ht="14.4">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" ht="14.4">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" ht="14.4">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" ht="14.4">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" ht="14.4">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" ht="14.4">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" ht="14.4">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" ht="14.4">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" ht="14.4">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" ht="14.4">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" ht="14.4">
       <c r="B781" s="7"/>
     </row>
   </sheetData>
@@ -8684,20 +8705,20 @@
       <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="45.5703125" customWidth="1"/>
-    <col min="12" max="21" width="6.42578125" customWidth="1"/>
-    <col min="22" max="26" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" customWidth="1"/>
+    <col min="12" max="21" width="6.44140625" customWidth="1"/>
+    <col min="22" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -10402,7 +10423,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" ht="14.4">
       <c r="A50" s="47" t="s">
         <v>235</v>
       </c>
@@ -10425,7 +10446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="14.4">
       <c r="A51" s="47" t="s">
         <v>235</v>
       </c>
@@ -10448,7 +10469,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" ht="14.4">
       <c r="A52" s="47" t="s">
         <v>235</v>
       </c>
@@ -10471,7 +10492,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" ht="14.4">
       <c r="A53" s="47" t="s">
         <v>235</v>
       </c>
@@ -10494,7 +10515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" ht="14.4">
       <c r="A54" s="47" t="s">
         <v>235</v>
       </c>
@@ -10724,7 +10745,7 @@
       <c r="T60" s="79"/>
       <c r="U60" s="79"/>
     </row>
-    <row r="61" spans="1:21" s="30" customFormat="1" ht="30">
+    <row r="61" spans="1:21" s="30" customFormat="1" ht="28.8">
       <c r="A61" s="93" t="s">
         <v>76</v>
       </c>
@@ -17733,7 +17754,7 @@
       <c r="T264" s="7"/>
       <c r="U264" s="7"/>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" ht="14.4">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -17756,2317 +17777,2317 @@
       <c r="T265" s="7"/>
       <c r="U265" s="7"/>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" ht="14.4">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" ht="14.4">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" ht="14.4">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" ht="14.4">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" ht="14.4">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" ht="14.4">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" ht="14.4">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" ht="14.4">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" ht="14.4">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" ht="14.4">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" ht="14.4">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" ht="14.4">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" ht="14.4">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" ht="14.4">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" ht="14.4">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" ht="14.4">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" ht="14.4">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" ht="14.4">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" ht="14.4">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" ht="14.4">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" ht="14.4">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" ht="14.4">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" ht="14.4">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" ht="14.4">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" ht="14.4">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" ht="14.4">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" ht="14.4">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" ht="14.4">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" ht="14.4">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" ht="14.4">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" ht="14.4">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" ht="14.4">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" ht="14.4">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" ht="14.4">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" ht="14.4">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" ht="14.4">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" ht="14.4">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" ht="14.4">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" ht="14.4">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" ht="14.4">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" ht="14.4">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" ht="14.4">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" ht="14.4">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" ht="14.4">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" ht="14.4">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" ht="14.4">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" ht="14.4">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" ht="14.4">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" ht="14.4">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" ht="14.4">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" ht="14.4">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" ht="14.4">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" ht="14.4">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" ht="14.4">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" ht="14.4">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" ht="14.4">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" ht="14.4">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" ht="14.4">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" ht="14.4">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" ht="14.4">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" ht="14.4">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" ht="14.4">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" ht="14.4">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" ht="14.4">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" ht="14.4">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" ht="14.4">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" ht="14.4">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" ht="14.4">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" ht="14.4">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" ht="14.4">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" ht="14.4">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" ht="14.4">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" ht="14.4">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" ht="14.4">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" ht="14.4">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" ht="14.4">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" ht="14.4">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" ht="14.4">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" ht="14.4">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" ht="14.4">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" ht="14.4">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" ht="14.4">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" ht="14.4">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" ht="14.4">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" ht="14.4">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" ht="14.4">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" ht="14.4">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" ht="14.4">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" ht="14.4">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" ht="14.4">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" ht="14.4">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" ht="14.4">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" ht="14.4">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" ht="14.4">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" ht="14.4">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" ht="14.4">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" ht="14.4">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" ht="14.4">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" ht="14.4">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" ht="14.4">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" ht="14.4">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" ht="14.4">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" ht="14.4">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" ht="14.4">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" ht="14.4">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" ht="14.4">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" ht="14.4">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" ht="14.4">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" ht="14.4">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" ht="14.4">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" ht="14.4">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" ht="14.4">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" ht="14.4">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" ht="14.4">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" ht="14.4">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" ht="14.4">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" ht="14.4">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" ht="14.4">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" ht="14.4">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" ht="14.4">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" ht="14.4">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" ht="14.4">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" ht="14.4">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" ht="14.4">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" ht="14.4">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" ht="14.4">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" ht="14.4">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" ht="14.4">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" ht="14.4">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" ht="14.4">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" ht="14.4">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" ht="14.4">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" ht="14.4">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" ht="14.4">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" ht="14.4">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" ht="14.4">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" ht="14.4">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" ht="14.4">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" ht="14.4">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" ht="14.4">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" ht="14.4">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" ht="14.4">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" ht="14.4">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" ht="14.4">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" ht="14.4">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" ht="14.4">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" ht="14.4">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" ht="14.4">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" ht="14.4">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" ht="14.4">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" ht="14.4">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" ht="14.4">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" ht="14.4">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" ht="14.4">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" ht="14.4">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" ht="14.4">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" ht="14.4">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" ht="14.4">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" ht="14.4">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" ht="14.4">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" ht="14.4">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" ht="14.4">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" ht="14.4">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" ht="14.4">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" ht="14.4">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" ht="14.4">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" ht="14.4">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" ht="14.4">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" ht="14.4">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" ht="14.4">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" ht="14.4">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" ht="14.4">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" ht="14.4">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" ht="14.4">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" ht="14.4">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" ht="14.4">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" ht="14.4">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" ht="14.4">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" ht="14.4">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" ht="14.4">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" ht="14.4">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" ht="14.4">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" ht="14.4">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" ht="14.4">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" ht="14.4">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" ht="14.4">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" ht="14.4">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" ht="14.4">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" ht="14.4">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" ht="14.4">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" ht="14.4">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" ht="14.4">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" ht="14.4">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" ht="14.4">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" ht="14.4">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" ht="14.4">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" ht="14.4">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" ht="14.4">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" ht="14.4">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" ht="14.4">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" ht="14.4">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" ht="14.4">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" ht="14.4">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" ht="14.4">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" ht="14.4">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" ht="14.4">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" ht="14.4">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" ht="14.4">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" ht="14.4">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" ht="14.4">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" ht="14.4">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" ht="14.4">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" ht="14.4">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" ht="14.4">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" ht="14.4">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" ht="14.4">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" ht="14.4">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" ht="14.4">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" ht="14.4">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" ht="14.4">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" ht="14.4">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" ht="14.4">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" ht="14.4">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" ht="14.4">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" ht="14.4">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" ht="14.4">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" ht="14.4">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" ht="14.4">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" ht="14.4">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" ht="14.4">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" ht="14.4">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" ht="14.4">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" ht="14.4">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" ht="14.4">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" ht="14.4">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" ht="14.4">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" ht="14.4">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" ht="14.4">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" ht="14.4">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" ht="14.4">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" ht="14.4">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" ht="14.4">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" ht="14.4">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" ht="14.4">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" ht="14.4">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" ht="14.4">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" ht="14.4">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" ht="14.4">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" ht="14.4">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" ht="14.4">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" ht="14.4">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" ht="14.4">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" ht="14.4">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" ht="14.4">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2">
+    <row r="520" spans="2:2" ht="14.4">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2">
+    <row r="521" spans="2:2" ht="14.4">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2">
+    <row r="522" spans="2:2" ht="14.4">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2">
+    <row r="523" spans="2:2" ht="14.4">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2">
+    <row r="524" spans="2:2" ht="14.4">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2">
+    <row r="525" spans="2:2" ht="14.4">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2">
+    <row r="526" spans="2:2" ht="14.4">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2">
+    <row r="527" spans="2:2" ht="14.4">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2">
+    <row r="528" spans="2:2" ht="14.4">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2">
+    <row r="529" spans="2:2" ht="14.4">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:2" ht="14.4">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2">
+    <row r="531" spans="2:2" ht="14.4">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:2" ht="14.4">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2">
+    <row r="533" spans="2:2" ht="14.4">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:2" ht="14.4">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:2" ht="14.4">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:2" ht="14.4">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:2" ht="14.4">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:2" ht="14.4">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:2" ht="14.4">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:2" ht="14.4">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:2" ht="14.4">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:2" ht="14.4">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:2" ht="14.4">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:2" ht="14.4">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" ht="14.4">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" ht="14.4">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" ht="14.4">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" ht="14.4">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" ht="14.4">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" ht="14.4">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" ht="14.4">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" ht="14.4">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" ht="14.4">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" ht="14.4">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" ht="14.4">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" ht="14.4">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" ht="14.4">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" ht="14.4">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" ht="14.4">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" ht="14.4">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" ht="14.4">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" ht="14.4">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" ht="14.4">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" ht="14.4">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" ht="14.4">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" ht="14.4">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" ht="14.4">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" ht="14.4">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" ht="14.4">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" ht="14.4">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" ht="14.4">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" ht="14.4">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" ht="14.4">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" ht="14.4">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" ht="14.4">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" ht="14.4">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" ht="14.4">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" ht="14.4">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" ht="14.4">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" ht="14.4">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" ht="14.4">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" ht="14.4">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" ht="14.4">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" ht="14.4">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" ht="14.4">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" ht="14.4">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" ht="14.4">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" ht="14.4">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" ht="14.4">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" ht="14.4">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" ht="14.4">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" ht="14.4">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" ht="14.4">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" ht="14.4">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" ht="14.4">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" ht="14.4">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" ht="14.4">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" ht="14.4">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" ht="14.4">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" ht="14.4">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" ht="14.4">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" ht="14.4">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" ht="14.4">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" ht="14.4">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" ht="14.4">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" ht="14.4">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" ht="14.4">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" ht="14.4">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" ht="14.4">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" ht="14.4">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" ht="14.4">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" ht="14.4">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" ht="14.4">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" ht="14.4">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" ht="14.4">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" ht="14.4">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" ht="14.4">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" ht="14.4">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" ht="14.4">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" ht="14.4">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" ht="14.4">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" ht="14.4">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" ht="14.4">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" ht="14.4">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" ht="14.4">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" ht="14.4">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" ht="14.4">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" ht="14.4">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" ht="14.4">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" ht="14.4">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" ht="14.4">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" ht="14.4">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" ht="14.4">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" ht="14.4">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" ht="14.4">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" ht="14.4">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" ht="14.4">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" ht="14.4">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" ht="14.4">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" ht="14.4">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" ht="14.4">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" ht="14.4">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" ht="14.4">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" ht="14.4">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" ht="14.4">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" ht="14.4">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" ht="14.4">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" ht="14.4">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" ht="14.4">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" ht="14.4">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" ht="14.4">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" ht="14.4">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" ht="14.4">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" ht="14.4">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" ht="14.4">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" ht="14.4">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" ht="14.4">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" ht="14.4">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" ht="14.4">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" ht="14.4">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" ht="14.4">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" ht="14.4">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" ht="14.4">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" ht="14.4">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" ht="14.4">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" ht="14.4">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" ht="14.4">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" ht="14.4">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" ht="14.4">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" ht="14.4">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" ht="14.4">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" ht="14.4">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" ht="14.4">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" ht="14.4">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" ht="14.4">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" ht="14.4">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" ht="14.4">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" ht="14.4">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" ht="14.4">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" ht="14.4">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" ht="14.4">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" ht="14.4">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" ht="14.4">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" ht="14.4">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" ht="14.4">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" ht="14.4">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" ht="14.4">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" ht="14.4">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" ht="14.4">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" ht="14.4">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" ht="14.4">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" ht="14.4">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" ht="14.4">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" ht="14.4">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" ht="14.4">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" ht="14.4">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" ht="14.4">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" ht="14.4">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" ht="14.4">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" ht="14.4">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" ht="14.4">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" ht="14.4">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" ht="14.4">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" ht="14.4">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" ht="14.4">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" ht="14.4">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" ht="14.4">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" ht="14.4">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" ht="14.4">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" ht="14.4">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" ht="14.4">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" ht="14.4">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" ht="14.4">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" ht="14.4">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" ht="14.4">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" ht="14.4">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" ht="14.4">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" ht="14.4">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" ht="14.4">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" ht="14.4">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" ht="14.4">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" ht="14.4">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" ht="14.4">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" ht="14.4">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" ht="14.4">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" ht="14.4">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" ht="14.4">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" ht="14.4">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" ht="14.4">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" ht="14.4">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" ht="14.4">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" ht="14.4">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" ht="14.4">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" ht="14.4">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" ht="14.4">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" ht="14.4">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" ht="14.4">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" ht="14.4">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" ht="14.4">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" ht="14.4">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" ht="14.4">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" ht="14.4">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" ht="14.4">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" ht="14.4">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" ht="14.4">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" ht="14.4">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" ht="14.4">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" ht="14.4">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" ht="14.4">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" ht="14.4">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" ht="14.4">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" ht="14.4">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" ht="14.4">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" ht="14.4">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" ht="14.4">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" ht="14.4">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" ht="14.4">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" ht="14.4">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" ht="14.4">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" ht="14.4">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" ht="14.4">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" ht="14.4">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" ht="14.4">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" ht="14.4">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" ht="14.4">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" ht="14.4">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" ht="14.4">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" ht="14.4">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" ht="14.4">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" ht="14.4">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" ht="14.4">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" ht="14.4">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" ht="14.4">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" ht="14.4">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" ht="14.4">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" ht="14.4">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" ht="14.4">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" ht="14.4">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" ht="14.4">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" ht="14.4">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" ht="14.4">
       <c r="B781" s="7"/>
     </row>
-    <row r="782" spans="2:2">
+    <row r="782" spans="2:2" ht="14.4">
       <c r="B782" s="7"/>
     </row>
-    <row r="783" spans="2:2">
+    <row r="783" spans="2:2" ht="14.4">
       <c r="B783" s="7"/>
     </row>
-    <row r="784" spans="2:2">
+    <row r="784" spans="2:2" ht="14.4">
       <c r="B784" s="7"/>
     </row>
-    <row r="785" spans="2:2">
+    <row r="785" spans="2:2" ht="14.4">
       <c r="B785" s="7"/>
     </row>
-    <row r="786" spans="2:2">
+    <row r="786" spans="2:2" ht="14.4">
       <c r="B786" s="7"/>
     </row>
-    <row r="787" spans="2:2">
+    <row r="787" spans="2:2" ht="14.4">
       <c r="B787" s="7"/>
     </row>
-    <row r="788" spans="2:2">
+    <row r="788" spans="2:2" ht="14.4">
       <c r="B788" s="7"/>
     </row>
-    <row r="789" spans="2:2">
+    <row r="789" spans="2:2" ht="14.4">
       <c r="B789" s="7"/>
     </row>
-    <row r="790" spans="2:2">
+    <row r="790" spans="2:2" ht="14.4">
       <c r="B790" s="7"/>
     </row>
-    <row r="791" spans="2:2">
+    <row r="791" spans="2:2" ht="14.4">
       <c r="B791" s="7"/>
     </row>
-    <row r="792" spans="2:2">
+    <row r="792" spans="2:2" ht="14.4">
       <c r="B792" s="7"/>
     </row>
-    <row r="793" spans="2:2">
+    <row r="793" spans="2:2" ht="14.4">
       <c r="B793" s="7"/>
     </row>
-    <row r="794" spans="2:2">
+    <row r="794" spans="2:2" ht="14.4">
       <c r="B794" s="7"/>
     </row>
-    <row r="795" spans="2:2">
+    <row r="795" spans="2:2" ht="14.4">
       <c r="B795" s="7"/>
     </row>
-    <row r="796" spans="2:2">
+    <row r="796" spans="2:2" ht="14.4">
       <c r="B796" s="7"/>
     </row>
-    <row r="797" spans="2:2">
+    <row r="797" spans="2:2" ht="14.4">
       <c r="B797" s="7"/>
     </row>
-    <row r="798" spans="2:2">
+    <row r="798" spans="2:2" ht="14.4">
       <c r="B798" s="7"/>
     </row>
-    <row r="799" spans="2:2">
+    <row r="799" spans="2:2" ht="14.4">
       <c r="B799" s="7"/>
     </row>
-    <row r="800" spans="2:2">
+    <row r="800" spans="2:2" ht="14.4">
       <c r="B800" s="7"/>
     </row>
-    <row r="801" spans="2:2">
+    <row r="801" spans="2:2" ht="14.4">
       <c r="B801" s="7"/>
     </row>
-    <row r="802" spans="2:2">
+    <row r="802" spans="2:2" ht="14.4">
       <c r="B802" s="7"/>
     </row>
-    <row r="803" spans="2:2">
+    <row r="803" spans="2:2" ht="14.4">
       <c r="B803" s="7"/>
     </row>
-    <row r="804" spans="2:2">
+    <row r="804" spans="2:2" ht="14.4">
       <c r="B804" s="7"/>
     </row>
-    <row r="805" spans="2:2">
+    <row r="805" spans="2:2" ht="14.4">
       <c r="B805" s="7"/>
     </row>
-    <row r="806" spans="2:2">
+    <row r="806" spans="2:2" ht="14.4">
       <c r="B806" s="7"/>
     </row>
-    <row r="807" spans="2:2">
+    <row r="807" spans="2:2" ht="14.4">
       <c r="B807" s="7"/>
     </row>
-    <row r="808" spans="2:2">
+    <row r="808" spans="2:2" ht="14.4">
       <c r="B808" s="7"/>
     </row>
-    <row r="809" spans="2:2">
+    <row r="809" spans="2:2" ht="14.4">
       <c r="B809" s="7"/>
     </row>
-    <row r="810" spans="2:2">
+    <row r="810" spans="2:2" ht="14.4">
       <c r="B810" s="7"/>
     </row>
-    <row r="811" spans="2:2">
+    <row r="811" spans="2:2" ht="14.4">
       <c r="B811" s="7"/>
     </row>
-    <row r="812" spans="2:2">
+    <row r="812" spans="2:2" ht="14.4">
       <c r="B812" s="7"/>
     </row>
-    <row r="813" spans="2:2">
+    <row r="813" spans="2:2" ht="14.4">
       <c r="B813" s="7"/>
     </row>
-    <row r="814" spans="2:2">
+    <row r="814" spans="2:2" ht="14.4">
       <c r="B814" s="7"/>
     </row>
-    <row r="815" spans="2:2">
+    <row r="815" spans="2:2" ht="14.4">
       <c r="B815" s="7"/>
     </row>
-    <row r="816" spans="2:2">
+    <row r="816" spans="2:2" ht="14.4">
       <c r="B816" s="7"/>
     </row>
-    <row r="817" spans="2:2">
+    <row r="817" spans="2:2" ht="14.4">
       <c r="B817" s="7"/>
     </row>
-    <row r="818" spans="2:2">
+    <row r="818" spans="2:2" ht="14.4">
       <c r="B818" s="7"/>
     </row>
-    <row r="819" spans="2:2">
+    <row r="819" spans="2:2" ht="14.4">
       <c r="B819" s="7"/>
     </row>
-    <row r="820" spans="2:2">
+    <row r="820" spans="2:2" ht="14.4">
       <c r="B820" s="7"/>
     </row>
-    <row r="821" spans="2:2">
+    <row r="821" spans="2:2" ht="14.4">
       <c r="B821" s="7"/>
     </row>
-    <row r="822" spans="2:2">
+    <row r="822" spans="2:2" ht="14.4">
       <c r="B822" s="7"/>
     </row>
-    <row r="823" spans="2:2">
+    <row r="823" spans="2:2" ht="14.4">
       <c r="B823" s="7"/>
     </row>
-    <row r="824" spans="2:2">
+    <row r="824" spans="2:2" ht="14.4">
       <c r="B824" s="7"/>
     </row>
-    <row r="825" spans="2:2">
+    <row r="825" spans="2:2" ht="14.4">
       <c r="B825" s="7"/>
     </row>
-    <row r="826" spans="2:2">
+    <row r="826" spans="2:2" ht="14.4">
       <c r="B826" s="7"/>
     </row>
-    <row r="827" spans="2:2">
+    <row r="827" spans="2:2" ht="14.4">
       <c r="B827" s="7"/>
     </row>
-    <row r="828" spans="2:2">
+    <row r="828" spans="2:2" ht="14.4">
       <c r="B828" s="7"/>
     </row>
-    <row r="829" spans="2:2">
+    <row r="829" spans="2:2" ht="14.4">
       <c r="B829" s="7"/>
     </row>
-    <row r="830" spans="2:2">
+    <row r="830" spans="2:2" ht="14.4">
       <c r="B830" s="7"/>
     </row>
-    <row r="831" spans="2:2">
+    <row r="831" spans="2:2" ht="14.4">
       <c r="B831" s="7"/>
     </row>
-    <row r="832" spans="2:2">
+    <row r="832" spans="2:2" ht="14.4">
       <c r="B832" s="7"/>
     </row>
-    <row r="833" spans="2:2">
+    <row r="833" spans="2:2" ht="14.4">
       <c r="B833" s="7"/>
     </row>
-    <row r="834" spans="2:2">
+    <row r="834" spans="2:2" ht="14.4">
       <c r="B834" s="7"/>
     </row>
-    <row r="835" spans="2:2">
+    <row r="835" spans="2:2" ht="14.4">
       <c r="B835" s="7"/>
     </row>
-    <row r="836" spans="2:2">
+    <row r="836" spans="2:2" ht="14.4">
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="2:2">
+    <row r="837" spans="2:2" ht="14.4">
       <c r="B837" s="7"/>
     </row>
-    <row r="838" spans="2:2">
+    <row r="838" spans="2:2" ht="14.4">
       <c r="B838" s="7"/>
     </row>
-    <row r="839" spans="2:2">
+    <row r="839" spans="2:2" ht="14.4">
       <c r="B839" s="7"/>
     </row>
-    <row r="840" spans="2:2">
+    <row r="840" spans="2:2" ht="14.4">
       <c r="B840" s="7"/>
     </row>
-    <row r="841" spans="2:2">
+    <row r="841" spans="2:2" ht="14.4">
       <c r="B841" s="7"/>
     </row>
-    <row r="842" spans="2:2">
+    <row r="842" spans="2:2" ht="14.4">
       <c r="B842" s="7"/>
     </row>
-    <row r="843" spans="2:2">
+    <row r="843" spans="2:2" ht="14.4">
       <c r="B843" s="7"/>
     </row>
-    <row r="844" spans="2:2">
+    <row r="844" spans="2:2" ht="14.4">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="2:2">
+    <row r="845" spans="2:2" ht="14.4">
       <c r="B845" s="7"/>
     </row>
-    <row r="846" spans="2:2">
+    <row r="846" spans="2:2" ht="14.4">
       <c r="B846" s="7"/>
     </row>
-    <row r="847" spans="2:2">
+    <row r="847" spans="2:2" ht="14.4">
       <c r="B847" s="7"/>
     </row>
-    <row r="848" spans="2:2">
+    <row r="848" spans="2:2" ht="14.4">
       <c r="B848" s="7"/>
     </row>
-    <row r="849" spans="2:2">
+    <row r="849" spans="2:2" ht="14.4">
       <c r="B849" s="7"/>
     </row>
-    <row r="850" spans="2:2">
+    <row r="850" spans="2:2" ht="14.4">
       <c r="B850" s="7"/>
     </row>
-    <row r="851" spans="2:2">
+    <row r="851" spans="2:2" ht="14.4">
       <c r="B851" s="7"/>
     </row>
-    <row r="852" spans="2:2">
+    <row r="852" spans="2:2" ht="14.4">
       <c r="B852" s="7"/>
     </row>
-    <row r="853" spans="2:2">
+    <row r="853" spans="2:2" ht="14.4">
       <c r="B853" s="7"/>
     </row>
-    <row r="854" spans="2:2">
+    <row r="854" spans="2:2" ht="14.4">
       <c r="B854" s="7"/>
     </row>
-    <row r="855" spans="2:2">
+    <row r="855" spans="2:2" ht="14.4">
       <c r="B855" s="7"/>
     </row>
-    <row r="856" spans="2:2">
+    <row r="856" spans="2:2" ht="14.4">
       <c r="B856" s="7"/>
     </row>
-    <row r="857" spans="2:2">
+    <row r="857" spans="2:2" ht="14.4">
       <c r="B857" s="7"/>
     </row>
-    <row r="858" spans="2:2">
+    <row r="858" spans="2:2" ht="14.4">
       <c r="B858" s="7"/>
     </row>
-    <row r="859" spans="2:2">
+    <row r="859" spans="2:2" ht="14.4">
       <c r="B859" s="7"/>
     </row>
-    <row r="860" spans="2:2">
+    <row r="860" spans="2:2" ht="14.4">
       <c r="B860" s="7"/>
     </row>
-    <row r="861" spans="2:2">
+    <row r="861" spans="2:2" ht="14.4">
       <c r="B861" s="7"/>
     </row>
-    <row r="862" spans="2:2">
+    <row r="862" spans="2:2" ht="14.4">
       <c r="B862" s="7"/>
     </row>
-    <row r="863" spans="2:2">
+    <row r="863" spans="2:2" ht="14.4">
       <c r="B863" s="7"/>
     </row>
-    <row r="864" spans="2:2">
+    <row r="864" spans="2:2" ht="14.4">
       <c r="B864" s="7"/>
     </row>
-    <row r="865" spans="2:2">
+    <row r="865" spans="2:2" ht="14.4">
       <c r="B865" s="7"/>
     </row>
-    <row r="866" spans="2:2">
+    <row r="866" spans="2:2" ht="14.4">
       <c r="B866" s="7"/>
     </row>
-    <row r="867" spans="2:2">
+    <row r="867" spans="2:2" ht="14.4">
       <c r="B867" s="7"/>
     </row>
-    <row r="868" spans="2:2">
+    <row r="868" spans="2:2" ht="14.4">
       <c r="B868" s="7"/>
     </row>
-    <row r="869" spans="2:2">
+    <row r="869" spans="2:2" ht="14.4">
       <c r="B869" s="7"/>
     </row>
-    <row r="870" spans="2:2">
+    <row r="870" spans="2:2" ht="14.4">
       <c r="B870" s="7"/>
     </row>
-    <row r="871" spans="2:2">
+    <row r="871" spans="2:2" ht="14.4">
       <c r="B871" s="7"/>
     </row>
-    <row r="872" spans="2:2">
+    <row r="872" spans="2:2" ht="14.4">
       <c r="B872" s="7"/>
     </row>
-    <row r="873" spans="2:2">
+    <row r="873" spans="2:2" ht="14.4">
       <c r="B873" s="7"/>
     </row>
-    <row r="874" spans="2:2">
+    <row r="874" spans="2:2" ht="14.4">
       <c r="B874" s="7"/>
     </row>
-    <row r="875" spans="2:2">
+    <row r="875" spans="2:2" ht="14.4">
       <c r="B875" s="7"/>
     </row>
-    <row r="876" spans="2:2">
+    <row r="876" spans="2:2" ht="14.4">
       <c r="B876" s="7"/>
     </row>
-    <row r="877" spans="2:2">
+    <row r="877" spans="2:2" ht="14.4">
       <c r="B877" s="7"/>
     </row>
-    <row r="878" spans="2:2">
+    <row r="878" spans="2:2" ht="14.4">
       <c r="B878" s="7"/>
     </row>
-    <row r="879" spans="2:2">
+    <row r="879" spans="2:2" ht="14.4">
       <c r="B879" s="7"/>
     </row>
-    <row r="880" spans="2:2">
+    <row r="880" spans="2:2" ht="14.4">
       <c r="B880" s="7"/>
     </row>
-    <row r="881" spans="2:2">
+    <row r="881" spans="2:2" ht="14.4">
       <c r="B881" s="7"/>
     </row>
-    <row r="882" spans="2:2">
+    <row r="882" spans="2:2" ht="14.4">
       <c r="B882" s="7"/>
     </row>
-    <row r="883" spans="2:2">
+    <row r="883" spans="2:2" ht="14.4">
       <c r="B883" s="7"/>
     </row>
-    <row r="884" spans="2:2">
+    <row r="884" spans="2:2" ht="14.4">
       <c r="B884" s="7"/>
     </row>
-    <row r="885" spans="2:2">
+    <row r="885" spans="2:2" ht="14.4">
       <c r="B885" s="7"/>
     </row>
-    <row r="886" spans="2:2">
+    <row r="886" spans="2:2" ht="14.4">
       <c r="B886" s="7"/>
     </row>
-    <row r="887" spans="2:2">
+    <row r="887" spans="2:2" ht="14.4">
       <c r="B887" s="7"/>
     </row>
-    <row r="888" spans="2:2">
+    <row r="888" spans="2:2" ht="14.4">
       <c r="B888" s="7"/>
     </row>
-    <row r="889" spans="2:2">
+    <row r="889" spans="2:2" ht="14.4">
       <c r="B889" s="7"/>
     </row>
-    <row r="890" spans="2:2">
+    <row r="890" spans="2:2" ht="14.4">
       <c r="B890" s="7"/>
     </row>
-    <row r="891" spans="2:2">
+    <row r="891" spans="2:2" ht="14.4">
       <c r="B891" s="7"/>
     </row>
-    <row r="892" spans="2:2">
+    <row r="892" spans="2:2" ht="14.4">
       <c r="B892" s="7"/>
     </row>
-    <row r="893" spans="2:2">
+    <row r="893" spans="2:2" ht="14.4">
       <c r="B893" s="7"/>
     </row>
-    <row r="894" spans="2:2">
+    <row r="894" spans="2:2" ht="14.4">
       <c r="B894" s="7"/>
     </row>
-    <row r="895" spans="2:2">
+    <row r="895" spans="2:2" ht="14.4">
       <c r="B895" s="7"/>
     </row>
-    <row r="896" spans="2:2">
+    <row r="896" spans="2:2" ht="14.4">
       <c r="B896" s="7"/>
     </row>
-    <row r="897" spans="2:2">
+    <row r="897" spans="2:2" ht="14.4">
       <c r="B897" s="7"/>
     </row>
-    <row r="898" spans="2:2">
+    <row r="898" spans="2:2" ht="14.4">
       <c r="B898" s="7"/>
     </row>
-    <row r="899" spans="2:2">
+    <row r="899" spans="2:2" ht="14.4">
       <c r="B899" s="7"/>
     </row>
-    <row r="900" spans="2:2">
+    <row r="900" spans="2:2" ht="14.4">
       <c r="B900" s="7"/>
     </row>
-    <row r="901" spans="2:2">
+    <row r="901" spans="2:2" ht="14.4">
       <c r="B901" s="7"/>
     </row>
-    <row r="902" spans="2:2">
+    <row r="902" spans="2:2" ht="14.4">
       <c r="B902" s="7"/>
     </row>
-    <row r="903" spans="2:2">
+    <row r="903" spans="2:2" ht="14.4">
       <c r="B903" s="7"/>
     </row>
-    <row r="904" spans="2:2">
+    <row r="904" spans="2:2" ht="14.4">
       <c r="B904" s="7"/>
     </row>
-    <row r="905" spans="2:2">
+    <row r="905" spans="2:2" ht="14.4">
       <c r="B905" s="7"/>
     </row>
-    <row r="906" spans="2:2">
+    <row r="906" spans="2:2" ht="14.4">
       <c r="B906" s="7"/>
     </row>
-    <row r="907" spans="2:2">
+    <row r="907" spans="2:2" ht="14.4">
       <c r="B907" s="7"/>
     </row>
-    <row r="908" spans="2:2">
+    <row r="908" spans="2:2" ht="14.4">
       <c r="B908" s="7"/>
     </row>
-    <row r="909" spans="2:2">
+    <row r="909" spans="2:2" ht="14.4">
       <c r="B909" s="7"/>
     </row>
-    <row r="910" spans="2:2">
+    <row r="910" spans="2:2" ht="14.4">
       <c r="B910" s="7"/>
     </row>
-    <row r="911" spans="2:2">
+    <row r="911" spans="2:2" ht="14.4">
       <c r="B911" s="7"/>
     </row>
-    <row r="912" spans="2:2">
+    <row r="912" spans="2:2" ht="14.4">
       <c r="B912" s="7"/>
     </row>
-    <row r="913" spans="2:2">
+    <row r="913" spans="2:2" ht="14.4">
       <c r="B913" s="7"/>
     </row>
-    <row r="914" spans="2:2">
+    <row r="914" spans="2:2" ht="14.4">
       <c r="B914" s="7"/>
     </row>
-    <row r="915" spans="2:2">
+    <row r="915" spans="2:2" ht="14.4">
       <c r="B915" s="7"/>
     </row>
-    <row r="916" spans="2:2">
+    <row r="916" spans="2:2" ht="14.4">
       <c r="B916" s="7"/>
     </row>
-    <row r="917" spans="2:2">
+    <row r="917" spans="2:2" ht="14.4">
       <c r="B917" s="7"/>
     </row>
-    <row r="918" spans="2:2">
+    <row r="918" spans="2:2" ht="14.4">
       <c r="B918" s="7"/>
     </row>
-    <row r="919" spans="2:2">
+    <row r="919" spans="2:2" ht="14.4">
       <c r="B919" s="7"/>
     </row>
-    <row r="920" spans="2:2">
+    <row r="920" spans="2:2" ht="14.4">
       <c r="B920" s="7"/>
     </row>
-    <row r="921" spans="2:2">
+    <row r="921" spans="2:2" ht="14.4">
       <c r="B921" s="7"/>
     </row>
-    <row r="922" spans="2:2">
+    <row r="922" spans="2:2" ht="14.4">
       <c r="B922" s="7"/>
     </row>
-    <row r="923" spans="2:2">
+    <row r="923" spans="2:2" ht="14.4">
       <c r="B923" s="7"/>
     </row>
-    <row r="924" spans="2:2">
+    <row r="924" spans="2:2" ht="14.4">
       <c r="B924" s="7"/>
     </row>
-    <row r="925" spans="2:2">
+    <row r="925" spans="2:2" ht="14.4">
       <c r="B925" s="7"/>
     </row>
-    <row r="926" spans="2:2">
+    <row r="926" spans="2:2" ht="14.4">
       <c r="B926" s="7"/>
     </row>
-    <row r="927" spans="2:2">
+    <row r="927" spans="2:2" ht="14.4">
       <c r="B927" s="7"/>
     </row>
-    <row r="928" spans="2:2">
+    <row r="928" spans="2:2" ht="14.4">
       <c r="B928" s="7"/>
     </row>
-    <row r="929" spans="2:2">
+    <row r="929" spans="2:2" ht="14.4">
       <c r="B929" s="7"/>
     </row>
-    <row r="930" spans="2:2">
+    <row r="930" spans="2:2" ht="14.4">
       <c r="B930" s="7"/>
     </row>
-    <row r="931" spans="2:2">
+    <row r="931" spans="2:2" ht="14.4">
       <c r="B931" s="7"/>
     </row>
-    <row r="932" spans="2:2">
+    <row r="932" spans="2:2" ht="14.4">
       <c r="B932" s="7"/>
     </row>
-    <row r="933" spans="2:2">
+    <row r="933" spans="2:2" ht="14.4">
       <c r="B933" s="7"/>
     </row>
-    <row r="934" spans="2:2">
+    <row r="934" spans="2:2" ht="14.4">
       <c r="B934" s="7"/>
     </row>
-    <row r="935" spans="2:2">
+    <row r="935" spans="2:2" ht="14.4">
       <c r="B935" s="7"/>
     </row>
-    <row r="936" spans="2:2">
+    <row r="936" spans="2:2" ht="14.4">
       <c r="B936" s="7"/>
     </row>
-    <row r="937" spans="2:2">
+    <row r="937" spans="2:2" ht="14.4">
       <c r="B937" s="7"/>
     </row>
-    <row r="938" spans="2:2">
+    <row r="938" spans="2:2" ht="14.4">
       <c r="B938" s="7"/>
     </row>
-    <row r="939" spans="2:2">
+    <row r="939" spans="2:2" ht="14.4">
       <c r="B939" s="7"/>
     </row>
-    <row r="940" spans="2:2">
+    <row r="940" spans="2:2" ht="14.4">
       <c r="B940" s="7"/>
     </row>
-    <row r="941" spans="2:2">
+    <row r="941" spans="2:2" ht="14.4">
       <c r="B941" s="7"/>
     </row>
-    <row r="942" spans="2:2">
+    <row r="942" spans="2:2" ht="14.4">
       <c r="B942" s="7"/>
     </row>
-    <row r="943" spans="2:2">
+    <row r="943" spans="2:2" ht="14.4">
       <c r="B943" s="7"/>
     </row>
-    <row r="944" spans="2:2">
+    <row r="944" spans="2:2" ht="14.4">
       <c r="B944" s="7"/>
     </row>
-    <row r="945" spans="2:2">
+    <row r="945" spans="2:2" ht="14.4">
       <c r="B945" s="7"/>
     </row>
-    <row r="946" spans="2:2">
+    <row r="946" spans="2:2" ht="14.4">
       <c r="B946" s="7"/>
     </row>
-    <row r="947" spans="2:2">
+    <row r="947" spans="2:2" ht="14.4">
       <c r="B947" s="7"/>
     </row>
-    <row r="948" spans="2:2">
+    <row r="948" spans="2:2" ht="14.4">
       <c r="B948" s="7"/>
     </row>
-    <row r="949" spans="2:2">
+    <row r="949" spans="2:2" ht="14.4">
       <c r="B949" s="7"/>
     </row>
-    <row r="950" spans="2:2">
+    <row r="950" spans="2:2" ht="14.4">
       <c r="B950" s="7"/>
     </row>
-    <row r="951" spans="2:2">
+    <row r="951" spans="2:2" ht="14.4">
       <c r="B951" s="7"/>
     </row>
-    <row r="952" spans="2:2">
+    <row r="952" spans="2:2" ht="14.4">
       <c r="B952" s="7"/>
     </row>
-    <row r="953" spans="2:2">
+    <row r="953" spans="2:2" ht="14.4">
       <c r="B953" s="7"/>
     </row>
-    <row r="954" spans="2:2">
+    <row r="954" spans="2:2" ht="14.4">
       <c r="B954" s="7"/>
     </row>
-    <row r="955" spans="2:2">
+    <row r="955" spans="2:2" ht="14.4">
       <c r="B955" s="7"/>
     </row>
-    <row r="956" spans="2:2">
+    <row r="956" spans="2:2" ht="14.4">
       <c r="B956" s="7"/>
     </row>
-    <row r="957" spans="2:2">
+    <row r="957" spans="2:2" ht="14.4">
       <c r="B957" s="7"/>
     </row>
-    <row r="958" spans="2:2">
+    <row r="958" spans="2:2" ht="14.4">
       <c r="B958" s="7"/>
     </row>
-    <row r="959" spans="2:2">
+    <row r="959" spans="2:2" ht="14.4">
       <c r="B959" s="7"/>
     </row>
-    <row r="960" spans="2:2">
+    <row r="960" spans="2:2" ht="14.4">
       <c r="B960" s="7"/>
     </row>
-    <row r="961" spans="2:2">
+    <row r="961" spans="2:2" ht="14.4">
       <c r="B961" s="7"/>
     </row>
-    <row r="962" spans="2:2">
+    <row r="962" spans="2:2" ht="14.4">
       <c r="B962" s="7"/>
     </row>
-    <row r="963" spans="2:2">
+    <row r="963" spans="2:2" ht="14.4">
       <c r="B963" s="7"/>
     </row>
-    <row r="964" spans="2:2">
+    <row r="964" spans="2:2" ht="14.4">
       <c r="B964" s="7"/>
     </row>
-    <row r="965" spans="2:2">
+    <row r="965" spans="2:2" ht="14.4">
       <c r="B965" s="7"/>
     </row>
-    <row r="966" spans="2:2">
+    <row r="966" spans="2:2" ht="14.4">
       <c r="B966" s="7"/>
     </row>
-    <row r="967" spans="2:2">
+    <row r="967" spans="2:2" ht="14.4">
       <c r="B967" s="7"/>
     </row>
-    <row r="968" spans="2:2">
+    <row r="968" spans="2:2" ht="14.4">
       <c r="B968" s="7"/>
     </row>
-    <row r="969" spans="2:2">
+    <row r="969" spans="2:2" ht="14.4">
       <c r="B969" s="7"/>
     </row>
-    <row r="970" spans="2:2">
+    <row r="970" spans="2:2" ht="14.4">
       <c r="B970" s="7"/>
     </row>
-    <row r="971" spans="2:2">
+    <row r="971" spans="2:2" ht="14.4">
       <c r="B971" s="7"/>
     </row>
-    <row r="972" spans="2:2">
+    <row r="972" spans="2:2" ht="14.4">
       <c r="B972" s="7"/>
     </row>
-    <row r="973" spans="2:2">
+    <row r="973" spans="2:2" ht="14.4">
       <c r="B973" s="7"/>
     </row>
-    <row r="974" spans="2:2">
+    <row r="974" spans="2:2" ht="14.4">
       <c r="B974" s="7"/>
     </row>
-    <row r="975" spans="2:2">
+    <row r="975" spans="2:2" ht="14.4">
       <c r="B975" s="7"/>
     </row>
-    <row r="976" spans="2:2">
+    <row r="976" spans="2:2" ht="14.4">
       <c r="B976" s="7"/>
     </row>
-    <row r="977" spans="2:2">
+    <row r="977" spans="2:2" ht="14.4">
       <c r="B977" s="7"/>
     </row>
-    <row r="978" spans="2:2">
+    <row r="978" spans="2:2" ht="14.4">
       <c r="B978" s="7"/>
     </row>
-    <row r="979" spans="2:2">
+    <row r="979" spans="2:2" ht="14.4">
       <c r="B979" s="7"/>
     </row>
-    <row r="980" spans="2:2">
+    <row r="980" spans="2:2" ht="14.4">
       <c r="B980" s="7"/>
     </row>
-    <row r="981" spans="2:2">
+    <row r="981" spans="2:2" ht="14.4">
       <c r="B981" s="7"/>
     </row>
-    <row r="982" spans="2:2">
+    <row r="982" spans="2:2" ht="14.4">
       <c r="B982" s="7"/>
     </row>
-    <row r="983" spans="2:2">
+    <row r="983" spans="2:2" ht="14.4">
       <c r="B983" s="7"/>
     </row>
-    <row r="984" spans="2:2">
+    <row r="984" spans="2:2" ht="14.4">
       <c r="B984" s="7"/>
     </row>
-    <row r="985" spans="2:2">
+    <row r="985" spans="2:2" ht="14.4">
       <c r="B985" s="7"/>
     </row>
-    <row r="986" spans="2:2">
+    <row r="986" spans="2:2" ht="14.4">
       <c r="B986" s="7"/>
     </row>
-    <row r="987" spans="2:2">
+    <row r="987" spans="2:2" ht="14.4">
       <c r="B987" s="7"/>
     </row>
-    <row r="988" spans="2:2">
+    <row r="988" spans="2:2" ht="14.4">
       <c r="B988" s="7"/>
     </row>
-    <row r="989" spans="2:2">
+    <row r="989" spans="2:2" ht="14.4">
       <c r="B989" s="7"/>
     </row>
-    <row r="990" spans="2:2">
+    <row r="990" spans="2:2" ht="14.4">
       <c r="B990" s="7"/>
     </row>
-    <row r="991" spans="2:2">
+    <row r="991" spans="2:2" ht="14.4">
       <c r="B991" s="7"/>
     </row>
-    <row r="992" spans="2:2">
+    <row r="992" spans="2:2" ht="14.4">
       <c r="B992" s="7"/>
     </row>
-    <row r="993" spans="2:2">
+    <row r="993" spans="2:2" ht="14.4">
       <c r="B993" s="7"/>
     </row>
-    <row r="994" spans="2:2">
+    <row r="994" spans="2:2" ht="14.4">
       <c r="B994" s="7"/>
     </row>
-    <row r="995" spans="2:2">
+    <row r="995" spans="2:2" ht="14.4">
       <c r="B995" s="7"/>
     </row>
-    <row r="996" spans="2:2">
+    <row r="996" spans="2:2" ht="14.4">
       <c r="B996" s="7"/>
     </row>
-    <row r="997" spans="2:2">
+    <row r="997" spans="2:2" ht="14.4">
       <c r="B997" s="7"/>
     </row>
-    <row r="998" spans="2:2">
+    <row r="998" spans="2:2" ht="14.4">
       <c r="B998" s="7"/>
     </row>
-    <row r="999" spans="2:2">
+    <row r="999" spans="2:2" ht="14.4">
       <c r="B999" s="7"/>
     </row>
-    <row r="1000" spans="2:2">
+    <row r="1000" spans="2:2" ht="14.4">
       <c r="B1000" s="7"/>
     </row>
-    <row r="1001" spans="2:2">
+    <row r="1001" spans="2:2" ht="14.4">
       <c r="B1001" s="7"/>
     </row>
-    <row r="1002" spans="2:2">
+    <row r="1002" spans="2:2" ht="14.4">
       <c r="B1002" s="7"/>
     </row>
-    <row r="1003" spans="2:2">
+    <row r="1003" spans="2:2" ht="14.4">
       <c r="B1003" s="7"/>
     </row>
-    <row r="1004" spans="2:2">
+    <row r="1004" spans="2:2" ht="14.4">
       <c r="B1004" s="7"/>
     </row>
-    <row r="1005" spans="2:2">
+    <row r="1005" spans="2:2" ht="14.4">
       <c r="B1005" s="7"/>
     </row>
-    <row r="1006" spans="2:2">
+    <row r="1006" spans="2:2" ht="14.4">
       <c r="B1006" s="7"/>
     </row>
-    <row r="1007" spans="2:2">
+    <row r="1007" spans="2:2" ht="14.4">
       <c r="B1007" s="7"/>
     </row>
-    <row r="1008" spans="2:2">
+    <row r="1008" spans="2:2" ht="14.4">
       <c r="B1008" s="7"/>
     </row>
-    <row r="1009" spans="2:2">
+    <row r="1009" spans="2:2" ht="14.4">
       <c r="B1009" s="7"/>
     </row>
-    <row r="1010" spans="2:2">
+    <row r="1010" spans="2:2" ht="14.4">
       <c r="B1010" s="7"/>
     </row>
-    <row r="1011" spans="2:2">
+    <row r="1011" spans="2:2" ht="14.4">
       <c r="B1011" s="7"/>
     </row>
-    <row r="1012" spans="2:2">
+    <row r="1012" spans="2:2" ht="14.4">
       <c r="B1012" s="7"/>
     </row>
-    <row r="1013" spans="2:2">
+    <row r="1013" spans="2:2" ht="14.4">
       <c r="B1013" s="7"/>
     </row>
-    <row r="1014" spans="2:2">
+    <row r="1014" spans="2:2" ht="14.4">
       <c r="B1014" s="7"/>
     </row>
-    <row r="1015" spans="2:2">
+    <row r="1015" spans="2:2" ht="14.4">
       <c r="B1015" s="7"/>
     </row>
-    <row r="1016" spans="2:2">
+    <row r="1016" spans="2:2" ht="14.4">
       <c r="B1016" s="7"/>
     </row>
-    <row r="1017" spans="2:2">
+    <row r="1017" spans="2:2" ht="14.4">
       <c r="B1017" s="7"/>
     </row>
-    <row r="1018" spans="2:2">
+    <row r="1018" spans="2:2" ht="14.4">
       <c r="B1018" s="7"/>
     </row>
-    <row r="1019" spans="2:2">
+    <row r="1019" spans="2:2" ht="14.4">
       <c r="B1019" s="7"/>
     </row>
-    <row r="1020" spans="2:2">
+    <row r="1020" spans="2:2" ht="14.4">
       <c r="B1020" s="7"/>
     </row>
-    <row r="1021" spans="2:2">
+    <row r="1021" spans="2:2" ht="14.4">
       <c r="B1021" s="7"/>
     </row>
-    <row r="1022" spans="2:2">
+    <row r="1022" spans="2:2" ht="14.4">
       <c r="B1022" s="7"/>
     </row>
-    <row r="1023" spans="2:2">
+    <row r="1023" spans="2:2" ht="14.4">
       <c r="B1023" s="7"/>
     </row>
-    <row r="1024" spans="2:2">
+    <row r="1024" spans="2:2" ht="14.4">
       <c r="B1024" s="7"/>
     </row>
-    <row r="1025" spans="2:2">
+    <row r="1025" spans="2:2" ht="14.4">
       <c r="B1025" s="7"/>
     </row>
-    <row r="1026" spans="2:2">
+    <row r="1026" spans="2:2" ht="14.4">
       <c r="B1026" s="7"/>
     </row>
-    <row r="1027" spans="2:2">
+    <row r="1027" spans="2:2" ht="14.4">
       <c r="B1027" s="7"/>
     </row>
-    <row r="1028" spans="2:2">
+    <row r="1028" spans="2:2" ht="14.4">
       <c r="B1028" s="7"/>
     </row>
-    <row r="1029" spans="2:2">
+    <row r="1029" spans="2:2" ht="14.4">
       <c r="B1029" s="7"/>
     </row>
-    <row r="1030" spans="2:2">
+    <row r="1030" spans="2:2" ht="14.4">
       <c r="B1030" s="7"/>
     </row>
-    <row r="1031" spans="2:2">
+    <row r="1031" spans="2:2" ht="14.4">
       <c r="B1031" s="7"/>
     </row>
-    <row r="1032" spans="2:2">
+    <row r="1032" spans="2:2" ht="14.4">
       <c r="B1032" s="7"/>
     </row>
-    <row r="1033" spans="2:2">
+    <row r="1033" spans="2:2" ht="14.4">
       <c r="B1033" s="7"/>
     </row>
-    <row r="1034" spans="2:2">
+    <row r="1034" spans="2:2" ht="14.4">
       <c r="B1034" s="7"/>
     </row>
-    <row r="1035" spans="2:2">
+    <row r="1035" spans="2:2" ht="14.4">
       <c r="B1035" s="7"/>
     </row>
-    <row r="1036" spans="2:2">
+    <row r="1036" spans="2:2" ht="14.4">
       <c r="B1036" s="7"/>
     </row>
   </sheetData>
@@ -20080,24 +20101,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="64" customWidth="1"/>
-    <col min="13" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="26" width="12.5703125" customWidth="1"/>
+    <col min="13" max="24" width="7.5546875" customWidth="1"/>
+    <col min="25" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20242,7 +20263,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:26" s="65" customFormat="1">
+    <row r="5" spans="1:26" s="65" customFormat="1" ht="14.4">
       <c r="A5" s="64" t="s">
         <v>24</v>
       </c>
@@ -20274,7 +20295,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="65" customFormat="1">
+    <row r="6" spans="1:26" s="65" customFormat="1" ht="14.4">
       <c r="A6" s="64"/>
       <c r="B6" s="64"/>
       <c r="D6" s="66"/>
@@ -20298,7 +20319,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30">
+    <row r="7" spans="1:26" ht="28.8">
       <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
@@ -20330,7 +20351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
@@ -20346,7 +20367,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -20376,7 +20397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -20392,7 +20413,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
@@ -20408,7 +20429,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="17" t="s">
         <v>24</v>
       </c>
@@ -20424,7 +20445,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
@@ -20443,7 +20464,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
@@ -20462,7 +20483,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
@@ -20481,7 +20502,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:26" s="24" customFormat="1">
+    <row r="16" spans="1:26" s="24" customFormat="1" ht="14.4">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="3"/>
@@ -20507,7 +20528,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
@@ -20526,7 +20547,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="14.4">
       <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
@@ -20555,7 +20576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.4">
       <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
@@ -20593,7 +20614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="24" customFormat="1">
+    <row r="20" spans="1:26" s="24" customFormat="1" ht="14.4">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="3"/>
@@ -20621,7 +20642,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.4">
       <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
@@ -20637,7 +20658,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="14.4">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
@@ -20651,7 +20672,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="14.4">
       <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
@@ -20663,7 +20684,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="14.4">
       <c r="A24" s="17" t="s">
         <v>24</v>
       </c>
@@ -20677,7 +20698,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.4">
       <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
@@ -20745,7 +20766,7 @@
       <c r="Y26" s="23"/>
       <c r="Z26" s="23"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="14.4">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="D27" s="19" t="s">
@@ -20770,7 +20791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="14.4">
       <c r="A28" s="17" t="s">
         <v>24</v>
       </c>
@@ -20786,7 +20807,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="14.4">
       <c r="A29" s="17" t="s">
         <v>24</v>
       </c>
@@ -20802,7 +20823,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="14.4">
       <c r="A30" s="17" t="s">
         <v>24</v>
       </c>
@@ -20818,7 +20839,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="17"/>
       <c r="B31" s="18" t="s">
         <v>25</v>
@@ -20846,7 +20867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="24" customFormat="1">
+    <row r="32" spans="1:26" s="24" customFormat="1" ht="14.4">
       <c r="A32" s="22" t="s">
         <v>24</v>
       </c>
@@ -20874,77 +20895,78 @@
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="K33" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    <row r="33" spans="1:11" s="24" customFormat="1" ht="14.4">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.4">
       <c r="A34" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="G34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="K34" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.4">
       <c r="A35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4">
       <c r="A36" s="17" t="s">
         <v>24</v>
       </c>
@@ -20952,22 +20974,22 @@
         <v>25</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.4">
       <c r="A37" s="17" t="s">
         <v>24</v>
       </c>
@@ -20975,128 +20997,132 @@
         <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
       </c>
       <c r="G37" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.4">
+      <c r="A38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K38" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="67" customFormat="1">
-      <c r="A38" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="64" t="s">
+    <row r="39" spans="1:11" s="67" customFormat="1" ht="14.4">
+      <c r="A39" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D39" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E39" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F39" s="69">
         <v>0</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="68" t="s">
+      <c r="G39" s="69"/>
+      <c r="H39" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="68" t="s">
+      <c r="I39" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="68" t="s">
+      <c r="J39" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K38" s="65" t="s">
+      <c r="K39" s="65" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="14.4">
       <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1739.9274680000001</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.4">
+      <c r="A41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>6699</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="14.4">
       <c r="A42" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="7">
         <v>0</v>
@@ -21104,7 +21130,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:11" ht="60">
+    <row r="43" spans="1:11" ht="14.4">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -21112,27 +21138,18 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F43" s="7">
         <v>0</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" ht="57.6">
       <c r="A44" s="17" t="s">
         <v>24</v>
       </c>
@@ -21140,48 +21157,46 @@
         <v>25</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4">
+      <c r="A45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>6758</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" s="24" customFormat="1">
-      <c r="A45" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="62" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="24" customFormat="1">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" s="24" customFormat="1" ht="14.4">
       <c r="A46" s="22" t="s">
         <v>24</v>
       </c>
@@ -21189,10 +21204,10 @@
         <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>822</v>
+        <v>824</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>821</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
@@ -21208,33 +21223,40 @@
         <v>29</v>
       </c>
       <c r="K46" s="62" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="24" customFormat="1" ht="14.4">
+      <c r="A47" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>822</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="62" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="14.4">
       <c r="A48" s="17" t="s">
         <v>24</v>
       </c>
@@ -21242,250 +21264,238 @@
         <v>25</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="K48" s="19" t="s">
+      <c r="G48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="14.4">
+      <c r="A49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="K49" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="24" customFormat="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="E49" s="63" t="s">
-        <v>860</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="28" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="24" customFormat="1">
+    <row r="50" spans="1:26" s="24" customFormat="1" ht="14.4">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="E50" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>880</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G50" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" s="24" customFormat="1" ht="14.4">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="E51" s="63" t="s">
+        <v>860</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I51" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="28" t="s">
+      <c r="K51" s="28" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" s="24" customFormat="1" ht="14.4">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="E52" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="28" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="67" customFormat="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="E51" s="69" t="s">
+    <row r="53" spans="1:26" s="67" customFormat="1" ht="14.4">
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="E53" s="69" t="s">
         <v>871</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69" t="s">
+      <c r="F53" s="69"/>
+      <c r="G53" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="69" t="s">
+      <c r="H53" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I51" s="67" t="s">
+      <c r="I53" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="67" t="s">
+      <c r="J53" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="65" t="s">
+      <c r="K53" s="65" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="29" t="s">
+    <row r="54" spans="1:26" ht="14.4">
+      <c r="A54" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E54" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="20" t="s">
+      <c r="F54" s="7"/>
+      <c r="G54" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H54" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="20">
-        <v>1</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="E54" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="20">
-        <v>1</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>116</v>
       </c>
       <c r="I54" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="14.4">
+      <c r="A55" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="20">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="19" t="s">
+      <c r="K55" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="14.4">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="E56" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="20">
+        <v>1</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="7" t="s">
+    <row r="57" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="85" t="s">
+      <c r="F57" s="7"/>
+      <c r="G57" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="85" t="s">
+      <c r="H57" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="85" t="s">
+      <c r="I57" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="85" t="s">
+      <c r="J57" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K55" s="62" t="s">
+      <c r="K57" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="L55" s="85" t="s">
+      <c r="L57" s="85" t="s">
         <v>834</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="M57" s="3"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
@@ -21497,95 +21507,117 @@
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-    </row>
-    <row r="58" spans="1:26">
+    </row>
+    <row r="58" spans="1:26" ht="14.4">
       <c r="A58" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:26" ht="14.4">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+    </row>
+    <row r="60" spans="1:26" ht="14.4">
+      <c r="A60" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F60" s="7">
         <v>1739.927555</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7" t="s">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" s="3" t="s">
+    <row r="61" spans="1:26" s="24" customFormat="1" ht="14.4">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="E61" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J61" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="7">
-        <v>4891208</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="K61" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="14.4">
       <c r="A62" s="17" t="s">
         <v>24</v>
       </c>
@@ -21596,7 +21628,7 @@
         <v>25</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
@@ -21605,7 +21637,7 @@
         <v>53</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>40</v>
@@ -21614,340 +21646,308 @@
         <v>34</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="14.4">
       <c r="A63" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="E63" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="7">
+        <v>553659</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:26" ht="14.4">
+      <c r="A64" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" s="24" customFormat="1">
-      <c r="A64" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="E64" s="7" t="s">
-        <v>856</v>
+        <v>136</v>
       </c>
       <c r="F64" s="7">
-        <v>5</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>4891208</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" ht="14.4">
       <c r="A65" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>144</v>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.4">
+      <c r="A66" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="7">
         <v>0</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="E66" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F66" s="7">
-        <v>6772</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:11" s="24" customFormat="1">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
+      <c r="G66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="24" customFormat="1" ht="14.4">
+      <c r="A67" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E67" s="7" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F67" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="L67" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14.4">
+      <c r="A68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.4">
+      <c r="A69" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="E69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="7">
+        <v>6772</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" s="24" customFormat="1" ht="14.4">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="E70" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J67" s="28" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="24" customFormat="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="E68" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="F68" s="7">
-        <v>10</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="24" customFormat="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="D69" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K69" s="28" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="24" customFormat="1">
-      <c r="A70" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="D70" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J70" s="28" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="24" customFormat="1" ht="14.4">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="E71" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="F71" s="7">
+        <v>10</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="28" t="s">
+      <c r="K71" s="28" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="24" customFormat="1" ht="14.4">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="D72" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="24" customFormat="1" ht="14.4">
+      <c r="A73" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="D73" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" s="28" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="18" t="s">
+    <row r="74" spans="1:12" ht="14.4">
+      <c r="A74" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F71" s="20">
-        <v>1500</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F72" s="19">
-        <v>1500</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F73" s="19">
-        <v>1500</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" s="19">
-        <v>1000</v>
+      <c r="E74" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="20">
+        <v>1500</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="20" t="s">
         <v>96</v>
       </c>
       <c r="I74" s="19" t="s">
@@ -21957,30 +21957,30 @@
         <v>34</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.4">
       <c r="A75" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F75" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>126</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I75" s="19" t="s">
         <v>40</v>
@@ -21989,30 +21989,30 @@
         <v>34</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.4">
       <c r="A76" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F76" s="19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G76" s="20" t="s">
         <v>126</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I76" s="19" t="s">
         <v>40</v>
@@ -22021,13 +22021,109 @@
         <v>34</v>
       </c>
       <c r="K76" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.4">
+      <c r="A77" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14.4">
+      <c r="A78" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F78" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="14.4">
+      <c r="A79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" s="19" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B54">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B52))&gt;0</formula>
+      <formula>LEN(TRIM(B54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22046,18 +22142,18 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="22" width="7.5703125" customWidth="1"/>
-    <col min="23" max="26" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" customWidth="1"/>
+    <col min="11" max="22" width="7.5546875" customWidth="1"/>
+    <col min="23" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -22134,7 +22230,7 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:26" s="80" customFormat="1">
+    <row r="3" spans="1:26" s="80" customFormat="1" ht="14.4">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
       <c r="C3" s="74"/>
@@ -22160,7 +22256,7 @@
       <c r="U3" s="76"/>
       <c r="V3" s="76"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="6" t="s">
         <v>177</v>
       </c>
@@ -22196,7 +22292,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="6" t="s">
         <v>177</v>
       </c>
@@ -22236,7 +22332,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="30">
+    <row r="6" spans="1:26" ht="28.8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -22276,7 +22372,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="6" t="s">
         <v>177</v>
       </c>
@@ -22386,7 +22482,7 @@
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -22422,7 +22518,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -22456,7 +22552,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -22490,7 +22586,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="6" t="s">
         <v>177</v>
       </c>
@@ -22528,7 +22624,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="6" t="s">
         <v>177</v>
       </c>
@@ -23170,7 +23266,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -23184,7 +23280,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="14.4">
       <c r="A32" s="33" t="s">
         <v>177</v>
       </c>
@@ -23205,7 +23301,7 @@
       </c>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="14.4">
       <c r="A33" s="33" t="s">
         <v>177</v>
       </c>
@@ -23226,7 +23322,7 @@
       </c>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="14.4">
       <c r="A34" s="33" t="s">
         <v>177</v>
       </c>
@@ -23247,7 +23343,7 @@
       </c>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="14.4">
       <c r="A35" s="33" t="s">
         <v>24</v>
       </c>
@@ -23268,7 +23364,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="14.4">
       <c r="A36" s="33" t="s">
         <v>24</v>
       </c>
@@ -23291,7 +23387,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="14.4">
       <c r="A37" s="33" t="s">
         <v>24</v>
       </c>
@@ -23314,7 +23410,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="14.4">
       <c r="A38" s="33" t="s">
         <v>24</v>
       </c>
@@ -23337,7 +23433,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="14.4">
       <c r="A39" s="33" t="s">
         <v>24</v>
       </c>
@@ -23360,7 +23456,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="14.4">
       <c r="A40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -23368,7 +23464,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="14.4">
       <c r="A41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -23392,9 +23488,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" customWidth="1"/>
+    <col min="1" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857B367-538E-4106-9982-93434C3F898F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B67ADA0-3474-48DA-86DA-5634FB26D9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="883">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2743,6 +2743,9 @@
   </si>
   <si>
     <t>nominal low flow</t>
+  </si>
+  <si>
+    <t>if this reach is the outfall of a reservoir, then RES_OUT = the reservoir ID for that reservoir, else RES_OUT = 0. Note that when RESOUTFALL is nonzero, RES_ID will usually be 0, i.e. the outfall reach is not in the reservoir itself.</t>
   </si>
 </sst>
 </file>
@@ -2865,7 +2868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3075,6 +3078,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20104,8 +20110,8 @@
   <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="4" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -20114,8 +20120,9 @@
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="10" width="7.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="39.88671875" customWidth="1"/>
     <col min="12" max="12" width="64" customWidth="1"/>
     <col min="13" max="24" width="7.5546875" customWidth="1"/>
     <col min="25" max="26" width="12.5546875" customWidth="1"/>
@@ -21419,7 +21426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="14.4">
+    <row r="55" spans="1:26" ht="43.2">
       <c r="A55" s="17" t="s">
         <v>24</v>
       </c>
@@ -21441,33 +21448,33 @@
       <c r="J55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K55" s="19" t="s">
+      <c r="K55" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="14.4">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="E56" s="20" t="s">
+    <row r="56" spans="1:26" s="30" customFormat="1" ht="86.4">
+      <c r="A56" s="96"/>
+      <c r="B56" s="96"/>
+      <c r="E56" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="30">
         <v>1</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K56" s="19" t="s">
-        <v>119</v>
+      <c r="K56" s="95" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B67ADA0-3474-48DA-86DA-5634FB26D9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3408C5-BBB3-413D-91C4-DBBB2DB42A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="576" windowWidth="19356" windowHeight="10356" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H192" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H203" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H263" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="917">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2746,6 +2746,108 @@
   </si>
   <si>
     <t>if this reach is the outfall of a reservoir, then RES_OUT = the reservoir ID for that reservoir, else RES_OUT = 0. Note that when RESOUTFALL is nonzero, RES_ID will usually be 0, i.e. the outfall reach is not in the reservoir itself.</t>
+  </si>
+  <si>
+    <t>PRCPAUGAVG</t>
+  </si>
+  <si>
+    <t>PRCPGROAVG</t>
+  </si>
+  <si>
+    <t>PRCPJUNAVG</t>
+  </si>
+  <si>
+    <t>PRCPJULAVG</t>
+  </si>
+  <si>
+    <t>FlowModel::UpdateIDUclimateTemporalAverages()</t>
+  </si>
+  <si>
+    <t>TMINGROAVG</t>
+  </si>
+  <si>
+    <t>multiyear exponential rolling average monthly precip in Aug</t>
+  </si>
+  <si>
+    <t>multiyear exponential rolling average monthly precip in June</t>
+  </si>
+  <si>
+    <t>multiyear exponential rolling average monthly precip in July</t>
+  </si>
+  <si>
+    <t>PRCPSPRING</t>
+  </si>
+  <si>
+    <t>PRCPWINTER</t>
+  </si>
+  <si>
+    <t>PRCP_GROW</t>
+  </si>
+  <si>
+    <t>mmH2O/Aug</t>
+  </si>
+  <si>
+    <t>mmH2O/growing season</t>
+  </si>
+  <si>
+    <t>mmH2O/July</t>
+  </si>
+  <si>
+    <t>mmH2O/June</t>
+  </si>
+  <si>
+    <t>PRCP_AUG</t>
+  </si>
+  <si>
+    <t>PRCP_JUN</t>
+  </si>
+  <si>
+    <t>PRCP_JUL</t>
+  </si>
+  <si>
+    <t>FlowModel::DailyUpdateToSingleYearWeatherAverages()</t>
+  </si>
+  <si>
+    <t>multiyear exponential rolling average growing season (Apr-Oct) precip</t>
+  </si>
+  <si>
+    <t>current year spring (Apr-Jun) precip</t>
+  </si>
+  <si>
+    <t>current year winter (Jan-Mar) precip</t>
+  </si>
+  <si>
+    <t>mmH2O/spring</t>
+  </si>
+  <si>
+    <t>mmH2O/winter</t>
+  </si>
+  <si>
+    <t>mmH2O/development</t>
+  </si>
+  <si>
+    <t>mmH2O/land</t>
+  </si>
+  <si>
+    <t>multiyear exponential rolling average tmin in the growing season (Apr-Oct)</t>
+  </si>
+  <si>
+    <t>TMIN_GROW</t>
+  </si>
+  <si>
+    <t>current year Aug precip</t>
+  </si>
+  <si>
+    <t>current year July precip</t>
+  </si>
+  <si>
+    <t>current year June precip</t>
+  </si>
+  <si>
+    <t>current year growing season (Apr-Oct) precip</t>
+  </si>
+  <si>
+    <t>current year growing season (Apr-Oct)  tmin</t>
   </si>
 </sst>
 </file>
@@ -8704,11 +8806,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1036"/>
+  <dimension ref="A1:Z1047"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -12928,34 +13030,28 @@
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
     </row>
-    <row r="123" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A123" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>126</v>
-      </c>
+    <row r="123" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D123" s="10"/>
       <c r="E123" s="10" t="s">
-        <v>470</v>
+        <v>895</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="G123" s="10"/>
       <c r="H123" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="I123" s="31" t="s">
+        <v>912</v>
+      </c>
+      <c r="I123" s="32" t="s">
         <v>131</v>
       </c>
       <c r="J123" s="3"/>
-      <c r="K123" s="7"/>
+      <c r="K123" s="5"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
@@ -12967,28 +13063,28 @@
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
     </row>
-    <row r="124" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="124" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="15" t="s">
-        <v>556</v>
+        <v>894</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="30" t="s">
+        <v>915</v>
       </c>
       <c r="I124" s="32" t="s">
-        <v>557</v>
+        <v>131</v>
       </c>
       <c r="J124" s="3"/>
-      <c r="K124" s="7"/>
+      <c r="K124" s="5"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
@@ -13000,28 +13096,28 @@
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
     </row>
-    <row r="125" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="125" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="15" t="s">
-        <v>559</v>
+        <v>900</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="G125" s="10"/>
+      <c r="H125" s="30" t="s">
+        <v>914</v>
       </c>
       <c r="I125" s="32" t="s">
-        <v>557</v>
+        <v>131</v>
       </c>
       <c r="J125" s="3"/>
-      <c r="K125" s="7"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
@@ -13033,30 +13129,28 @@
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
     </row>
-    <row r="126" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A126" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="126" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>561</v>
+        <v>901</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="G126" s="10"/>
+      <c r="H126" s="30" t="s">
+        <v>913</v>
       </c>
       <c r="I126" s="32" t="s">
         <v>131</v>
       </c>
       <c r="J126" s="3"/>
-      <c r="K126" s="7"/>
+      <c r="K126" s="5"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
@@ -13069,25 +13163,31 @@
       <c r="U126" s="7"/>
     </row>
     <row r="127" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A127" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="8" t="s">
+      <c r="A127" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="32"/>
+      <c r="H127" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="I127" s="31" t="s">
+        <v>131</v>
+      </c>
       <c r="J127" s="3"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
@@ -13101,266 +13201,172 @@
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
     </row>
-    <row r="128" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A128" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="8" t="s">
+    <row r="128" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B128" s="33"/>
+      <c r="C128" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H128" s="15" t="s">
-        <v>565</v>
+      <c r="H128" s="24" t="s">
+        <v>889</v>
       </c>
       <c r="I128" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
-      <c r="R128" s="7"/>
-      <c r="S128" s="7"/>
-      <c r="T128" s="7"/>
-      <c r="U128" s="7"/>
-    </row>
-    <row r="129" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A129" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="B129" s="6"/>
-      <c r="C129" s="20" t="s">
-        <v>567</v>
+      <c r="J128" s="28"/>
+    </row>
+    <row r="129" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B129" s="33"/>
+      <c r="C129" s="24" t="s">
+        <v>884</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>568</v>
+        <v>896</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>28</v>
+        <v>887</v>
       </c>
       <c r="G129" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H129" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="I129" s="31" t="s">
+      <c r="H129" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="I129" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J129" s="3"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7"/>
-      <c r="X129" s="7"/>
-      <c r="Y129" s="7"/>
-      <c r="Z129" s="7"/>
-    </row>
-    <row r="130" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A130" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="20" t="s">
-        <v>444</v>
+      <c r="J129" s="28"/>
+    </row>
+    <row r="130" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B130" s="33"/>
+      <c r="C130" s="24" t="s">
+        <v>886</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F130" s="10"/>
+        <v>897</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>887</v>
+      </c>
       <c r="G130" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H130" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="I130" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="J130" s="3"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="7"/>
-      <c r="T130" s="7"/>
-      <c r="U130" s="7"/>
-      <c r="V130" s="7"/>
-      <c r="W130" s="7"/>
-      <c r="X130" s="7"/>
-      <c r="Y130" s="7"/>
-      <c r="Z130" s="7"/>
-    </row>
-    <row r="131" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A131" s="33"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="32"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="7"/>
-      <c r="T131" s="7"/>
-      <c r="U131" s="7"/>
-      <c r="V131" s="7"/>
-      <c r="W131" s="7"/>
-      <c r="X131" s="7"/>
-      <c r="Y131" s="7"/>
-      <c r="Z131" s="7"/>
-    </row>
-    <row r="132" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A132" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="D132" s="8" t="s">
+      <c r="H130" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="I130" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J130" s="28"/>
+    </row>
+    <row r="131" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B131" s="33"/>
+      <c r="C131" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="E131" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="I131" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J131" s="28"/>
+    </row>
+    <row r="132" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A132" s="10"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="D132" s="10"/>
       <c r="E132" s="10" t="s">
-        <v>568</v>
+        <v>906</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H132" s="30" t="s">
-        <v>572</v>
+        <v>887</v>
+      </c>
+      <c r="G132" s="10"/>
+      <c r="H132" s="24" t="s">
+        <v>904</v>
       </c>
       <c r="I132" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-      <c r="S132" s="7"/>
-      <c r="T132" s="7"/>
-      <c r="U132" s="7"/>
-      <c r="V132" s="7"/>
-      <c r="W132" s="7"/>
-      <c r="X132" s="7"/>
-      <c r="Y132" s="7"/>
-      <c r="Z132" s="7"/>
-    </row>
-    <row r="133" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>573</v>
+      <c r="J132" s="28"/>
+    </row>
+    <row r="133" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A133" s="10"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="H133" s="24" t="s">
+        <v>905</v>
       </c>
       <c r="I133" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="7"/>
-      <c r="R133" s="7"/>
-      <c r="S133" s="7"/>
-      <c r="T133" s="7"/>
-      <c r="U133" s="7"/>
+      <c r="J133" s="28"/>
     </row>
     <row r="134" spans="1:26" ht="14.25" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C134" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="C134" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D134" s="8"/>
       <c r="E134" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H134" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>494</v>
+        <v>334</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>557</v>
       </c>
       <c r="J134" s="3"/>
-      <c r="K134" s="20" t="s">
-        <v>577</v>
-      </c>
+      <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
@@ -13374,26 +13380,24 @@
     </row>
     <row r="135" spans="1:26" ht="14.25" customHeight="1">
       <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="I135" s="32"/>
+      <c r="B135" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="I135" s="32" t="s">
+        <v>557</v>
+      </c>
       <c r="J135" s="3"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
@@ -13408,23 +13412,25 @@
       <c r="U135" s="7"/>
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A136" s="6"/>
+      <c r="A136" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="B136" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="D136" s="8"/>
-      <c r="E136" s="8" t="s">
-        <v>190</v>
+      <c r="E136" s="10" t="s">
+        <v>908</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="I136" s="32" t="s">
         <v>131</v>
@@ -13443,27 +13449,25 @@
       <c r="U136" s="7"/>
     </row>
     <row r="137" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A137" s="6"/>
+      <c r="A137" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="B137" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8" t="s">
-        <v>190</v>
+        <v>563</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H137" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="I137" s="32" t="s">
-        <v>131</v>
-      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="32"/>
       <c r="J137" s="3"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
@@ -13478,25 +13482,29 @@
       <c r="U137" s="7"/>
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A138" s="6"/>
+      <c r="A138" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="B138" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="D138" s="8"/>
-      <c r="E138" s="8" t="s">
-        <v>214</v>
+      <c r="E138" s="10" t="s">
+        <v>909</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="8" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="I138" s="8"/>
+        <v>565</v>
+      </c>
+      <c r="I138" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J138" s="3"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
@@ -13510,29 +13518,31 @@
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
     </row>
-    <row r="139" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="D139" s="85" t="s">
+    <row r="139" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A139" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E139" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="F139" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="G139" s="85" t="s">
+      <c r="E139" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H139" s="87" t="s">
-        <v>833</v>
-      </c>
-      <c r="I139" s="85" t="s">
-        <v>834</v>
+      <c r="H139" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="I139" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="7"/>
@@ -13546,27 +13556,36 @@
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
+      <c r="V139" s="7"/>
+      <c r="W139" s="7"/>
+      <c r="X139" s="7"/>
+      <c r="Y139" s="7"/>
+      <c r="Z139" s="7"/>
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8" t="s">
-        <v>214</v>
+      <c r="A140" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F140" s="10"/>
-      <c r="G140" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H140" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="I140" s="8"/>
+      <c r="G140" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="I140" s="31" t="s">
+        <v>447</v>
+      </c>
       <c r="J140" s="3"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
@@ -13579,26 +13598,37 @@
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="7"/>
     </row>
     <row r="141" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="10"/>
+      <c r="A141" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="G141" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H141" s="15" t="s">
-        <v>590</v>
+        <v>29</v>
+      </c>
+      <c r="H141" s="30" t="s">
+        <v>572</v>
       </c>
       <c r="I141" s="32" t="s">
-        <v>591</v>
+        <v>131</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="7"/>
@@ -13612,34 +13642,37 @@
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
+      <c r="V141" s="7"/>
+      <c r="W141" s="7"/>
+      <c r="X141" s="7"/>
+      <c r="Y141" s="7"/>
+      <c r="Z141" s="7"/>
     </row>
     <row r="142" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A142" s="33" t="s">
-        <v>482</v>
-      </c>
+      <c r="A142" s="6"/>
       <c r="B142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>592</v>
+        <v>386</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="I142" s="32" t="s">
         <v>131</v>
       </c>
       <c r="J142" s="3"/>
-      <c r="K142" s="20" t="s">
-        <v>594</v>
+      <c r="K142" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
@@ -13657,23 +13690,31 @@
       <c r="B143" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="10"/>
+      <c r="C143" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="G143" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H143" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="I143" s="32" t="s">
-        <v>131</v>
+      <c r="H143" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J143" s="3"/>
-      <c r="K143" s="7"/>
+      <c r="K143" s="20" t="s">
+        <v>577</v>
+      </c>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
@@ -13687,26 +13728,24 @@
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1">
       <c r="A144" s="6"/>
-      <c r="B144" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>109</v>
+      <c r="B144" s="6"/>
+      <c r="C144" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>575</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G144" s="8" t="s">
+      <c r="G144" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H144" s="15" t="s">
-        <v>599</v>
+      <c r="H144" s="30" t="s">
+        <v>579</v>
       </c>
       <c r="I144" s="32"/>
       <c r="J144" s="3"/>
@@ -13728,20 +13767,18 @@
         <v>24</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>601</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D145" s="8"/>
       <c r="E145" s="8" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="I145" s="32" t="s">
         <v>131</v>
@@ -13765,18 +13802,18 @@
         <v>24</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="I146" s="32" t="s">
         <v>131</v>
@@ -13795,63 +13832,62 @@
       <c r="U146" s="7"/>
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A147" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="42" t="s">
-        <v>605</v>
-      </c>
-      <c r="D147" s="43" t="s">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="I147" s="8"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+    </row>
+    <row r="148" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A148" s="33"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D148" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E147" s="43" t="s">
-        <v>606</v>
-      </c>
-      <c r="F147" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" s="43" t="s">
+      <c r="E148" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="F148" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="H147" s="44" t="s">
-        <v>607</v>
-      </c>
-      <c r="I147" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="J147" s="39"/>
-      <c r="K147" s="35"/>
-      <c r="L147" s="35"/>
-      <c r="M147" s="35"/>
-      <c r="N147" s="35"/>
-      <c r="O147" s="35"/>
-      <c r="P147" s="35"/>
-      <c r="Q147" s="35"/>
-      <c r="R147" s="35"/>
-      <c r="S147" s="35"/>
-      <c r="T147" s="35"/>
-      <c r="U147" s="35"/>
-      <c r="V147" s="40"/>
-      <c r="W147" s="40"/>
-      <c r="X147" s="40"/>
-      <c r="Y147" s="40"/>
-      <c r="Z147" s="40"/>
-    </row>
-    <row r="148" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="32"/>
+      <c r="H148" s="87" t="s">
+        <v>833</v>
+      </c>
+      <c r="I148" s="85" t="s">
+        <v>834</v>
+      </c>
       <c r="J148" s="3"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -13866,29 +13902,25 @@
       <c r="U148" s="7"/>
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A149" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A149" s="6"/>
       <c r="B149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8" t="s">
-        <v>609</v>
+        <v>214</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="I149" s="32" t="s">
-        <v>275</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="I149" s="8"/>
       <c r="J149" s="3"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -13908,26 +13940,22 @@
         <v>24</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="D150" s="8"/>
-      <c r="E150" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="E150" s="8"/>
       <c r="F150" s="10"/>
       <c r="G150" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H150" s="30" t="s">
-        <v>612</v>
+        <v>34</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>590</v>
       </c>
       <c r="I150" s="32" t="s">
-        <v>131</v>
+        <v>591</v>
       </c>
       <c r="J150" s="3"/>
-      <c r="K150" s="20" t="s">
-        <v>613</v>
-      </c>
+      <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
@@ -13940,31 +13968,33 @@
       <c r="U150" s="7"/>
     </row>
     <row r="151" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A151" s="84" t="s">
+      <c r="A151" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E151" s="10" t="s">
+      <c r="B151" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F151" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" s="10" t="s">
+      <c r="F151" s="10"/>
+      <c r="G151" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H151" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="I151" s="31"/>
+      <c r="H151" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="I151" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
+      <c r="K151" s="20" t="s">
+        <v>594</v>
+      </c>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
@@ -13977,31 +14007,27 @@
       <c r="U151" s="7"/>
     </row>
     <row r="152" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A152" s="84" t="s">
-        <v>482</v>
-      </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" s="10" t="s">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H152" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="I152" s="31"/>
+      <c r="H152" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="I152" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+      <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
@@ -14014,31 +14040,31 @@
       <c r="U152" s="7"/>
     </row>
     <row r="153" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A153" s="84" t="s">
-        <v>482</v>
-      </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>190</v>
+      <c r="A153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G153" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G153" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H153" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="I153" s="31"/>
+      <c r="H153" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="I153" s="32"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
@@ -14051,31 +14077,31 @@
       <c r="U153" s="7"/>
     </row>
     <row r="154" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A154" s="84" t="s">
-        <v>482</v>
-      </c>
-      <c r="B154" s="6"/>
-      <c r="C154" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" s="10" t="s">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F154" s="10"/>
+      <c r="G154" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H154" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="I154" s="31"/>
+      <c r="H154" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="I154" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
+      <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
@@ -14088,106 +14114,98 @@
       <c r="U154" s="7"/>
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A155" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="B155" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="F155" s="43" t="s">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F155" s="10"/>
+      <c r="G155" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="I155" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J155" s="3"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="7"/>
+      <c r="T155" s="7"/>
+      <c r="U155" s="7"/>
+    </row>
+    <row r="156" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A156" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B156" s="34"/>
+      <c r="C156" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="D156" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="F156" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G155" s="36" t="s">
+      <c r="G156" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H155" s="44" t="s">
-        <v>621</v>
-      </c>
-      <c r="I155" s="38" t="s">
+      <c r="H156" s="44" t="s">
+        <v>607</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="J155" s="39"/>
-      <c r="K155" s="35"/>
-      <c r="L155" s="35"/>
-      <c r="M155" s="35"/>
-      <c r="N155" s="35"/>
-      <c r="O155" s="35"/>
-      <c r="P155" s="35"/>
-      <c r="Q155" s="35"/>
-      <c r="R155" s="35"/>
-      <c r="S155" s="35"/>
-      <c r="T155" s="35"/>
-      <c r="U155" s="35"/>
-      <c r="V155" s="40"/>
-      <c r="W155" s="40"/>
-      <c r="X155" s="40"/>
-      <c r="Y155" s="40"/>
-      <c r="Z155" s="40"/>
-    </row>
-    <row r="156" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F156" s="10"/>
-      <c r="G156" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="I156" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J156" s="3"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="7"/>
-      <c r="M156" s="7"/>
-      <c r="N156" s="7"/>
-      <c r="O156" s="7"/>
-      <c r="P156" s="7"/>
-      <c r="Q156" s="7"/>
-      <c r="R156" s="7"/>
-      <c r="S156" s="7"/>
-      <c r="T156" s="7"/>
-      <c r="U156" s="7"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="35"/>
+      <c r="L156" s="35"/>
+      <c r="M156" s="35"/>
+      <c r="N156" s="35"/>
+      <c r="O156" s="35"/>
+      <c r="P156" s="35"/>
+      <c r="Q156" s="35"/>
+      <c r="R156" s="35"/>
+      <c r="S156" s="35"/>
+      <c r="T156" s="35"/>
+      <c r="U156" s="35"/>
+      <c r="V156" s="40"/>
+      <c r="W156" s="40"/>
+      <c r="X156" s="40"/>
+      <c r="Y156" s="40"/>
+      <c r="Z156" s="40"/>
     </row>
     <row r="157" spans="1:26" ht="14.25" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>624</v>
+        <v>405</v>
       </c>
       <c r="D157" s="8"/>
-      <c r="E157" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="E157" s="8"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H157" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="I157" s="32" t="s">
-        <v>131</v>
-      </c>
+      <c r="G157" s="8"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="32"/>
       <c r="J157" s="3"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
@@ -14201,82 +14219,79 @@
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
     </row>
-    <row r="158" spans="1:26" s="80" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A158" s="90" t="s">
-        <v>482</v>
-      </c>
-      <c r="B158" s="81"/>
-      <c r="C158" s="80" t="s">
-        <v>626</v>
-      </c>
-      <c r="D158" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E158" s="77" t="s">
-        <v>512</v>
-      </c>
-      <c r="F158" s="77"/>
-      <c r="G158" s="77" t="s">
+    <row r="158" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A158" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F158" s="10"/>
+      <c r="G158" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="I158" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J158" s="3"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="U158" s="7"/>
+    </row>
+    <row r="159" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H158" s="91" t="s">
-        <v>837</v>
-      </c>
-      <c r="I158" s="89" t="s">
+      <c r="H159" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="I159" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J158" s="83"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
-      <c r="P158" s="79"/>
-      <c r="Q158" s="79"/>
-      <c r="R158" s="79"/>
-      <c r="S158" s="79"/>
-      <c r="T158" s="79"/>
-      <c r="U158" s="79"/>
-    </row>
-    <row r="159" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A159" s="41"/>
-      <c r="B159" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="F159" s="43"/>
-      <c r="G159" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H159" s="37" t="s">
-        <v>628</v>
-      </c>
-      <c r="I159" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="J159" s="39"/>
-      <c r="K159" s="42"/>
-      <c r="L159" s="35"/>
-      <c r="M159" s="35"/>
-      <c r="N159" s="35"/>
-      <c r="O159" s="35"/>
-      <c r="P159" s="35"/>
-      <c r="Q159" s="35"/>
-      <c r="R159" s="35"/>
-      <c r="S159" s="35"/>
-      <c r="T159" s="35"/>
-      <c r="U159" s="35"/>
-      <c r="V159" s="40"/>
-      <c r="W159" s="40"/>
-      <c r="X159" s="40"/>
-      <c r="Y159" s="40"/>
-      <c r="Z159" s="40"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
     </row>
     <row r="160" spans="1:26" ht="14.25" customHeight="1">
       <c r="A160" s="84" t="s">
@@ -14284,11 +14299,13 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="D160" s="8"/>
+        <v>503</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E160" s="10" t="s">
-        <v>512</v>
+        <v>190</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>28</v>
@@ -14296,14 +14313,12 @@
       <c r="G160" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H160" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="I160" s="31" t="s">
-        <v>836</v>
-      </c>
+      <c r="H160" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="I160" s="31"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="7"/>
+      <c r="K160" s="3"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
@@ -14316,56 +14331,55 @@
       <c r="U160" s="7"/>
     </row>
     <row r="161" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A161" s="60" t="s">
-        <v>631</v>
-      </c>
-      <c r="B161" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>632</v>
-      </c>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="F161" s="43"/>
-      <c r="G161" s="36" t="s">
+      <c r="A161" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H161" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="I161" s="45"/>
-      <c r="J161" s="39"/>
-      <c r="K161" s="35"/>
-      <c r="L161" s="35"/>
-      <c r="M161" s="35"/>
-      <c r="N161" s="35"/>
-      <c r="O161" s="35"/>
-      <c r="P161" s="35"/>
-      <c r="Q161" s="35"/>
-      <c r="R161" s="35"/>
-      <c r="S161" s="35"/>
-      <c r="T161" s="35"/>
-      <c r="U161" s="35"/>
-      <c r="V161" s="40"/>
-      <c r="W161" s="40"/>
-      <c r="X161" s="40"/>
-      <c r="Y161" s="40"/>
-      <c r="Z161" s="40"/>
+      <c r="H161" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="I161" s="31"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+      <c r="U161" s="7"/>
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A162" s="33"/>
+      <c r="A162" s="84" t="s">
+        <v>482</v>
+      </c>
       <c r="B162" s="6"/>
       <c r="C162" s="20" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>512</v>
+        <v>190</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>28</v>
@@ -14374,13 +14388,11 @@
         <v>29</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="I162" s="32" t="s">
-        <v>836</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="I162" s="31"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="7"/>
+      <c r="K162" s="3"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
@@ -14393,29 +14405,31 @@
       <c r="U162" s="7"/>
     </row>
     <row r="163" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A163" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="8" t="s">
+      <c r="A163" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H163" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="I163" s="32" t="s">
-        <v>131</v>
-      </c>
+      <c r="H163" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="I163" s="31"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="7"/>
+      <c r="K163" s="3"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
@@ -14428,21 +14442,27 @@
       <c r="U163" s="7"/>
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A164" s="34"/>
+      <c r="A164" s="41" t="s">
+        <v>482</v>
+      </c>
       <c r="B164" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="43"/>
+      <c r="E164" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F164" s="43" t="s">
+        <v>28</v>
+      </c>
       <c r="G164" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H164" s="37" t="s">
-        <v>639</v>
+      <c r="H164" s="44" t="s">
+        <v>621</v>
       </c>
       <c r="I164" s="38" t="s">
         <v>131</v>
@@ -14465,69 +14485,63 @@
       <c r="Y164" s="40"/>
       <c r="Z164" s="40"/>
     </row>
-    <row r="165" spans="1:26" s="80" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A165" s="81"/>
-      <c r="B165" s="81"/>
-      <c r="C165" s="80" t="s">
-        <v>640</v>
-      </c>
-      <c r="D165" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E165" s="77" t="s">
-        <v>512</v>
-      </c>
-      <c r="F165" s="88" t="s">
-        <v>482</v>
-      </c>
-      <c r="G165" s="77" t="s">
+    <row r="165" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H165" s="76" t="s">
-        <v>641</v>
-      </c>
-      <c r="I165" s="89"/>
-      <c r="J165" s="83"/>
-      <c r="L165" s="79"/>
-      <c r="M165" s="79"/>
-      <c r="N165" s="79"/>
-      <c r="O165" s="79"/>
-      <c r="P165" s="79"/>
-      <c r="Q165" s="79"/>
-      <c r="R165" s="79"/>
-      <c r="S165" s="79"/>
-      <c r="T165" s="79"/>
-      <c r="U165" s="79"/>
-      <c r="V165" s="79"/>
-      <c r="W165" s="79"/>
-      <c r="X165" s="79"/>
-      <c r="Y165" s="79"/>
-      <c r="Z165" s="79"/>
+      <c r="H165" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="I165" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J165" s="3"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="7"/>
+      <c r="T165" s="7"/>
+      <c r="U165" s="7"/>
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="D166" s="8"/>
       <c r="E166" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F166" s="10"/>
       <c r="G166" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="I166" s="32"/>
+        <v>625</v>
+      </c>
+      <c r="I166" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J166" s="3"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
@@ -14540,108 +14554,110 @@
       <c r="S166" s="7"/>
       <c r="T166" s="7"/>
       <c r="U166" s="7"/>
-      <c r="V166" s="7"/>
-      <c r="W166" s="7"/>
-      <c r="X166" s="7"/>
-      <c r="Y166" s="7"/>
-      <c r="Z166" s="7"/>
-    </row>
-    <row r="167" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F167" s="10"/>
-      <c r="G167" s="8" t="s">
+    </row>
+    <row r="167" spans="1:26" s="80" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A167" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="B167" s="81"/>
+      <c r="C167" s="80" t="s">
+        <v>626</v>
+      </c>
+      <c r="D167" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E167" s="77" t="s">
+        <v>512</v>
+      </c>
+      <c r="F167" s="77"/>
+      <c r="G167" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H167" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="I167" s="32" t="s">
+      <c r="H167" s="91" t="s">
+        <v>837</v>
+      </c>
+      <c r="I167" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="J167" s="3"/>
-      <c r="K167" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="L167" s="7"/>
-      <c r="M167" s="7"/>
-      <c r="N167" s="7"/>
-      <c r="O167" s="7"/>
-      <c r="P167" s="7"/>
-      <c r="Q167" s="7"/>
-      <c r="R167" s="7"/>
-      <c r="S167" s="7"/>
-      <c r="T167" s="7"/>
-      <c r="U167" s="7"/>
+      <c r="J167" s="83"/>
+      <c r="K167" s="79"/>
+      <c r="L167" s="79"/>
+      <c r="M167" s="79"/>
+      <c r="N167" s="79"/>
+      <c r="O167" s="79"/>
+      <c r="P167" s="79"/>
+      <c r="Q167" s="79"/>
+      <c r="R167" s="79"/>
+      <c r="S167" s="79"/>
+      <c r="T167" s="79"/>
+      <c r="U167" s="79"/>
     </row>
     <row r="168" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="D168" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G168" s="31" t="s">
+      <c r="A168" s="41"/>
+      <c r="B168" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="F168" s="43"/>
+      <c r="G168" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H168" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I168" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="J168" s="3"/>
-      <c r="K168" s="7"/>
-      <c r="L168" s="7"/>
-      <c r="M168" s="7"/>
-      <c r="N168" s="7"/>
-      <c r="O168" s="7"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="7"/>
-      <c r="R168" s="7"/>
-      <c r="S168" s="7"/>
-      <c r="T168" s="7"/>
-      <c r="U168" s="7"/>
+      <c r="H168" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="I168" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J168" s="39"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="35"/>
+      <c r="M168" s="35"/>
+      <c r="N168" s="35"/>
+      <c r="O168" s="35"/>
+      <c r="P168" s="35"/>
+      <c r="Q168" s="35"/>
+      <c r="R168" s="35"/>
+      <c r="S168" s="35"/>
+      <c r="T168" s="35"/>
+      <c r="U168" s="35"/>
+      <c r="V168" s="40"/>
+      <c r="W168" s="40"/>
+      <c r="X168" s="40"/>
+      <c r="Y168" s="40"/>
+      <c r="Z168" s="40"/>
     </row>
     <row r="169" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="F169" s="32"/>
-      <c r="G169" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="I169" s="8"/>
+      <c r="A169" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="D169" s="8"/>
+      <c r="E169" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="I169" s="31" t="s">
+        <v>836</v>
+      </c>
       <c r="J169" s="3"/>
-      <c r="K169" s="7" t="s">
-        <v>652</v>
-      </c>
+      <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
@@ -14654,59 +14670,68 @@
       <c r="U169" s="7"/>
     </row>
     <row r="170" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="I170" s="8"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="7"/>
-      <c r="R170" s="7"/>
-      <c r="S170" s="7"/>
-      <c r="T170" s="7"/>
-      <c r="U170" s="7"/>
+      <c r="A170" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="B170" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="F170" s="43"/>
+      <c r="G170" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="I170" s="45"/>
+      <c r="J170" s="39"/>
+      <c r="K170" s="35"/>
+      <c r="L170" s="35"/>
+      <c r="M170" s="35"/>
+      <c r="N170" s="35"/>
+      <c r="O170" s="35"/>
+      <c r="P170" s="35"/>
+      <c r="Q170" s="35"/>
+      <c r="R170" s="35"/>
+      <c r="S170" s="35"/>
+      <c r="T170" s="35"/>
+      <c r="U170" s="35"/>
+      <c r="V170" s="40"/>
+      <c r="W170" s="40"/>
+      <c r="X170" s="40"/>
+      <c r="Y170" s="40"/>
+      <c r="Z170" s="40"/>
     </row>
     <row r="171" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A171" s="13" t="s">
-        <v>656</v>
-      </c>
+      <c r="A171" s="33"/>
       <c r="B171" s="6"/>
       <c r="C171" s="20" t="s">
-        <v>657</v>
+        <v>510</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F171" s="10"/>
+        <v>512</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="G171" s="10" t="s">
         <v>29</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I171" s="10" t="s">
-        <v>659</v>
+        <v>634</v>
+      </c>
+      <c r="I171" s="32" t="s">
+        <v>836</v>
       </c>
       <c r="J171" s="3"/>
       <c r="K171" s="7"/>
@@ -14722,19 +14747,27 @@
       <c r="U171" s="7"/>
     </row>
     <row r="172" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A172" s="6"/>
+      <c r="A172" s="33" t="s">
+        <v>635</v>
+      </c>
       <c r="B172" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="8"/>
+      <c r="G172" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="I172" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J172" s="3"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
@@ -14749,64 +14782,81 @@
       <c r="U172" s="7"/>
     </row>
     <row r="173" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="I173" s="8"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="7"/>
-      <c r="R173" s="7"/>
-      <c r="S173" s="7"/>
-      <c r="T173" s="7"/>
-      <c r="U173" s="7"/>
-    </row>
-    <row r="174" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="I174" s="32" t="s">
+      <c r="A173" s="34"/>
+      <c r="B173" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="I173" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J174" s="3"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="7"/>
-      <c r="R174" s="7"/>
-      <c r="S174" s="7"/>
-      <c r="T174" s="7"/>
-      <c r="U174" s="7"/>
+      <c r="J173" s="39"/>
+      <c r="K173" s="35"/>
+      <c r="L173" s="35"/>
+      <c r="M173" s="35"/>
+      <c r="N173" s="35"/>
+      <c r="O173" s="35"/>
+      <c r="P173" s="35"/>
+      <c r="Q173" s="35"/>
+      <c r="R173" s="35"/>
+      <c r="S173" s="35"/>
+      <c r="T173" s="35"/>
+      <c r="U173" s="35"/>
+      <c r="V173" s="40"/>
+      <c r="W173" s="40"/>
+      <c r="X173" s="40"/>
+      <c r="Y173" s="40"/>
+      <c r="Z173" s="40"/>
+    </row>
+    <row r="174" spans="1:26" s="80" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A174" s="81"/>
+      <c r="B174" s="81"/>
+      <c r="C174" s="80" t="s">
+        <v>640</v>
+      </c>
+      <c r="D174" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E174" s="77" t="s">
+        <v>512</v>
+      </c>
+      <c r="F174" s="88" t="s">
+        <v>482</v>
+      </c>
+      <c r="G174" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="76" t="s">
+        <v>641</v>
+      </c>
+      <c r="I174" s="89"/>
+      <c r="J174" s="83"/>
+      <c r="L174" s="79"/>
+      <c r="M174" s="79"/>
+      <c r="N174" s="79"/>
+      <c r="O174" s="79"/>
+      <c r="P174" s="79"/>
+      <c r="Q174" s="79"/>
+      <c r="R174" s="79"/>
+      <c r="S174" s="79"/>
+      <c r="T174" s="79"/>
+      <c r="U174" s="79"/>
+      <c r="V174" s="79"/>
+      <c r="W174" s="79"/>
+      <c r="X174" s="79"/>
+      <c r="Y174" s="79"/>
+      <c r="Z174" s="79"/>
     </row>
     <row r="175" spans="1:26" ht="14.25" customHeight="1">
       <c r="A175" s="6"/>
@@ -14814,16 +14864,24 @@
         <v>177</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="I175" s="8"/>
+        <v>642</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H175" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="I175" s="32"/>
       <c r="J175" s="3"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
@@ -14836,6 +14894,11 @@
       <c r="S175" s="7"/>
       <c r="T175" s="7"/>
       <c r="U175" s="7"/>
+      <c r="V175" s="7"/>
+      <c r="W175" s="7"/>
+      <c r="X175" s="7"/>
+      <c r="Y175" s="7"/>
+      <c r="Z175" s="7"/>
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1">
       <c r="A176" s="6"/>
@@ -14843,23 +14906,25 @@
         <v>24</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>137</v>
+        <v>645</v>
       </c>
       <c r="D176" s="8"/>
       <c r="E176" s="8" t="s">
-        <v>666</v>
+        <v>190</v>
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="I176" s="8"/>
+        <v>646</v>
+      </c>
+      <c r="I176" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J176" s="3"/>
-      <c r="K176" s="7" t="s">
-        <v>207</v>
+      <c r="K176" s="20" t="s">
+        <v>647</v>
       </c>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
@@ -14874,28 +14939,28 @@
     </row>
     <row r="177" spans="1:21" ht="14.25" customHeight="1">
       <c r="A177" s="6"/>
-      <c r="B177" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="F177" s="10"/>
-      <c r="G177" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="I177" s="8"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>516</v>
+      </c>
       <c r="J177" s="3"/>
-      <c r="K177" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
@@ -14913,16 +14978,24 @@
         <v>24</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="15"/>
+        <v>649</v>
+      </c>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="H178" s="15" t="s">
+        <v>651</v>
+      </c>
       <c r="I178" s="8"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="7"/>
+      <c r="K178" s="7" t="s">
+        <v>652</v>
+      </c>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
@@ -14934,98 +15007,90 @@
       <c r="T178" s="7"/>
       <c r="U178" s="7"/>
     </row>
-    <row r="179" spans="1:21" s="80" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A179" s="81"/>
-      <c r="B179" s="81"/>
-      <c r="C179" s="80" t="s">
-        <v>672</v>
-      </c>
-      <c r="D179" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E179" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="F179" s="77"/>
-      <c r="G179" s="77" t="s">
+    <row r="179" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="I179" s="8"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+      <c r="R179" s="7"/>
+      <c r="S179" s="7"/>
+      <c r="T179" s="7"/>
+      <c r="U179" s="7"/>
+    </row>
+    <row r="180" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A180" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H179" s="76" t="s">
-        <v>673</v>
-      </c>
-      <c r="I179" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="J179" s="83"/>
-      <c r="K179" s="83"/>
-      <c r="L179" s="79"/>
-      <c r="M179" s="79"/>
-      <c r="N179" s="79"/>
-      <c r="O179" s="79"/>
-      <c r="P179" s="79"/>
-      <c r="Q179" s="79"/>
-      <c r="R179" s="79"/>
-      <c r="S179" s="79"/>
-      <c r="T179" s="79"/>
-      <c r="U179" s="79"/>
-    </row>
-    <row r="180" spans="1:21" s="80" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A180" s="81"/>
-      <c r="B180" s="81"/>
-      <c r="C180" s="80" t="s">
-        <v>674</v>
-      </c>
-      <c r="D180" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E180" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="F180" s="77"/>
-      <c r="G180" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H180" s="76" t="s">
-        <v>675</v>
-      </c>
-      <c r="I180" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="J180" s="83"/>
-      <c r="K180" s="83"/>
-      <c r="L180" s="79"/>
-      <c r="M180" s="79"/>
-      <c r="N180" s="79"/>
-      <c r="O180" s="79"/>
-      <c r="P180" s="79"/>
-      <c r="Q180" s="79"/>
-      <c r="R180" s="79"/>
-      <c r="S180" s="79"/>
-      <c r="T180" s="79"/>
-      <c r="U180" s="79"/>
+      <c r="H180" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="J180" s="3"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
     </row>
     <row r="181" spans="1:21" ht="14.25" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D181" s="8"/>
-      <c r="E181" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="E181" s="8"/>
       <c r="F181" s="10"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="15" t="s">
-        <v>677</v>
-      </c>
+      <c r="H181" s="15"/>
       <c r="I181" s="8"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="3" t="s">
-        <v>678</v>
-      </c>
+      <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
@@ -15040,25 +15105,21 @@
     <row r="182" spans="1:21" ht="14.25" customHeight="1">
       <c r="A182" s="6"/>
       <c r="B182" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="D182" s="8"/>
-      <c r="E182" s="8" t="s">
-        <v>680</v>
-      </c>
+      <c r="E182" s="8"/>
       <c r="F182" s="10"/>
       <c r="G182" s="8"/>
       <c r="H182" s="15" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="I182" s="8"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="3" t="s">
-        <v>682</v>
-      </c>
+      <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
@@ -15076,18 +15137,18 @@
         <v>177</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="D183" s="8"/>
-      <c r="E183" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="E183" s="8"/>
       <c r="F183" s="10"/>
       <c r="G183" s="8"/>
       <c r="H183" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="I183" s="8"/>
+        <v>664</v>
+      </c>
+      <c r="I183" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J183" s="3"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
@@ -15107,16 +15168,14 @@
         <v>177</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>685</v>
+        <v>132</v>
       </c>
       <c r="D184" s="8"/>
-      <c r="E184" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="E184" s="8"/>
       <c r="F184" s="10"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="15" t="s">
-        <v>686</v>
+      <c r="H184" s="30" t="s">
+        <v>665</v>
       </c>
       <c r="I184" s="8"/>
       <c r="J184" s="3"/>
@@ -15138,22 +15197,24 @@
         <v>24</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>517</v>
+        <v>137</v>
       </c>
       <c r="D185" s="8"/>
       <c r="E185" s="8" t="s">
-        <v>146</v>
+        <v>666</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="5"/>
+      <c r="K185" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
@@ -15171,24 +15232,24 @@
         <v>24</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="D186" s="8"/>
       <c r="E186" s="8" t="s">
-        <v>146</v>
+        <v>669</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="I186" s="8" t="s">
-        <v>690</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="I186" s="8"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="5"/>
+      <c r="K186" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
@@ -15206,24 +15267,16 @@
         <v>24</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="D187" s="8"/>
-      <c r="E187" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="E187" s="8"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H187" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="I187" s="32" t="s">
-        <v>131</v>
-      </c>
+      <c r="G187" s="8"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="8"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="5"/>
+      <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
@@ -15235,129 +15288,131 @@
       <c r="T187" s="7"/>
       <c r="U187" s="7"/>
     </row>
-    <row r="188" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="D188" s="8"/>
-      <c r="E188" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10" t="s">
+    <row r="188" spans="1:21" s="80" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A188" s="81"/>
+      <c r="B188" s="81"/>
+      <c r="C188" s="80" t="s">
+        <v>672</v>
+      </c>
+      <c r="D188" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E188" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F188" s="77"/>
+      <c r="G188" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H188" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="I188" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="J188" s="3"/>
-      <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="7"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="7"/>
-      <c r="T188" s="7"/>
-      <c r="U188" s="7"/>
-    </row>
-    <row r="189" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="D189" s="8"/>
-      <c r="E189" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10" t="s">
+      <c r="H188" s="76" t="s">
+        <v>673</v>
+      </c>
+      <c r="I188" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="J188" s="83"/>
+      <c r="K188" s="83"/>
+      <c r="L188" s="79"/>
+      <c r="M188" s="79"/>
+      <c r="N188" s="79"/>
+      <c r="O188" s="79"/>
+      <c r="P188" s="79"/>
+      <c r="Q188" s="79"/>
+      <c r="R188" s="79"/>
+      <c r="S188" s="79"/>
+      <c r="T188" s="79"/>
+      <c r="U188" s="79"/>
+    </row>
+    <row r="189" spans="1:21" s="80" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A189" s="81"/>
+      <c r="B189" s="81"/>
+      <c r="C189" s="80" t="s">
+        <v>674</v>
+      </c>
+      <c r="D189" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E189" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F189" s="77"/>
+      <c r="G189" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H189" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="I189" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="J189" s="3"/>
-      <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="7"/>
-      <c r="R189" s="7"/>
-      <c r="S189" s="7"/>
-      <c r="T189" s="7"/>
-      <c r="U189" s="7"/>
-    </row>
-    <row r="190" spans="1:21" s="80" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A190" s="74"/>
-      <c r="B190" s="81"/>
-      <c r="C190" s="80" t="s">
-        <v>700</v>
-      </c>
-      <c r="D190" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E190" s="77" t="s">
-        <v>643</v>
-      </c>
-      <c r="F190" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="G190" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H190" s="76" t="s">
-        <v>701</v>
-      </c>
-      <c r="I190" s="89" t="s">
+      <c r="H189" s="76" t="s">
+        <v>675</v>
+      </c>
+      <c r="I189" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="J190" s="83"/>
-      <c r="L190" s="79"/>
-      <c r="M190" s="79"/>
-      <c r="N190" s="79"/>
-      <c r="O190" s="79"/>
-      <c r="P190" s="79"/>
-      <c r="Q190" s="79"/>
-      <c r="R190" s="79"/>
-      <c r="S190" s="79"/>
-      <c r="T190" s="79"/>
-      <c r="U190" s="79"/>
+      <c r="J189" s="83"/>
+      <c r="K189" s="83"/>
+      <c r="L189" s="79"/>
+      <c r="M189" s="79"/>
+      <c r="N189" s="79"/>
+      <c r="O189" s="79"/>
+      <c r="P189" s="79"/>
+      <c r="Q189" s="79"/>
+      <c r="R189" s="79"/>
+      <c r="S189" s="79"/>
+      <c r="T189" s="79"/>
+      <c r="U189" s="79"/>
+    </row>
+    <row r="190" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F190" s="10"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="I190" s="8"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
+      <c r="T190" s="7"/>
+      <c r="U190" s="7"/>
     </row>
     <row r="191" spans="1:21" ht="14.25" customHeight="1">
       <c r="A191" s="6"/>
       <c r="B191" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="D191" s="8"/>
       <c r="E191" s="8" t="s">
-        <v>151</v>
+        <v>680</v>
       </c>
       <c r="F191" s="10"/>
-      <c r="G191" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="G191" s="8"/>
       <c r="H191" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="I191" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="I191" s="8"/>
       <c r="J191" s="3"/>
+      <c r="K191" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
@@ -15375,26 +15430,20 @@
         <v>177</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="D192" s="8"/>
       <c r="E192" s="8" t="s">
         <v>340</v>
       </c>
       <c r="F192" s="10"/>
-      <c r="G192" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="G192" s="8"/>
       <c r="H192" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="I192" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="I192" s="8"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="3" t="s">
-        <v>706</v>
-      </c>
+      <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
@@ -15409,23 +15458,21 @@
     <row r="193" spans="1:21" ht="14.25" customHeight="1">
       <c r="A193" s="6"/>
       <c r="B193" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="D193" s="8"/>
       <c r="E193" s="8" t="s">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="F193" s="10"/>
-      <c r="G193" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="G193" s="8"/>
       <c r="H193" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="I193" s="32"/>
+        <v>686</v>
+      </c>
+      <c r="I193" s="8"/>
       <c r="J193" s="3"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
@@ -15442,25 +15489,25 @@
     <row r="194" spans="1:21" ht="14.25" customHeight="1">
       <c r="A194" s="6"/>
       <c r="B194" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>709</v>
+        <v>517</v>
       </c>
       <c r="D194" s="8"/>
       <c r="E194" s="8" t="s">
-        <v>500</v>
+        <v>146</v>
       </c>
       <c r="F194" s="10"/>
       <c r="G194" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="I194" s="32"/>
+        <v>687</v>
+      </c>
+      <c r="I194" s="8"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="7"/>
+      <c r="K194" s="5"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
@@ -15478,24 +15525,24 @@
         <v>24</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>217</v>
+        <v>688</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8" t="s">
-        <v>500</v>
+        <v>146</v>
       </c>
       <c r="F195" s="10"/>
       <c r="G195" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="I195" s="32"/>
+        <v>689</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>690</v>
+      </c>
       <c r="J195" s="3"/>
-      <c r="K195" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="K195" s="5"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
@@ -15513,16 +15560,24 @@
         <v>24</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
+      <c r="E196" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="F196" s="10"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="32"/>
+      <c r="G196" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I196" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
+      <c r="K196" s="5"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
@@ -15536,26 +15591,25 @@
     </row>
     <row r="197" spans="1:21" ht="14.25" customHeight="1">
       <c r="A197" s="6"/>
-      <c r="B197" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>713</v>
+      <c r="B197" s="6"/>
+      <c r="C197" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="D197" s="8"/>
-      <c r="E197" s="8" t="s">
-        <v>496</v>
+      <c r="E197" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="F197" s="10"/>
-      <c r="G197" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H197" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="I197" s="32"/>
+      <c r="G197" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H197" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="I197" s="31" t="s">
+        <v>697</v>
+      </c>
       <c r="J197" s="3"/>
-      <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
@@ -15569,24 +15623,25 @@
     </row>
     <row r="198" spans="1:21" ht="14.25" customHeight="1">
       <c r="A198" s="6"/>
-      <c r="B198" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>715</v>
+      <c r="B198" s="6"/>
+      <c r="C198" s="20" t="s">
+        <v>524</v>
       </c>
       <c r="D198" s="8"/>
-      <c r="E198" s="8" t="s">
-        <v>496</v>
+      <c r="E198" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="F198" s="10"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="I198" s="32"/>
+      <c r="G198" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="I198" s="31" t="s">
+        <v>699</v>
+      </c>
       <c r="J198" s="3"/>
-      <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
@@ -15598,30 +15653,27 @@
       <c r="T198" s="7"/>
       <c r="U198" s="7"/>
     </row>
-    <row r="199" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F199" s="10"/>
-      <c r="G199" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H199" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="I199" s="32" t="s">
-        <v>131</v>
-      </c>
+    <row r="199" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="30" t="s">
+        <v>916</v>
+      </c>
+      <c r="I199" s="32"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
@@ -15633,24 +15685,25 @@
       <c r="T199" s="7"/>
       <c r="U199" s="7"/>
     </row>
-    <row r="200" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="F200" s="10"/>
-      <c r="G200" s="8" t="s">
+    <row r="200" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B200" s="33"/>
+      <c r="C200" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="G200" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H200" s="15" t="s">
-        <v>720</v>
+      <c r="H200" s="30" t="s">
+        <v>910</v>
       </c>
       <c r="I200" s="32" t="s">
         <v>131</v>
@@ -15668,65 +15721,65 @@
       <c r="T200" s="7"/>
       <c r="U200" s="7"/>
     </row>
-    <row r="201" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F201" s="10"/>
-      <c r="G201" s="8" t="s">
+    <row r="201" spans="1:21" s="80" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A201" s="74"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="80" t="s">
+        <v>700</v>
+      </c>
+      <c r="D201" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E201" s="77" t="s">
+        <v>643</v>
+      </c>
+      <c r="F201" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="G201" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H201" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="I201" s="32" t="s">
+      <c r="H201" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="I201" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="J201" s="3"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
-      <c r="R201" s="7"/>
-      <c r="S201" s="7"/>
-      <c r="T201" s="7"/>
-      <c r="U201" s="7"/>
+      <c r="J201" s="83"/>
+      <c r="L201" s="79"/>
+      <c r="M201" s="79"/>
+      <c r="N201" s="79"/>
+      <c r="O201" s="79"/>
+      <c r="P201" s="79"/>
+      <c r="Q201" s="79"/>
+      <c r="R201" s="79"/>
+      <c r="S201" s="79"/>
+      <c r="T201" s="79"/>
+      <c r="U201" s="79"/>
     </row>
     <row r="202" spans="1:21" ht="14.25" customHeight="1">
       <c r="A202" s="6"/>
       <c r="B202" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="D202" s="8"/>
       <c r="E202" s="8" t="s">
-        <v>340</v>
+        <v>151</v>
       </c>
       <c r="F202" s="10"/>
       <c r="G202" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H202" s="15" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="I202" s="32" t="s">
         <v>131</v>
       </c>
       <c r="J202" s="3"/>
-      <c r="K202" s="7"/>
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
       <c r="N202" s="7"/>
@@ -15744,24 +15797,26 @@
         <v>177</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="8" t="s">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="F203" s="10"/>
       <c r="G203" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H203" s="15" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="I203" s="32" t="s">
         <v>131</v>
       </c>
       <c r="J203" s="3"/>
-      <c r="K203" s="7"/>
+      <c r="K203" s="3" t="s">
+        <v>706</v>
+      </c>
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
       <c r="N203" s="7"/>
@@ -15776,16 +15831,22 @@
     <row r="204" spans="1:21" ht="14.25" customHeight="1">
       <c r="A204" s="6"/>
       <c r="B204" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
+      <c r="E204" s="8" t="s">
+        <v>500</v>
+      </c>
       <c r="F204" s="10"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="15"/>
+      <c r="G204" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204" s="15" t="s">
+        <v>708</v>
+      </c>
       <c r="I204" s="32"/>
       <c r="J204" s="3"/>
       <c r="K204" s="7"/>
@@ -15801,33 +15862,27 @@
       <c r="U204" s="7"/>
     </row>
     <row r="205" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A205" s="6" t="s">
-        <v>727</v>
-      </c>
+      <c r="A205" s="6"/>
       <c r="B205" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F205" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="F205" s="10"/>
       <c r="G205" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H205" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="I205" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="I205" s="32"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="K205" s="7"/>
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
       <c r="N205" s="7"/>
@@ -15845,22 +15900,20 @@
         <v>24</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="D206" s="8"/>
       <c r="E206" s="8" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
       <c r="F206" s="10"/>
       <c r="G206" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>730</v>
-      </c>
-      <c r="I206" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="I206" s="32"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3" t="s">
         <v>207</v>
@@ -15877,31 +15930,21 @@
       <c r="U206" s="7"/>
     </row>
     <row r="207" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A207" s="33" t="s">
-        <v>731</v>
-      </c>
+      <c r="A207" s="6"/>
       <c r="B207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="D207" s="8"/>
-      <c r="E207" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="E207" s="8"/>
       <c r="F207" s="10"/>
-      <c r="G207" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H207" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="I207" s="32" t="s">
-        <v>131</v>
-      </c>
+      <c r="G207" s="8"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="32"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="7"/>
+      <c r="K207" s="3"/>
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
       <c r="N207" s="7"/>
@@ -15919,26 +15962,22 @@
         <v>24</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8" t="s">
-        <v>735</v>
+        <v>496</v>
       </c>
       <c r="F208" s="10"/>
       <c r="G208" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H208" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="I208" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="I208" s="32"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="3" t="s">
-        <v>737</v>
-      </c>
+      <c r="K208" s="7"/>
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
       <c r="N208" s="7"/>
@@ -15956,26 +15995,20 @@
         <v>24</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="D209" s="8"/>
       <c r="E209" s="8" t="s">
-        <v>175</v>
+        <v>496</v>
       </c>
       <c r="F209" s="10"/>
-      <c r="G209" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="G209" s="8"/>
       <c r="H209" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="I209" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="I209" s="32"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="61" t="s">
-        <v>740</v>
-      </c>
+      <c r="K209" s="7"/>
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
       <c r="N209" s="7"/>
@@ -15993,14 +16026,22 @@
         <v>177</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
+      <c r="E210" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="F210" s="10"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="15"/>
-      <c r="I210" s="32"/>
+      <c r="G210" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H210" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="I210" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J210" s="3"/>
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
@@ -16020,14 +16061,22 @@
         <v>177</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
+      <c r="E211" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="F211" s="10"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="15"/>
-      <c r="I211" s="32"/>
+      <c r="G211" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H211" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="I211" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J211" s="3"/>
       <c r="K211" s="7"/>
       <c r="L211" s="7"/>
@@ -16047,21 +16096,21 @@
         <v>177</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="D212" s="8"/>
       <c r="E212" s="8" t="s">
-        <v>92</v>
+        <v>340</v>
       </c>
       <c r="F212" s="10"/>
       <c r="G212" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H212" s="15" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="I212" s="32" t="s">
-        <v>745</v>
+        <v>131</v>
       </c>
       <c r="J212" s="3"/>
       <c r="K212" s="7"/>
@@ -16076,27 +16125,27 @@
       <c r="T212" s="7"/>
       <c r="U212" s="7"/>
     </row>
-    <row r="213" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A213" s="33"/>
-      <c r="B213" s="33"/>
+    <row r="213" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="C213" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>112</v>
+        <v>723</v>
+      </c>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="F213" s="10"/>
-      <c r="G213" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="H213" s="30" t="s">
-        <v>851</v>
+      <c r="G213" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H213" s="15" t="s">
+        <v>724</v>
       </c>
       <c r="I213" s="32" t="s">
-        <v>547</v>
+        <v>131</v>
       </c>
       <c r="J213" s="3"/>
       <c r="K213" s="7"/>
@@ -16111,29 +16160,27 @@
       <c r="T213" s="7"/>
       <c r="U213" s="7"/>
     </row>
-    <row r="214" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A214" s="33"/>
-      <c r="B214" s="33"/>
+    <row r="214" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="C214" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E214" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F214" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="G214" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F214" s="10"/>
+      <c r="G214" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H214" s="87" t="s">
-        <v>847</v>
+      <c r="H214" s="15" t="s">
+        <v>720</v>
       </c>
       <c r="I214" s="32" t="s">
-        <v>848</v>
+        <v>131</v>
       </c>
       <c r="J214" s="3"/>
       <c r="K214" s="7"/>
@@ -16148,30 +16195,20 @@
       <c r="T214" s="7"/>
       <c r="U214" s="7"/>
     </row>
-    <row r="215" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A215" s="33"/>
-      <c r="B215" s="33"/>
+    <row r="215" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="C215" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F215" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G215" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H215" s="30" t="s">
-        <v>853</v>
-      </c>
-      <c r="I215" s="32" t="s">
-        <v>854</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="32"/>
       <c r="J215" s="3"/>
       <c r="K215" s="7"/>
       <c r="L215" s="7"/>
@@ -16185,32 +16222,34 @@
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
     </row>
-    <row r="216" spans="1:21" ht="42.75" customHeight="1">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D216" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E216" s="10" t="s">
-        <v>528</v>
+    <row r="216" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A216" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G216" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G216" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H216" s="30" t="s">
-        <v>746</v>
-      </c>
-      <c r="I216" s="31" t="s">
-        <v>835</v>
+      <c r="H216" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="I216" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="J216" s="3"/>
-      <c r="K216" s="7"/>
+      <c r="K216" s="3"/>
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
       <c r="N216" s="7"/>
@@ -16222,30 +16261,32 @@
       <c r="T216" s="7"/>
       <c r="U216" s="7"/>
     </row>
-    <row r="217" spans="1:21" ht="42.75" customHeight="1">
+    <row r="217" spans="1:21" ht="14.25" customHeight="1">
       <c r="A217" s="6"/>
       <c r="B217" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>747</v>
+        <v>14</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8" t="s">
-        <v>748</v>
+        <v>214</v>
       </c>
       <c r="F217" s="10"/>
       <c r="G217" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="I217" s="32" t="s">
-        <v>745</v>
+        <v>131</v>
       </c>
       <c r="J217" s="3"/>
-      <c r="K217" s="7"/>
+      <c r="K217" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
       <c r="N217" s="7"/>
@@ -16258,26 +16299,28 @@
       <c r="U217" s="7"/>
     </row>
     <row r="218" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A218" s="6"/>
+      <c r="A218" s="33" t="s">
+        <v>731</v>
+      </c>
       <c r="B218" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="F218" s="10"/>
       <c r="G218" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H218" s="15" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="I218" s="32" t="s">
-        <v>745</v>
+        <v>131</v>
       </c>
       <c r="J218" s="3"/>
       <c r="K218" s="7"/>
@@ -16298,24 +16341,26 @@
         <v>24</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="D219" s="8"/>
       <c r="E219" s="8" t="s">
-        <v>81</v>
+        <v>735</v>
       </c>
       <c r="F219" s="10"/>
       <c r="G219" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H219" s="15" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="I219" s="32" t="s">
-        <v>745</v>
+        <v>131</v>
       </c>
       <c r="J219" s="3"/>
-      <c r="K219" s="7"/>
+      <c r="K219" s="3" t="s">
+        <v>737</v>
+      </c>
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
       <c r="N219" s="7"/>
@@ -16330,25 +16375,29 @@
     <row r="220" spans="1:21" ht="14.25" customHeight="1">
       <c r="A220" s="6"/>
       <c r="B220" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="D220" s="8"/>
       <c r="E220" s="8" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="F220" s="10"/>
       <c r="G220" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="I220" s="32"/>
+        <v>739</v>
+      </c>
+      <c r="I220" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J220" s="3"/>
-      <c r="K220" s="7"/>
+      <c r="K220" s="61" t="s">
+        <v>740</v>
+      </c>
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
       <c r="N220" s="7"/>
@@ -16366,22 +16415,14 @@
         <v>177</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="D221" s="8"/>
-      <c r="E221" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="E221" s="8"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H221" s="15" t="s">
-        <v>757</v>
-      </c>
-      <c r="I221" s="32" t="s">
-        <v>745</v>
-      </c>
+      <c r="G221" s="8"/>
+      <c r="H221" s="15"/>
+      <c r="I221" s="32"/>
       <c r="J221" s="3"/>
       <c r="K221" s="7"/>
       <c r="L221" s="7"/>
@@ -16401,22 +16442,14 @@
         <v>177</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="D222" s="8"/>
-      <c r="E222" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="E222" s="8"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H222" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="I222" s="32" t="s">
-        <v>745</v>
-      </c>
+      <c r="G222" s="8"/>
+      <c r="H222" s="15"/>
+      <c r="I222" s="32"/>
       <c r="J222" s="3"/>
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
@@ -16433,22 +16466,24 @@
     <row r="223" spans="1:21" ht="14.25" customHeight="1">
       <c r="A223" s="6"/>
       <c r="B223" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
+      <c r="E223" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="F223" s="10"/>
       <c r="G223" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="I223" s="32" t="s">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="J223" s="3"/>
       <c r="K223" s="7"/>
@@ -16463,27 +16498,27 @@
       <c r="T223" s="7"/>
       <c r="U223" s="7"/>
     </row>
-    <row r="224" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6" t="s">
-        <v>177</v>
-      </c>
+    <row r="224" spans="1:21" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A224" s="33"/>
+      <c r="B224" s="33"/>
       <c r="C224" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8" t="s">
-        <v>763</v>
+        <v>849</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="F224" s="10"/>
-      <c r="G224" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H224" s="15" t="s">
-        <v>764</v>
+      <c r="G224" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="H224" s="30" t="s">
+        <v>851</v>
       </c>
       <c r="I224" s="32" t="s">
-        <v>131</v>
+        <v>547</v>
       </c>
       <c r="J224" s="3"/>
       <c r="K224" s="7"/>
@@ -16498,29 +16533,29 @@
       <c r="T224" s="7"/>
       <c r="U224" s="7"/>
     </row>
-    <row r="225" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A225" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="225" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A225" s="33"/>
+      <c r="B225" s="33"/>
       <c r="C225" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="F225" s="10"/>
-      <c r="G225" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="G225" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H225" s="15" t="s">
-        <v>767</v>
+      <c r="H225" s="87" t="s">
+        <v>847</v>
       </c>
       <c r="I225" s="32" t="s">
-        <v>131</v>
+        <v>848</v>
       </c>
       <c r="J225" s="3"/>
       <c r="K225" s="7"/>
@@ -16535,32 +16570,32 @@
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
     </row>
-    <row r="226" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6" t="s">
-        <v>177</v>
-      </c>
+    <row r="226" spans="1:26" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A226" s="33"/>
+      <c r="B226" s="33"/>
       <c r="C226" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F226" s="10"/>
-      <c r="G226" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G226" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H226" s="15" t="s">
-        <v>768</v>
+      <c r="H226" s="30" t="s">
+        <v>853</v>
       </c>
       <c r="I226" s="32" t="s">
-        <v>131</v>
+        <v>854</v>
       </c>
       <c r="J226" s="3"/>
-      <c r="K226" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="K226" s="7"/>
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
       <c r="N226" s="7"/>
@@ -16571,35 +16606,30 @@
       <c r="S226" s="7"/>
       <c r="T226" s="7"/>
       <c r="U226" s="7"/>
-      <c r="V226" s="7"/>
-      <c r="W226" s="7"/>
-      <c r="X226" s="7"/>
-      <c r="Y226" s="7"/>
-      <c r="Z226" s="7"/>
-    </row>
-    <row r="227" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A227" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F227" s="10"/>
-      <c r="G227" s="8" t="s">
+    </row>
+    <row r="227" spans="1:26" ht="42.75" customHeight="1">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G227" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H227" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="I227" s="32" t="s">
-        <v>131</v>
+      <c r="H227" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="I227" s="31" t="s">
+        <v>835</v>
       </c>
       <c r="J227" s="3"/>
       <c r="K227" s="7"/>
@@ -16614,27 +16644,27 @@
       <c r="T227" s="7"/>
       <c r="U227" s="7"/>
     </row>
-    <row r="228" spans="1:26" ht="14.25" customHeight="1">
+    <row r="228" spans="1:26" ht="42.75" customHeight="1">
       <c r="A228" s="6"/>
       <c r="B228" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="D228" s="8"/>
       <c r="E228" s="8" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="I228" s="32" t="s">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="J228" s="3"/>
       <c r="K228" s="7"/>
@@ -16652,24 +16682,24 @@
     <row r="229" spans="1:26" ht="14.25" customHeight="1">
       <c r="A229" s="6"/>
       <c r="B229" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="D229" s="8"/>
       <c r="E229" s="8" t="s">
-        <v>776</v>
+        <v>81</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H229" s="15" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="I229" s="32" t="s">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="J229" s="3"/>
       <c r="K229" s="7"/>
@@ -16685,26 +16715,26 @@
       <c r="U229" s="7"/>
     </row>
     <row r="230" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A230" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A230" s="6"/>
       <c r="B230" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C230" s="8" t="s">
-        <v>778</v>
+      <c r="C230" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
+      <c r="E230" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="F230" s="10"/>
       <c r="G230" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H230" s="15" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="I230" s="32" t="s">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="J230" s="3"/>
       <c r="K230" s="7"/>
@@ -16720,27 +16750,25 @@
       <c r="U230" s="7"/>
     </row>
     <row r="231" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A231" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A231" s="6"/>
       <c r="B231" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
+      <c r="E231" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="F231" s="10"/>
       <c r="G231" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H231" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="I231" s="32" t="s">
-        <v>131</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="I231" s="32"/>
       <c r="J231" s="3"/>
       <c r="K231" s="7"/>
       <c r="L231" s="7"/>
@@ -16755,26 +16783,26 @@
       <c r="U231" s="7"/>
     </row>
     <row r="232" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A232" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A232" s="6"/>
       <c r="B232" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
+      <c r="E232" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="F232" s="10"/>
       <c r="G232" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H232" s="15" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="I232" s="32" t="s">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="J232" s="3"/>
       <c r="K232" s="7"/>
@@ -16790,26 +16818,26 @@
       <c r="U232" s="7"/>
     </row>
     <row r="233" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A233" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A233" s="6"/>
       <c r="B233" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
+      <c r="E233" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="F233" s="10"/>
       <c r="G233" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H233" s="15" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="I233" s="32" t="s">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="J233" s="3"/>
       <c r="K233" s="7"/>
@@ -16825,14 +16853,12 @@
       <c r="U233" s="7"/>
     </row>
     <row r="234" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A234" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A234" s="6"/>
       <c r="B234" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
@@ -16841,7 +16867,7 @@
         <v>29</v>
       </c>
       <c r="H234" s="15" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="I234" s="32" t="s">
         <v>131</v>
@@ -16860,23 +16886,23 @@
       <c r="U234" s="7"/>
     </row>
     <row r="235" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A235" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A235" s="6"/>
       <c r="B235" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
+      <c r="E235" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="F235" s="10"/>
       <c r="G235" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="I235" s="32" t="s">
         <v>131</v>
@@ -16902,16 +16928,18 @@
         <v>24</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
+      <c r="E236" s="8" t="s">
+        <v>766</v>
+      </c>
       <c r="F236" s="10"/>
       <c r="G236" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H236" s="15" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="I236" s="32" t="s">
         <v>131</v>
@@ -16930,29 +16958,31 @@
       <c r="U236" s="7"/>
     </row>
     <row r="237" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A237" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A237" s="6"/>
       <c r="B237" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>786</v>
+        <v>398</v>
       </c>
       <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
+      <c r="E237" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="F237" s="10"/>
       <c r="G237" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="I237" s="32" t="s">
         <v>131</v>
       </c>
       <c r="J237" s="3"/>
-      <c r="K237" s="7"/>
+      <c r="K237" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
       <c r="N237" s="7"/>
@@ -16963,25 +16993,32 @@
       <c r="S237" s="7"/>
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
+      <c r="V237" s="7"/>
+      <c r="W237" s="7"/>
+      <c r="X237" s="7"/>
+      <c r="Y237" s="7"/>
+      <c r="Z237" s="7"/>
     </row>
     <row r="238" spans="1:26" ht="14.25" customHeight="1">
       <c r="A238" s="6" t="s">
-        <v>327</v>
+        <v>769</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
+      <c r="E238" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="F238" s="10"/>
       <c r="G238" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H238" s="15" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="I238" s="32" t="s">
         <v>131</v>
@@ -17000,23 +17037,23 @@
       <c r="U238" s="7"/>
     </row>
     <row r="239" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A239" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A239" s="6"/>
       <c r="B239" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
+      <c r="E239" s="8" t="s">
+        <v>773</v>
+      </c>
       <c r="F239" s="10"/>
       <c r="G239" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="I239" s="32" t="s">
         <v>131</v>
@@ -17035,23 +17072,23 @@
       <c r="U239" s="7"/>
     </row>
     <row r="240" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A240" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A240" s="6"/>
       <c r="B240" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
+      <c r="E240" s="8" t="s">
+        <v>776</v>
+      </c>
       <c r="F240" s="10"/>
       <c r="G240" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H240" s="15" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I240" s="32" t="s">
         <v>131</v>
@@ -17069,15 +17106,15 @@
       <c r="T240" s="7"/>
       <c r="U240" s="7"/>
     </row>
-    <row r="241" spans="1:26" ht="14.25" customHeight="1">
+    <row r="241" spans="1:21" ht="14.25" customHeight="1">
       <c r="A241" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>790</v>
+      <c r="C241" s="8" t="s">
+        <v>778</v>
       </c>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
@@ -17104,7 +17141,7 @@
       <c r="T241" s="7"/>
       <c r="U241" s="7"/>
     </row>
-    <row r="242" spans="1:26" ht="14.25" customHeight="1">
+    <row r="242" spans="1:21" ht="14.25" customHeight="1">
       <c r="A242" s="6" t="s">
         <v>327</v>
       </c>
@@ -17112,7 +17149,7 @@
         <v>24</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
@@ -17139,7 +17176,7 @@
       <c r="T242" s="7"/>
       <c r="U242" s="7"/>
     </row>
-    <row r="243" spans="1:26" ht="14.25" customHeight="1">
+    <row r="243" spans="1:21" ht="14.25" customHeight="1">
       <c r="A243" s="6" t="s">
         <v>327</v>
       </c>
@@ -17147,7 +17184,7 @@
         <v>24</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
@@ -17174,7 +17211,7 @@
       <c r="T243" s="7"/>
       <c r="U243" s="7"/>
     </row>
-    <row r="244" spans="1:26" ht="14.25" customHeight="1">
+    <row r="244" spans="1:21" ht="14.25" customHeight="1">
       <c r="A244" s="6" t="s">
         <v>327</v>
       </c>
@@ -17182,7 +17219,7 @@
         <v>24</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
@@ -17209,7 +17246,7 @@
       <c r="T244" s="7"/>
       <c r="U244" s="7"/>
     </row>
-    <row r="245" spans="1:26" ht="14.25" customHeight="1">
+    <row r="245" spans="1:21" ht="14.25" customHeight="1">
       <c r="A245" s="6" t="s">
         <v>327</v>
       </c>
@@ -17217,7 +17254,7 @@
         <v>24</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
@@ -17244,7 +17281,7 @@
       <c r="T245" s="7"/>
       <c r="U245" s="7"/>
     </row>
-    <row r="246" spans="1:26" ht="14.25" customHeight="1">
+    <row r="246" spans="1:21" ht="14.25" customHeight="1">
       <c r="A246" s="6" t="s">
         <v>327</v>
       </c>
@@ -17252,7 +17289,7 @@
         <v>24</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
@@ -17279,20 +17316,28 @@
       <c r="T246" s="7"/>
       <c r="U246" s="7"/>
     </row>
-    <row r="247" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A247" s="6"/>
+    <row r="247" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A247" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="B247" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
       <c r="F247" s="10"/>
-      <c r="G247" s="8"/>
-      <c r="H247" s="15"/>
-      <c r="I247" s="32"/>
+      <c r="G247" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="I247" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J247" s="3"/>
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
@@ -17306,26 +17351,28 @@
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
     </row>
-    <row r="248" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A248" s="6"/>
+    <row r="248" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A248" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="B248" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D248" s="8"/>
-      <c r="E248" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="E248" s="8"/>
       <c r="F248" s="10"/>
       <c r="G248" s="8" t="s">
-        <v>798</v>
+        <v>29</v>
       </c>
       <c r="H248" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="I248" s="32"/>
+        <v>779</v>
+      </c>
+      <c r="I248" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J248" s="3"/>
       <c r="K248" s="7"/>
       <c r="L248" s="7"/>
@@ -17339,26 +17386,28 @@
       <c r="T248" s="7"/>
       <c r="U248" s="7"/>
     </row>
-    <row r="249" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A249" s="6"/>
+    <row r="249" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A249" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="B249" s="6" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="D249" s="8"/>
-      <c r="E249" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="E249" s="8"/>
       <c r="F249" s="10"/>
       <c r="G249" s="8" t="s">
-        <v>798</v>
+        <v>29</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="I249" s="32"/>
+        <v>779</v>
+      </c>
+      <c r="I249" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J249" s="3"/>
       <c r="K249" s="7"/>
       <c r="L249" s="7"/>
@@ -17372,26 +17421,28 @@
       <c r="T249" s="7"/>
       <c r="U249" s="7"/>
     </row>
-    <row r="250" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A250" s="6"/>
+    <row r="250" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A250" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="B250" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="D250" s="8"/>
-      <c r="E250" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="E250" s="8"/>
       <c r="F250" s="10"/>
       <c r="G250" s="8" t="s">
-        <v>798</v>
+        <v>29</v>
       </c>
       <c r="H250" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="I250" s="32"/>
+        <v>779</v>
+      </c>
+      <c r="I250" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J250" s="3"/>
       <c r="K250" s="7"/>
       <c r="L250" s="7"/>
@@ -17405,74 +17456,65 @@
       <c r="T250" s="7"/>
       <c r="U250" s="7"/>
     </row>
-    <row r="251" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A251" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="B251" s="34"/>
-      <c r="C251" s="42" t="s">
-        <v>804</v>
-      </c>
-      <c r="D251" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E251" s="43" t="s">
-        <v>805</v>
-      </c>
-      <c r="F251" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G251" s="43" t="s">
+    <row r="251" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A251" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H251" s="44" t="s">
-        <v>806</v>
-      </c>
-      <c r="I251" s="36"/>
-      <c r="J251" s="39"/>
-      <c r="K251" s="39"/>
-      <c r="L251" s="35"/>
-      <c r="M251" s="35"/>
-      <c r="N251" s="35"/>
-      <c r="O251" s="35"/>
-      <c r="P251" s="35"/>
-      <c r="Q251" s="35"/>
-      <c r="R251" s="35"/>
-      <c r="S251" s="35"/>
-      <c r="T251" s="35"/>
-      <c r="U251" s="35"/>
-      <c r="V251" s="40"/>
-      <c r="W251" s="40"/>
-      <c r="X251" s="40"/>
-      <c r="Y251" s="40"/>
-      <c r="Z251" s="40"/>
-    </row>
-    <row r="252" spans="1:26" ht="14.25" customHeight="1">
+      <c r="H251" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="I251" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J251" s="3"/>
+      <c r="K251" s="7"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="7"/>
+      <c r="N251" s="7"/>
+      <c r="O251" s="7"/>
+      <c r="P251" s="7"/>
+      <c r="Q251" s="7"/>
+      <c r="R251" s="7"/>
+      <c r="S251" s="7"/>
+      <c r="T251" s="7"/>
+      <c r="U251" s="7"/>
+    </row>
+    <row r="252" spans="1:21" ht="14.25" customHeight="1">
       <c r="A252" s="6" t="s">
-        <v>807</v>
+        <v>327</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>246</v>
+        <v>790</v>
       </c>
       <c r="D252" s="8"/>
-      <c r="E252" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="E252" s="8"/>
       <c r="F252" s="10"/>
       <c r="G252" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H252" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="I252" s="8"/>
+        <v>779</v>
+      </c>
+      <c r="I252" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J252" s="3"/>
-      <c r="K252" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="K252" s="7"/>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
       <c r="N252" s="7"/>
@@ -17484,16 +17526,28 @@
       <c r="T252" s="7"/>
       <c r="U252" s="7"/>
     </row>
-    <row r="253" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="7"/>
+    <row r="253" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A253" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>791</v>
+      </c>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
       <c r="F253" s="10"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="15"/>
-      <c r="I253" s="32"/>
+      <c r="G253" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="I253" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="J253" s="3"/>
       <c r="K253" s="7"/>
       <c r="L253" s="7"/>
@@ -17507,17 +17561,29 @@
       <c r="T253" s="7"/>
       <c r="U253" s="7"/>
     </row>
-    <row r="254" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="7"/>
+    <row r="254" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A254" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>792</v>
+      </c>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
       <c r="F254" s="10"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="15"/>
-      <c r="I254" s="8"/>
-      <c r="J254" s="7"/>
+      <c r="G254" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="I254" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J254" s="3"/>
       <c r="K254" s="7"/>
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
@@ -17530,17 +17596,29 @@
       <c r="T254" s="7"/>
       <c r="U254" s="7"/>
     </row>
-    <row r="255" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="7"/>
+    <row r="255" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A255" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>793</v>
+      </c>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
       <c r="F255" s="10"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="15"/>
-      <c r="I255" s="8"/>
-      <c r="J255" s="7"/>
+      <c r="G255" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H255" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="I255" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J255" s="3"/>
       <c r="K255" s="7"/>
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
@@ -17553,17 +17631,29 @@
       <c r="T255" s="7"/>
       <c r="U255" s="7"/>
     </row>
-    <row r="256" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="7"/>
+    <row r="256" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A256" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>794</v>
+      </c>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
       <c r="F256" s="10"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="15"/>
-      <c r="I256" s="8"/>
-      <c r="J256" s="7"/>
+      <c r="G256" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H256" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="I256" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J256" s="3"/>
       <c r="K256" s="7"/>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
@@ -17576,17 +17666,29 @@
       <c r="T256" s="7"/>
       <c r="U256" s="7"/>
     </row>
-    <row r="257" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="7"/>
+    <row r="257" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A257" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>795</v>
+      </c>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
       <c r="F257" s="10"/>
-      <c r="G257" s="8"/>
-      <c r="H257" s="15"/>
-      <c r="I257" s="8"/>
-      <c r="J257" s="7"/>
+      <c r="G257" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="I257" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J257" s="3"/>
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
@@ -17599,17 +17701,21 @@
       <c r="T257" s="7"/>
       <c r="U257" s="7"/>
     </row>
-    <row r="258" spans="1:21" ht="14.25" customHeight="1">
+    <row r="258" spans="1:26" ht="14.25" customHeight="1">
       <c r="A258" s="6"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="7"/>
+      <c r="B258" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>796</v>
+      </c>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
       <c r="F258" s="10"/>
       <c r="G258" s="8"/>
       <c r="H258" s="15"/>
-      <c r="I258" s="8"/>
-      <c r="J258" s="7"/>
+      <c r="I258" s="32"/>
+      <c r="J258" s="3"/>
       <c r="K258" s="7"/>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
@@ -17622,17 +17728,27 @@
       <c r="T258" s="7"/>
       <c r="U258" s="7"/>
     </row>
-    <row r="259" spans="1:21" ht="14.25" customHeight="1">
+    <row r="259" spans="1:26" ht="14.25" customHeight="1">
       <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="7"/>
+      <c r="B259" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>797</v>
+      </c>
       <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
+      <c r="E259" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="F259" s="10"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="15"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="7"/>
+      <c r="G259" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="H259" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="I259" s="32"/>
+      <c r="J259" s="3"/>
       <c r="K259" s="7"/>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
@@ -17645,17 +17761,27 @@
       <c r="T259" s="7"/>
       <c r="U259" s="7"/>
     </row>
-    <row r="260" spans="1:21" ht="14.25" customHeight="1">
+    <row r="260" spans="1:26" ht="14.25" customHeight="1">
       <c r="A260" s="6"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="7"/>
+      <c r="B260" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>800</v>
+      </c>
       <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
+      <c r="E260" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="F260" s="10"/>
-      <c r="G260" s="8"/>
-      <c r="H260" s="15"/>
-      <c r="I260" s="8"/>
-      <c r="J260" s="7"/>
+      <c r="G260" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="H260" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="I260" s="32"/>
+      <c r="J260" s="3"/>
       <c r="K260" s="7"/>
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
@@ -17668,17 +17794,27 @@
       <c r="T260" s="7"/>
       <c r="U260" s="7"/>
     </row>
-    <row r="261" spans="1:21" ht="14.25" customHeight="1">
+    <row r="261" spans="1:26" ht="14.25" customHeight="1">
       <c r="A261" s="6"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="7"/>
+      <c r="B261" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>802</v>
+      </c>
       <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
+      <c r="E261" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="F261" s="10"/>
-      <c r="G261" s="8"/>
-      <c r="H261" s="15"/>
-      <c r="I261" s="8"/>
-      <c r="J261" s="7"/>
+      <c r="G261" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="H261" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="I261" s="32"/>
+      <c r="J261" s="3"/>
       <c r="K261" s="7"/>
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
@@ -17691,41 +17827,74 @@
       <c r="T261" s="7"/>
       <c r="U261" s="7"/>
     </row>
-    <row r="262" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="8"/>
-      <c r="H262" s="15"/>
-      <c r="I262" s="8"/>
-      <c r="J262" s="7"/>
-      <c r="K262" s="7"/>
-      <c r="L262" s="7"/>
-      <c r="M262" s="7"/>
-      <c r="N262" s="7"/>
-      <c r="O262" s="7"/>
-      <c r="P262" s="7"/>
-      <c r="Q262" s="7"/>
-      <c r="R262" s="7"/>
-      <c r="S262" s="7"/>
-      <c r="T262" s="7"/>
-      <c r="U262" s="7"/>
-    </row>
-    <row r="263" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A263" s="6"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="7"/>
+    <row r="262" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A262" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B262" s="34"/>
+      <c r="C262" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="D262" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E262" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G262" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H262" s="44" t="s">
+        <v>806</v>
+      </c>
+      <c r="I262" s="36"/>
+      <c r="J262" s="39"/>
+      <c r="K262" s="39"/>
+      <c r="L262" s="35"/>
+      <c r="M262" s="35"/>
+      <c r="N262" s="35"/>
+      <c r="O262" s="35"/>
+      <c r="P262" s="35"/>
+      <c r="Q262" s="35"/>
+      <c r="R262" s="35"/>
+      <c r="S262" s="35"/>
+      <c r="T262" s="35"/>
+      <c r="U262" s="35"/>
+      <c r="V262" s="40"/>
+      <c r="W262" s="40"/>
+      <c r="X262" s="40"/>
+      <c r="Y262" s="40"/>
+      <c r="Z262" s="40"/>
+    </row>
+    <row r="263" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A263" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
+      <c r="E263" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="F263" s="10"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="15"/>
+      <c r="G263" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H263" s="15" t="s">
+        <v>808</v>
+      </c>
       <c r="I263" s="8"/>
-      <c r="J263" s="7"/>
-      <c r="K263" s="7"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
       <c r="N263" s="7"/>
@@ -17737,17 +17906,17 @@
       <c r="T263" s="7"/>
       <c r="U263" s="7"/>
     </row>
-    <row r="264" spans="1:21" ht="14.25" customHeight="1">
+    <row r="264" spans="1:26" ht="14.25" customHeight="1">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="7"/>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
       <c r="F264" s="10"/>
-      <c r="G264" s="9"/>
-      <c r="H264" s="7"/>
-      <c r="I264" s="8"/>
-      <c r="J264" s="7"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="15"/>
+      <c r="I264" s="32"/>
+      <c r="J264" s="3"/>
       <c r="K264" s="7"/>
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
@@ -17760,7 +17929,7 @@
       <c r="T264" s="7"/>
       <c r="U264" s="7"/>
     </row>
-    <row r="265" spans="1:21" ht="14.4">
+    <row r="265" spans="1:26" ht="14.25" customHeight="1">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -17768,7 +17937,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="10"/>
       <c r="G265" s="8"/>
-      <c r="H265" s="7"/>
+      <c r="H265" s="15"/>
       <c r="I265" s="8"/>
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
@@ -17783,73 +17952,293 @@
       <c r="T265" s="7"/>
       <c r="U265" s="7"/>
     </row>
-    <row r="266" spans="1:21" ht="14.4">
-      <c r="B266" s="7"/>
-    </row>
-    <row r="267" spans="1:21" ht="14.4">
-      <c r="B267" s="7"/>
-    </row>
-    <row r="268" spans="1:21" ht="14.4">
-      <c r="B268" s="7"/>
-    </row>
-    <row r="269" spans="1:21" ht="14.4">
-      <c r="B269" s="7"/>
-    </row>
-    <row r="270" spans="1:21" ht="14.4">
-      <c r="B270" s="7"/>
-    </row>
-    <row r="271" spans="1:21" ht="14.4">
-      <c r="B271" s="7"/>
-    </row>
-    <row r="272" spans="1:21" ht="14.4">
-      <c r="B272" s="7"/>
-    </row>
-    <row r="273" spans="2:2" ht="14.4">
-      <c r="B273" s="7"/>
-    </row>
-    <row r="274" spans="2:2" ht="14.4">
-      <c r="B274" s="7"/>
-    </row>
-    <row r="275" spans="2:2" ht="14.4">
-      <c r="B275" s="7"/>
-    </row>
-    <row r="276" spans="2:2" ht="14.4">
-      <c r="B276" s="7"/>
-    </row>
-    <row r="277" spans="2:2" ht="14.4">
+    <row r="266" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="8"/>
+      <c r="H266" s="15"/>
+      <c r="I266" s="8"/>
+      <c r="J266" s="7"/>
+      <c r="K266" s="7"/>
+      <c r="L266" s="7"/>
+      <c r="M266" s="7"/>
+      <c r="N266" s="7"/>
+      <c r="O266" s="7"/>
+      <c r="P266" s="7"/>
+      <c r="Q266" s="7"/>
+      <c r="R266" s="7"/>
+      <c r="S266" s="7"/>
+      <c r="T266" s="7"/>
+      <c r="U266" s="7"/>
+    </row>
+    <row r="267" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A267" s="6"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="15"/>
+      <c r="I267" s="8"/>
+      <c r="J267" s="7"/>
+      <c r="K267" s="7"/>
+      <c r="L267" s="7"/>
+      <c r="M267" s="7"/>
+      <c r="N267" s="7"/>
+      <c r="O267" s="7"/>
+      <c r="P267" s="7"/>
+      <c r="Q267" s="7"/>
+      <c r="R267" s="7"/>
+      <c r="S267" s="7"/>
+      <c r="T267" s="7"/>
+      <c r="U267" s="7"/>
+    </row>
+    <row r="268" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A268" s="6"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="8"/>
+      <c r="H268" s="15"/>
+      <c r="I268" s="8"/>
+      <c r="J268" s="7"/>
+      <c r="K268" s="7"/>
+      <c r="L268" s="7"/>
+      <c r="M268" s="7"/>
+      <c r="N268" s="7"/>
+      <c r="O268" s="7"/>
+      <c r="P268" s="7"/>
+      <c r="Q268" s="7"/>
+      <c r="R268" s="7"/>
+      <c r="S268" s="7"/>
+      <c r="T268" s="7"/>
+      <c r="U268" s="7"/>
+    </row>
+    <row r="269" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A269" s="6"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="8"/>
+      <c r="H269" s="15"/>
+      <c r="I269" s="8"/>
+      <c r="J269" s="7"/>
+      <c r="K269" s="7"/>
+      <c r="L269" s="7"/>
+      <c r="M269" s="7"/>
+      <c r="N269" s="7"/>
+      <c r="O269" s="7"/>
+      <c r="P269" s="7"/>
+      <c r="Q269" s="7"/>
+      <c r="R269" s="7"/>
+      <c r="S269" s="7"/>
+      <c r="T269" s="7"/>
+      <c r="U269" s="7"/>
+    </row>
+    <row r="270" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A270" s="6"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="8"/>
+      <c r="H270" s="15"/>
+      <c r="I270" s="8"/>
+      <c r="J270" s="7"/>
+      <c r="K270" s="7"/>
+      <c r="L270" s="7"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="7"/>
+      <c r="O270" s="7"/>
+      <c r="P270" s="7"/>
+      <c r="Q270" s="7"/>
+      <c r="R270" s="7"/>
+      <c r="S270" s="7"/>
+      <c r="T270" s="7"/>
+      <c r="U270" s="7"/>
+    </row>
+    <row r="271" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A271" s="6"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="8"/>
+      <c r="H271" s="15"/>
+      <c r="I271" s="8"/>
+      <c r="J271" s="7"/>
+      <c r="K271" s="7"/>
+      <c r="L271" s="7"/>
+      <c r="M271" s="7"/>
+      <c r="N271" s="7"/>
+      <c r="O271" s="7"/>
+      <c r="P271" s="7"/>
+      <c r="Q271" s="7"/>
+      <c r="R271" s="7"/>
+      <c r="S271" s="7"/>
+      <c r="T271" s="7"/>
+      <c r="U271" s="7"/>
+    </row>
+    <row r="272" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A272" s="6"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="8"/>
+      <c r="H272" s="15"/>
+      <c r="I272" s="8"/>
+      <c r="J272" s="7"/>
+      <c r="K272" s="7"/>
+      <c r="L272" s="7"/>
+      <c r="M272" s="7"/>
+      <c r="N272" s="7"/>
+      <c r="O272" s="7"/>
+      <c r="P272" s="7"/>
+      <c r="Q272" s="7"/>
+      <c r="R272" s="7"/>
+      <c r="S272" s="7"/>
+      <c r="T272" s="7"/>
+      <c r="U272" s="7"/>
+    </row>
+    <row r="273" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A273" s="6"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="8"/>
+      <c r="H273" s="15"/>
+      <c r="I273" s="8"/>
+      <c r="J273" s="7"/>
+      <c r="K273" s="7"/>
+      <c r="L273" s="7"/>
+      <c r="M273" s="7"/>
+      <c r="N273" s="7"/>
+      <c r="O273" s="7"/>
+      <c r="P273" s="7"/>
+      <c r="Q273" s="7"/>
+      <c r="R273" s="7"/>
+      <c r="S273" s="7"/>
+      <c r="T273" s="7"/>
+      <c r="U273" s="7"/>
+    </row>
+    <row r="274" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A274" s="6"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="8"/>
+      <c r="H274" s="15"/>
+      <c r="I274" s="8"/>
+      <c r="J274" s="7"/>
+      <c r="K274" s="7"/>
+      <c r="L274" s="7"/>
+      <c r="M274" s="7"/>
+      <c r="N274" s="7"/>
+      <c r="O274" s="7"/>
+      <c r="P274" s="7"/>
+      <c r="Q274" s="7"/>
+      <c r="R274" s="7"/>
+      <c r="S274" s="7"/>
+      <c r="T274" s="7"/>
+      <c r="U274" s="7"/>
+    </row>
+    <row r="275" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A275" s="6"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="7"/>
+      <c r="I275" s="8"/>
+      <c r="J275" s="7"/>
+      <c r="K275" s="7"/>
+      <c r="L275" s="7"/>
+      <c r="M275" s="7"/>
+      <c r="N275" s="7"/>
+      <c r="O275" s="7"/>
+      <c r="P275" s="7"/>
+      <c r="Q275" s="7"/>
+      <c r="R275" s="7"/>
+      <c r="S275" s="7"/>
+      <c r="T275" s="7"/>
+      <c r="U275" s="7"/>
+    </row>
+    <row r="276" spans="1:21" ht="14.4">
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="8"/>
+      <c r="H276" s="7"/>
+      <c r="I276" s="8"/>
+      <c r="J276" s="7"/>
+      <c r="K276" s="7"/>
+      <c r="L276" s="7"/>
+      <c r="M276" s="7"/>
+      <c r="N276" s="7"/>
+      <c r="O276" s="7"/>
+      <c r="P276" s="7"/>
+      <c r="Q276" s="7"/>
+      <c r="R276" s="7"/>
+      <c r="S276" s="7"/>
+      <c r="T276" s="7"/>
+      <c r="U276" s="7"/>
+    </row>
+    <row r="277" spans="1:21" ht="14.4">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" ht="14.4">
+    <row r="278" spans="1:21" ht="14.4">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" ht="14.4">
+    <row r="279" spans="1:21" ht="14.4">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" ht="14.4">
+    <row r="280" spans="1:21" ht="14.4">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" ht="14.4">
+    <row r="281" spans="1:21" ht="14.4">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" ht="14.4">
+    <row r="282" spans="1:21" ht="14.4">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" ht="14.4">
+    <row r="283" spans="1:21" ht="14.4">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" ht="14.4">
+    <row r="284" spans="1:21" ht="14.4">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" ht="14.4">
+    <row r="285" spans="1:21" ht="14.4">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" ht="14.4">
+    <row r="286" spans="1:21" ht="14.4">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" ht="14.4">
+    <row r="287" spans="1:21" ht="14.4">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" ht="14.4">
+    <row r="288" spans="1:21" ht="14.4">
       <c r="B288" s="7"/>
     </row>
     <row r="289" spans="2:2" ht="14.4">
@@ -20095,6 +20484,39 @@
     </row>
     <row r="1036" spans="2:2" ht="14.4">
       <c r="B1036" s="7"/>
+    </row>
+    <row r="1037" spans="2:2" ht="14.4">
+      <c r="B1037" s="7"/>
+    </row>
+    <row r="1038" spans="2:2" ht="14.4">
+      <c r="B1038" s="7"/>
+    </row>
+    <row r="1039" spans="2:2" ht="14.4">
+      <c r="B1039" s="7"/>
+    </row>
+    <row r="1040" spans="2:2" ht="14.4">
+      <c r="B1040" s="7"/>
+    </row>
+    <row r="1041" spans="2:2" ht="14.4">
+      <c r="B1041" s="7"/>
+    </row>
+    <row r="1042" spans="2:2" ht="14.4">
+      <c r="B1042" s="7"/>
+    </row>
+    <row r="1043" spans="2:2" ht="14.4">
+      <c r="B1043" s="7"/>
+    </row>
+    <row r="1044" spans="2:2" ht="14.4">
+      <c r="B1044" s="7"/>
+    </row>
+    <row r="1045" spans="2:2" ht="14.4">
+      <c r="B1045" s="7"/>
+    </row>
+    <row r="1046" spans="2:2" ht="14.4">
+      <c r="B1046" s="7"/>
+    </row>
+    <row r="1047" spans="2:2" ht="14.4">
+      <c r="B1047" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20109,7 +20531,7 @@
   </sheetPr>
   <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
@@ -20326,7 +20748,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="28.8">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
@@ -22145,7 +22567,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E827C-4FF5-4A99-9880-86C802BBDEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9706D9-25A4-49D1-8C58-4C901B2D46E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="938">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2853,9 +2853,6 @@
     <t>IDU INDEX of representative IDU on rightt bank of reach looking downstream</t>
   </si>
   <si>
-    <t>12/15/20 Changed BANK_L_IDU and BANK_R_IDU from IDU IDs to IDU indices. Added DIRECTION.</t>
-  </si>
-  <si>
     <t>DIRECTION</t>
   </si>
   <si>
@@ -2863,6 +2860,57 @@
   </si>
   <si>
     <t>net direction of flow in reach, from upstream end to downstream end</t>
+  </si>
+  <si>
+    <t>temperature of inflow from springs</t>
+  </si>
+  <si>
+    <t>IN_RUNOF_C</t>
+  </si>
+  <si>
+    <t>temperature of IN_RUNOFF</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>"Exotic" is a species group in APs.xml</t>
+  </si>
+  <si>
+    <t>FishModel</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>"Native" is a species group in APs.xml</t>
+  </si>
+  <si>
+    <t>area of reservoir water surface, updated daily</t>
+  </si>
+  <si>
+    <t>RES_H2O</t>
+  </si>
+  <si>
+    <t>volume of water in the reservoir, updated daily</t>
+  </si>
+  <si>
+    <t>RES_TEMP</t>
+  </si>
+  <si>
+    <t>temperature of water in the reservoir, updated daily</t>
+  </si>
+  <si>
+    <t>RESAREA_HA</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>SPRINGTEMP</t>
+  </si>
+  <si>
+    <t>12/16/20 Changed BANK_L_IDU and BANK_R_IDU from IDU IDs to IDU indices. Added DIRECTION, IN_RUNOF_C, SPRINGTEMP, RESAREA_HA, RES_H2O, RES_TEMP. Removed HUC_5, HUC6, and DS_Res as obsolete.</t>
   </si>
 </sst>
 </file>
@@ -8830,7 +8878,7 @@
   <dimension ref="A1:Z1047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
@@ -20550,11 +20598,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -20631,7 +20679,7 @@
     </row>
     <row r="3" spans="1:26" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="68" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="65"/>
@@ -20995,7 +21043,7 @@
       <c r="B18" s="22"/>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F18" s="7">
         <v>90</v>
@@ -21004,13 +21052,13 @@
         <v>124</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.4">
@@ -21132,7 +21180,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>926</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>57</v>
@@ -21140,8 +21191,13 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>924</v>
+      </c>
       <c r="H23" s="7"/>
+      <c r="K23" s="25" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="24" spans="1:26" ht="14.4">
       <c r="A24" s="17" t="s">
@@ -21404,25 +21460,28 @@
         <v>874</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4">
-      <c r="A36" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="K36" s="3" t="s">
-        <v>81</v>
+    <row r="36" spans="1:11" s="23" customFormat="1" ht="14.4">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.4">
@@ -21432,23 +21491,18 @@
       <c r="B37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>84</v>
+      <c r="G37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="K37" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4">
@@ -21458,20 +21512,23 @@
       <c r="B38" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F38" s="7">
         <v>0</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.4">
@@ -21482,19 +21539,19 @@
         <v>25</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F39" s="7">
         <v>0</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4">
@@ -21505,19 +21562,19 @@
         <v>25</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="7">
         <v>0</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.4">
@@ -21527,27 +21584,20 @@
       <c r="B41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F41" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.4">
@@ -21557,30 +21607,44 @@
       <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>49</v>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F42" s="7">
-        <v>6699</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="14.4">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="7">
-        <v>0</v>
+        <v>6699</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -21592,19 +21656,24 @@
       <c r="B44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>44</v>
+      <c r="D44" t="s">
+        <v>926</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" s="7">
         <v>0</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>927</v>
+      </c>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" ht="57.6">
+      <c r="K44" s="25" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4">
       <c r="A45" s="17" t="s">
         <v>24</v>
       </c>
@@ -21612,27 +21681,18 @@
         <v>25</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="7">
         <v>0</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.4">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" ht="57.6">
       <c r="A46" s="17" t="s">
         <v>24</v>
       </c>
@@ -21640,46 +21700,44 @@
         <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4">
+      <c r="A47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>6758</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" s="23" customFormat="1" ht="14.4">
-      <c r="A47" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="59" t="s">
-        <v>818</v>
-      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:11" s="23" customFormat="1" ht="14.4">
       <c r="A48" s="22" t="s">
@@ -21689,10 +21747,10 @@
         <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>817</v>
+        <v>819</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>816</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
@@ -21708,33 +21766,40 @@
         <v>28</v>
       </c>
       <c r="K48" s="59" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="23" customFormat="1" ht="14.4">
+      <c r="A49" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="59" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="14.4">
-      <c r="A49" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" ht="14.4">
+    <row r="50" spans="1:24" ht="14.4">
       <c r="A50" s="17" t="s">
         <v>24</v>
       </c>
@@ -21742,67 +21807,70 @@
         <v>25</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="K50" s="19" t="s">
+      <c r="G50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="14.4">
+      <c r="A51" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="K51" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="23" customFormat="1" ht="14.4">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="E51" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" s="23" customFormat="1" ht="14.4">
+    <row r="52" spans="1:24" s="23" customFormat="1" ht="14.4">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
-      <c r="E52" s="60" t="s">
-        <v>855</v>
-      </c>
-      <c r="F52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G52" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" s="23" customFormat="1" ht="14.4">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="23" customFormat="1" ht="14.4">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
-      <c r="E53" s="7" t="s">
-        <v>854</v>
+      <c r="E53" s="60" t="s">
+        <v>855</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
@@ -21815,155 +21883,140 @@
         <v>27</v>
       </c>
       <c r="K53" s="25" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" s="23" customFormat="1" ht="14.4">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="E54" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="25" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="63" customFormat="1" ht="14.4">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="E54" s="64" t="s">
+    <row r="55" spans="1:24" s="63" customFormat="1" ht="14.4">
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="E55" s="64" t="s">
         <v>866</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64" t="s">
+      <c r="F55" s="64"/>
+      <c r="G55" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H54" s="64" t="s">
+      <c r="H55" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="I54" s="63" t="s">
+      <c r="I55" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="63" t="s">
+      <c r="J55" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="62" t="s">
+      <c r="K55" s="62" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="14.4">
-      <c r="A55" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="26" t="s">
+    <row r="56" spans="1:24" ht="14.4">
+      <c r="A56" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E56" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="20" t="s">
+      <c r="F56" s="7"/>
+      <c r="G56" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H56" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I56" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J56" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="19" t="s">
+      <c r="K56" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="43.2">
-      <c r="A56" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="20">
-        <v>1</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" s="27" customFormat="1" ht="86.4">
-      <c r="A57" s="91"/>
-      <c r="B57" s="91"/>
-      <c r="E57" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="27">
-        <v>1</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I57" s="21" t="s">
+    <row r="57" spans="1:24" s="23" customFormat="1" ht="14.4">
+      <c r="A57" s="22"/>
+      <c r="B57" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="I57" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J57" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K57" s="90" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="7" t="s">
-        <v>827</v>
+      <c r="J57" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" s="23" customFormat="1" ht="14.4">
+      <c r="A58" s="22"/>
+      <c r="B58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="23" t="s">
+        <v>930</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="I58" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58" s="80" t="s">
+      <c r="G58" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="59" t="s">
-        <v>828</v>
-      </c>
-      <c r="L58" s="80" t="s">
-        <v>829</v>
-      </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-    </row>
-    <row r="59" spans="1:26" ht="14.4">
+      <c r="K58" s="25" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="43.2">
       <c r="A59" s="17" t="s">
         <v>24</v>
       </c>
@@ -21971,614 +22024,759 @@
         <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:26" ht="14.4">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="20">
+        <v>1</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="27" customFormat="1" ht="86.4">
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="E60" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="27">
+        <v>1</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="90" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" s="27" customFormat="1" ht="28.8">
+      <c r="A61" s="91"/>
+      <c r="B61" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="21"/>
+      <c r="K61" s="90" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" s="23" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="7" t="s">
+      <c r="H62" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="I62" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-    </row>
-    <row r="61" spans="1:26" ht="14.4">
-      <c r="A61" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1739.927555</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" s="23" customFormat="1" ht="14.4">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="E62" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J62" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K62" s="23" t="s">
-        <v>872</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="14.4">
+      <c r="K62" s="59" t="s">
+        <v>828</v>
+      </c>
+      <c r="L62" s="80" t="s">
+        <v>829</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+    </row>
+    <row r="63" spans="1:24" ht="14.4">
       <c r="A63" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E63" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F63" s="7">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" ht="14.4">
-      <c r="A64" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="7">
-        <v>553659</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:24" s="23" customFormat="1" ht="14.4">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="14.4">
-      <c r="A65" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>25</v>
+    <row r="65" spans="1:26" ht="14.4">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F65" s="7">
-        <v>4891208</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:12" ht="14.4">
+        <v>0.6</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+    </row>
+    <row r="66" spans="1:26" ht="14.4">
       <c r="A66" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F66" s="7">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>1739.927555</v>
+      </c>
+      <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="23" customFormat="1" ht="14.4">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="E67" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J67" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="14.4">
-      <c r="A67" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="7">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="23" customFormat="1" ht="14.4">
-      <c r="A68" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>75</v>
-      </c>
+      <c r="K67" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="23" customFormat="1" ht="14.4">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
       <c r="E68" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="F68" s="7">
-        <v>5</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="L68" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="14.4">
+      <c r="I68" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="14.4">
       <c r="A69" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>142</v>
+      <c r="C69" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F69" s="7">
-        <v>0</v>
-      </c>
-      <c r="G69" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="H69" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="14.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="14.4">
       <c r="A70" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="17"/>
+      <c r="B70" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E70" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F70" s="7">
-        <v>6772</v>
+        <v>553659</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:12" s="23" customFormat="1" ht="14.4">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
+    <row r="71" spans="1:26" ht="14.4">
+      <c r="A71" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:26" ht="14.4">
+      <c r="A72" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="14.4">
+      <c r="A73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" s="23" customFormat="1" ht="14.4">
+      <c r="A74" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="F74" s="7">
+        <v>5</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="14.4">
+      <c r="A75" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="14.4">
+      <c r="A76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="E76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="7">
+        <v>6772</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:26" s="23" customFormat="1" ht="14.4">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="E77" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F77" s="7">
         <v>1</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="I71" s="25" t="s">
+      <c r="I77" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J71" s="25" t="s">
+      <c r="J77" s="25" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="23" customFormat="1" ht="14.4">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="E72" s="7" t="s">
+    <row r="78" spans="1:26" s="23" customFormat="1" ht="14.4">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="E78" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F78" s="7">
         <v>10</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="I72" s="25" t="s">
+      <c r="I78" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J72" s="25" t="s">
+      <c r="J78" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K72" s="25" t="s">
+      <c r="K78" s="25" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="23" customFormat="1" ht="14.4">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="D73" s="59" t="s">
+    <row r="79" spans="1:26" s="23" customFormat="1" ht="14.4">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="D79" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="60" t="s">
+      <c r="F79" s="7"/>
+      <c r="G79" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I73" s="25" t="s">
+      <c r="I79" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J73" s="25" t="s">
+      <c r="J79" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="25" t="s">
+      <c r="K79" s="25" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="23" customFormat="1" ht="14.4">
-      <c r="A74" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="D74" s="59" t="s">
+    <row r="80" spans="1:26" s="23" customFormat="1" ht="14.4">
+      <c r="A80" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="D80" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="60" t="s">
+      <c r="F80" s="7"/>
+      <c r="G80" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I74" s="25" t="s">
+      <c r="I80" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J74" s="25" t="s">
+      <c r="J80" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="25" t="s">
+      <c r="K80" s="25" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.4">
-      <c r="A75" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="18" t="s">
+    <row r="81" spans="1:11" ht="14.4">
+      <c r="A81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D81" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E81" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F81" s="20">
         <v>1500</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G81" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H75" s="20" t="s">
+      <c r="H81" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I75" s="19" t="s">
+      <c r="I81" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J75" s="19" t="s">
+      <c r="J81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K75" s="19" t="s">
+      <c r="K81" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.4">
-      <c r="A76" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="18" t="s">
+    <row r="82" spans="1:11" ht="14.4">
+      <c r="A82" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D82" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E82" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F82" s="19">
         <v>1500</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G82" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H82" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I76" s="19" t="s">
+      <c r="I82" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J82" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="K82" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.4">
-      <c r="A77" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="18" t="s">
+    <row r="83" spans="1:11" ht="14.4">
+      <c r="A83" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D83" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E83" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F83" s="19">
         <v>1500</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G83" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H83" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I77" s="19" t="s">
+      <c r="I83" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="J83" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K77" s="19" t="s">
+      <c r="K83" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.4">
-      <c r="A78" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="18" t="s">
+    <row r="84" spans="1:11" ht="14.4">
+      <c r="A84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D84" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E84" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F84" s="19">
         <v>1000</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G84" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H78" s="19" t="s">
+      <c r="H84" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I78" s="19" t="s">
+      <c r="I84" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J78" s="19" t="s">
+      <c r="J84" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K78" s="19" t="s">
+      <c r="K84" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.4">
-      <c r="A79" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="18" t="s">
+    <row r="85" spans="1:11" ht="14.4">
+      <c r="A85" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D85" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E85" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F85" s="19">
         <v>1000</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G85" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H85" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I79" s="19" t="s">
+      <c r="I85" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J79" s="19" t="s">
+      <c r="J85" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K79" s="19" t="s">
+      <c r="K85" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.4">
-      <c r="A80" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="18" t="s">
+    <row r="86" spans="1:11" ht="14.4">
+      <c r="A86" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D86" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E86" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F86" s="19">
         <v>1000</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G86" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H86" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I80" s="19" t="s">
+      <c r="I86" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J80" s="19" t="s">
+      <c r="J86" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K80" s="19" t="s">
+      <c r="K86" s="19" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B55">
+  <conditionalFormatting sqref="B56:B58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B55))&gt;0</formula>
+      <formula>LEN(TRIM(B56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9706D9-25A4-49D1-8C58-4C901B2D46E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2548E4B-8C32-4EED-8590-031825A60714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Conventions" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E945031-7FD9-4066-BD48-668DFB9A7537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E9B8F-D9CD-46F6-94B6-EAF871F96510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2904,7 +2904,7 @@
     <t>updated daily: amount added so far this year by the model to the volume of water in the reach by to avoid math problems (e.g. to prevent reaches from going dry)</t>
   </si>
   <si>
-    <t>updated daily: the amount added so far this year to the reaach discharge by the model to ensure that the discharge is &gt;= NOMINAL_LOW_FLOW_CMS</t>
+    <t>updated daily: the amount added so far this year to the reach discharge by the model to ensure that the discharge is &gt;= NOMINAL_LOW_FLOW_CMS</t>
   </si>
 </sst>
 </file>
@@ -20585,7 +20585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E9B8F-D9CD-46F6-94B6-EAF871F96510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8FFFD8-F074-45BA-A229-807BDBDE7C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="940">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2898,13 +2898,25 @@
     <t>ADDED_VOL</t>
   </si>
   <si>
-    <t>1/1/21 Added ADDED_Q and ADDEDVOL. Removed AVEGAGECFS, HUC_4, HUC_5, HUC6, NODE_ID, and SUB_AREA_C as obsolete.</t>
-  </si>
-  <si>
     <t>updated daily: amount added so far this year by the model to the volume of water in the reach by to avoid math problems (e.g. to prevent reaches from going dry)</t>
   </si>
   <si>
     <t>updated daily: the amount added so far this year to the reach discharge by the model to ensure that the discharge is &gt;= NOMINAL_LOW_FLOW_CMS</t>
+  </si>
+  <si>
+    <t>ADDEDVOL_C</t>
+  </si>
+  <si>
+    <t>temperature of ADDED_VOL</t>
+  </si>
+  <si>
+    <t>OUTIRRIG_C</t>
+  </si>
+  <si>
+    <t>temperature of daily withdrawal from reach for irrigation</t>
+  </si>
+  <si>
+    <t>1/5/21, 1/5 Added ADDED_Q,  ADDED_VOL, ADDEDVOL_C, and OUTIRRIG_C. Removed AVEGAGECFS, HUC_4, HUC_5, HUC6, NODE_ID, and SUB_AREA_C as obsolete.</t>
   </si>
 </sst>
 </file>
@@ -20581,11 +20593,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -20632,7 +20644,7 @@
     </row>
     <row r="2" spans="1:26" s="95" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="91" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="93"/>
@@ -20736,7 +20748,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="25"/>
@@ -20774,7 +20786,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="25"/>
@@ -20790,59 +20802,76 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:26" s="87" customFormat="1" ht="14.4">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="D6" s="88" t="s">
+    <row r="6" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="76" t="s">
+        <v>935</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>936</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" s="87" customFormat="1" ht="14.4">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="D7" s="88" t="s">
         <v>902</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E7" s="88" t="s">
         <v>853</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F7" s="88">
         <v>5.2</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88" t="s">
+      <c r="G7" s="88"/>
+      <c r="H7" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J7" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K7" s="87" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" s="21" customFormat="1" ht="28.8">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22"/>
-      <c r="E7" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>903</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="84" t="s">
-        <v>904</v>
-      </c>
-      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:26" s="21" customFormat="1" ht="28.8">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
       <c r="E8" s="21" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>47</v>
@@ -20854,25 +20883,30 @@
         <v>30</v>
       </c>
       <c r="K8" s="84" t="s">
+        <v>904</v>
+      </c>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:26" s="21" customFormat="1" ht="28.8">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="E9" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="84" t="s">
         <v>905</v>
       </c>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.4">
-      <c r="A9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3220</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="15" t="s">
@@ -20881,28 +20915,14 @@
       <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7">
-        <v>23773405</v>
+        <v>3220</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="15" t="s">
@@ -20911,14 +20931,28 @@
       <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7">
-        <v>23773403</v>
+        <v>23773405</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="15" t="s">
@@ -20928,10 +20962,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="7">
-        <v>23773407</v>
+        <v>23773403</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -20944,10 +20978,10 @@
         <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>23773407</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -20959,11 +20993,8 @@
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -20982,7 +21013,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -20998,10 +21029,10 @@
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -21009,121 +21040,108 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="D17" s="3"/>
+    <row r="17" spans="1:26" ht="14.4">
+      <c r="A17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>849</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
-        <v>906</v>
+        <v>849</v>
       </c>
       <c r="F18" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F19" s="7">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K19" s="21" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="14.4">
-      <c r="A19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7">
-        <v>6772</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="14.4">
       <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>6772</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="14.4">
       <c r="A21" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>47</v>
@@ -21131,84 +21149,102 @@
       <c r="H21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="14.4">
+      <c r="A22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7">
+        <v>7</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7" t="s">
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>4.2</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.4">
-      <c r="A23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>914</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>912</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="K23" s="23" t="s">
-        <v>913</v>
-      </c>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="14.4">
       <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>914</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7">
-        <v>6713</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>912</v>
+      </c>
       <c r="H24" s="7"/>
+      <c r="K24" s="23" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="25" spans="1:26" ht="14.4">
       <c r="A25" s="15" t="s">
@@ -21216,9 +21252,11 @@
       </c>
       <c r="B25" s="15"/>
       <c r="E25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="F25" s="7">
+        <v>6713</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
@@ -21227,174 +21265,162 @@
         <v>23</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="E26" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="E26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="25.2" customHeight="1">
+    <row r="27" spans="1:26" ht="14.4">
       <c r="A27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="15"/>
+      <c r="E27" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" ht="25.2" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>34</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="25" customFormat="1" ht="72">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="s">
+    <row r="29" spans="1:26" s="25" customFormat="1" ht="72">
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F29" s="89">
         <v>6737</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="90" t="s">
+      <c r="H29" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19" t="s">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="84" t="s">
+      <c r="K29" s="84" t="s">
         <v>838</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="14.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="D29" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>66</v>
-      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
     </row>
     <row r="30" spans="1:26" ht="14.4">
       <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="D30" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
       <c r="G30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K31" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A31" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="20" t="s">
+    <row r="32" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
-        <v>810</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
       <c r="D32" s="22"/>
       <c r="E32" s="21" t="s">
-        <v>861</v>
+        <v>810</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="57" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H32" s="57" t="s">
         <v>75</v>
@@ -21406,7 +21432,7 @@
         <v>27</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>862</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="21" customFormat="1" ht="14.4">
@@ -21414,14 +21440,14 @@
       <c r="B33" s="20"/>
       <c r="D33" s="22"/>
       <c r="E33" s="21" t="s">
-        <v>910</v>
+        <v>861</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="57" t="s">
         <v>112</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>26</v>
@@ -21430,28 +21456,31 @@
         <v>27</v>
       </c>
       <c r="K33" s="23" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="23" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.4">
-      <c r="A34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="K34" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.4">
@@ -21461,23 +21490,18 @@
       <c r="B35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>76</v>
+      <c r="G35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="K35" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4">
@@ -21487,20 +21511,23 @@
       <c r="B36" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.4">
@@ -21511,19 +21538,19 @@
         <v>24</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4">
@@ -21534,19 +21561,19 @@
         <v>24</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="7">
         <v>0</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.4">
@@ -21556,27 +21583,20 @@
       <c r="B39" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E39" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4">
@@ -21586,17 +21606,28 @@
       <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F40" s="7">
-        <v>6699</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="14.4">
       <c r="A41" s="15" t="s">
@@ -21605,22 +21636,17 @@
       <c r="B41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D41" t="s">
-        <v>914</v>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>915</v>
-      </c>
+        <v>6699</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="K41" s="23" t="s">
-        <v>916</v>
-      </c>
     </row>
     <row r="42" spans="1:11" ht="14.4">
       <c r="A42" s="15" t="s">
@@ -21629,17 +21655,22 @@
       <c r="B42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>39</v>
+      <c r="D42" t="s">
+        <v>914</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>915</v>
+      </c>
       <c r="H42" s="7"/>
+      <c r="K42" s="23" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="14.4">
       <c r="A43" s="15" t="s">
@@ -21649,46 +21680,35 @@
         <v>24</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="7">
-        <v>6758</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A44" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="20" t="s">
+    <row r="44" spans="1:11" ht="14.4">
+      <c r="A44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>807</v>
+        <v>44</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="57" t="s">
-        <v>806</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F44" s="7">
+        <v>6758</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A45" s="20" t="s">
@@ -21698,10 +21718,10 @@
         <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>805</v>
+        <v>807</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>804</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
@@ -21717,225 +21737,233 @@
         <v>27</v>
       </c>
       <c r="K45" s="57" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="57" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>805</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="57" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.4">
-      <c r="A46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="15" t="s">
+    <row r="48" spans="1:11" ht="14.4">
+      <c r="A48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F48" s="7">
         <v>0</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="57" t="s">
+      <c r="H48" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I48" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4">
-      <c r="A47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="15" t="s">
+    <row r="49" spans="1:24" ht="14.4">
+      <c r="A49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F49" s="7">
         <v>0</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="K47" s="17" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="K49" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="E48" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="E49" s="58" t="s">
-        <v>843</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="50" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="E50" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>863</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G50" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="E51" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I51" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="K51" s="23" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="E52" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="23" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="61" customFormat="1" ht="14.4">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="E51" s="62" t="s">
+    <row r="53" spans="1:24" s="61" customFormat="1" ht="14.4">
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="E53" s="62" t="s">
         <v>854</v>
       </c>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62" t="s">
+      <c r="F53" s="62"/>
+      <c r="G53" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="62" t="s">
+      <c r="H53" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="61" t="s">
+      <c r="I53" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="J51" s="61" t="s">
+      <c r="J53" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="K51" s="60" t="s">
+      <c r="K53" s="60" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="14.4">
-      <c r="A52" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="24" t="s">
+    <row r="54" spans="1:24" ht="14.4">
+      <c r="A54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E54" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="18" t="s">
+      <c r="F54" s="7"/>
+      <c r="G54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H54" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="J54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="K54" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A53" s="20"/>
-      <c r="B53" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>923</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A54" s="20"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="55" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A55" s="20"/>
       <c r="B55" s="24" t="s">
         <v>23</v>
@@ -21943,14 +21971,14 @@
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="21" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="21" t="s">
         <v>112</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>98</v>
+        <v>923</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>26</v>
@@ -21959,575 +21987,573 @@
         <v>27</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" ht="43.2">
-      <c r="A56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="18">
-        <v>1</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" s="21" customFormat="1" ht="14.4">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A56" s="20"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="E57" s="7" t="s">
-        <v>927</v>
-      </c>
+      <c r="B57" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="21" t="s">
         <v>112</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>478</v>
+        <v>98</v>
       </c>
       <c r="I57" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="43.2">
+      <c r="A58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="K58" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="E59" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="23" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="25" customFormat="1" ht="86.4">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="E58" s="25" t="s">
+    <row r="60" spans="1:24" s="25" customFormat="1" ht="86.4">
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="E60" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F60" s="25">
         <v>1</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G60" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H60" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="I60" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J60" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="84" t="s">
+      <c r="K60" s="84" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="25" customFormat="1" ht="14.4">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="E59" s="76" t="s">
+    <row r="61" spans="1:24" s="25" customFormat="1" ht="14.4">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="E61" s="76" t="s">
         <v>929</v>
       </c>
-      <c r="G59" s="76" t="s">
+      <c r="G61" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="76" t="s">
+      <c r="H61" s="76" t="s">
         <v>478</v>
       </c>
-      <c r="I59" s="84" t="s">
+      <c r="I61" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="84" t="s">
+      <c r="J61" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="K61" s="23" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="25" customFormat="1" ht="28.8">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="25" t="s">
+    <row r="62" spans="1:24" s="25" customFormat="1" ht="28.8">
+      <c r="A62" s="85"/>
+      <c r="B62" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G62" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="H62" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I60" s="84" t="s">
+      <c r="I62" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="84" t="s">
+      <c r="J62" s="19"/>
+      <c r="K62" s="84" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="7" t="s">
+    <row r="63" spans="1:24" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="74" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="74" t="s">
+      <c r="H63" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="I61" s="74" t="s">
+      <c r="I63" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="J61" s="74" t="s">
+      <c r="J63" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="K61" s="57" t="s">
+      <c r="K63" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="L61" s="74" t="s">
+      <c r="L63" s="74" t="s">
         <v>817</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-    </row>
-    <row r="62" spans="1:26" ht="14.4">
-      <c r="A62" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="15" t="s">
+      <c r="M63" s="3"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+    </row>
+    <row r="64" spans="1:24" ht="14.4">
+      <c r="A64" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F64" s="7">
         <v>-1</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:26" ht="14.4">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="7" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:26" ht="14.4">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F66" s="7">
         <v>0.6</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" ht="14.4">
-      <c r="A65" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1739.927555</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="E66" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+    </row>
+    <row r="67" spans="1:26" ht="14.4">
+      <c r="A67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1739.927555</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="E68" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I68" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="21" t="s">
+      <c r="J68" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="21" t="s">
+      <c r="K68" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="E67" s="7" t="s">
+    <row r="69" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="E69" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I69" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J67" s="21" t="s">
+      <c r="J69" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="21" t="s">
+      <c r="K69" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.4">
-      <c r="A68" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F68" s="7">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="14.4">
-      <c r="A69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:12" ht="14.4">
+    <row r="70" spans="1:26" ht="14.4">
       <c r="A70" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C70" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E70" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F70" s="7">
-        <v>4891208</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:12" ht="14.4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="14.4">
       <c r="A71" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="E71" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="7">
+        <v>553659</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:26" ht="14.4">
+      <c r="A72" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A72" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="E72" s="7" t="s">
-        <v>839</v>
+        <v>122</v>
       </c>
       <c r="F72" s="7">
-        <v>5</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="L72" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="14.4">
+        <v>4891208</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:26" ht="14.4">
       <c r="A73" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A74" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="F74" s="7">
+        <v>5</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="L74" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="14.4">
+      <c r="A75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F75" s="7">
         <v>0</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.4">
-      <c r="A74" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="15"/>
-      <c r="E74" s="7" t="s">
+    <row r="76" spans="1:26" ht="14.4">
+      <c r="A76" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="E76" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F76" s="7">
         <v>6772</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="E75" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="F75" s="7">
-        <v>1</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J75" s="23" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="E76" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="F76" s="7">
-        <v>10</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J76" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
-      <c r="D77" s="57" t="s">
-        <v>25</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="58" t="s">
-        <v>29</v>
+        <v>846</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>75</v>
+        <v>847</v>
       </c>
       <c r="I77" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K77" s="23" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A78" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A78" s="20"/>
       <c r="B78" s="20"/>
-      <c r="D78" s="57" t="s">
-        <v>25</v>
-      </c>
       <c r="E78" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="58" t="s">
-        <v>29</v>
+        <v>845</v>
+      </c>
+      <c r="F78" s="7">
+        <v>10</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>75</v>
+        <v>629</v>
       </c>
       <c r="I78" s="23" t="s">
         <v>26</v>
@@ -22536,71 +22562,61 @@
         <v>27</v>
       </c>
       <c r="K78" s="23" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="D79" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="23" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A80" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="D80" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="23" t="s">
         <v>802</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="14.4">
-      <c r="A79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F79" s="18">
-        <v>1500</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="14.4">
-      <c r="A80" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="14.4">
@@ -22613,16 +22629,16 @@
       <c r="D81" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="17">
+      <c r="E81" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F81" s="18">
         <v>1500</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="H81" s="18" t="s">
         <v>86</v>
       </c>
       <c r="I81" s="17" t="s">
@@ -22632,7 +22648,7 @@
         <v>30</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="14.4">
@@ -22640,16 +22656,16 @@
         <v>23</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>136</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F82" s="17">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>112</v>
@@ -22664,7 +22680,7 @@
         <v>30</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="14.4">
@@ -22672,22 +22688,22 @@
         <v>23</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>136</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F83" s="17">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>112</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I83" s="17" t="s">
         <v>34</v>
@@ -22696,7 +22712,7 @@
         <v>30</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="14.4">
@@ -22710,7 +22726,7 @@
         <v>136</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F84" s="17">
         <v>1000</v>
@@ -22719,7 +22735,7 @@
         <v>112</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>34</v>
@@ -22728,13 +22744,77 @@
         <v>30</v>
       </c>
       <c r="K84" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.4">
+      <c r="A85" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F85" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.4">
+      <c r="A86" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F86" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="17" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B52:B55">
+  <conditionalFormatting sqref="B54:B57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B52))&gt;0</formula>
+      <formula>LEN(TRIM(B54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1189A22-7583-4551-8960-5A40066148B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C6D33-3CF7-4DC9-B20D-6EC65F576C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="156" windowWidth="18900" windowHeight="11388" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -20590,7 +20590,7 @@
   <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C6D33-3CF7-4DC9-B20D-6EC65F576C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F4E6F2-94A5-4B4C-A12B-8421F37927C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="948">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2911,6 +2911,36 @@
   </si>
   <si>
     <t>if this reach is the outfall of a reservoir, then RESOUTFALL = the reservoir ID for that reservoir, else RESOUTFALL = 0. Note that when RESOUTFALL is nonzero, RES_ID will usually be 0, i.e. the outfall reach is not in the reservoir itself.</t>
+  </si>
+  <si>
+    <t>TEMP_AIR</t>
+  </si>
+  <si>
+    <t>TMAX_AIR</t>
+  </si>
+  <si>
+    <t>average air temperature for the current day</t>
+  </si>
+  <si>
+    <t>maximum air temperature for the current day</t>
+  </si>
+  <si>
+    <t>TMIN_AIR</t>
+  </si>
+  <si>
+    <t>minimum air temperature for the current day</t>
+  </si>
+  <si>
+    <t>precip in the current day</t>
+  </si>
+  <si>
+    <t>average specific humidity for the current day</t>
+  </si>
+  <si>
+    <t>unshaded shortwave energy at the surface from climate models, takes cloudiness into account</t>
+  </si>
+  <si>
+    <t>average windspeed for the current day</t>
   </si>
 </sst>
 </file>
@@ -20587,11 +20617,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -21765,27 +21795,22 @@
         <v>807</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4">
-      <c r="A47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>26</v>
+    <row r="47" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.4">
@@ -21796,67 +21821,70 @@
         <v>24</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="K48" s="17" t="s">
+      <c r="G48" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="14.4">
+      <c r="A49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="K49" s="17" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" s="21" customFormat="1" ht="14.4">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="E49" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="50" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
-      <c r="E50" s="58" t="s">
-        <v>841</v>
-      </c>
-      <c r="F50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G50" s="7" t="s">
         <v>110</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>476</v>
+        <v>73</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
-      <c r="E51" s="7" t="s">
-        <v>840</v>
+      <c r="E51" s="58" t="s">
+        <v>841</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -21869,115 +21897,98 @@
         <v>26</v>
       </c>
       <c r="K51" s="23" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="E52" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="E53" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" s="23" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="61" customFormat="1" ht="14.4">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="E52" s="62" t="s">
+    <row r="54" spans="1:24" s="61" customFormat="1" ht="14.4">
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="E54" s="62" t="s">
         <v>852</v>
       </c>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62" t="s">
+      <c r="F54" s="62"/>
+      <c r="G54" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="62" t="s">
+      <c r="H54" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="61" t="s">
+      <c r="I54" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="J52" s="61" t="s">
+      <c r="J54" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="60" t="s">
+      <c r="K54" s="60" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="14.4">
-      <c r="A53" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="24" t="s">
+    <row r="55" spans="1:24" ht="14.4">
+      <c r="A55" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E55" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="18" t="s">
+      <c r="F55" s="7"/>
+      <c r="G55" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I55" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="K55" s="17" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" s="21" customFormat="1" ht="14.4">
-      <c r="A54" s="20"/>
-      <c r="B54" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
-        <v>919</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>920</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" s="21" customFormat="1" ht="14.4">
-      <c r="A55" s="20"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="21" customFormat="1" ht="14.4">
@@ -21988,14 +21999,14 @@
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="21" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="21" t="s">
         <v>110</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>96</v>
+        <v>920</v>
       </c>
       <c r="I56" s="23" t="s">
         <v>26</v>
@@ -22004,370 +22015,371 @@
         <v>27</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="43.2">
-      <c r="A57" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="18">
-        <v>1</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>101</v>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A57" s="20"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="E58" s="7" t="s">
-        <v>924</v>
-      </c>
+      <c r="B58" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="21" t="s">
         <v>110</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>476</v>
+        <v>96</v>
       </c>
       <c r="I58" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J58" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="43.2">
+      <c r="A59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J59" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K59" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="E60" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="23" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="25" customFormat="1" ht="86.4">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="E59" s="25" t="s">
+    <row r="61" spans="1:24" s="25" customFormat="1" ht="86.4">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="E61" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F61" s="25">
         <v>1</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G61" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H61" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="19" t="s">
+      <c r="I61" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="J61" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K59" s="84" t="s">
+      <c r="K61" s="84" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="25" customFormat="1" ht="14.4">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="E60" s="76" t="s">
+    <row r="62" spans="1:24" s="25" customFormat="1" ht="14.4">
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="E62" s="76" t="s">
         <v>926</v>
       </c>
-      <c r="G60" s="76" t="s">
+      <c r="G62" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="H60" s="76" t="s">
+      <c r="H62" s="76" t="s">
         <v>476</v>
       </c>
-      <c r="I60" s="84" t="s">
+      <c r="I62" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="84" t="s">
+      <c r="J62" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K62" s="23" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="25" customFormat="1" ht="28.8">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="25" t="s">
+    <row r="63" spans="1:24" s="25" customFormat="1" ht="28.8">
+      <c r="A63" s="85"/>
+      <c r="B63" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G63" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H63" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="84" t="s">
+      <c r="I63" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="19"/>
-      <c r="K61" s="84" t="s">
+      <c r="J63" s="19"/>
+      <c r="K63" s="84" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="7" t="s">
+    <row r="64" spans="1:24" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="74" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="74" t="s">
+      <c r="H64" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="I62" s="74" t="s">
+      <c r="I64" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="74" t="s">
+      <c r="J64" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="57" t="s">
+      <c r="K64" s="57" t="s">
         <v>814</v>
       </c>
-      <c r="L62" s="74" t="s">
+      <c r="L64" s="74" t="s">
         <v>815</v>
       </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-    </row>
-    <row r="63" spans="1:24" ht="14.4">
-      <c r="A63" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="15" t="s">
+      <c r="M64" s="3"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+    </row>
+    <row r="65" spans="1:26" ht="14.4">
+      <c r="A65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F65" s="7">
         <v>-1</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:24" s="21" customFormat="1" ht="14.4">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:26" ht="14.4">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="7" t="s">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:26" ht="14.4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F67" s="7">
         <v>0.6</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-    </row>
-    <row r="66" spans="1:26" ht="14.4">
-      <c r="A66" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F66" s="7">
-        <v>1739.927555</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="E67" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+    </row>
+    <row r="68" spans="1:26" ht="14.4">
+      <c r="A68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1739.927555</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="E69" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="K69" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="E70" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I70" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J67" s="21" t="s">
+      <c r="J70" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="21" t="s">
+      <c r="K70" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="E68" s="7" t="s">
+    <row r="71" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="E71" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I71" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J68" s="21" t="s">
+      <c r="J71" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="21" t="s">
+      <c r="K71" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" ht="14.4">
-      <c r="A69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F69" s="7">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="14.4">
-      <c r="A70" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:26" ht="14.4">
-      <c r="A71" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="7">
-        <v>4891208</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:26" ht="14.4">
       <c r="A72" s="15" t="s">
@@ -22380,7 +22392,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -22389,7 +22401,7 @@
         <v>46</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>34</v>
@@ -22398,46 +22410,24 @@
         <v>30</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A73" s="20" t="s">
-        <v>838</v>
-      </c>
-      <c r="B73" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="14.4">
+      <c r="A73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>65</v>
-      </c>
       <c r="E73" s="7" t="s">
-        <v>837</v>
+        <v>119</v>
       </c>
       <c r="F73" s="7">
-        <v>5</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="L73" s="23" t="s">
-        <v>65</v>
-      </c>
+        <v>553659</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:26" ht="14.4">
       <c r="A74" s="15" t="s">
@@ -22446,340 +22436,499 @@
       <c r="B74" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="E74" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F74" s="7">
-        <v>0</v>
+        <v>4891208</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:26" ht="14.4">
       <c r="A75" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E75" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F75" s="7">
-        <v>6772</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="76" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
+      <c r="C76" s="3"/>
       <c r="E76" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="F76" s="7">
-        <v>1</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J76" s="23" t="s">
-        <v>846</v>
+        <v>130</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="77" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="E77" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F77" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>110</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="I77" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J77" s="23" t="s">
+      <c r="J77" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K77" s="23" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="D78" s="57" t="s">
-        <v>25</v>
+      <c r="K77" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="14.4">
+      <c r="A78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="58" t="s">
-        <v>29</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I78" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K78" s="23" t="s">
-        <v>798</v>
+      <c r="K78" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A79" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="A79" s="20"/>
       <c r="B79" s="20"/>
-      <c r="D79" s="57" t="s">
-        <v>25</v>
-      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="7" t="s">
-        <v>799</v>
+        <v>939</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" ht="14.4">
-      <c r="A80" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" s="18">
-        <v>1500</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="14.4">
       <c r="A81" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15"/>
+      <c r="E81" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" s="7">
+        <v>6772</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="E82" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="E83" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="F83" s="7">
+        <v>10</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="23" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="E84" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="D85" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="23" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A86" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="D86" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.4">
+      <c r="A87" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D87" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E87" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="18">
+        <v>1500</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.4">
+      <c r="A88" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F88" s="17">
         <v>1500</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G88" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="H88" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="I88" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J88" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K81" s="17" t="s">
+      <c r="K88" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.4">
-      <c r="A82" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="16" t="s">
+    <row r="89" spans="1:11" ht="14.4">
+      <c r="A89" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D89" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E89" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F89" s="17">
         <v>1500</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G89" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H89" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I82" s="17" t="s">
+      <c r="I89" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J89" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K82" s="17" t="s">
+      <c r="K89" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.4">
-      <c r="A83" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="16" t="s">
+    <row r="90" spans="1:11" ht="14.4">
+      <c r="A90" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D90" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E90" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F90" s="17">
         <v>1000</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G90" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H83" s="17" t="s">
+      <c r="H90" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I83" s="17" t="s">
+      <c r="I90" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J83" s="17" t="s">
+      <c r="J90" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K83" s="17" t="s">
+      <c r="K90" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.4">
-      <c r="A84" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="16" t="s">
+    <row r="91" spans="1:11" ht="14.4">
+      <c r="A91" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D91" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E91" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F91" s="17">
         <v>1000</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G91" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H84" s="17" t="s">
+      <c r="H91" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I84" s="17" t="s">
+      <c r="I91" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J84" s="17" t="s">
+      <c r="J91" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K84" s="17" t="s">
+      <c r="K91" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.4">
-      <c r="A85" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="16" t="s">
+    <row r="92" spans="1:11" ht="14.4">
+      <c r="A92" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D92" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E92" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F92" s="17">
         <v>1000</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G92" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H85" s="17" t="s">
+      <c r="H92" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I85" s="17" t="s">
+      <c r="I92" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J85" s="17" t="s">
+      <c r="J92" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K85" s="17" t="s">
+      <c r="K92" s="17" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B53:B56">
+  <conditionalFormatting sqref="B55:B58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B53))&gt;0</formula>
+      <formula>LEN(TRIM(B55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366CA59B-A4B1-43CB-AD48-49FE522003D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCAA7E-877A-4680-99CD-40447C08EFDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="963">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2934,9 +2934,6 @@
     <t>average windspeed for the current day</t>
   </si>
   <si>
-    <t>1/25/21 - Added CANOPYDENS, VEG_HT_R, VEG_HT_L, TOPOELEV_E, TOPOELEV_S, TOPOELEV_W. Deleted as obsolete REACH_EVAP, Avg_Slope, Max_Slope, Slength, NCONFLT, GNIS_ID.</t>
-  </si>
-  <si>
     <t>Shade-a-lator calcs</t>
   </si>
   <si>
@@ -2983,6 +2980,12 @@
   </si>
   <si>
     <t>topographic elevation looking west, degrees</t>
+  </si>
+  <si>
+    <t>1/26/21 - Added CANOPYDENS, VEG_HT_R, VEG_HT_L, TOPOELEV_E, TOPOELEV_S, TOPOELEV_W. Deleted as obsolete REACH_EVAP, Avg_Slope, Max_Slope, NCONFLT, GNIS_ID.</t>
+  </si>
+  <si>
+    <t>Slength</t>
   </si>
 </sst>
 </file>
@@ -20647,11 +20650,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -20698,7 +20701,7 @@
     </row>
     <row r="2" spans="1:26" s="91" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="87" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="89"/>
@@ -20967,10 +20970,10 @@
       <c r="B10" s="20"/>
       <c r="C10" s="22"/>
       <c r="D10" s="57" t="s">
+        <v>945</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>946</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>947</v>
       </c>
       <c r="F10" s="21">
         <v>36</v>
@@ -20982,16 +20985,16 @@
         <v>227</v>
       </c>
       <c r="I10" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="K10" s="80" t="s">
         <v>949</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="K10" s="80" t="s">
+      <c r="L10" s="23" t="s">
         <v>950</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.4">
@@ -22320,53 +22323,48 @@
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="E66" s="7" t="s">
-        <v>497</v>
+        <v>962</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="K66" s="3" t="s">
-        <v>942</v>
-      </c>
+      <c r="G66" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="E67" s="7" t="s">
-        <v>854</v>
+        <v>497</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J67" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="21" t="s">
-        <v>856</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>855</v>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="K67" s="3" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="E68" s="7" t="s">
-        <v>919</v>
+        <v>854</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I68" s="21" t="s">
         <v>34</v>
@@ -22375,42 +22373,36 @@
         <v>30</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.4">
-      <c r="A69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="69" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
       <c r="E69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" s="7">
-        <v>1</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>117</v>
+      <c r="K69" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="14.4">
@@ -22420,14 +22412,30 @@
       <c r="B70" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C70" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E70" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F70" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="71" spans="1:12" ht="14.4">
       <c r="A71" s="15" t="s">
@@ -22437,10 +22445,10 @@
         <v>24</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F71" s="7">
-        <v>4891208</v>
+        <v>553659</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -22452,106 +22460,89 @@
       <c r="B72" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="E72" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" ht="14.4">
+      <c r="A73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="C73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>1</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="3"/>
-      <c r="E73" s="7" t="s">
+    <row r="74" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="3"/>
+      <c r="E74" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A74" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="F74" s="7">
-        <v>5</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I74" s="3"/>
       <c r="J74" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="L74" s="23" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A75" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="14.4">
-      <c r="A75" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E75" s="7" t="s">
-        <v>128</v>
+        <v>836</v>
       </c>
       <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H75" s="7" t="s">
         <v>129</v>
       </c>
@@ -22562,25 +22553,40 @@
         <v>27</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="D76" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.4">
+      <c r="A76" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E76" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="F76" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="I76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K76" s="3" t="s">
-        <v>938</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="21" customFormat="1" ht="14.4">
@@ -22588,7 +22594,7 @@
       <c r="B77" s="20"/>
       <c r="D77" s="3"/>
       <c r="E77" s="7" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -22598,53 +22604,46 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.4">
-      <c r="A78" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="E78" s="7" t="s">
+    <row r="79" spans="1:12" ht="14.4">
+      <c r="A79" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="E79" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>6772</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="E79" s="7" t="s">
-        <v>956</v>
-      </c>
-      <c r="F79" s="7">
-        <v>5</v>
-      </c>
-      <c r="G79" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I79" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>957</v>
-      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
-      <c r="E80" s="58" t="s">
-        <v>958</v>
+      <c r="E80" s="7" t="s">
+        <v>955</v>
       </c>
       <c r="F80" s="7">
         <v>5</v>
@@ -22662,14 +22661,14 @@
         <v>30</v>
       </c>
       <c r="K80" s="23" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="E81" s="58" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F81" s="7">
         <v>5</v>
@@ -22687,66 +22686,64 @@
         <v>30</v>
       </c>
       <c r="K81" s="23" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
-      <c r="E82" s="7" t="s">
-        <v>843</v>
+      <c r="E82" s="58" t="s">
+        <v>959</v>
       </c>
       <c r="F82" s="7">
-        <v>1</v>
-      </c>
-      <c r="G82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="58" t="s">
         <v>109</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="I82" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J82" s="23" t="s">
-        <v>845</v>
+        <v>129</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="23" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
-      <c r="D83" s="57" t="s">
-        <v>946</v>
-      </c>
       <c r="E83" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H83" s="58" t="s">
-        <v>84</v>
+      <c r="H83" s="7" t="s">
+        <v>844</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>949</v>
+        <v>26</v>
       </c>
       <c r="J83" s="23" t="s">
-        <v>949</v>
-      </c>
-      <c r="K83" s="23" t="s">
-        <v>954</v>
-      </c>
-      <c r="L83" s="23"/>
+        <v>845</v>
+      </c>
     </row>
     <row r="84" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="D84" s="57" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="58" t="s">
@@ -22756,93 +22753,92 @@
         <v>84</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>949</v>
-      </c>
-      <c r="K84" s="57" t="s">
-        <v>955</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="L84" s="23"/>
     </row>
     <row r="85" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
+      <c r="D85" s="57" t="s">
+        <v>945</v>
+      </c>
       <c r="E85" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F85" s="7">
-        <v>10</v>
-      </c>
-      <c r="G85" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>626</v>
+      <c r="H85" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>26</v>
+        <v>948</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K85" s="23" t="s">
-        <v>848</v>
+        <v>948</v>
+      </c>
+      <c r="K85" s="57" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="E86" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+        <v>842</v>
+      </c>
+      <c r="F86" s="7">
+        <v>10</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H86" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
+        <v>626</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="K86" s="23" t="s">
-        <v>944</v>
+        <v>848</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
-      <c r="D87" s="57" t="s">
-        <v>25</v>
-      </c>
       <c r="E87" s="7" t="s">
-        <v>796</v>
+        <v>510</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I87" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J87" s="23" t="s">
-        <v>27</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
       <c r="K87" s="23" t="s">
-        <v>797</v>
+        <v>944</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A88" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="D88" s="57" t="s">
         <v>25</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="58" t="s">
@@ -22858,39 +22854,35 @@
         <v>27</v>
       </c>
       <c r="K88" s="23" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A89" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="D89" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="23" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="14.4">
-      <c r="A89" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F89" s="18">
-        <v>1500</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="14.4">
@@ -22903,16 +22895,16 @@
       <c r="D90" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E90" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F90" s="17">
+      <c r="E90" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F90" s="18">
         <v>1500</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H90" s="17" t="s">
+      <c r="H90" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I90" s="17" t="s">
@@ -22922,7 +22914,7 @@
         <v>30</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="14.4">
@@ -22936,7 +22928,7 @@
         <v>133</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F91" s="17">
         <v>1500</v>
@@ -22954,6 +22946,38 @@
         <v>30</v>
       </c>
       <c r="K91" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="14.4">
+      <c r="A92" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K92" s="17" t="s">
         <v>144</v>
       </c>
     </row>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCAA7E-877A-4680-99CD-40447C08EFDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAC855E-C17E-4B2D-9B3C-02EDC60D5FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="966">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2986,6 +2986,15 @@
   </si>
   <si>
     <t>Slength</t>
+  </si>
+  <si>
+    <t>WIDTHGIVEN</t>
+  </si>
+  <si>
+    <t>prescribed stream width, may be calculated from Shade-a-lator input data</t>
+  </si>
+  <si>
+    <t>1/27/21 - Added WIDTHGIVEN.</t>
   </si>
 </sst>
 </file>
@@ -20650,11 +20659,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -20699,127 +20708,117 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:26" s="91" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:26" s="57" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="70" t="s">
+        <v>965</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+    </row>
+    <row r="3" spans="1:26" s="91" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="87" t="s">
         <v>961</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-    </row>
-    <row r="3" spans="1:26" ht="59.25" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+    </row>
+    <row r="4" spans="1:26" ht="59.25" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="72" t="s">
-        <v>926</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>929</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
     </row>
     <row r="5" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A5" s="13"/>
@@ -20827,14 +20826,14 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="72" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="70" t="s">
         <v>109</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="I5" s="79" t="s">
         <v>26</v>
@@ -20843,7 +20842,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="57" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="25"/>
@@ -20865,14 +20864,14 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="72" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="70" t="s">
         <v>109</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="I6" s="79" t="s">
         <v>26</v>
@@ -20880,8 +20879,8 @@
       <c r="J6" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="70" t="s">
-        <v>931</v>
+      <c r="K6" s="57" t="s">
+        <v>928</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="25"/>
@@ -20897,59 +20896,76 @@
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
     </row>
-    <row r="7" spans="1:26" s="83" customFormat="1" ht="14.4">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="D7" s="84" t="s">
+    <row r="7" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="72" t="s">
+        <v>930</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>931</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+    </row>
+    <row r="8" spans="1:26" s="83" customFormat="1" ht="14.4">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="D8" s="84" t="s">
         <v>897</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E8" s="84" t="s">
         <v>850</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F8" s="84">
         <v>5.2</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="83" t="s">
+      <c r="K8" s="83" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" s="21" customFormat="1" ht="28.8">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22"/>
-      <c r="E8" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="80" t="s">
-        <v>899</v>
-      </c>
-      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:26" s="21" customFormat="1" ht="28.8">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
       <c r="E9" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>46</v>
@@ -20961,7 +20977,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L9" s="22"/>
     </row>
@@ -20969,49 +20985,54 @@
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="57" t="s">
+      <c r="E10" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>900</v>
+      </c>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:26" s="21" customFormat="1" ht="28.8">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="57" t="s">
         <v>945</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E11" s="57" t="s">
         <v>946</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F11" s="21">
         <v>36</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G11" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H11" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I11" s="57" t="s">
         <v>948</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J11" s="23" t="s">
         <v>947</v>
       </c>
-      <c r="K10" s="80" t="s">
+      <c r="K11" s="80" t="s">
         <v>949</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L11" s="23" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.4">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3220</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="15" t="s">
@@ -21020,28 +21041,14 @@
       <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7">
-        <v>23773405</v>
+        <v>3220</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="15" t="s">
@@ -21050,14 +21057,28 @@
       <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7">
-        <v>23773403</v>
+        <v>23773405</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="15" t="s">
@@ -21067,10 +21088,10 @@
         <v>24</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7">
-        <v>23773407</v>
+        <v>23773403</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -21083,10 +21104,10 @@
         <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>23773407</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -21098,11 +21119,8 @@
       <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -21121,7 +21139,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -21137,10 +21155,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -21148,73 +21166,73 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="D19" s="3"/>
+    <row r="19" spans="1:26" ht="14.4">
+      <c r="A19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>846</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
-        <v>901</v>
+        <v>846</v>
       </c>
       <c r="F20" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F21" s="7">
+        <v>90</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K21" s="21" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="14.4">
-      <c r="A21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7">
-        <v>6772</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="14.4">
       <c r="A22" s="15" t="s">
@@ -21223,276 +21241,271 @@
       <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6772</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.4">
+      <c r="A23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>7</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7" t="s">
+    <row r="24" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>4.2</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.4">
-      <c r="A24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>909</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="K24" s="23" t="s">
-        <v>908</v>
-      </c>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="14.4">
       <c r="A25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>909</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="7">
-        <v>6713</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>907</v>
+      </c>
       <c r="H25" s="7"/>
+      <c r="K25" s="23" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="26" spans="1:26" ht="14.4">
       <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="E26" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>54</v>
+      <c r="E26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="7">
+        <v>6713</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="25.2" customHeight="1">
+    <row r="27" spans="1:26" ht="14.4">
       <c r="A27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="15"/>
+      <c r="E27" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" ht="25.2" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>34</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="25" customFormat="1" ht="72">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="s">
+    <row r="29" spans="1:26" s="25" customFormat="1" ht="72">
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F29" s="85">
         <v>6737</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H29" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19" t="s">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K29" s="80" t="s">
         <v>835</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="14.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="D29" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
     </row>
     <row r="30" spans="1:26" ht="14.4">
       <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="D30" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
       <c r="G30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K31" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A31" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="20" t="s">
+    <row r="32" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
       <c r="D32" s="22"/>
       <c r="E32" s="21" t="s">
-        <v>857</v>
+        <v>807</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="57" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H32" s="57" t="s">
         <v>73</v>
@@ -21504,7 +21517,7 @@
         <v>27</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>858</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="21" customFormat="1" ht="14.4">
@@ -21512,14 +21525,14 @@
       <c r="B33" s="20"/>
       <c r="D33" s="22"/>
       <c r="E33" s="21" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="57" t="s">
         <v>109</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>26</v>
@@ -21528,28 +21541,31 @@
         <v>27</v>
       </c>
       <c r="K33" s="23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="23" t="s">
         <v>906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.4">
-      <c r="A34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="K34" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.4">
@@ -21559,23 +21575,18 @@
       <c r="B35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>74</v>
+      <c r="G35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="K35" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4">
@@ -21585,20 +21596,23 @@
       <c r="B36" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.4">
@@ -21609,19 +21623,19 @@
         <v>24</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4">
@@ -21632,19 +21646,19 @@
         <v>24</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F38" s="7">
         <v>0</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.4">
@@ -21654,27 +21668,20 @@
       <c r="B39" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E39" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4">
@@ -21684,17 +21691,28 @@
       <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F40" s="7">
-        <v>6699</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="14.4">
       <c r="A41" s="15" t="s">
@@ -21703,22 +21721,17 @@
       <c r="B41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D41" t="s">
-        <v>909</v>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>910</v>
-      </c>
+        <v>6699</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="K41" s="23" t="s">
-        <v>911</v>
-      </c>
     </row>
     <row r="42" spans="1:11" ht="14.4">
       <c r="A42" s="15" t="s">
@@ -21727,47 +21740,41 @@
       <c r="B42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
+        <v>909</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="K42" s="23" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.4">
+      <c r="A43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>6758</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A43" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="57" t="s">
-        <v>803</v>
-      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A44" s="20" t="s">
@@ -21780,14 +21787,14 @@
         <v>804</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>932</v>
+        <v>801</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H44" s="58" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I44" s="57" t="s">
         <v>26</v>
@@ -21796,7 +21803,7 @@
         <v>27</v>
       </c>
       <c r="K44" s="57" t="s">
-        <v>933</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" ht="14.4">
@@ -21807,17 +21814,17 @@
         <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>802</v>
+        <v>804</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>932</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H45" s="58" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I45" s="57" t="s">
         <v>26</v>
@@ -21826,48 +21833,55 @@
         <v>27</v>
       </c>
       <c r="K45" s="57" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>802</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="57" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="58" t="s">
+    <row r="47" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="58" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57" t="s">
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57" t="s">
         <v>941</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.4">
-      <c r="A47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.4">
@@ -21878,171 +21892,169 @@
         <v>24</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="K48" s="17" t="s">
+      <c r="G48" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="14.4">
+      <c r="A49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="K49" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="E49" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="50" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
-      <c r="E50" s="58" t="s">
-        <v>840</v>
-      </c>
-      <c r="F50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G50" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>475</v>
+        <v>73</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" s="21" customFormat="1" ht="14.4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="E51" s="58" t="s">
-        <v>473</v>
+        <v>840</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H51" s="7" t="s">
         <v>475</v>
       </c>
+      <c r="I51" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="K51" s="23" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" s="21" customFormat="1" ht="14.4">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
-      <c r="E52" s="7" t="s">
-        <v>839</v>
+      <c r="E52" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="K52" s="23" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="E53" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="K53" s="23" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="14.4">
-      <c r="A53" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="24" t="s">
+    <row r="54" spans="1:24" ht="14.4">
+      <c r="A54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E54" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="18" t="s">
+      <c r="F54" s="7"/>
+      <c r="G54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H54" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="K54" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A54" s="20"/>
-      <c r="B54" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="55" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A55" s="20"/>
-      <c r="B55" s="24"/>
+      <c r="B55" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="21" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>407</v>
+        <v>918</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>26</v>
@@ -22051,25 +22063,23 @@
         <v>27</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" s="21" customFormat="1" ht="14.4">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" s="21" customFormat="1" ht="14.4">
       <c r="A56" s="20"/>
-      <c r="B56" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="21" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="I56" s="23" t="s">
         <v>26</v>
@@ -22078,319 +22088,320 @@
         <v>27</v>
       </c>
       <c r="K56" s="23" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A57" s="20"/>
+      <c r="B57" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="23" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="43.2">
-      <c r="A57" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="15" t="s">
+    <row r="58" spans="1:24" ht="43.2">
+      <c r="A58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F58" s="18">
         <v>1</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G58" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="19" t="s">
+      <c r="K58" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="E58" s="7" t="s">
+    <row r="59" spans="1:24" s="21" customFormat="1" ht="14.4">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="E59" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G59" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H59" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I59" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="J59" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K59" s="23" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="25" customFormat="1" ht="86.4">
-      <c r="A59" s="81"/>
-      <c r="B59" s="81"/>
-      <c r="E59" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="25">
-        <v>1</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K59" s="80" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" s="25" customFormat="1" ht="14.4">
+    <row r="60" spans="1:24" s="25" customFormat="1" ht="86.4">
       <c r="A60" s="81"/>
       <c r="B60" s="81"/>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="25">
+        <v>1</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="80" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" s="25" customFormat="1" ht="14.4">
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="E61" s="72" t="s">
         <v>924</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G61" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="H60" s="72" t="s">
+      <c r="H61" s="72" t="s">
         <v>475</v>
-      </c>
-      <c r="I60" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60" s="23" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" s="25" customFormat="1" ht="28.8">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>915</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>129</v>
       </c>
       <c r="I61" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="19"/>
-      <c r="K61" s="80" t="s">
+      <c r="J61" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" s="25" customFormat="1" ht="28.8">
+      <c r="A62" s="81"/>
+      <c r="B62" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I62" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="19"/>
+      <c r="K62" s="80" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="7" t="s">
+    <row r="63" spans="1:24" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="70" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="70" t="s">
+      <c r="H63" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I62" s="70" t="s">
+      <c r="I63" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="70" t="s">
+      <c r="J63" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="57" t="s">
+      <c r="K63" s="57" t="s">
         <v>813</v>
       </c>
-      <c r="L62" s="70" t="s">
+      <c r="L63" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-    </row>
-    <row r="63" spans="1:26" ht="14.4">
-      <c r="A63" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="15" t="s">
+      <c r="M63" s="3"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+    </row>
+    <row r="64" spans="1:24" ht="14.4">
+      <c r="A64" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="7">
         <v>-1</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:26" ht="14.4">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="7" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:26" ht="14.4">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>0.6</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K65" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" ht="14.4">
-      <c r="A65" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="15" t="s">
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+    </row>
+    <row r="66" spans="1:26" ht="14.4">
+      <c r="A66" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>1739.927555</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="E66" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I66" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="K66" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="E67" s="7" t="s">
-        <v>497</v>
+        <v>962</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="K67" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="G67" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="E68" s="7" t="s">
-        <v>854</v>
+        <v>497</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K68" s="21" t="s">
-        <v>856</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="K68" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="E69" s="7" t="s">
-        <v>919</v>
+        <v>854</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I69" s="21" t="s">
         <v>34</v>
@@ -22399,61 +22410,71 @@
         <v>30</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.4">
-      <c r="A70" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="70" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
       <c r="E70" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F70" s="7">
-        <v>1</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="14.4">
+      <c r="K70" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="14.4">
       <c r="A71" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C71" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E71" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F71" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:12" ht="14.4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="14.4">
       <c r="A72" s="15" t="s">
         <v>23</v>
       </c>
@@ -22461,121 +22482,104 @@
         <v>24</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F72" s="7">
-        <v>4891208</v>
+        <v>553659</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4">
+    <row r="73" spans="1:26" ht="14.4">
       <c r="A73" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="E73" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:26" ht="14.4">
+      <c r="A74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="C74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>1</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="3"/>
-      <c r="E74" s="7" t="s">
+    <row r="75" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="3"/>
+      <c r="E75" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A75" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="F75" s="7">
-        <v>5</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I75" s="3"/>
       <c r="J75" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="L75" s="23" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A76" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="14.4">
-      <c r="A76" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>128</v>
+        <v>836</v>
       </c>
       <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H76" s="7" t="s">
         <v>129</v>
       </c>
@@ -22586,33 +22590,48 @@
         <v>27</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="D77" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="14.4">
+      <c r="A77" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E77" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="F77" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="I77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K77" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="D78" s="3"/>
       <c r="E78" s="7" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -22622,53 +22641,46 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.4">
-      <c r="A79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="E79" s="7" t="s">
+    <row r="80" spans="1:26" ht="14.4">
+      <c r="A80" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="E80" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="7">
         <v>6772</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="E80" s="7" t="s">
-        <v>955</v>
-      </c>
-      <c r="F80" s="7">
-        <v>5</v>
-      </c>
-      <c r="G80" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="23" t="s">
-        <v>956</v>
-      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
-      <c r="E81" s="58" t="s">
-        <v>957</v>
+      <c r="E81" s="7" t="s">
+        <v>955</v>
       </c>
       <c r="F81" s="7">
         <v>5</v>
@@ -22686,14 +22698,14 @@
         <v>30</v>
       </c>
       <c r="K81" s="23" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="E82" s="58" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F82" s="7">
         <v>5</v>
@@ -22711,57 +22723,55 @@
         <v>30</v>
       </c>
       <c r="K82" s="23" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
-      <c r="E83" s="7" t="s">
-        <v>843</v>
+      <c r="E83" s="58" t="s">
+        <v>959</v>
       </c>
       <c r="F83" s="7">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="58" t="s">
         <v>109</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="I83" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="23" t="s">
-        <v>845</v>
+        <v>129</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="23" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
-      <c r="D84" s="57" t="s">
-        <v>945</v>
-      </c>
       <c r="E84" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H84" s="58" t="s">
-        <v>84</v>
+      <c r="H84" s="7" t="s">
+        <v>844</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>948</v>
+        <v>26</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>953</v>
-      </c>
-      <c r="L84" s="23"/>
+        <v>845</v>
+      </c>
     </row>
     <row r="85" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A85" s="20"/>
@@ -22770,7 +22780,7 @@
         <v>945</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="58" t="s">
@@ -22785,168 +22795,154 @@
       <c r="J85" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="K85" s="57" t="s">
-        <v>954</v>
-      </c>
+      <c r="K85" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="L85" s="23"/>
     </row>
     <row r="86" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
+      <c r="D86" s="57" t="s">
+        <v>945</v>
+      </c>
       <c r="E86" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F86" s="7">
-        <v>10</v>
-      </c>
-      <c r="G86" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>626</v>
+      <c r="H86" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>26</v>
+        <v>948</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>848</v>
+        <v>948</v>
+      </c>
+      <c r="K86" s="57" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="E87" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+        <v>842</v>
+      </c>
+      <c r="F87" s="7">
+        <v>10</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H87" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
+        <v>626</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="K87" s="23" t="s">
-        <v>944</v>
+        <v>848</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
-      <c r="D88" s="57" t="s">
+      <c r="E88" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="E89" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="D90" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="58" t="s">
+      <c r="F90" s="7"/>
+      <c r="G90" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="I90" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J88" s="23" t="s">
+      <c r="J90" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K88" s="23" t="s">
+      <c r="K90" s="23" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A89" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="20"/>
-      <c r="D89" s="57" t="s">
+    <row r="91" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A91" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="D91" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="58" t="s">
+      <c r="F91" s="7"/>
+      <c r="G91" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I91" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="J91" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K89" s="23" t="s">
+      <c r="K91" s="23" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="14.4">
-      <c r="A90" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F90" s="18">
-        <v>1500</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H90" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J90" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="14.4">
-      <c r="A91" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F91" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K91" s="17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="14.4">
@@ -22959,16 +22955,16 @@
       <c r="D92" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E92" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F92" s="17">
+      <c r="E92" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="18">
         <v>1500</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H92" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I92" s="17" t="s">
@@ -22978,13 +22974,77 @@
         <v>30</v>
       </c>
       <c r="K92" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="14.4">
+      <c r="A93" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F93" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="14.4">
+      <c r="A94" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K94" s="17" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B53:B56">
+  <conditionalFormatting sqref="B54:B57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B53))&gt;0</formula>
+      <formula>LEN(TRIM(B54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAC855E-C17E-4B2D-9B3C-02EDC60D5FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BAA624-171E-44ED-87EA-10575033CE97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20662,7 +20662,7 @@
   <dimension ref="A1:Z94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BAA624-171E-44ED-87EA-10575033CE97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC51EE-DB3E-4C10-A4B5-CBFBEBAF5D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="970">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2994,7 +2994,19 @@
     <t>prescribed stream width, may be calculated from Shade-a-lator input data</t>
   </si>
   <si>
-    <t>1/27/21 - Added WIDTHGIVEN.</t>
+    <t>RADSWGIVEN</t>
+  </si>
+  <si>
+    <t>daily shortwave from Shade-a-lator, when available</t>
+  </si>
+  <si>
+    <t>2/2/21 - Added WIDTHGIVEN, RADSWGIVEN.</t>
+  </si>
+  <si>
+    <t>DEPTHMANNG</t>
+  </si>
+  <si>
+    <t>average Manning depth of reach = length-weighted average of subreach Manning depths</t>
   </si>
 </sst>
 </file>
@@ -8939,7 +8951,7 @@
   <dimension ref="A1:Z1047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
@@ -20659,11 +20671,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -20710,7 +20722,7 @@
     </row>
     <row r="2" spans="1:26" s="57" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="70" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -21216,42 +21228,47 @@
       <c r="B21" s="20"/>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="F21" s="7">
-        <v>90</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F22" s="7">
+        <v>90</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K22" s="21" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="14.4">
-      <c r="A22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="7">
-        <v>6772</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:26" ht="14.4">
       <c r="A23" s="15" t="s">
@@ -21260,276 +21277,271 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7">
+        <v>6772</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:26" ht="14.4">
+      <c r="A24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>7</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7" t="s">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>4.2</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="14.4">
-      <c r="A25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>909</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="K25" s="23" t="s">
-        <v>908</v>
-      </c>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="14.4">
       <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>909</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="7">
-        <v>6713</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>907</v>
+      </c>
       <c r="H26" s="7"/>
+      <c r="K26" s="23" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="27" spans="1:26" ht="14.4">
       <c r="A27" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="E27" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7">
+        <v>6713</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="25.2" customHeight="1">
+    <row r="28" spans="1:26" ht="14.4">
       <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="15"/>
+      <c r="E28" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:26" ht="25.2" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>34</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="25" customFormat="1" ht="72">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+    <row r="30" spans="1:26" s="25" customFormat="1" ht="72">
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E30" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="85">
+      <c r="F30" s="85">
         <v>6737</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G30" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H30" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19" t="s">
+      <c r="I30" s="19"/>
+      <c r="J30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="80" t="s">
+      <c r="K30" s="80" t="s">
         <v>835</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" ht="14.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="D30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
     </row>
     <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B31" s="15"/>
       <c r="D31" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
       <c r="G31" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="14.4">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K32" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A32" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="20" t="s">
+    <row r="33" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
       <c r="D33" s="22"/>
       <c r="E33" s="21" t="s">
-        <v>857</v>
+        <v>807</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="57" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H33" s="57" t="s">
         <v>73</v>
@@ -21541,7 +21553,7 @@
         <v>27</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>858</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="21" customFormat="1" ht="14.4">
@@ -21549,14 +21561,14 @@
       <c r="B34" s="20"/>
       <c r="D34" s="22"/>
       <c r="E34" s="21" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="57" t="s">
         <v>109</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>26</v>
@@ -21565,28 +21577,31 @@
         <v>27</v>
       </c>
       <c r="K34" s="23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="23" t="s">
         <v>906</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.4">
-      <c r="A35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="K35" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4">
@@ -21596,23 +21611,18 @@
       <c r="B36" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>74</v>
+      <c r="G36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="K36" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.4">
@@ -21622,20 +21632,23 @@
       <c r="B37" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4">
@@ -21646,19 +21659,19 @@
         <v>24</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F38" s="7">
         <v>0</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.4">
@@ -21669,19 +21682,19 @@
         <v>24</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" s="7">
         <v>0</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4">
@@ -21691,27 +21704,20 @@
       <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F40" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.4">
@@ -21721,17 +21727,28 @@
       <c r="B41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
+      <c r="C41" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F41" s="7">
-        <v>6699</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="14.4">
       <c r="A42" s="15" t="s">
@@ -21740,22 +21757,17 @@
       <c r="B42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D42" t="s">
-        <v>909</v>
+      <c r="D42" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>910</v>
-      </c>
+        <v>6699</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="K42" s="23" t="s">
-        <v>911</v>
-      </c>
     </row>
     <row r="43" spans="1:11" ht="14.4">
       <c r="A43" s="15" t="s">
@@ -21764,47 +21776,41 @@
       <c r="B43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
+        <v>909</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="K43" s="23" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.4">
+      <c r="A44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>6758</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A44" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="57" t="s">
-        <v>803</v>
-      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A45" s="20" t="s">
@@ -21817,14 +21823,14 @@
         <v>804</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>932</v>
+        <v>801</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H45" s="58" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I45" s="57" t="s">
         <v>26</v>
@@ -21833,7 +21839,7 @@
         <v>27</v>
       </c>
       <c r="K45" s="57" t="s">
-        <v>933</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="21" customFormat="1" ht="14.4">
@@ -21844,17 +21850,17 @@
         <v>24</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>802</v>
+        <v>804</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>932</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H46" s="58" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I46" s="57" t="s">
         <v>26</v>
@@ -21863,51 +21869,58 @@
         <v>27</v>
       </c>
       <c r="K46" s="57" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>802</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="57" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="58" t="s">
+    <row r="48" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="58" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57" t="s">
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.4">
-      <c r="A48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="14.4">
+    <row r="49" spans="1:11" ht="14.4">
       <c r="A49" s="15" t="s">
         <v>23</v>
       </c>
@@ -21915,183 +21928,174 @@
         <v>24</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="K49" s="17" t="s">
+      <c r="G49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4">
+      <c r="A50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="K50" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="21" customFormat="1" ht="14.4">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="E50" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" s="21" customFormat="1" ht="14.4">
+    <row r="51" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
-      <c r="E51" s="58" t="s">
-        <v>840</v>
-      </c>
-      <c r="F51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G51" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>475</v>
+        <v>73</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" s="21" customFormat="1" ht="14.4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="E52" s="58" t="s">
-        <v>473</v>
+        <v>840</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H52" s="7" t="s">
         <v>475</v>
       </c>
+      <c r="I52" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="K52" s="23" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" s="21" customFormat="1" ht="14.4">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
-      <c r="E53" s="7" t="s">
-        <v>839</v>
+      <c r="E53" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="K53" s="23" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="E54" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I54" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="K54" s="23" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="14.4">
-      <c r="A54" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="24" t="s">
+    <row r="55" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="E55" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.4">
+      <c r="A56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C56" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D56" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E56" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="18" t="s">
+      <c r="F56" s="7"/>
+      <c r="G56" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H56" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J56" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="17" t="s">
+      <c r="K56" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="21" customFormat="1" ht="14.4">
-      <c r="A55" s="20"/>
-      <c r="B55" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" s="21" customFormat="1" ht="14.4">
-      <c r="A56" s="20"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
-        <v>920</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" s="21" customFormat="1" ht="14.4">
+    <row r="57" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A57" s="20"/>
       <c r="B57" s="24" t="s">
         <v>23</v>
@@ -22099,14 +22103,14 @@
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="21" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>95</v>
+        <v>918</v>
       </c>
       <c r="I57" s="23" t="s">
         <v>26</v>
@@ -22115,212 +22119,204 @@
         <v>27</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="43.2">
-      <c r="A58" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="18">
-        <v>1</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" s="21" customFormat="1" ht="14.4">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A58" s="20"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="E59" s="7" t="s">
-        <v>922</v>
-      </c>
+      <c r="B59" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>475</v>
+        <v>95</v>
       </c>
       <c r="I59" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J59" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="43.2">
+      <c r="A60" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="18">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J60" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="K60" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="E61" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="23" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="25" customFormat="1" ht="86.4">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="E60" s="25" t="s">
+    <row r="62" spans="1:11" s="25" customFormat="1" ht="86.4">
+      <c r="A62" s="81"/>
+      <c r="B62" s="81"/>
+      <c r="E62" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F62" s="25">
         <v>1</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G62" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="H62" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="19" t="s">
+      <c r="I62" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J62" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="80" t="s">
+      <c r="K62" s="80" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="25" customFormat="1" ht="14.4">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="E61" s="72" t="s">
+    <row r="63" spans="1:11" s="25" customFormat="1" ht="14.4">
+      <c r="A63" s="81"/>
+      <c r="B63" s="81"/>
+      <c r="E63" s="72" t="s">
         <v>924</v>
       </c>
-      <c r="G61" s="72" t="s">
+      <c r="G63" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="72" t="s">
+      <c r="H63" s="72" t="s">
         <v>475</v>
       </c>
-      <c r="I61" s="80" t="s">
+      <c r="I63" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="80" t="s">
+      <c r="J63" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="K63" s="23" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="25" customFormat="1" ht="28.8">
-      <c r="A62" s="81"/>
-      <c r="B62" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="25" t="s">
+    <row r="64" spans="1:11" s="25" customFormat="1" ht="28.8">
+      <c r="A64" s="81"/>
+      <c r="B64" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>915</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G64" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H64" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="I62" s="80" t="s">
+      <c r="I64" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="80" t="s">
+      <c r="J64" s="19"/>
+      <c r="K64" s="80" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="7" t="s">
+    <row r="65" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="70" t="s">
+      <c r="F65" s="7"/>
+      <c r="G65" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="70" t="s">
+      <c r="H65" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I63" s="70" t="s">
+      <c r="I65" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="70" t="s">
+      <c r="J65" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="K63" s="57" t="s">
+      <c r="K65" s="57" t="s">
         <v>813</v>
       </c>
-      <c r="L63" s="70" t="s">
+      <c r="L65" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-    </row>
-    <row r="64" spans="1:24" ht="14.4">
-      <c r="A64" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:26" ht="14.4">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
+      <c r="M65" s="3"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
@@ -22332,76 +22328,102 @@
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
     </row>
     <row r="66" spans="1:26" ht="14.4">
       <c r="A66" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:26" ht="14.4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+    </row>
+    <row r="68" spans="1:26" ht="14.4">
+      <c r="A68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F68" s="7">
         <v>1739.927555</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="E67" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J67" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="E68" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="K68" s="3" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="69" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="E69" s="7" t="s">
-        <v>854</v>
+        <v>962</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I69" s="21" t="s">
         <v>34</v>
@@ -22409,86 +22431,72 @@
       <c r="J69" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K69" s="21" t="s">
-        <v>856</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>855</v>
-      </c>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="E70" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="K70" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="E71" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="E72" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7" t="s">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="21" t="s">
+      <c r="J72" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K70" s="21" t="s">
+      <c r="K72" s="21" t="s">
         <v>904</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="14.4">
-      <c r="A71" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="14.4">
-      <c r="A72" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:26" ht="14.4">
       <c r="A73" s="15" t="s">
@@ -22497,14 +22505,30 @@
       <c r="B73" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C73" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E73" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F73" s="7">
-        <v>4891208</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="74" spans="1:26" ht="14.4">
       <c r="A74" s="15" t="s">
@@ -22513,224 +22537,206 @@
       <c r="B74" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="E74" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" s="7">
+        <v>553659</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:26" ht="14.4">
+      <c r="A75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:26" ht="14.4">
+      <c r="A76" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F76" s="7">
         <v>1</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="3"/>
-      <c r="E75" s="7" t="s">
+    <row r="77" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="3"/>
+      <c r="E77" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A76" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="F76" s="7">
-        <v>5</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="L76" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" ht="14.4">
-      <c r="A77" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I77" s="3"/>
       <c r="J77" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>130</v>
+        <v>937</v>
       </c>
     </row>
     <row r="78" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="E78" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+        <v>836</v>
+      </c>
+      <c r="F78" s="7">
+        <v>5</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H78" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="I78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K78" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="D79" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="L78" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="14.4">
+      <c r="A79" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E79" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="F79" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="I79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K79" s="3" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" ht="14.4">
-      <c r="A80" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="15"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80" s="7">
-        <v>6772</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="81" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="7" t="s">
-        <v>955</v>
-      </c>
-      <c r="F81" s="7">
-        <v>5</v>
-      </c>
-      <c r="G81" s="58" t="s">
-        <v>109</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I81" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J81" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="23" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="E82" s="58" t="s">
-        <v>957</v>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="14.4">
+      <c r="A82" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="E82" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="F82" s="7">
-        <v>5</v>
-      </c>
-      <c r="G82" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J82" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="23" t="s">
-        <v>958</v>
-      </c>
+        <v>6772</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
-      <c r="E83" s="58" t="s">
-        <v>959</v>
+      <c r="E83" s="7" t="s">
+        <v>955</v>
       </c>
       <c r="F83" s="7">
         <v>5</v>
@@ -22748,265 +22754,251 @@
         <v>30</v>
       </c>
       <c r="K83" s="23" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
-      <c r="E84" s="7" t="s">
-        <v>843</v>
+      <c r="E84" s="58" t="s">
+        <v>957</v>
       </c>
       <c r="F84" s="7">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="58" t="s">
         <v>109</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>845</v>
+        <v>129</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
-      <c r="D85" s="57" t="s">
-        <v>945</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="F85" s="7"/>
+      <c r="E85" s="58" t="s">
+        <v>959</v>
+      </c>
+      <c r="F85" s="7">
+        <v>5</v>
+      </c>
       <c r="G85" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H85" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="I85" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="J85" s="23" t="s">
-        <v>948</v>
+      <c r="H85" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>953</v>
-      </c>
-      <c r="L85" s="23"/>
+        <v>960</v>
+      </c>
     </row>
     <row r="86" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
-      <c r="D86" s="57" t="s">
-        <v>945</v>
-      </c>
       <c r="E86" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H86" s="58" t="s">
-        <v>84</v>
+      <c r="H86" s="7" t="s">
+        <v>844</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>948</v>
+        <v>26</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="K86" s="57" t="s">
-        <v>954</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
+      <c r="D87" s="57" t="s">
+        <v>945</v>
+      </c>
       <c r="E87" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F87" s="7">
-        <v>10</v>
-      </c>
-      <c r="G87" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H87" s="7" t="s">
-        <v>626</v>
+      <c r="H87" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>26</v>
+        <v>948</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>27</v>
+        <v>948</v>
       </c>
       <c r="K87" s="23" t="s">
-        <v>848</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="L87" s="23"/>
     </row>
     <row r="88" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
+      <c r="D88" s="57" t="s">
+        <v>945</v>
+      </c>
       <c r="E88" s="7" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>626</v>
+      <c r="H88" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>34</v>
+        <v>948</v>
       </c>
       <c r="J88" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="23" t="s">
-        <v>964</v>
+        <v>948</v>
+      </c>
+      <c r="K88" s="57" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="E89" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
+        <v>842</v>
+      </c>
+      <c r="F89" s="7">
+        <v>10</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H89" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
+        <v>626</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="K89" s="23" t="s">
-        <v>944</v>
+        <v>848</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
-      <c r="D90" s="57" t="s">
+      <c r="E90" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="E91" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="D92" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="58" t="s">
+      <c r="F92" s="7"/>
+      <c r="G92" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I92" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J90" s="23" t="s">
+      <c r="J92" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K90" s="23" t="s">
+      <c r="K92" s="23" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A91" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="D91" s="57" t="s">
+    <row r="93" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A93" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="D93" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="58" t="s">
+      <c r="F93" s="7"/>
+      <c r="G93" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I91" s="23" t="s">
+      <c r="I93" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J91" s="23" t="s">
+      <c r="J93" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K91" s="23" t="s">
+      <c r="K93" s="23" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="14.4">
-      <c r="A92" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F92" s="18">
-        <v>1500</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="14.4">
-      <c r="A93" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F93" s="17">
-        <v>1500</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="14.4">
@@ -23019,16 +23011,16 @@
       <c r="D94" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E94" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F94" s="17">
+      <c r="E94" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" s="18">
         <v>1500</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H94" s="17" t="s">
+      <c r="H94" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I94" s="17" t="s">
@@ -23038,13 +23030,77 @@
         <v>30</v>
       </c>
       <c r="K94" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="14.4">
+      <c r="A95" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F95" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="14.4">
+      <c r="A96" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K96" s="17" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B54:B57">
+  <conditionalFormatting sqref="B56:B59">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B54))&gt;0</formula>
+      <formula>LEN(TRIM(B56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC51EE-DB3E-4C10-A4B5-CBFBEBAF5D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8BE106-7C20-42E4-B2E7-A77FFEB7B355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Conventions" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="972">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2799,9 +2800,6 @@
     <t>IDU INDEX of representative IDU on left bank of reach looking downstream</t>
   </si>
   <si>
-    <t>IDU INDEX of representative IDU on rightt bank of reach looking downstream</t>
-  </si>
-  <si>
     <t>DIRECTION</t>
   </si>
   <si>
@@ -3007,6 +3005,15 @@
   </si>
   <si>
     <t>average Manning depth of reach = length-weighted average of subreach Manning depths</t>
+  </si>
+  <si>
+    <t>IDU INDEX of representative IDU on right bank of reach looking downstream</t>
+  </si>
+  <si>
+    <t>leaf area index of streamside vegetation</t>
+  </si>
+  <si>
+    <t>m2 leaf/m2</t>
   </si>
 </sst>
 </file>
@@ -3659,21 +3666,21 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60:I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="21" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="21" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="21" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="21" customWidth="1"/>
     <col min="7" max="7" width="9" style="21" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="21" customWidth="1"/>
-    <col min="11" max="11" width="45.5546875" style="21" customWidth="1"/>
-    <col min="12" max="21" width="6.44140625" style="21" customWidth="1"/>
-    <col min="22" max="26" width="12.5546875" style="21" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="21"/>
+    <col min="8" max="8" width="43.140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="45.5703125" style="21" customWidth="1"/>
+    <col min="12" max="21" width="6.42578125" style="21" customWidth="1"/>
+    <col min="22" max="26" width="12.5703125" style="21" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -5897,7 +5904,7 @@
       <c r="W63" s="25"/>
       <c r="X63" s="25"/>
     </row>
-    <row r="64" spans="1:26" ht="14.4">
+    <row r="64" spans="1:26">
       <c r="A64" s="20" t="s">
         <v>23</v>
       </c>
@@ -5927,7 +5934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="14.4">
+    <row r="65" spans="1:26">
       <c r="A65" s="20" t="s">
         <v>23</v>
       </c>
@@ -5943,7 +5950,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:26" ht="14.4">
+    <row r="66" spans="1:26">
       <c r="A66" s="20" t="s">
         <v>23</v>
       </c>
@@ -5959,7 +5966,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:26" ht="14.4">
+    <row r="67" spans="1:26">
       <c r="A67" s="20" t="s">
         <v>23</v>
       </c>
@@ -5975,7 +5982,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:26" ht="14.4">
+    <row r="68" spans="1:26">
       <c r="A68" s="20" t="s">
         <v>23</v>
       </c>
@@ -6013,7 +6020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="14.4">
+    <row r="69" spans="1:26">
       <c r="A69" s="20" t="s">
         <v>23</v>
       </c>
@@ -6027,7 +6034,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:26" ht="14.4">
+    <row r="70" spans="1:26">
       <c r="A70" s="20" t="s">
         <v>23</v>
       </c>
@@ -6039,7 +6046,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:26" ht="14.4">
+    <row r="71" spans="1:26">
       <c r="A71" s="20" t="s">
         <v>23</v>
       </c>
@@ -6053,7 +6060,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:26" ht="14.4">
+    <row r="72" spans="1:26">
       <c r="A72" s="20" t="s">
         <v>23</v>
       </c>
@@ -6074,7 +6081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="14.4">
+    <row r="73" spans="1:26">
       <c r="A73" s="20" t="s">
         <v>23</v>
       </c>
@@ -6104,7 +6111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="14.4">
+    <row r="74" spans="1:26">
       <c r="A74" s="20" t="s">
         <v>23</v>
       </c>
@@ -6123,7 +6130,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:26" ht="14.4">
+    <row r="75" spans="1:26">
       <c r="A75" s="20" t="s">
         <v>23</v>
       </c>
@@ -6142,7 +6149,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:26" ht="14.4">
+    <row r="76" spans="1:26">
       <c r="A76" s="20" t="s">
         <v>23</v>
       </c>
@@ -6168,7 +6175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="14.4">
+    <row r="77" spans="1:26">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="E77" s="21" t="s">
@@ -6193,7 +6200,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="14.4">
+    <row r="78" spans="1:26">
       <c r="A78" s="20" t="s">
         <v>23</v>
       </c>
@@ -6209,7 +6216,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:26" ht="14.4">
+    <row r="79" spans="1:26">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="7" t="s">
@@ -6255,7 +6262,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" spans="1:26" ht="14.4">
+    <row r="80" spans="1:26">
       <c r="A80" s="20" t="s">
         <v>23</v>
       </c>
@@ -6276,7 +6283,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="14.4">
+    <row r="81" spans="1:26">
       <c r="A81" s="20" t="s">
         <v>23</v>
       </c>
@@ -6292,7 +6299,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:26" ht="14.4">
+    <row r="82" spans="1:26">
       <c r="A82" s="20" t="s">
         <v>23</v>
       </c>
@@ -6308,7 +6315,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:26" ht="14.4">
+    <row r="83" spans="1:26">
       <c r="A83" s="20" t="s">
         <v>23</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="14.4">
+    <row r="84" spans="1:26">
       <c r="A84" s="20" t="s">
         <v>23</v>
       </c>
@@ -6372,7 +6379,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="14.4">
+    <row r="85" spans="1:26">
       <c r="A85" s="20" t="s">
         <v>23</v>
       </c>
@@ -6386,7 +6393,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:26" ht="14.4">
+    <row r="86" spans="1:26">
       <c r="A86" s="20" t="s">
         <v>23</v>
       </c>
@@ -6418,7 +6425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="14.4">
+    <row r="87" spans="1:26">
       <c r="A87" s="20" t="s">
         <v>23</v>
       </c>
@@ -6450,7 +6457,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="14.4">
+    <row r="88" spans="1:26">
       <c r="A88" s="20" t="s">
         <v>23</v>
       </c>
@@ -6482,7 +6489,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="14.4">
+    <row r="89" spans="1:26">
       <c r="A89" s="20" t="s">
         <v>23</v>
       </c>
@@ -6514,7 +6521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="14.4">
+    <row r="90" spans="1:26">
       <c r="A90" s="20" t="s">
         <v>23</v>
       </c>
@@ -6546,7 +6553,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="14.4">
+    <row r="91" spans="1:26">
       <c r="A91" s="20" t="s">
         <v>23</v>
       </c>
@@ -6578,7 +6585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="14.4">
+    <row r="92" spans="1:26">
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="59.25" customHeight="1">
@@ -6629,7 +6636,7 @@
       <c r="U93" s="25"/>
       <c r="V93" s="25"/>
     </row>
-    <row r="94" spans="1:26" ht="14.4">
+    <row r="94" spans="1:26">
       <c r="A94" s="28" t="s">
         <v>160</v>
       </c>
@@ -6665,7 +6672,7 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
     </row>
-    <row r="95" spans="1:26" ht="14.4">
+    <row r="95" spans="1:26">
       <c r="A95" s="28" t="s">
         <v>160</v>
       </c>
@@ -6705,7 +6712,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26" ht="14.4">
+    <row r="96" spans="1:26">
       <c r="A96" s="28" t="s">
         <v>160</v>
       </c>
@@ -6815,7 +6822,7 @@
       <c r="U98" s="45"/>
       <c r="V98" s="45"/>
     </row>
-    <row r="99" spans="1:26" ht="14.4">
+    <row r="99" spans="1:26">
       <c r="A99" s="28" t="s">
         <v>160</v>
       </c>
@@ -6883,7 +6890,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26" ht="14.4">
+    <row r="101" spans="1:26">
       <c r="A101" s="28" t="s">
         <v>23</v>
       </c>
@@ -6897,2044 +6904,2044 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:26" ht="14.4">
+    <row r="102" spans="1:26">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:26" ht="14.4">
+    <row r="103" spans="1:26">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:26" ht="14.4">
+    <row r="104" spans="1:26">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:26" ht="14.4">
+    <row r="105" spans="1:26">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:26" ht="14.4">
+    <row r="106" spans="1:26">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:26" ht="14.4">
+    <row r="107" spans="1:26">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:26" ht="14.4">
+    <row r="108" spans="1:26">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:26" ht="14.4">
+    <row r="109" spans="1:26">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:26" ht="14.4">
+    <row r="110" spans="1:26">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:26" ht="14.4">
+    <row r="111" spans="1:26">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:26" ht="14.4">
+    <row r="112" spans="1:26">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" ht="14.4">
+    <row r="113" spans="2:2">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" ht="14.4">
+    <row r="114" spans="2:2">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" ht="14.4">
+    <row r="115" spans="2:2">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" ht="14.4">
+    <row r="116" spans="2:2">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" ht="14.4">
+    <row r="117" spans="2:2">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" ht="14.4">
+    <row r="118" spans="2:2">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" ht="14.4">
+    <row r="119" spans="2:2">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" ht="14.4">
+    <row r="120" spans="2:2">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" ht="14.4">
+    <row r="121" spans="2:2">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" ht="14.4">
+    <row r="122" spans="2:2">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" ht="14.4">
+    <row r="123" spans="2:2">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" ht="14.4">
+    <row r="124" spans="2:2">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" ht="14.4">
+    <row r="125" spans="2:2">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" ht="14.4">
+    <row r="126" spans="2:2">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" ht="14.4">
+    <row r="127" spans="2:2">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" ht="14.4">
+    <row r="128" spans="2:2">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" ht="14.4">
+    <row r="129" spans="2:2">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" ht="14.4">
+    <row r="130" spans="2:2">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" ht="14.4">
+    <row r="131" spans="2:2">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" ht="14.4">
+    <row r="132" spans="2:2">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" ht="14.4">
+    <row r="133" spans="2:2">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" ht="14.4">
+    <row r="134" spans="2:2">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" ht="14.4">
+    <row r="135" spans="2:2">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" ht="14.4">
+    <row r="136" spans="2:2">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" ht="14.4">
+    <row r="137" spans="2:2">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" ht="14.4">
+    <row r="138" spans="2:2">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" ht="14.4">
+    <row r="139" spans="2:2">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" ht="14.4">
+    <row r="140" spans="2:2">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" ht="14.4">
+    <row r="141" spans="2:2">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" ht="14.4">
+    <row r="142" spans="2:2">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" ht="14.4">
+    <row r="143" spans="2:2">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" ht="14.4">
+    <row r="144" spans="2:2">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" ht="14.4">
+    <row r="145" spans="2:2">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" ht="14.4">
+    <row r="146" spans="2:2">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" ht="14.4">
+    <row r="147" spans="2:2">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" ht="14.4">
+    <row r="148" spans="2:2">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" ht="14.4">
+    <row r="149" spans="2:2">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" ht="14.4">
+    <row r="150" spans="2:2">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" ht="14.4">
+    <row r="151" spans="2:2">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" ht="14.4">
+    <row r="152" spans="2:2">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" ht="14.4">
+    <row r="153" spans="2:2">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" ht="14.4">
+    <row r="154" spans="2:2">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" ht="14.4">
+    <row r="155" spans="2:2">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" ht="14.4">
+    <row r="156" spans="2:2">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" ht="14.4">
+    <row r="157" spans="2:2">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" ht="14.4">
+    <row r="158" spans="2:2">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" ht="14.4">
+    <row r="159" spans="2:2">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" ht="14.4">
+    <row r="160" spans="2:2">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" ht="14.4">
+    <row r="161" spans="2:2">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" ht="14.4">
+    <row r="162" spans="2:2">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" ht="14.4">
+    <row r="163" spans="2:2">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" ht="14.4">
+    <row r="164" spans="2:2">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" ht="14.4">
+    <row r="165" spans="2:2">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" ht="14.4">
+    <row r="166" spans="2:2">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" ht="14.4">
+    <row r="167" spans="2:2">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" ht="14.4">
+    <row r="168" spans="2:2">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" ht="14.4">
+    <row r="169" spans="2:2">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" ht="14.4">
+    <row r="170" spans="2:2">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" ht="14.4">
+    <row r="171" spans="2:2">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" ht="14.4">
+    <row r="172" spans="2:2">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" ht="14.4">
+    <row r="173" spans="2:2">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" ht="14.4">
+    <row r="174" spans="2:2">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" ht="14.4">
+    <row r="175" spans="2:2">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" ht="14.4">
+    <row r="176" spans="2:2">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" ht="14.4">
+    <row r="177" spans="2:2">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" ht="14.4">
+    <row r="178" spans="2:2">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" ht="14.4">
+    <row r="179" spans="2:2">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" ht="14.4">
+    <row r="180" spans="2:2">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" ht="14.4">
+    <row r="181" spans="2:2">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" ht="14.4">
+    <row r="182" spans="2:2">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" ht="14.4">
+    <row r="183" spans="2:2">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" ht="14.4">
+    <row r="184" spans="2:2">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" ht="14.4">
+    <row r="185" spans="2:2">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" ht="14.4">
+    <row r="186" spans="2:2">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" ht="14.4">
+    <row r="187" spans="2:2">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" ht="14.4">
+    <row r="188" spans="2:2">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" ht="14.4">
+    <row r="189" spans="2:2">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" ht="14.4">
+    <row r="190" spans="2:2">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" ht="14.4">
+    <row r="191" spans="2:2">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" ht="14.4">
+    <row r="192" spans="2:2">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" ht="14.4">
+    <row r="193" spans="2:2">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" ht="14.4">
+    <row r="194" spans="2:2">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" ht="14.4">
+    <row r="195" spans="2:2">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" ht="14.4">
+    <row r="196" spans="2:2">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" ht="14.4">
+    <row r="197" spans="2:2">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" ht="14.4">
+    <row r="198" spans="2:2">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" ht="14.4">
+    <row r="199" spans="2:2">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" ht="14.4">
+    <row r="200" spans="2:2">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" ht="14.4">
+    <row r="201" spans="2:2">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" ht="14.4">
+    <row r="202" spans="2:2">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" ht="14.4">
+    <row r="203" spans="2:2">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" ht="14.4">
+    <row r="204" spans="2:2">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" ht="14.4">
+    <row r="205" spans="2:2">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" ht="14.4">
+    <row r="206" spans="2:2">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" ht="14.4">
+    <row r="207" spans="2:2">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" ht="14.4">
+    <row r="208" spans="2:2">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" ht="14.4">
+    <row r="209" spans="2:2">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" ht="14.4">
+    <row r="210" spans="2:2">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" ht="14.4">
+    <row r="211" spans="2:2">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" ht="14.4">
+    <row r="212" spans="2:2">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" ht="14.4">
+    <row r="213" spans="2:2">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" ht="14.4">
+    <row r="214" spans="2:2">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" ht="14.4">
+    <row r="215" spans="2:2">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" ht="14.4">
+    <row r="216" spans="2:2">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" ht="14.4">
+    <row r="217" spans="2:2">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" ht="14.4">
+    <row r="218" spans="2:2">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" ht="14.4">
+    <row r="219" spans="2:2">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" ht="14.4">
+    <row r="220" spans="2:2">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" ht="14.4">
+    <row r="221" spans="2:2">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" ht="14.4">
+    <row r="222" spans="2:2">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" ht="14.4">
+    <row r="223" spans="2:2">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" ht="14.4">
+    <row r="224" spans="2:2">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" ht="14.4">
+    <row r="225" spans="2:2">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" ht="14.4">
+    <row r="226" spans="2:2">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" ht="14.4">
+    <row r="227" spans="2:2">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" ht="14.4">
+    <row r="228" spans="2:2">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" ht="14.4">
+    <row r="229" spans="2:2">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" ht="14.4">
+    <row r="230" spans="2:2">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" ht="14.4">
+    <row r="231" spans="2:2">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" ht="14.4">
+    <row r="232" spans="2:2">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" ht="14.4">
+    <row r="233" spans="2:2">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" ht="14.4">
+    <row r="234" spans="2:2">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" ht="14.4">
+    <row r="235" spans="2:2">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" ht="14.4">
+    <row r="236" spans="2:2">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" ht="14.4">
+    <row r="237" spans="2:2">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" ht="14.4">
+    <row r="238" spans="2:2">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" ht="14.4">
+    <row r="239" spans="2:2">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" ht="14.4">
+    <row r="240" spans="2:2">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" ht="14.4">
+    <row r="241" spans="2:2">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" ht="14.4">
+    <row r="242" spans="2:2">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" ht="14.4">
+    <row r="243" spans="2:2">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" ht="14.4">
+    <row r="244" spans="2:2">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" ht="14.4">
+    <row r="245" spans="2:2">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" ht="14.4">
+    <row r="246" spans="2:2">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" ht="14.4">
+    <row r="247" spans="2:2">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" ht="14.4">
+    <row r="248" spans="2:2">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" ht="14.4">
+    <row r="249" spans="2:2">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" ht="14.4">
+    <row r="250" spans="2:2">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" ht="14.4">
+    <row r="251" spans="2:2">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" ht="14.4">
+    <row r="252" spans="2:2">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" ht="14.4">
+    <row r="253" spans="2:2">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" ht="14.4">
+    <row r="254" spans="2:2">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" ht="14.4">
+    <row r="255" spans="2:2">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" ht="14.4">
+    <row r="256" spans="2:2">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" ht="14.4">
+    <row r="257" spans="2:2">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" ht="14.4">
+    <row r="258" spans="2:2">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" ht="14.4">
+    <row r="259" spans="2:2">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" ht="14.4">
+    <row r="260" spans="2:2">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" ht="14.4">
+    <row r="261" spans="2:2">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" ht="14.4">
+    <row r="262" spans="2:2">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" ht="14.4">
+    <row r="263" spans="2:2">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" ht="14.4">
+    <row r="264" spans="2:2">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" ht="14.4">
+    <row r="265" spans="2:2">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" ht="14.4">
+    <row r="266" spans="2:2">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" ht="14.4">
+    <row r="267" spans="2:2">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" ht="14.4">
+    <row r="268" spans="2:2">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" ht="14.4">
+    <row r="269" spans="2:2">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" ht="14.4">
+    <row r="270" spans="2:2">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" ht="14.4">
+    <row r="271" spans="2:2">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" ht="14.4">
+    <row r="272" spans="2:2">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" ht="14.4">
+    <row r="273" spans="2:2">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" ht="14.4">
+    <row r="274" spans="2:2">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" ht="14.4">
+    <row r="275" spans="2:2">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" ht="14.4">
+    <row r="276" spans="2:2">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" ht="14.4">
+    <row r="277" spans="2:2">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" ht="14.4">
+    <row r="278" spans="2:2">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" ht="14.4">
+    <row r="279" spans="2:2">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" ht="14.4">
+    <row r="280" spans="2:2">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" ht="14.4">
+    <row r="281" spans="2:2">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" ht="14.4">
+    <row r="282" spans="2:2">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" ht="14.4">
+    <row r="283" spans="2:2">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" ht="14.4">
+    <row r="284" spans="2:2">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" ht="14.4">
+    <row r="285" spans="2:2">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" ht="14.4">
+    <row r="286" spans="2:2">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" ht="14.4">
+    <row r="287" spans="2:2">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" ht="14.4">
+    <row r="288" spans="2:2">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" ht="14.4">
+    <row r="289" spans="2:2">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" ht="14.4">
+    <row r="290" spans="2:2">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" ht="14.4">
+    <row r="291" spans="2:2">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" ht="14.4">
+    <row r="292" spans="2:2">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" ht="14.4">
+    <row r="293" spans="2:2">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" ht="14.4">
+    <row r="294" spans="2:2">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" ht="14.4">
+    <row r="295" spans="2:2">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" ht="14.4">
+    <row r="296" spans="2:2">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" ht="14.4">
+    <row r="297" spans="2:2">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" ht="14.4">
+    <row r="298" spans="2:2">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" ht="14.4">
+    <row r="299" spans="2:2">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" ht="14.4">
+    <row r="300" spans="2:2">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" ht="14.4">
+    <row r="301" spans="2:2">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" ht="14.4">
+    <row r="302" spans="2:2">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" ht="14.4">
+    <row r="303" spans="2:2">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" ht="14.4">
+    <row r="304" spans="2:2">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" ht="14.4">
+    <row r="305" spans="2:2">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" ht="14.4">
+    <row r="306" spans="2:2">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" ht="14.4">
+    <row r="307" spans="2:2">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" ht="14.4">
+    <row r="308" spans="2:2">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" ht="14.4">
+    <row r="309" spans="2:2">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" ht="14.4">
+    <row r="310" spans="2:2">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" ht="14.4">
+    <row r="311" spans="2:2">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" ht="14.4">
+    <row r="312" spans="2:2">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" ht="14.4">
+    <row r="313" spans="2:2">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" ht="14.4">
+    <row r="314" spans="2:2">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" ht="14.4">
+    <row r="315" spans="2:2">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" ht="14.4">
+    <row r="316" spans="2:2">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" ht="14.4">
+    <row r="317" spans="2:2">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" ht="14.4">
+    <row r="318" spans="2:2">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" ht="14.4">
+    <row r="319" spans="2:2">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" ht="14.4">
+    <row r="320" spans="2:2">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" ht="14.4">
+    <row r="321" spans="2:2">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" ht="14.4">
+    <row r="322" spans="2:2">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" ht="14.4">
+    <row r="323" spans="2:2">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" ht="14.4">
+    <row r="324" spans="2:2">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" ht="14.4">
+    <row r="325" spans="2:2">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" ht="14.4">
+    <row r="326" spans="2:2">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" ht="14.4">
+    <row r="327" spans="2:2">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" ht="14.4">
+    <row r="328" spans="2:2">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" ht="14.4">
+    <row r="329" spans="2:2">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" ht="14.4">
+    <row r="330" spans="2:2">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" ht="14.4">
+    <row r="331" spans="2:2">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" ht="14.4">
+    <row r="332" spans="2:2">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" ht="14.4">
+    <row r="333" spans="2:2">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" ht="14.4">
+    <row r="334" spans="2:2">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" ht="14.4">
+    <row r="335" spans="2:2">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" ht="14.4">
+    <row r="336" spans="2:2">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" ht="14.4">
+    <row r="337" spans="2:2">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" ht="14.4">
+    <row r="338" spans="2:2">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" ht="14.4">
+    <row r="339" spans="2:2">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" ht="14.4">
+    <row r="340" spans="2:2">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" ht="14.4">
+    <row r="341" spans="2:2">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" ht="14.4">
+    <row r="342" spans="2:2">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" ht="14.4">
+    <row r="343" spans="2:2">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" ht="14.4">
+    <row r="344" spans="2:2">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" ht="14.4">
+    <row r="345" spans="2:2">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" ht="14.4">
+    <row r="346" spans="2:2">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" ht="14.4">
+    <row r="347" spans="2:2">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" ht="14.4">
+    <row r="348" spans="2:2">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" ht="14.4">
+    <row r="349" spans="2:2">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" ht="14.4">
+    <row r="350" spans="2:2">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" ht="14.4">
+    <row r="351" spans="2:2">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" ht="14.4">
+    <row r="352" spans="2:2">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" ht="14.4">
+    <row r="353" spans="2:2">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" ht="14.4">
+    <row r="354" spans="2:2">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" ht="14.4">
+    <row r="355" spans="2:2">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" ht="14.4">
+    <row r="356" spans="2:2">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" ht="14.4">
+    <row r="357" spans="2:2">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" ht="14.4">
+    <row r="358" spans="2:2">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" ht="14.4">
+    <row r="359" spans="2:2">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" ht="14.4">
+    <row r="360" spans="2:2">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" ht="14.4">
+    <row r="361" spans="2:2">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" ht="14.4">
+    <row r="362" spans="2:2">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" ht="14.4">
+    <row r="363" spans="2:2">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" ht="14.4">
+    <row r="364" spans="2:2">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" ht="14.4">
+    <row r="365" spans="2:2">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" ht="14.4">
+    <row r="366" spans="2:2">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" ht="14.4">
+    <row r="367" spans="2:2">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" ht="14.4">
+    <row r="368" spans="2:2">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" ht="14.4">
+    <row r="369" spans="2:2">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" ht="14.4">
+    <row r="370" spans="2:2">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" ht="14.4">
+    <row r="371" spans="2:2">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" ht="14.4">
+    <row r="372" spans="2:2">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" ht="14.4">
+    <row r="373" spans="2:2">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" ht="14.4">
+    <row r="374" spans="2:2">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" ht="14.4">
+    <row r="375" spans="2:2">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" ht="14.4">
+    <row r="376" spans="2:2">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" ht="14.4">
+    <row r="377" spans="2:2">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" ht="14.4">
+    <row r="378" spans="2:2">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" ht="14.4">
+    <row r="379" spans="2:2">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" ht="14.4">
+    <row r="380" spans="2:2">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" ht="14.4">
+    <row r="381" spans="2:2">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" ht="14.4">
+    <row r="382" spans="2:2">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" ht="14.4">
+    <row r="383" spans="2:2">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" ht="14.4">
+    <row r="384" spans="2:2">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" ht="14.4">
+    <row r="385" spans="2:2">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" ht="14.4">
+    <row r="386" spans="2:2">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" ht="14.4">
+    <row r="387" spans="2:2">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" ht="14.4">
+    <row r="388" spans="2:2">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" ht="14.4">
+    <row r="389" spans="2:2">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" ht="14.4">
+    <row r="390" spans="2:2">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" ht="14.4">
+    <row r="391" spans="2:2">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" ht="14.4">
+    <row r="392" spans="2:2">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" ht="14.4">
+    <row r="393" spans="2:2">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" ht="14.4">
+    <row r="394" spans="2:2">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" ht="14.4">
+    <row r="395" spans="2:2">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" ht="14.4">
+    <row r="396" spans="2:2">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" ht="14.4">
+    <row r="397" spans="2:2">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" ht="14.4">
+    <row r="398" spans="2:2">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" ht="14.4">
+    <row r="399" spans="2:2">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" ht="14.4">
+    <row r="400" spans="2:2">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" ht="14.4">
+    <row r="401" spans="2:2">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" ht="14.4">
+    <row r="402" spans="2:2">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" ht="14.4">
+    <row r="403" spans="2:2">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" ht="14.4">
+    <row r="404" spans="2:2">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" ht="14.4">
+    <row r="405" spans="2:2">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" ht="14.4">
+    <row r="406" spans="2:2">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" ht="14.4">
+    <row r="407" spans="2:2">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" ht="14.4">
+    <row r="408" spans="2:2">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" ht="14.4">
+    <row r="409" spans="2:2">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" ht="14.4">
+    <row r="410" spans="2:2">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" ht="14.4">
+    <row r="411" spans="2:2">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" ht="14.4">
+    <row r="412" spans="2:2">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" ht="14.4">
+    <row r="413" spans="2:2">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" ht="14.4">
+    <row r="414" spans="2:2">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" ht="14.4">
+    <row r="415" spans="2:2">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" ht="14.4">
+    <row r="416" spans="2:2">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" ht="14.4">
+    <row r="417" spans="2:2">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" ht="14.4">
+    <row r="418" spans="2:2">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" ht="14.4">
+    <row r="419" spans="2:2">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" ht="14.4">
+    <row r="420" spans="2:2">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" ht="14.4">
+    <row r="421" spans="2:2">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" ht="14.4">
+    <row r="422" spans="2:2">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" ht="14.4">
+    <row r="423" spans="2:2">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" ht="14.4">
+    <row r="424" spans="2:2">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" ht="14.4">
+    <row r="425" spans="2:2">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" ht="14.4">
+    <row r="426" spans="2:2">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" ht="14.4">
+    <row r="427" spans="2:2">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" ht="14.4">
+    <row r="428" spans="2:2">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" ht="14.4">
+    <row r="429" spans="2:2">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" ht="14.4">
+    <row r="430" spans="2:2">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" ht="14.4">
+    <row r="431" spans="2:2">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" ht="14.4">
+    <row r="432" spans="2:2">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" ht="14.4">
+    <row r="433" spans="2:2">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" ht="14.4">
+    <row r="434" spans="2:2">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" ht="14.4">
+    <row r="435" spans="2:2">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" ht="14.4">
+    <row r="436" spans="2:2">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" ht="14.4">
+    <row r="437" spans="2:2">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" ht="14.4">
+    <row r="438" spans="2:2">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" ht="14.4">
+    <row r="439" spans="2:2">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" ht="14.4">
+    <row r="440" spans="2:2">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" ht="14.4">
+    <row r="441" spans="2:2">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" ht="14.4">
+    <row r="442" spans="2:2">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" ht="14.4">
+    <row r="443" spans="2:2">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" ht="14.4">
+    <row r="444" spans="2:2">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" ht="14.4">
+    <row r="445" spans="2:2">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" ht="14.4">
+    <row r="446" spans="2:2">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" ht="14.4">
+    <row r="447" spans="2:2">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" ht="14.4">
+    <row r="448" spans="2:2">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" ht="14.4">
+    <row r="449" spans="2:2">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" ht="14.4">
+    <row r="450" spans="2:2">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" ht="14.4">
+    <row r="451" spans="2:2">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" ht="14.4">
+    <row r="452" spans="2:2">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" ht="14.4">
+    <row r="453" spans="2:2">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" ht="14.4">
+    <row r="454" spans="2:2">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" ht="14.4">
+    <row r="455" spans="2:2">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" ht="14.4">
+    <row r="456" spans="2:2">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" ht="14.4">
+    <row r="457" spans="2:2">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" ht="14.4">
+    <row r="458" spans="2:2">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" ht="14.4">
+    <row r="459" spans="2:2">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" ht="14.4">
+    <row r="460" spans="2:2">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" ht="14.4">
+    <row r="461" spans="2:2">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" ht="14.4">
+    <row r="462" spans="2:2">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" ht="14.4">
+    <row r="463" spans="2:2">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" ht="14.4">
+    <row r="464" spans="2:2">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" ht="14.4">
+    <row r="465" spans="2:2">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" ht="14.4">
+    <row r="466" spans="2:2">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" ht="14.4">
+    <row r="467" spans="2:2">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" ht="14.4">
+    <row r="468" spans="2:2">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" ht="14.4">
+    <row r="469" spans="2:2">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" ht="14.4">
+    <row r="470" spans="2:2">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" ht="14.4">
+    <row r="471" spans="2:2">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" ht="14.4">
+    <row r="472" spans="2:2">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" ht="14.4">
+    <row r="473" spans="2:2">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" ht="14.4">
+    <row r="474" spans="2:2">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" ht="14.4">
+    <row r="475" spans="2:2">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" ht="14.4">
+    <row r="476" spans="2:2">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" ht="14.4">
+    <row r="477" spans="2:2">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" ht="14.4">
+    <row r="478" spans="2:2">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" ht="14.4">
+    <row r="479" spans="2:2">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" ht="14.4">
+    <row r="480" spans="2:2">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" ht="14.4">
+    <row r="481" spans="2:2">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" ht="14.4">
+    <row r="482" spans="2:2">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" ht="14.4">
+    <row r="483" spans="2:2">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" ht="14.4">
+    <row r="484" spans="2:2">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" ht="14.4">
+    <row r="485" spans="2:2">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" ht="14.4">
+    <row r="486" spans="2:2">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" ht="14.4">
+    <row r="487" spans="2:2">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" ht="14.4">
+    <row r="488" spans="2:2">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" ht="14.4">
+    <row r="489" spans="2:2">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" ht="14.4">
+    <row r="490" spans="2:2">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" ht="14.4">
+    <row r="491" spans="2:2">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" ht="14.4">
+    <row r="492" spans="2:2">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" ht="14.4">
+    <row r="493" spans="2:2">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" ht="14.4">
+    <row r="494" spans="2:2">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" ht="14.4">
+    <row r="495" spans="2:2">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" ht="14.4">
+    <row r="496" spans="2:2">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" ht="14.4">
+    <row r="497" spans="2:2">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" ht="14.4">
+    <row r="498" spans="2:2">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" ht="14.4">
+    <row r="499" spans="2:2">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" ht="14.4">
+    <row r="500" spans="2:2">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" ht="14.4">
+    <row r="501" spans="2:2">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" ht="14.4">
+    <row r="502" spans="2:2">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" ht="14.4">
+    <row r="503" spans="2:2">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" ht="14.4">
+    <row r="504" spans="2:2">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" ht="14.4">
+    <row r="505" spans="2:2">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" ht="14.4">
+    <row r="506" spans="2:2">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" ht="14.4">
+    <row r="507" spans="2:2">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" ht="14.4">
+    <row r="508" spans="2:2">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" ht="14.4">
+    <row r="509" spans="2:2">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" ht="14.4">
+    <row r="510" spans="2:2">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" ht="14.4">
+    <row r="511" spans="2:2">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" ht="14.4">
+    <row r="512" spans="2:2">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" ht="14.4">
+    <row r="513" spans="2:2">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" ht="14.4">
+    <row r="514" spans="2:2">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" ht="14.4">
+    <row r="515" spans="2:2">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" ht="14.4">
+    <row r="516" spans="2:2">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" ht="14.4">
+    <row r="517" spans="2:2">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" ht="14.4">
+    <row r="518" spans="2:2">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" ht="14.4">
+    <row r="519" spans="2:2">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" ht="14.4">
+    <row r="520" spans="2:2">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" ht="14.4">
+    <row r="521" spans="2:2">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" ht="14.4">
+    <row r="522" spans="2:2">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" ht="14.4">
+    <row r="523" spans="2:2">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" ht="14.4">
+    <row r="524" spans="2:2">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" ht="14.4">
+    <row r="525" spans="2:2">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" ht="14.4">
+    <row r="526" spans="2:2">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" ht="14.4">
+    <row r="527" spans="2:2">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" ht="14.4">
+    <row r="528" spans="2:2">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" ht="14.4">
+    <row r="529" spans="2:2">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" ht="14.4">
+    <row r="530" spans="2:2">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" ht="14.4">
+    <row r="531" spans="2:2">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" ht="14.4">
+    <row r="532" spans="2:2">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" ht="14.4">
+    <row r="533" spans="2:2">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" ht="14.4">
+    <row r="534" spans="2:2">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" ht="14.4">
+    <row r="535" spans="2:2">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" ht="14.4">
+    <row r="536" spans="2:2">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" ht="14.4">
+    <row r="537" spans="2:2">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" ht="14.4">
+    <row r="538" spans="2:2">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" ht="14.4">
+    <row r="539" spans="2:2">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" ht="14.4">
+    <row r="540" spans="2:2">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" ht="14.4">
+    <row r="541" spans="2:2">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" ht="14.4">
+    <row r="542" spans="2:2">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" ht="14.4">
+    <row r="543" spans="2:2">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" ht="14.4">
+    <row r="544" spans="2:2">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" ht="14.4">
+    <row r="545" spans="2:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" ht="14.4">
+    <row r="546" spans="2:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" ht="14.4">
+    <row r="547" spans="2:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" ht="14.4">
+    <row r="548" spans="2:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" ht="14.4">
+    <row r="549" spans="2:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" ht="14.4">
+    <row r="550" spans="2:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" ht="14.4">
+    <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" ht="14.4">
+    <row r="552" spans="2:2">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" ht="14.4">
+    <row r="553" spans="2:2">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" ht="14.4">
+    <row r="554" spans="2:2">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" ht="14.4">
+    <row r="555" spans="2:2">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" ht="14.4">
+    <row r="556" spans="2:2">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" ht="14.4">
+    <row r="557" spans="2:2">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" ht="14.4">
+    <row r="558" spans="2:2">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" ht="14.4">
+    <row r="559" spans="2:2">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" ht="14.4">
+    <row r="560" spans="2:2">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" ht="14.4">
+    <row r="561" spans="2:2">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" ht="14.4">
+    <row r="562" spans="2:2">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" ht="14.4">
+    <row r="563" spans="2:2">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" ht="14.4">
+    <row r="564" spans="2:2">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" ht="14.4">
+    <row r="565" spans="2:2">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" ht="14.4">
+    <row r="566" spans="2:2">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" ht="14.4">
+    <row r="567" spans="2:2">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" ht="14.4">
+    <row r="568" spans="2:2">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" ht="14.4">
+    <row r="569" spans="2:2">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" ht="14.4">
+    <row r="570" spans="2:2">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" ht="14.4">
+    <row r="571" spans="2:2">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" ht="14.4">
+    <row r="572" spans="2:2">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" ht="14.4">
+    <row r="573" spans="2:2">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" ht="14.4">
+    <row r="574" spans="2:2">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" ht="14.4">
+    <row r="575" spans="2:2">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" ht="14.4">
+    <row r="576" spans="2:2">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" ht="14.4">
+    <row r="577" spans="2:2">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" ht="14.4">
+    <row r="578" spans="2:2">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" ht="14.4">
+    <row r="579" spans="2:2">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" ht="14.4">
+    <row r="580" spans="2:2">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" ht="14.4">
+    <row r="581" spans="2:2">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" ht="14.4">
+    <row r="582" spans="2:2">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" ht="14.4">
+    <row r="583" spans="2:2">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" ht="14.4">
+    <row r="584" spans="2:2">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" ht="14.4">
+    <row r="585" spans="2:2">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" ht="14.4">
+    <row r="586" spans="2:2">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" ht="14.4">
+    <row r="587" spans="2:2">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" ht="14.4">
+    <row r="588" spans="2:2">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" ht="14.4">
+    <row r="589" spans="2:2">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" ht="14.4">
+    <row r="590" spans="2:2">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" ht="14.4">
+    <row r="591" spans="2:2">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" ht="14.4">
+    <row r="592" spans="2:2">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" ht="14.4">
+    <row r="593" spans="2:2">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" ht="14.4">
+    <row r="594" spans="2:2">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" ht="14.4">
+    <row r="595" spans="2:2">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" ht="14.4">
+    <row r="596" spans="2:2">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" ht="14.4">
+    <row r="597" spans="2:2">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" ht="14.4">
+    <row r="598" spans="2:2">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" ht="14.4">
+    <row r="599" spans="2:2">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" ht="14.4">
+    <row r="600" spans="2:2">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" ht="14.4">
+    <row r="601" spans="2:2">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2" ht="14.4">
+    <row r="602" spans="2:2">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2" ht="14.4">
+    <row r="603" spans="2:2">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2" ht="14.4">
+    <row r="604" spans="2:2">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2" ht="14.4">
+    <row r="605" spans="2:2">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2" ht="14.4">
+    <row r="606" spans="2:2">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2" ht="14.4">
+    <row r="607" spans="2:2">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2" ht="14.4">
+    <row r="608" spans="2:2">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2" ht="14.4">
+    <row r="609" spans="2:2">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2" ht="14.4">
+    <row r="610" spans="2:2">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2" ht="14.4">
+    <row r="611" spans="2:2">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2" ht="14.4">
+    <row r="612" spans="2:2">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2" ht="14.4">
+    <row r="613" spans="2:2">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2" ht="14.4">
+    <row r="614" spans="2:2">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2" ht="14.4">
+    <row r="615" spans="2:2">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2" ht="14.4">
+    <row r="616" spans="2:2">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2" ht="14.4">
+    <row r="617" spans="2:2">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2" ht="14.4">
+    <row r="618" spans="2:2">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2" ht="14.4">
+    <row r="619" spans="2:2">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2" ht="14.4">
+    <row r="620" spans="2:2">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2" ht="14.4">
+    <row r="621" spans="2:2">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2" ht="14.4">
+    <row r="622" spans="2:2">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2" ht="14.4">
+    <row r="623" spans="2:2">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2" ht="14.4">
+    <row r="624" spans="2:2">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2" ht="14.4">
+    <row r="625" spans="2:2">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2" ht="14.4">
+    <row r="626" spans="2:2">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2" ht="14.4">
+    <row r="627" spans="2:2">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2" ht="14.4">
+    <row r="628" spans="2:2">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2" ht="14.4">
+    <row r="629" spans="2:2">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2" ht="14.4">
+    <row r="630" spans="2:2">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2" ht="14.4">
+    <row r="631" spans="2:2">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2" ht="14.4">
+    <row r="632" spans="2:2">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2" ht="14.4">
+    <row r="633" spans="2:2">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2" ht="14.4">
+    <row r="634" spans="2:2">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2" ht="14.4">
+    <row r="635" spans="2:2">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2" ht="14.4">
+    <row r="636" spans="2:2">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2" ht="14.4">
+    <row r="637" spans="2:2">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2" ht="14.4">
+    <row r="638" spans="2:2">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2" ht="14.4">
+    <row r="639" spans="2:2">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2" ht="14.4">
+    <row r="640" spans="2:2">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2" ht="14.4">
+    <row r="641" spans="2:2">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2" ht="14.4">
+    <row r="642" spans="2:2">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2" ht="14.4">
+    <row r="643" spans="2:2">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2" ht="14.4">
+    <row r="644" spans="2:2">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2" ht="14.4">
+    <row r="645" spans="2:2">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2" ht="14.4">
+    <row r="646" spans="2:2">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2" ht="14.4">
+    <row r="647" spans="2:2">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2" ht="14.4">
+    <row r="648" spans="2:2">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2" ht="14.4">
+    <row r="649" spans="2:2">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2" ht="14.4">
+    <row r="650" spans="2:2">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2" ht="14.4">
+    <row r="651" spans="2:2">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2" ht="14.4">
+    <row r="652" spans="2:2">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2" ht="14.4">
+    <row r="653" spans="2:2">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2" ht="14.4">
+    <row r="654" spans="2:2">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2" ht="14.4">
+    <row r="655" spans="2:2">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2" ht="14.4">
+    <row r="656" spans="2:2">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2" ht="14.4">
+    <row r="657" spans="2:2">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2" ht="14.4">
+    <row r="658" spans="2:2">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2" ht="14.4">
+    <row r="659" spans="2:2">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2" ht="14.4">
+    <row r="660" spans="2:2">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2" ht="14.4">
+    <row r="661" spans="2:2">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2" ht="14.4">
+    <row r="662" spans="2:2">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2" ht="14.4">
+    <row r="663" spans="2:2">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2" ht="14.4">
+    <row r="664" spans="2:2">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2" ht="14.4">
+    <row r="665" spans="2:2">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2" ht="14.4">
+    <row r="666" spans="2:2">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2" ht="14.4">
+    <row r="667" spans="2:2">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2" ht="14.4">
+    <row r="668" spans="2:2">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2" ht="14.4">
+    <row r="669" spans="2:2">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2" ht="14.4">
+    <row r="670" spans="2:2">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2" ht="14.4">
+    <row r="671" spans="2:2">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2" ht="14.4">
+    <row r="672" spans="2:2">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2" ht="14.4">
+    <row r="673" spans="2:2">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2" ht="14.4">
+    <row r="674" spans="2:2">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2" ht="14.4">
+    <row r="675" spans="2:2">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2" ht="14.4">
+    <row r="676" spans="2:2">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2" ht="14.4">
+    <row r="677" spans="2:2">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2" ht="14.4">
+    <row r="678" spans="2:2">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2" ht="14.4">
+    <row r="679" spans="2:2">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2" ht="14.4">
+    <row r="680" spans="2:2">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2" ht="14.4">
+    <row r="681" spans="2:2">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2" ht="14.4">
+    <row r="682" spans="2:2">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2" ht="14.4">
+    <row r="683" spans="2:2">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2" ht="14.4">
+    <row r="684" spans="2:2">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2" ht="14.4">
+    <row r="685" spans="2:2">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2" ht="14.4">
+    <row r="686" spans="2:2">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2" ht="14.4">
+    <row r="687" spans="2:2">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2" ht="14.4">
+    <row r="688" spans="2:2">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2" ht="14.4">
+    <row r="689" spans="2:2">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2" ht="14.4">
+    <row r="690" spans="2:2">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2" ht="14.4">
+    <row r="691" spans="2:2">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2" ht="14.4">
+    <row r="692" spans="2:2">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2" ht="14.4">
+    <row r="693" spans="2:2">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2" ht="14.4">
+    <row r="694" spans="2:2">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2" ht="14.4">
+    <row r="695" spans="2:2">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2" ht="14.4">
+    <row r="696" spans="2:2">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2" ht="14.4">
+    <row r="697" spans="2:2">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2" ht="14.4">
+    <row r="698" spans="2:2">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2" ht="14.4">
+    <row r="699" spans="2:2">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2" ht="14.4">
+    <row r="700" spans="2:2">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2" ht="14.4">
+    <row r="701" spans="2:2">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2" ht="14.4">
+    <row r="702" spans="2:2">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2" ht="14.4">
+    <row r="703" spans="2:2">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2" ht="14.4">
+    <row r="704" spans="2:2">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2" ht="14.4">
+    <row r="705" spans="2:2">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2" ht="14.4">
+    <row r="706" spans="2:2">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2" ht="14.4">
+    <row r="707" spans="2:2">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2" ht="14.4">
+    <row r="708" spans="2:2">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2" ht="14.4">
+    <row r="709" spans="2:2">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2" ht="14.4">
+    <row r="710" spans="2:2">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2" ht="14.4">
+    <row r="711" spans="2:2">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2" ht="14.4">
+    <row r="712" spans="2:2">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2" ht="14.4">
+    <row r="713" spans="2:2">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2" ht="14.4">
+    <row r="714" spans="2:2">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2" ht="14.4">
+    <row r="715" spans="2:2">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2" ht="14.4">
+    <row r="716" spans="2:2">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2" ht="14.4">
+    <row r="717" spans="2:2">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2" ht="14.4">
+    <row r="718" spans="2:2">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2" ht="14.4">
+    <row r="719" spans="2:2">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2" ht="14.4">
+    <row r="720" spans="2:2">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2" ht="14.4">
+    <row r="721" spans="2:2">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2" ht="14.4">
+    <row r="722" spans="2:2">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2" ht="14.4">
+    <row r="723" spans="2:2">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2" ht="14.4">
+    <row r="724" spans="2:2">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2" ht="14.4">
+    <row r="725" spans="2:2">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2" ht="14.4">
+    <row r="726" spans="2:2">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2" ht="14.4">
+    <row r="727" spans="2:2">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2" ht="14.4">
+    <row r="728" spans="2:2">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2" ht="14.4">
+    <row r="729" spans="2:2">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2" ht="14.4">
+    <row r="730" spans="2:2">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2" ht="14.4">
+    <row r="731" spans="2:2">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2" ht="14.4">
+    <row r="732" spans="2:2">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2" ht="14.4">
+    <row r="733" spans="2:2">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2" ht="14.4">
+    <row r="734" spans="2:2">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2" ht="14.4">
+    <row r="735" spans="2:2">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2" ht="14.4">
+    <row r="736" spans="2:2">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2" ht="14.4">
+    <row r="737" spans="2:2">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2" ht="14.4">
+    <row r="738" spans="2:2">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2" ht="14.4">
+    <row r="739" spans="2:2">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2" ht="14.4">
+    <row r="740" spans="2:2">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2" ht="14.4">
+    <row r="741" spans="2:2">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2" ht="14.4">
+    <row r="742" spans="2:2">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2" ht="14.4">
+    <row r="743" spans="2:2">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2" ht="14.4">
+    <row r="744" spans="2:2">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2" ht="14.4">
+    <row r="745" spans="2:2">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2" ht="14.4">
+    <row r="746" spans="2:2">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2" ht="14.4">
+    <row r="747" spans="2:2">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2" ht="14.4">
+    <row r="748" spans="2:2">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2" ht="14.4">
+    <row r="749" spans="2:2">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2" ht="14.4">
+    <row r="750" spans="2:2">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2" ht="14.4">
+    <row r="751" spans="2:2">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2" ht="14.4">
+    <row r="752" spans="2:2">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2" ht="14.4">
+    <row r="753" spans="2:2">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2" ht="14.4">
+    <row r="754" spans="2:2">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2" ht="14.4">
+    <row r="755" spans="2:2">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2" ht="14.4">
+    <row r="756" spans="2:2">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2" ht="14.4">
+    <row r="757" spans="2:2">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2" ht="14.4">
+    <row r="758" spans="2:2">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2" ht="14.4">
+    <row r="759" spans="2:2">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2" ht="14.4">
+    <row r="760" spans="2:2">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2" ht="14.4">
+    <row r="761" spans="2:2">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2" ht="14.4">
+    <row r="762" spans="2:2">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2" ht="14.4">
+    <row r="763" spans="2:2">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2" ht="14.4">
+    <row r="764" spans="2:2">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2" ht="14.4">
+    <row r="765" spans="2:2">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2" ht="14.4">
+    <row r="766" spans="2:2">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2" ht="14.4">
+    <row r="767" spans="2:2">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2" ht="14.4">
+    <row r="768" spans="2:2">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2" ht="14.4">
+    <row r="769" spans="2:2">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2" ht="14.4">
+    <row r="770" spans="2:2">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2" ht="14.4">
+    <row r="771" spans="2:2">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2" ht="14.4">
+    <row r="772" spans="2:2">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2" ht="14.4">
+    <row r="773" spans="2:2">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2" ht="14.4">
+    <row r="774" spans="2:2">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2" ht="14.4">
+    <row r="775" spans="2:2">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2" ht="14.4">
+    <row r="776" spans="2:2">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2" ht="14.4">
+    <row r="777" spans="2:2">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2" ht="14.4">
+    <row r="778" spans="2:2">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2" ht="14.4">
+    <row r="779" spans="2:2">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2" ht="14.4">
+    <row r="780" spans="2:2">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2" ht="14.4">
+    <row r="781" spans="2:2">
       <c r="B781" s="7"/>
     </row>
   </sheetData>
@@ -8955,20 +8962,20 @@
       <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="21" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="45.5546875" customWidth="1"/>
-    <col min="12" max="21" width="6.44140625" customWidth="1"/>
-    <col min="22" max="26" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="45.5703125" customWidth="1"/>
+    <col min="12" max="21" width="6.42578125" customWidth="1"/>
+    <col min="22" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -10673,7 +10680,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" ht="14.4">
+    <row r="50" spans="1:21">
       <c r="A50" s="42" t="s">
         <v>218</v>
       </c>
@@ -10696,7 +10703,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.4">
+    <row r="51" spans="1:21">
       <c r="A51" s="42" t="s">
         <v>218</v>
       </c>
@@ -10719,7 +10726,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="14.4">
+    <row r="52" spans="1:21">
       <c r="A52" s="42" t="s">
         <v>218</v>
       </c>
@@ -10742,7 +10749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.4">
+    <row r="53" spans="1:21">
       <c r="A53" s="42" t="s">
         <v>218</v>
       </c>
@@ -10765,7 +10772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="14.4">
+    <row r="54" spans="1:21">
       <c r="A54" s="42" t="s">
         <v>218</v>
       </c>
@@ -10995,7 +11002,7 @@
       <c r="T60" s="64"/>
       <c r="U60" s="64"/>
     </row>
-    <row r="61" spans="1:21" s="25" customFormat="1" ht="28.8">
+    <row r="61" spans="1:21" s="25" customFormat="1" ht="30">
       <c r="A61" s="78" t="s">
         <v>65</v>
       </c>
@@ -18324,7 +18331,7 @@
       <c r="T275" s="7"/>
       <c r="U275" s="7"/>
     </row>
-    <row r="276" spans="1:21" ht="14.4">
+    <row r="276" spans="1:21">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="7"/>
@@ -18347,2317 +18354,2317 @@
       <c r="T276" s="7"/>
       <c r="U276" s="7"/>
     </row>
-    <row r="277" spans="1:21" ht="14.4">
+    <row r="277" spans="1:21">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="1:21" ht="14.4">
+    <row r="278" spans="1:21">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="1:21" ht="14.4">
+    <row r="279" spans="1:21">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="1:21" ht="14.4">
+    <row r="280" spans="1:21">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="1:21" ht="14.4">
+    <row r="281" spans="1:21">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="1:21" ht="14.4">
+    <row r="282" spans="1:21">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="1:21" ht="14.4">
+    <row r="283" spans="1:21">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="1:21" ht="14.4">
+    <row r="284" spans="1:21">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="1:21" ht="14.4">
+    <row r="285" spans="1:21">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="1:21" ht="14.4">
+    <row r="286" spans="1:21">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="1:21" ht="14.4">
+    <row r="287" spans="1:21">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="1:21" ht="14.4">
+    <row r="288" spans="1:21">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" ht="14.4">
+    <row r="289" spans="2:2">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" ht="14.4">
+    <row r="290" spans="2:2">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" ht="14.4">
+    <row r="291" spans="2:2">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" ht="14.4">
+    <row r="292" spans="2:2">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" ht="14.4">
+    <row r="293" spans="2:2">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" ht="14.4">
+    <row r="294" spans="2:2">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" ht="14.4">
+    <row r="295" spans="2:2">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" ht="14.4">
+    <row r="296" spans="2:2">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" ht="14.4">
+    <row r="297" spans="2:2">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" ht="14.4">
+    <row r="298" spans="2:2">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" ht="14.4">
+    <row r="299" spans="2:2">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" ht="14.4">
+    <row r="300" spans="2:2">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" ht="14.4">
+    <row r="301" spans="2:2">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" ht="14.4">
+    <row r="302" spans="2:2">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" ht="14.4">
+    <row r="303" spans="2:2">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" ht="14.4">
+    <row r="304" spans="2:2">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" ht="14.4">
+    <row r="305" spans="2:2">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" ht="14.4">
+    <row r="306" spans="2:2">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" ht="14.4">
+    <row r="307" spans="2:2">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" ht="14.4">
+    <row r="308" spans="2:2">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" ht="14.4">
+    <row r="309" spans="2:2">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" ht="14.4">
+    <row r="310" spans="2:2">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" ht="14.4">
+    <row r="311" spans="2:2">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" ht="14.4">
+    <row r="312" spans="2:2">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" ht="14.4">
+    <row r="313" spans="2:2">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" ht="14.4">
+    <row r="314" spans="2:2">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" ht="14.4">
+    <row r="315" spans="2:2">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" ht="14.4">
+    <row r="316" spans="2:2">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" ht="14.4">
+    <row r="317" spans="2:2">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" ht="14.4">
+    <row r="318" spans="2:2">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" ht="14.4">
+    <row r="319" spans="2:2">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" ht="14.4">
+    <row r="320" spans="2:2">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" ht="14.4">
+    <row r="321" spans="2:2">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" ht="14.4">
+    <row r="322" spans="2:2">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" ht="14.4">
+    <row r="323" spans="2:2">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" ht="14.4">
+    <row r="324" spans="2:2">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" ht="14.4">
+    <row r="325" spans="2:2">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" ht="14.4">
+    <row r="326" spans="2:2">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" ht="14.4">
+    <row r="327" spans="2:2">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" ht="14.4">
+    <row r="328" spans="2:2">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" ht="14.4">
+    <row r="329" spans="2:2">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" ht="14.4">
+    <row r="330" spans="2:2">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" ht="14.4">
+    <row r="331" spans="2:2">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" ht="14.4">
+    <row r="332" spans="2:2">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" ht="14.4">
+    <row r="333" spans="2:2">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" ht="14.4">
+    <row r="334" spans="2:2">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" ht="14.4">
+    <row r="335" spans="2:2">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" ht="14.4">
+    <row r="336" spans="2:2">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" ht="14.4">
+    <row r="337" spans="2:2">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" ht="14.4">
+    <row r="338" spans="2:2">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" ht="14.4">
+    <row r="339" spans="2:2">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" ht="14.4">
+    <row r="340" spans="2:2">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" ht="14.4">
+    <row r="341" spans="2:2">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" ht="14.4">
+    <row r="342" spans="2:2">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" ht="14.4">
+    <row r="343" spans="2:2">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" ht="14.4">
+    <row r="344" spans="2:2">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" ht="14.4">
+    <row r="345" spans="2:2">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" ht="14.4">
+    <row r="346" spans="2:2">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" ht="14.4">
+    <row r="347" spans="2:2">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" ht="14.4">
+    <row r="348" spans="2:2">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" ht="14.4">
+    <row r="349" spans="2:2">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" ht="14.4">
+    <row r="350" spans="2:2">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" ht="14.4">
+    <row r="351" spans="2:2">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" ht="14.4">
+    <row r="352" spans="2:2">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" ht="14.4">
+    <row r="353" spans="2:2">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" ht="14.4">
+    <row r="354" spans="2:2">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" ht="14.4">
+    <row r="355" spans="2:2">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" ht="14.4">
+    <row r="356" spans="2:2">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" ht="14.4">
+    <row r="357" spans="2:2">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" ht="14.4">
+    <row r="358" spans="2:2">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" ht="14.4">
+    <row r="359" spans="2:2">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" ht="14.4">
+    <row r="360" spans="2:2">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" ht="14.4">
+    <row r="361" spans="2:2">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" ht="14.4">
+    <row r="362" spans="2:2">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" ht="14.4">
+    <row r="363" spans="2:2">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" ht="14.4">
+    <row r="364" spans="2:2">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" ht="14.4">
+    <row r="365" spans="2:2">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" ht="14.4">
+    <row r="366" spans="2:2">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" ht="14.4">
+    <row r="367" spans="2:2">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" ht="14.4">
+    <row r="368" spans="2:2">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" ht="14.4">
+    <row r="369" spans="2:2">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" ht="14.4">
+    <row r="370" spans="2:2">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" ht="14.4">
+    <row r="371" spans="2:2">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" ht="14.4">
+    <row r="372" spans="2:2">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" ht="14.4">
+    <row r="373" spans="2:2">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" ht="14.4">
+    <row r="374" spans="2:2">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" ht="14.4">
+    <row r="375" spans="2:2">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" ht="14.4">
+    <row r="376" spans="2:2">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" ht="14.4">
+    <row r="377" spans="2:2">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" ht="14.4">
+    <row r="378" spans="2:2">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" ht="14.4">
+    <row r="379" spans="2:2">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" ht="14.4">
+    <row r="380" spans="2:2">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" ht="14.4">
+    <row r="381" spans="2:2">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" ht="14.4">
+    <row r="382" spans="2:2">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" ht="14.4">
+    <row r="383" spans="2:2">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" ht="14.4">
+    <row r="384" spans="2:2">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" ht="14.4">
+    <row r="385" spans="2:2">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" ht="14.4">
+    <row r="386" spans="2:2">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" ht="14.4">
+    <row r="387" spans="2:2">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" ht="14.4">
+    <row r="388" spans="2:2">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" ht="14.4">
+    <row r="389" spans="2:2">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" ht="14.4">
+    <row r="390" spans="2:2">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" ht="14.4">
+    <row r="391" spans="2:2">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" ht="14.4">
+    <row r="392" spans="2:2">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" ht="14.4">
+    <row r="393" spans="2:2">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" ht="14.4">
+    <row r="394" spans="2:2">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" ht="14.4">
+    <row r="395" spans="2:2">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" ht="14.4">
+    <row r="396" spans="2:2">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" ht="14.4">
+    <row r="397" spans="2:2">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" ht="14.4">
+    <row r="398" spans="2:2">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" ht="14.4">
+    <row r="399" spans="2:2">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" ht="14.4">
+    <row r="400" spans="2:2">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" ht="14.4">
+    <row r="401" spans="2:2">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" ht="14.4">
+    <row r="402" spans="2:2">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" ht="14.4">
+    <row r="403" spans="2:2">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" ht="14.4">
+    <row r="404" spans="2:2">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" ht="14.4">
+    <row r="405" spans="2:2">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" ht="14.4">
+    <row r="406" spans="2:2">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" ht="14.4">
+    <row r="407" spans="2:2">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" ht="14.4">
+    <row r="408" spans="2:2">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" ht="14.4">
+    <row r="409" spans="2:2">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" ht="14.4">
+    <row r="410" spans="2:2">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" ht="14.4">
+    <row r="411" spans="2:2">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" ht="14.4">
+    <row r="412" spans="2:2">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" ht="14.4">
+    <row r="413" spans="2:2">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" ht="14.4">
+    <row r="414" spans="2:2">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" ht="14.4">
+    <row r="415" spans="2:2">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" ht="14.4">
+    <row r="416" spans="2:2">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" ht="14.4">
+    <row r="417" spans="2:2">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" ht="14.4">
+    <row r="418" spans="2:2">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" ht="14.4">
+    <row r="419" spans="2:2">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" ht="14.4">
+    <row r="420" spans="2:2">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" ht="14.4">
+    <row r="421" spans="2:2">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" ht="14.4">
+    <row r="422" spans="2:2">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" ht="14.4">
+    <row r="423" spans="2:2">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" ht="14.4">
+    <row r="424" spans="2:2">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" ht="14.4">
+    <row r="425" spans="2:2">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" ht="14.4">
+    <row r="426" spans="2:2">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" ht="14.4">
+    <row r="427" spans="2:2">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" ht="14.4">
+    <row r="428" spans="2:2">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" ht="14.4">
+    <row r="429" spans="2:2">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" ht="14.4">
+    <row r="430" spans="2:2">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" ht="14.4">
+    <row r="431" spans="2:2">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" ht="14.4">
+    <row r="432" spans="2:2">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" ht="14.4">
+    <row r="433" spans="2:2">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" ht="14.4">
+    <row r="434" spans="2:2">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" ht="14.4">
+    <row r="435" spans="2:2">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" ht="14.4">
+    <row r="436" spans="2:2">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" ht="14.4">
+    <row r="437" spans="2:2">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" ht="14.4">
+    <row r="438" spans="2:2">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" ht="14.4">
+    <row r="439" spans="2:2">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" ht="14.4">
+    <row r="440" spans="2:2">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" ht="14.4">
+    <row r="441" spans="2:2">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" ht="14.4">
+    <row r="442" spans="2:2">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" ht="14.4">
+    <row r="443" spans="2:2">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" ht="14.4">
+    <row r="444" spans="2:2">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" ht="14.4">
+    <row r="445" spans="2:2">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" ht="14.4">
+    <row r="446" spans="2:2">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" ht="14.4">
+    <row r="447" spans="2:2">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" ht="14.4">
+    <row r="448" spans="2:2">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" ht="14.4">
+    <row r="449" spans="2:2">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" ht="14.4">
+    <row r="450" spans="2:2">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" ht="14.4">
+    <row r="451" spans="2:2">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" ht="14.4">
+    <row r="452" spans="2:2">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" ht="14.4">
+    <row r="453" spans="2:2">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" ht="14.4">
+    <row r="454" spans="2:2">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" ht="14.4">
+    <row r="455" spans="2:2">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" ht="14.4">
+    <row r="456" spans="2:2">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" ht="14.4">
+    <row r="457" spans="2:2">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" ht="14.4">
+    <row r="458" spans="2:2">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" ht="14.4">
+    <row r="459" spans="2:2">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" ht="14.4">
+    <row r="460" spans="2:2">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" ht="14.4">
+    <row r="461" spans="2:2">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" ht="14.4">
+    <row r="462" spans="2:2">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" ht="14.4">
+    <row r="463" spans="2:2">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" ht="14.4">
+    <row r="464" spans="2:2">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" ht="14.4">
+    <row r="465" spans="2:2">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" ht="14.4">
+    <row r="466" spans="2:2">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" ht="14.4">
+    <row r="467" spans="2:2">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" ht="14.4">
+    <row r="468" spans="2:2">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" ht="14.4">
+    <row r="469" spans="2:2">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" ht="14.4">
+    <row r="470" spans="2:2">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" ht="14.4">
+    <row r="471" spans="2:2">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" ht="14.4">
+    <row r="472" spans="2:2">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" ht="14.4">
+    <row r="473" spans="2:2">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" ht="14.4">
+    <row r="474" spans="2:2">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" ht="14.4">
+    <row r="475" spans="2:2">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" ht="14.4">
+    <row r="476" spans="2:2">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" ht="14.4">
+    <row r="477" spans="2:2">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" ht="14.4">
+    <row r="478" spans="2:2">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" ht="14.4">
+    <row r="479" spans="2:2">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" ht="14.4">
+    <row r="480" spans="2:2">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" ht="14.4">
+    <row r="481" spans="2:2">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" ht="14.4">
+    <row r="482" spans="2:2">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" ht="14.4">
+    <row r="483" spans="2:2">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" ht="14.4">
+    <row r="484" spans="2:2">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" ht="14.4">
+    <row r="485" spans="2:2">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" ht="14.4">
+    <row r="486" spans="2:2">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" ht="14.4">
+    <row r="487" spans="2:2">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" ht="14.4">
+    <row r="488" spans="2:2">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" ht="14.4">
+    <row r="489" spans="2:2">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" ht="14.4">
+    <row r="490" spans="2:2">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" ht="14.4">
+    <row r="491" spans="2:2">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" ht="14.4">
+    <row r="492" spans="2:2">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" ht="14.4">
+    <row r="493" spans="2:2">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" ht="14.4">
+    <row r="494" spans="2:2">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" ht="14.4">
+    <row r="495" spans="2:2">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" ht="14.4">
+    <row r="496" spans="2:2">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" ht="14.4">
+    <row r="497" spans="2:2">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" ht="14.4">
+    <row r="498" spans="2:2">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" ht="14.4">
+    <row r="499" spans="2:2">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" ht="14.4">
+    <row r="500" spans="2:2">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" ht="14.4">
+    <row r="501" spans="2:2">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" ht="14.4">
+    <row r="502" spans="2:2">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" ht="14.4">
+    <row r="503" spans="2:2">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" ht="14.4">
+    <row r="504" spans="2:2">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" ht="14.4">
+    <row r="505" spans="2:2">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" ht="14.4">
+    <row r="506" spans="2:2">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" ht="14.4">
+    <row r="507" spans="2:2">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" ht="14.4">
+    <row r="508" spans="2:2">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" ht="14.4">
+    <row r="509" spans="2:2">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" ht="14.4">
+    <row r="510" spans="2:2">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" ht="14.4">
+    <row r="511" spans="2:2">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" ht="14.4">
+    <row r="512" spans="2:2">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" ht="14.4">
+    <row r="513" spans="2:2">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" ht="14.4">
+    <row r="514" spans="2:2">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" ht="14.4">
+    <row r="515" spans="2:2">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" ht="14.4">
+    <row r="516" spans="2:2">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" ht="14.4">
+    <row r="517" spans="2:2">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" ht="14.4">
+    <row r="518" spans="2:2">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" ht="14.4">
+    <row r="519" spans="2:2">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" ht="14.4">
+    <row r="520" spans="2:2">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" ht="14.4">
+    <row r="521" spans="2:2">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" ht="14.4">
+    <row r="522" spans="2:2">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" ht="14.4">
+    <row r="523" spans="2:2">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" ht="14.4">
+    <row r="524" spans="2:2">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" ht="14.4">
+    <row r="525" spans="2:2">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" ht="14.4">
+    <row r="526" spans="2:2">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" ht="14.4">
+    <row r="527" spans="2:2">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" ht="14.4">
+    <row r="528" spans="2:2">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" ht="14.4">
+    <row r="529" spans="2:2">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" ht="14.4">
+    <row r="530" spans="2:2">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" ht="14.4">
+    <row r="531" spans="2:2">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" ht="14.4">
+    <row r="532" spans="2:2">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" ht="14.4">
+    <row r="533" spans="2:2">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" ht="14.4">
+    <row r="534" spans="2:2">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" ht="14.4">
+    <row r="535" spans="2:2">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" ht="14.4">
+    <row r="536" spans="2:2">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" ht="14.4">
+    <row r="537" spans="2:2">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" ht="14.4">
+    <row r="538" spans="2:2">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" ht="14.4">
+    <row r="539" spans="2:2">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" ht="14.4">
+    <row r="540" spans="2:2">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" ht="14.4">
+    <row r="541" spans="2:2">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" ht="14.4">
+    <row r="542" spans="2:2">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" ht="14.4">
+    <row r="543" spans="2:2">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" ht="14.4">
+    <row r="544" spans="2:2">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" ht="14.4">
+    <row r="545" spans="2:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" ht="14.4">
+    <row r="546" spans="2:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" ht="14.4">
+    <row r="547" spans="2:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" ht="14.4">
+    <row r="548" spans="2:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" ht="14.4">
+    <row r="549" spans="2:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" ht="14.4">
+    <row r="550" spans="2:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" ht="14.4">
+    <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" ht="14.4">
+    <row r="552" spans="2:2">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" ht="14.4">
+    <row r="553" spans="2:2">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" ht="14.4">
+    <row r="554" spans="2:2">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" ht="14.4">
+    <row r="555" spans="2:2">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" ht="14.4">
+    <row r="556" spans="2:2">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" ht="14.4">
+    <row r="557" spans="2:2">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" ht="14.4">
+    <row r="558" spans="2:2">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" ht="14.4">
+    <row r="559" spans="2:2">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" ht="14.4">
+    <row r="560" spans="2:2">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" ht="14.4">
+    <row r="561" spans="2:2">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" ht="14.4">
+    <row r="562" spans="2:2">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" ht="14.4">
+    <row r="563" spans="2:2">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" ht="14.4">
+    <row r="564" spans="2:2">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" ht="14.4">
+    <row r="565" spans="2:2">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" ht="14.4">
+    <row r="566" spans="2:2">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" ht="14.4">
+    <row r="567" spans="2:2">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" ht="14.4">
+    <row r="568" spans="2:2">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" ht="14.4">
+    <row r="569" spans="2:2">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" ht="14.4">
+    <row r="570" spans="2:2">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" ht="14.4">
+    <row r="571" spans="2:2">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" ht="14.4">
+    <row r="572" spans="2:2">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" ht="14.4">
+    <row r="573" spans="2:2">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" ht="14.4">
+    <row r="574" spans="2:2">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" ht="14.4">
+    <row r="575" spans="2:2">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" ht="14.4">
+    <row r="576" spans="2:2">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" ht="14.4">
+    <row r="577" spans="2:2">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" ht="14.4">
+    <row r="578" spans="2:2">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" ht="14.4">
+    <row r="579" spans="2:2">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" ht="14.4">
+    <row r="580" spans="2:2">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" ht="14.4">
+    <row r="581" spans="2:2">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" ht="14.4">
+    <row r="582" spans="2:2">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" ht="14.4">
+    <row r="583" spans="2:2">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" ht="14.4">
+    <row r="584" spans="2:2">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" ht="14.4">
+    <row r="585" spans="2:2">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" ht="14.4">
+    <row r="586" spans="2:2">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" ht="14.4">
+    <row r="587" spans="2:2">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" ht="14.4">
+    <row r="588" spans="2:2">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" ht="14.4">
+    <row r="589" spans="2:2">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" ht="14.4">
+    <row r="590" spans="2:2">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" ht="14.4">
+    <row r="591" spans="2:2">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" ht="14.4">
+    <row r="592" spans="2:2">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" ht="14.4">
+    <row r="593" spans="2:2">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" ht="14.4">
+    <row r="594" spans="2:2">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" ht="14.4">
+    <row r="595" spans="2:2">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" ht="14.4">
+    <row r="596" spans="2:2">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" ht="14.4">
+    <row r="597" spans="2:2">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" ht="14.4">
+    <row r="598" spans="2:2">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" ht="14.4">
+    <row r="599" spans="2:2">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" ht="14.4">
+    <row r="600" spans="2:2">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" ht="14.4">
+    <row r="601" spans="2:2">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2" ht="14.4">
+    <row r="602" spans="2:2">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2" ht="14.4">
+    <row r="603" spans="2:2">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2" ht="14.4">
+    <row r="604" spans="2:2">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2" ht="14.4">
+    <row r="605" spans="2:2">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2" ht="14.4">
+    <row r="606" spans="2:2">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2" ht="14.4">
+    <row r="607" spans="2:2">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2" ht="14.4">
+    <row r="608" spans="2:2">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2" ht="14.4">
+    <row r="609" spans="2:2">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2" ht="14.4">
+    <row r="610" spans="2:2">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2" ht="14.4">
+    <row r="611" spans="2:2">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2" ht="14.4">
+    <row r="612" spans="2:2">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2" ht="14.4">
+    <row r="613" spans="2:2">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2" ht="14.4">
+    <row r="614" spans="2:2">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2" ht="14.4">
+    <row r="615" spans="2:2">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2" ht="14.4">
+    <row r="616" spans="2:2">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2" ht="14.4">
+    <row r="617" spans="2:2">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2" ht="14.4">
+    <row r="618" spans="2:2">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2" ht="14.4">
+    <row r="619" spans="2:2">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2" ht="14.4">
+    <row r="620" spans="2:2">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2" ht="14.4">
+    <row r="621" spans="2:2">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2" ht="14.4">
+    <row r="622" spans="2:2">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2" ht="14.4">
+    <row r="623" spans="2:2">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2" ht="14.4">
+    <row r="624" spans="2:2">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2" ht="14.4">
+    <row r="625" spans="2:2">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2" ht="14.4">
+    <row r="626" spans="2:2">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2" ht="14.4">
+    <row r="627" spans="2:2">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2" ht="14.4">
+    <row r="628" spans="2:2">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2" ht="14.4">
+    <row r="629" spans="2:2">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2" ht="14.4">
+    <row r="630" spans="2:2">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2" ht="14.4">
+    <row r="631" spans="2:2">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2" ht="14.4">
+    <row r="632" spans="2:2">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2" ht="14.4">
+    <row r="633" spans="2:2">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2" ht="14.4">
+    <row r="634" spans="2:2">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2" ht="14.4">
+    <row r="635" spans="2:2">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2" ht="14.4">
+    <row r="636" spans="2:2">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2" ht="14.4">
+    <row r="637" spans="2:2">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2" ht="14.4">
+    <row r="638" spans="2:2">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2" ht="14.4">
+    <row r="639" spans="2:2">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2" ht="14.4">
+    <row r="640" spans="2:2">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2" ht="14.4">
+    <row r="641" spans="2:2">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2" ht="14.4">
+    <row r="642" spans="2:2">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2" ht="14.4">
+    <row r="643" spans="2:2">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2" ht="14.4">
+    <row r="644" spans="2:2">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2" ht="14.4">
+    <row r="645" spans="2:2">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2" ht="14.4">
+    <row r="646" spans="2:2">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2" ht="14.4">
+    <row r="647" spans="2:2">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2" ht="14.4">
+    <row r="648" spans="2:2">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2" ht="14.4">
+    <row r="649" spans="2:2">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2" ht="14.4">
+    <row r="650" spans="2:2">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2" ht="14.4">
+    <row r="651" spans="2:2">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2" ht="14.4">
+    <row r="652" spans="2:2">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2" ht="14.4">
+    <row r="653" spans="2:2">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2" ht="14.4">
+    <row r="654" spans="2:2">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2" ht="14.4">
+    <row r="655" spans="2:2">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2" ht="14.4">
+    <row r="656" spans="2:2">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2" ht="14.4">
+    <row r="657" spans="2:2">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2" ht="14.4">
+    <row r="658" spans="2:2">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2" ht="14.4">
+    <row r="659" spans="2:2">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2" ht="14.4">
+    <row r="660" spans="2:2">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2" ht="14.4">
+    <row r="661" spans="2:2">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2" ht="14.4">
+    <row r="662" spans="2:2">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2" ht="14.4">
+    <row r="663" spans="2:2">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2" ht="14.4">
+    <row r="664" spans="2:2">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2" ht="14.4">
+    <row r="665" spans="2:2">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2" ht="14.4">
+    <row r="666" spans="2:2">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2" ht="14.4">
+    <row r="667" spans="2:2">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2" ht="14.4">
+    <row r="668" spans="2:2">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2" ht="14.4">
+    <row r="669" spans="2:2">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2" ht="14.4">
+    <row r="670" spans="2:2">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2" ht="14.4">
+    <row r="671" spans="2:2">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2" ht="14.4">
+    <row r="672" spans="2:2">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2" ht="14.4">
+    <row r="673" spans="2:2">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2" ht="14.4">
+    <row r="674" spans="2:2">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2" ht="14.4">
+    <row r="675" spans="2:2">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2" ht="14.4">
+    <row r="676" spans="2:2">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2" ht="14.4">
+    <row r="677" spans="2:2">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2" ht="14.4">
+    <row r="678" spans="2:2">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2" ht="14.4">
+    <row r="679" spans="2:2">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2" ht="14.4">
+    <row r="680" spans="2:2">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2" ht="14.4">
+    <row r="681" spans="2:2">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2" ht="14.4">
+    <row r="682" spans="2:2">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2" ht="14.4">
+    <row r="683" spans="2:2">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2" ht="14.4">
+    <row r="684" spans="2:2">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2" ht="14.4">
+    <row r="685" spans="2:2">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2" ht="14.4">
+    <row r="686" spans="2:2">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2" ht="14.4">
+    <row r="687" spans="2:2">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2" ht="14.4">
+    <row r="688" spans="2:2">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2" ht="14.4">
+    <row r="689" spans="2:2">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2" ht="14.4">
+    <row r="690" spans="2:2">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2" ht="14.4">
+    <row r="691" spans="2:2">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2" ht="14.4">
+    <row r="692" spans="2:2">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2" ht="14.4">
+    <row r="693" spans="2:2">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2" ht="14.4">
+    <row r="694" spans="2:2">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2" ht="14.4">
+    <row r="695" spans="2:2">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2" ht="14.4">
+    <row r="696" spans="2:2">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2" ht="14.4">
+    <row r="697" spans="2:2">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2" ht="14.4">
+    <row r="698" spans="2:2">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2" ht="14.4">
+    <row r="699" spans="2:2">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2" ht="14.4">
+    <row r="700" spans="2:2">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2" ht="14.4">
+    <row r="701" spans="2:2">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2" ht="14.4">
+    <row r="702" spans="2:2">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2" ht="14.4">
+    <row r="703" spans="2:2">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2" ht="14.4">
+    <row r="704" spans="2:2">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2" ht="14.4">
+    <row r="705" spans="2:2">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2" ht="14.4">
+    <row r="706" spans="2:2">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2" ht="14.4">
+    <row r="707" spans="2:2">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2" ht="14.4">
+    <row r="708" spans="2:2">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2" ht="14.4">
+    <row r="709" spans="2:2">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2" ht="14.4">
+    <row r="710" spans="2:2">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2" ht="14.4">
+    <row r="711" spans="2:2">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2" ht="14.4">
+    <row r="712" spans="2:2">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2" ht="14.4">
+    <row r="713" spans="2:2">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2" ht="14.4">
+    <row r="714" spans="2:2">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2" ht="14.4">
+    <row r="715" spans="2:2">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2" ht="14.4">
+    <row r="716" spans="2:2">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2" ht="14.4">
+    <row r="717" spans="2:2">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2" ht="14.4">
+    <row r="718" spans="2:2">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2" ht="14.4">
+    <row r="719" spans="2:2">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2" ht="14.4">
+    <row r="720" spans="2:2">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2" ht="14.4">
+    <row r="721" spans="2:2">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2" ht="14.4">
+    <row r="722" spans="2:2">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2" ht="14.4">
+    <row r="723" spans="2:2">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2" ht="14.4">
+    <row r="724" spans="2:2">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2" ht="14.4">
+    <row r="725" spans="2:2">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2" ht="14.4">
+    <row r="726" spans="2:2">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2" ht="14.4">
+    <row r="727" spans="2:2">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2" ht="14.4">
+    <row r="728" spans="2:2">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2" ht="14.4">
+    <row r="729" spans="2:2">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2" ht="14.4">
+    <row r="730" spans="2:2">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2" ht="14.4">
+    <row r="731" spans="2:2">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2" ht="14.4">
+    <row r="732" spans="2:2">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2" ht="14.4">
+    <row r="733" spans="2:2">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2" ht="14.4">
+    <row r="734" spans="2:2">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2" ht="14.4">
+    <row r="735" spans="2:2">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2" ht="14.4">
+    <row r="736" spans="2:2">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2" ht="14.4">
+    <row r="737" spans="2:2">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2" ht="14.4">
+    <row r="738" spans="2:2">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2" ht="14.4">
+    <row r="739" spans="2:2">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2" ht="14.4">
+    <row r="740" spans="2:2">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2" ht="14.4">
+    <row r="741" spans="2:2">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2" ht="14.4">
+    <row r="742" spans="2:2">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2" ht="14.4">
+    <row r="743" spans="2:2">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2" ht="14.4">
+    <row r="744" spans="2:2">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2" ht="14.4">
+    <row r="745" spans="2:2">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2" ht="14.4">
+    <row r="746" spans="2:2">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2" ht="14.4">
+    <row r="747" spans="2:2">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2" ht="14.4">
+    <row r="748" spans="2:2">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2" ht="14.4">
+    <row r="749" spans="2:2">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2" ht="14.4">
+    <row r="750" spans="2:2">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2" ht="14.4">
+    <row r="751" spans="2:2">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2" ht="14.4">
+    <row r="752" spans="2:2">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2" ht="14.4">
+    <row r="753" spans="2:2">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2" ht="14.4">
+    <row r="754" spans="2:2">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2" ht="14.4">
+    <row r="755" spans="2:2">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2" ht="14.4">
+    <row r="756" spans="2:2">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2" ht="14.4">
+    <row r="757" spans="2:2">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2" ht="14.4">
+    <row r="758" spans="2:2">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2" ht="14.4">
+    <row r="759" spans="2:2">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2" ht="14.4">
+    <row r="760" spans="2:2">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2" ht="14.4">
+    <row r="761" spans="2:2">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2" ht="14.4">
+    <row r="762" spans="2:2">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2" ht="14.4">
+    <row r="763" spans="2:2">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2" ht="14.4">
+    <row r="764" spans="2:2">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2" ht="14.4">
+    <row r="765" spans="2:2">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2" ht="14.4">
+    <row r="766" spans="2:2">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2" ht="14.4">
+    <row r="767" spans="2:2">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2" ht="14.4">
+    <row r="768" spans="2:2">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2" ht="14.4">
+    <row r="769" spans="2:2">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2" ht="14.4">
+    <row r="770" spans="2:2">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2" ht="14.4">
+    <row r="771" spans="2:2">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2" ht="14.4">
+    <row r="772" spans="2:2">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2" ht="14.4">
+    <row r="773" spans="2:2">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2" ht="14.4">
+    <row r="774" spans="2:2">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2" ht="14.4">
+    <row r="775" spans="2:2">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2" ht="14.4">
+    <row r="776" spans="2:2">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2" ht="14.4">
+    <row r="777" spans="2:2">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2" ht="14.4">
+    <row r="778" spans="2:2">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2" ht="14.4">
+    <row r="779" spans="2:2">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2" ht="14.4">
+    <row r="780" spans="2:2">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2" ht="14.4">
+    <row r="781" spans="2:2">
       <c r="B781" s="7"/>
     </row>
-    <row r="782" spans="2:2" ht="14.4">
+    <row r="782" spans="2:2">
       <c r="B782" s="7"/>
     </row>
-    <row r="783" spans="2:2" ht="14.4">
+    <row r="783" spans="2:2">
       <c r="B783" s="7"/>
     </row>
-    <row r="784" spans="2:2" ht="14.4">
+    <row r="784" spans="2:2">
       <c r="B784" s="7"/>
     </row>
-    <row r="785" spans="2:2" ht="14.4">
+    <row r="785" spans="2:2">
       <c r="B785" s="7"/>
     </row>
-    <row r="786" spans="2:2" ht="14.4">
+    <row r="786" spans="2:2">
       <c r="B786" s="7"/>
     </row>
-    <row r="787" spans="2:2" ht="14.4">
+    <row r="787" spans="2:2">
       <c r="B787" s="7"/>
     </row>
-    <row r="788" spans="2:2" ht="14.4">
+    <row r="788" spans="2:2">
       <c r="B788" s="7"/>
     </row>
-    <row r="789" spans="2:2" ht="14.4">
+    <row r="789" spans="2:2">
       <c r="B789" s="7"/>
     </row>
-    <row r="790" spans="2:2" ht="14.4">
+    <row r="790" spans="2:2">
       <c r="B790" s="7"/>
     </row>
-    <row r="791" spans="2:2" ht="14.4">
+    <row r="791" spans="2:2">
       <c r="B791" s="7"/>
     </row>
-    <row r="792" spans="2:2" ht="14.4">
+    <row r="792" spans="2:2">
       <c r="B792" s="7"/>
     </row>
-    <row r="793" spans="2:2" ht="14.4">
+    <row r="793" spans="2:2">
       <c r="B793" s="7"/>
     </row>
-    <row r="794" spans="2:2" ht="14.4">
+    <row r="794" spans="2:2">
       <c r="B794" s="7"/>
     </row>
-    <row r="795" spans="2:2" ht="14.4">
+    <row r="795" spans="2:2">
       <c r="B795" s="7"/>
     </row>
-    <row r="796" spans="2:2" ht="14.4">
+    <row r="796" spans="2:2">
       <c r="B796" s="7"/>
     </row>
-    <row r="797" spans="2:2" ht="14.4">
+    <row r="797" spans="2:2">
       <c r="B797" s="7"/>
     </row>
-    <row r="798" spans="2:2" ht="14.4">
+    <row r="798" spans="2:2">
       <c r="B798" s="7"/>
     </row>
-    <row r="799" spans="2:2" ht="14.4">
+    <row r="799" spans="2:2">
       <c r="B799" s="7"/>
     </row>
-    <row r="800" spans="2:2" ht="14.4">
+    <row r="800" spans="2:2">
       <c r="B800" s="7"/>
     </row>
-    <row r="801" spans="2:2" ht="14.4">
+    <row r="801" spans="2:2">
       <c r="B801" s="7"/>
     </row>
-    <row r="802" spans="2:2" ht="14.4">
+    <row r="802" spans="2:2">
       <c r="B802" s="7"/>
     </row>
-    <row r="803" spans="2:2" ht="14.4">
+    <row r="803" spans="2:2">
       <c r="B803" s="7"/>
     </row>
-    <row r="804" spans="2:2" ht="14.4">
+    <row r="804" spans="2:2">
       <c r="B804" s="7"/>
     </row>
-    <row r="805" spans="2:2" ht="14.4">
+    <row r="805" spans="2:2">
       <c r="B805" s="7"/>
     </row>
-    <row r="806" spans="2:2" ht="14.4">
+    <row r="806" spans="2:2">
       <c r="B806" s="7"/>
     </row>
-    <row r="807" spans="2:2" ht="14.4">
+    <row r="807" spans="2:2">
       <c r="B807" s="7"/>
     </row>
-    <row r="808" spans="2:2" ht="14.4">
+    <row r="808" spans="2:2">
       <c r="B808" s="7"/>
     </row>
-    <row r="809" spans="2:2" ht="14.4">
+    <row r="809" spans="2:2">
       <c r="B809" s="7"/>
     </row>
-    <row r="810" spans="2:2" ht="14.4">
+    <row r="810" spans="2:2">
       <c r="B810" s="7"/>
     </row>
-    <row r="811" spans="2:2" ht="14.4">
+    <row r="811" spans="2:2">
       <c r="B811" s="7"/>
     </row>
-    <row r="812" spans="2:2" ht="14.4">
+    <row r="812" spans="2:2">
       <c r="B812" s="7"/>
     </row>
-    <row r="813" spans="2:2" ht="14.4">
+    <row r="813" spans="2:2">
       <c r="B813" s="7"/>
     </row>
-    <row r="814" spans="2:2" ht="14.4">
+    <row r="814" spans="2:2">
       <c r="B814" s="7"/>
     </row>
-    <row r="815" spans="2:2" ht="14.4">
+    <row r="815" spans="2:2">
       <c r="B815" s="7"/>
     </row>
-    <row r="816" spans="2:2" ht="14.4">
+    <row r="816" spans="2:2">
       <c r="B816" s="7"/>
     </row>
-    <row r="817" spans="2:2" ht="14.4">
+    <row r="817" spans="2:2">
       <c r="B817" s="7"/>
     </row>
-    <row r="818" spans="2:2" ht="14.4">
+    <row r="818" spans="2:2">
       <c r="B818" s="7"/>
     </row>
-    <row r="819" spans="2:2" ht="14.4">
+    <row r="819" spans="2:2">
       <c r="B819" s="7"/>
     </row>
-    <row r="820" spans="2:2" ht="14.4">
+    <row r="820" spans="2:2">
       <c r="B820" s="7"/>
     </row>
-    <row r="821" spans="2:2" ht="14.4">
+    <row r="821" spans="2:2">
       <c r="B821" s="7"/>
     </row>
-    <row r="822" spans="2:2" ht="14.4">
+    <row r="822" spans="2:2">
       <c r="B822" s="7"/>
     </row>
-    <row r="823" spans="2:2" ht="14.4">
+    <row r="823" spans="2:2">
       <c r="B823" s="7"/>
     </row>
-    <row r="824" spans="2:2" ht="14.4">
+    <row r="824" spans="2:2">
       <c r="B824" s="7"/>
     </row>
-    <row r="825" spans="2:2" ht="14.4">
+    <row r="825" spans="2:2">
       <c r="B825" s="7"/>
     </row>
-    <row r="826" spans="2:2" ht="14.4">
+    <row r="826" spans="2:2">
       <c r="B826" s="7"/>
     </row>
-    <row r="827" spans="2:2" ht="14.4">
+    <row r="827" spans="2:2">
       <c r="B827" s="7"/>
     </row>
-    <row r="828" spans="2:2" ht="14.4">
+    <row r="828" spans="2:2">
       <c r="B828" s="7"/>
     </row>
-    <row r="829" spans="2:2" ht="14.4">
+    <row r="829" spans="2:2">
       <c r="B829" s="7"/>
     </row>
-    <row r="830" spans="2:2" ht="14.4">
+    <row r="830" spans="2:2">
       <c r="B830" s="7"/>
     </row>
-    <row r="831" spans="2:2" ht="14.4">
+    <row r="831" spans="2:2">
       <c r="B831" s="7"/>
     </row>
-    <row r="832" spans="2:2" ht="14.4">
+    <row r="832" spans="2:2">
       <c r="B832" s="7"/>
     </row>
-    <row r="833" spans="2:2" ht="14.4">
+    <row r="833" spans="2:2">
       <c r="B833" s="7"/>
     </row>
-    <row r="834" spans="2:2" ht="14.4">
+    <row r="834" spans="2:2">
       <c r="B834" s="7"/>
     </row>
-    <row r="835" spans="2:2" ht="14.4">
+    <row r="835" spans="2:2">
       <c r="B835" s="7"/>
     </row>
-    <row r="836" spans="2:2" ht="14.4">
+    <row r="836" spans="2:2">
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="2:2" ht="14.4">
+    <row r="837" spans="2:2">
       <c r="B837" s="7"/>
     </row>
-    <row r="838" spans="2:2" ht="14.4">
+    <row r="838" spans="2:2">
       <c r="B838" s="7"/>
     </row>
-    <row r="839" spans="2:2" ht="14.4">
+    <row r="839" spans="2:2">
       <c r="B839" s="7"/>
     </row>
-    <row r="840" spans="2:2" ht="14.4">
+    <row r="840" spans="2:2">
       <c r="B840" s="7"/>
     </row>
-    <row r="841" spans="2:2" ht="14.4">
+    <row r="841" spans="2:2">
       <c r="B841" s="7"/>
     </row>
-    <row r="842" spans="2:2" ht="14.4">
+    <row r="842" spans="2:2">
       <c r="B842" s="7"/>
     </row>
-    <row r="843" spans="2:2" ht="14.4">
+    <row r="843" spans="2:2">
       <c r="B843" s="7"/>
     </row>
-    <row r="844" spans="2:2" ht="14.4">
+    <row r="844" spans="2:2">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="2:2" ht="14.4">
+    <row r="845" spans="2:2">
       <c r="B845" s="7"/>
     </row>
-    <row r="846" spans="2:2" ht="14.4">
+    <row r="846" spans="2:2">
       <c r="B846" s="7"/>
     </row>
-    <row r="847" spans="2:2" ht="14.4">
+    <row r="847" spans="2:2">
       <c r="B847" s="7"/>
     </row>
-    <row r="848" spans="2:2" ht="14.4">
+    <row r="848" spans="2:2">
       <c r="B848" s="7"/>
     </row>
-    <row r="849" spans="2:2" ht="14.4">
+    <row r="849" spans="2:2">
       <c r="B849" s="7"/>
     </row>
-    <row r="850" spans="2:2" ht="14.4">
+    <row r="850" spans="2:2">
       <c r="B850" s="7"/>
     </row>
-    <row r="851" spans="2:2" ht="14.4">
+    <row r="851" spans="2:2">
       <c r="B851" s="7"/>
     </row>
-    <row r="852" spans="2:2" ht="14.4">
+    <row r="852" spans="2:2">
       <c r="B852" s="7"/>
     </row>
-    <row r="853" spans="2:2" ht="14.4">
+    <row r="853" spans="2:2">
       <c r="B853" s="7"/>
     </row>
-    <row r="854" spans="2:2" ht="14.4">
+    <row r="854" spans="2:2">
       <c r="B854" s="7"/>
     </row>
-    <row r="855" spans="2:2" ht="14.4">
+    <row r="855" spans="2:2">
       <c r="B855" s="7"/>
     </row>
-    <row r="856" spans="2:2" ht="14.4">
+    <row r="856" spans="2:2">
       <c r="B856" s="7"/>
     </row>
-    <row r="857" spans="2:2" ht="14.4">
+    <row r="857" spans="2:2">
       <c r="B857" s="7"/>
     </row>
-    <row r="858" spans="2:2" ht="14.4">
+    <row r="858" spans="2:2">
       <c r="B858" s="7"/>
     </row>
-    <row r="859" spans="2:2" ht="14.4">
+    <row r="859" spans="2:2">
       <c r="B859" s="7"/>
     </row>
-    <row r="860" spans="2:2" ht="14.4">
+    <row r="860" spans="2:2">
       <c r="B860" s="7"/>
     </row>
-    <row r="861" spans="2:2" ht="14.4">
+    <row r="861" spans="2:2">
       <c r="B861" s="7"/>
     </row>
-    <row r="862" spans="2:2" ht="14.4">
+    <row r="862" spans="2:2">
       <c r="B862" s="7"/>
     </row>
-    <row r="863" spans="2:2" ht="14.4">
+    <row r="863" spans="2:2">
       <c r="B863" s="7"/>
     </row>
-    <row r="864" spans="2:2" ht="14.4">
+    <row r="864" spans="2:2">
       <c r="B864" s="7"/>
     </row>
-    <row r="865" spans="2:2" ht="14.4">
+    <row r="865" spans="2:2">
       <c r="B865" s="7"/>
     </row>
-    <row r="866" spans="2:2" ht="14.4">
+    <row r="866" spans="2:2">
       <c r="B866" s="7"/>
     </row>
-    <row r="867" spans="2:2" ht="14.4">
+    <row r="867" spans="2:2">
       <c r="B867" s="7"/>
     </row>
-    <row r="868" spans="2:2" ht="14.4">
+    <row r="868" spans="2:2">
       <c r="B868" s="7"/>
     </row>
-    <row r="869" spans="2:2" ht="14.4">
+    <row r="869" spans="2:2">
       <c r="B869" s="7"/>
     </row>
-    <row r="870" spans="2:2" ht="14.4">
+    <row r="870" spans="2:2">
       <c r="B870" s="7"/>
     </row>
-    <row r="871" spans="2:2" ht="14.4">
+    <row r="871" spans="2:2">
       <c r="B871" s="7"/>
     </row>
-    <row r="872" spans="2:2" ht="14.4">
+    <row r="872" spans="2:2">
       <c r="B872" s="7"/>
     </row>
-    <row r="873" spans="2:2" ht="14.4">
+    <row r="873" spans="2:2">
       <c r="B873" s="7"/>
     </row>
-    <row r="874" spans="2:2" ht="14.4">
+    <row r="874" spans="2:2">
       <c r="B874" s="7"/>
     </row>
-    <row r="875" spans="2:2" ht="14.4">
+    <row r="875" spans="2:2">
       <c r="B875" s="7"/>
     </row>
-    <row r="876" spans="2:2" ht="14.4">
+    <row r="876" spans="2:2">
       <c r="B876" s="7"/>
     </row>
-    <row r="877" spans="2:2" ht="14.4">
+    <row r="877" spans="2:2">
       <c r="B877" s="7"/>
     </row>
-    <row r="878" spans="2:2" ht="14.4">
+    <row r="878" spans="2:2">
       <c r="B878" s="7"/>
     </row>
-    <row r="879" spans="2:2" ht="14.4">
+    <row r="879" spans="2:2">
       <c r="B879" s="7"/>
     </row>
-    <row r="880" spans="2:2" ht="14.4">
+    <row r="880" spans="2:2">
       <c r="B880" s="7"/>
     </row>
-    <row r="881" spans="2:2" ht="14.4">
+    <row r="881" spans="2:2">
       <c r="B881" s="7"/>
     </row>
-    <row r="882" spans="2:2" ht="14.4">
+    <row r="882" spans="2:2">
       <c r="B882" s="7"/>
     </row>
-    <row r="883" spans="2:2" ht="14.4">
+    <row r="883" spans="2:2">
       <c r="B883" s="7"/>
     </row>
-    <row r="884" spans="2:2" ht="14.4">
+    <row r="884" spans="2:2">
       <c r="B884" s="7"/>
     </row>
-    <row r="885" spans="2:2" ht="14.4">
+    <row r="885" spans="2:2">
       <c r="B885" s="7"/>
     </row>
-    <row r="886" spans="2:2" ht="14.4">
+    <row r="886" spans="2:2">
       <c r="B886" s="7"/>
     </row>
-    <row r="887" spans="2:2" ht="14.4">
+    <row r="887" spans="2:2">
       <c r="B887" s="7"/>
     </row>
-    <row r="888" spans="2:2" ht="14.4">
+    <row r="888" spans="2:2">
       <c r="B888" s="7"/>
     </row>
-    <row r="889" spans="2:2" ht="14.4">
+    <row r="889" spans="2:2">
       <c r="B889" s="7"/>
     </row>
-    <row r="890" spans="2:2" ht="14.4">
+    <row r="890" spans="2:2">
       <c r="B890" s="7"/>
     </row>
-    <row r="891" spans="2:2" ht="14.4">
+    <row r="891" spans="2:2">
       <c r="B891" s="7"/>
     </row>
-    <row r="892" spans="2:2" ht="14.4">
+    <row r="892" spans="2:2">
       <c r="B892" s="7"/>
     </row>
-    <row r="893" spans="2:2" ht="14.4">
+    <row r="893" spans="2:2">
       <c r="B893" s="7"/>
     </row>
-    <row r="894" spans="2:2" ht="14.4">
+    <row r="894" spans="2:2">
       <c r="B894" s="7"/>
     </row>
-    <row r="895" spans="2:2" ht="14.4">
+    <row r="895" spans="2:2">
       <c r="B895" s="7"/>
     </row>
-    <row r="896" spans="2:2" ht="14.4">
+    <row r="896" spans="2:2">
       <c r="B896" s="7"/>
     </row>
-    <row r="897" spans="2:2" ht="14.4">
+    <row r="897" spans="2:2">
       <c r="B897" s="7"/>
     </row>
-    <row r="898" spans="2:2" ht="14.4">
+    <row r="898" spans="2:2">
       <c r="B898" s="7"/>
     </row>
-    <row r="899" spans="2:2" ht="14.4">
+    <row r="899" spans="2:2">
       <c r="B899" s="7"/>
     </row>
-    <row r="900" spans="2:2" ht="14.4">
+    <row r="900" spans="2:2">
       <c r="B900" s="7"/>
     </row>
-    <row r="901" spans="2:2" ht="14.4">
+    <row r="901" spans="2:2">
       <c r="B901" s="7"/>
     </row>
-    <row r="902" spans="2:2" ht="14.4">
+    <row r="902" spans="2:2">
       <c r="B902" s="7"/>
     </row>
-    <row r="903" spans="2:2" ht="14.4">
+    <row r="903" spans="2:2">
       <c r="B903" s="7"/>
     </row>
-    <row r="904" spans="2:2" ht="14.4">
+    <row r="904" spans="2:2">
       <c r="B904" s="7"/>
     </row>
-    <row r="905" spans="2:2" ht="14.4">
+    <row r="905" spans="2:2">
       <c r="B905" s="7"/>
     </row>
-    <row r="906" spans="2:2" ht="14.4">
+    <row r="906" spans="2:2">
       <c r="B906" s="7"/>
     </row>
-    <row r="907" spans="2:2" ht="14.4">
+    <row r="907" spans="2:2">
       <c r="B907" s="7"/>
     </row>
-    <row r="908" spans="2:2" ht="14.4">
+    <row r="908" spans="2:2">
       <c r="B908" s="7"/>
     </row>
-    <row r="909" spans="2:2" ht="14.4">
+    <row r="909" spans="2:2">
       <c r="B909" s="7"/>
     </row>
-    <row r="910" spans="2:2" ht="14.4">
+    <row r="910" spans="2:2">
       <c r="B910" s="7"/>
     </row>
-    <row r="911" spans="2:2" ht="14.4">
+    <row r="911" spans="2:2">
       <c r="B911" s="7"/>
     </row>
-    <row r="912" spans="2:2" ht="14.4">
+    <row r="912" spans="2:2">
       <c r="B912" s="7"/>
     </row>
-    <row r="913" spans="2:2" ht="14.4">
+    <row r="913" spans="2:2">
       <c r="B913" s="7"/>
     </row>
-    <row r="914" spans="2:2" ht="14.4">
+    <row r="914" spans="2:2">
       <c r="B914" s="7"/>
     </row>
-    <row r="915" spans="2:2" ht="14.4">
+    <row r="915" spans="2:2">
       <c r="B915" s="7"/>
     </row>
-    <row r="916" spans="2:2" ht="14.4">
+    <row r="916" spans="2:2">
       <c r="B916" s="7"/>
     </row>
-    <row r="917" spans="2:2" ht="14.4">
+    <row r="917" spans="2:2">
       <c r="B917" s="7"/>
     </row>
-    <row r="918" spans="2:2" ht="14.4">
+    <row r="918" spans="2:2">
       <c r="B918" s="7"/>
     </row>
-    <row r="919" spans="2:2" ht="14.4">
+    <row r="919" spans="2:2">
       <c r="B919" s="7"/>
     </row>
-    <row r="920" spans="2:2" ht="14.4">
+    <row r="920" spans="2:2">
       <c r="B920" s="7"/>
     </row>
-    <row r="921" spans="2:2" ht="14.4">
+    <row r="921" spans="2:2">
       <c r="B921" s="7"/>
     </row>
-    <row r="922" spans="2:2" ht="14.4">
+    <row r="922" spans="2:2">
       <c r="B922" s="7"/>
     </row>
-    <row r="923" spans="2:2" ht="14.4">
+    <row r="923" spans="2:2">
       <c r="B923" s="7"/>
     </row>
-    <row r="924" spans="2:2" ht="14.4">
+    <row r="924" spans="2:2">
       <c r="B924" s="7"/>
     </row>
-    <row r="925" spans="2:2" ht="14.4">
+    <row r="925" spans="2:2">
       <c r="B925" s="7"/>
     </row>
-    <row r="926" spans="2:2" ht="14.4">
+    <row r="926" spans="2:2">
       <c r="B926" s="7"/>
     </row>
-    <row r="927" spans="2:2" ht="14.4">
+    <row r="927" spans="2:2">
       <c r="B927" s="7"/>
     </row>
-    <row r="928" spans="2:2" ht="14.4">
+    <row r="928" spans="2:2">
       <c r="B928" s="7"/>
     </row>
-    <row r="929" spans="2:2" ht="14.4">
+    <row r="929" spans="2:2">
       <c r="B929" s="7"/>
     </row>
-    <row r="930" spans="2:2" ht="14.4">
+    <row r="930" spans="2:2">
       <c r="B930" s="7"/>
     </row>
-    <row r="931" spans="2:2" ht="14.4">
+    <row r="931" spans="2:2">
       <c r="B931" s="7"/>
     </row>
-    <row r="932" spans="2:2" ht="14.4">
+    <row r="932" spans="2:2">
       <c r="B932" s="7"/>
     </row>
-    <row r="933" spans="2:2" ht="14.4">
+    <row r="933" spans="2:2">
       <c r="B933" s="7"/>
     </row>
-    <row r="934" spans="2:2" ht="14.4">
+    <row r="934" spans="2:2">
       <c r="B934" s="7"/>
     </row>
-    <row r="935" spans="2:2" ht="14.4">
+    <row r="935" spans="2:2">
       <c r="B935" s="7"/>
     </row>
-    <row r="936" spans="2:2" ht="14.4">
+    <row r="936" spans="2:2">
       <c r="B936" s="7"/>
     </row>
-    <row r="937" spans="2:2" ht="14.4">
+    <row r="937" spans="2:2">
       <c r="B937" s="7"/>
     </row>
-    <row r="938" spans="2:2" ht="14.4">
+    <row r="938" spans="2:2">
       <c r="B938" s="7"/>
     </row>
-    <row r="939" spans="2:2" ht="14.4">
+    <row r="939" spans="2:2">
       <c r="B939" s="7"/>
     </row>
-    <row r="940" spans="2:2" ht="14.4">
+    <row r="940" spans="2:2">
       <c r="B940" s="7"/>
     </row>
-    <row r="941" spans="2:2" ht="14.4">
+    <row r="941" spans="2:2">
       <c r="B941" s="7"/>
     </row>
-    <row r="942" spans="2:2" ht="14.4">
+    <row r="942" spans="2:2">
       <c r="B942" s="7"/>
     </row>
-    <row r="943" spans="2:2" ht="14.4">
+    <row r="943" spans="2:2">
       <c r="B943" s="7"/>
     </row>
-    <row r="944" spans="2:2" ht="14.4">
+    <row r="944" spans="2:2">
       <c r="B944" s="7"/>
     </row>
-    <row r="945" spans="2:2" ht="14.4">
+    <row r="945" spans="2:2">
       <c r="B945" s="7"/>
     </row>
-    <row r="946" spans="2:2" ht="14.4">
+    <row r="946" spans="2:2">
       <c r="B946" s="7"/>
     </row>
-    <row r="947" spans="2:2" ht="14.4">
+    <row r="947" spans="2:2">
       <c r="B947" s="7"/>
     </row>
-    <row r="948" spans="2:2" ht="14.4">
+    <row r="948" spans="2:2">
       <c r="B948" s="7"/>
     </row>
-    <row r="949" spans="2:2" ht="14.4">
+    <row r="949" spans="2:2">
       <c r="B949" s="7"/>
     </row>
-    <row r="950" spans="2:2" ht="14.4">
+    <row r="950" spans="2:2">
       <c r="B950" s="7"/>
     </row>
-    <row r="951" spans="2:2" ht="14.4">
+    <row r="951" spans="2:2">
       <c r="B951" s="7"/>
     </row>
-    <row r="952" spans="2:2" ht="14.4">
+    <row r="952" spans="2:2">
       <c r="B952" s="7"/>
     </row>
-    <row r="953" spans="2:2" ht="14.4">
+    <row r="953" spans="2:2">
       <c r="B953" s="7"/>
     </row>
-    <row r="954" spans="2:2" ht="14.4">
+    <row r="954" spans="2:2">
       <c r="B954" s="7"/>
     </row>
-    <row r="955" spans="2:2" ht="14.4">
+    <row r="955" spans="2:2">
       <c r="B955" s="7"/>
     </row>
-    <row r="956" spans="2:2" ht="14.4">
+    <row r="956" spans="2:2">
       <c r="B956" s="7"/>
     </row>
-    <row r="957" spans="2:2" ht="14.4">
+    <row r="957" spans="2:2">
       <c r="B957" s="7"/>
     </row>
-    <row r="958" spans="2:2" ht="14.4">
+    <row r="958" spans="2:2">
       <c r="B958" s="7"/>
     </row>
-    <row r="959" spans="2:2" ht="14.4">
+    <row r="959" spans="2:2">
       <c r="B959" s="7"/>
     </row>
-    <row r="960" spans="2:2" ht="14.4">
+    <row r="960" spans="2:2">
       <c r="B960" s="7"/>
     </row>
-    <row r="961" spans="2:2" ht="14.4">
+    <row r="961" spans="2:2">
       <c r="B961" s="7"/>
     </row>
-    <row r="962" spans="2:2" ht="14.4">
+    <row r="962" spans="2:2">
       <c r="B962" s="7"/>
     </row>
-    <row r="963" spans="2:2" ht="14.4">
+    <row r="963" spans="2:2">
       <c r="B963" s="7"/>
     </row>
-    <row r="964" spans="2:2" ht="14.4">
+    <row r="964" spans="2:2">
       <c r="B964" s="7"/>
     </row>
-    <row r="965" spans="2:2" ht="14.4">
+    <row r="965" spans="2:2">
       <c r="B965" s="7"/>
     </row>
-    <row r="966" spans="2:2" ht="14.4">
+    <row r="966" spans="2:2">
       <c r="B966" s="7"/>
     </row>
-    <row r="967" spans="2:2" ht="14.4">
+    <row r="967" spans="2:2">
       <c r="B967" s="7"/>
     </row>
-    <row r="968" spans="2:2" ht="14.4">
+    <row r="968" spans="2:2">
       <c r="B968" s="7"/>
     </row>
-    <row r="969" spans="2:2" ht="14.4">
+    <row r="969" spans="2:2">
       <c r="B969" s="7"/>
     </row>
-    <row r="970" spans="2:2" ht="14.4">
+    <row r="970" spans="2:2">
       <c r="B970" s="7"/>
     </row>
-    <row r="971" spans="2:2" ht="14.4">
+    <row r="971" spans="2:2">
       <c r="B971" s="7"/>
     </row>
-    <row r="972" spans="2:2" ht="14.4">
+    <row r="972" spans="2:2">
       <c r="B972" s="7"/>
     </row>
-    <row r="973" spans="2:2" ht="14.4">
+    <row r="973" spans="2:2">
       <c r="B973" s="7"/>
     </row>
-    <row r="974" spans="2:2" ht="14.4">
+    <row r="974" spans="2:2">
       <c r="B974" s="7"/>
     </row>
-    <row r="975" spans="2:2" ht="14.4">
+    <row r="975" spans="2:2">
       <c r="B975" s="7"/>
     </row>
-    <row r="976" spans="2:2" ht="14.4">
+    <row r="976" spans="2:2">
       <c r="B976" s="7"/>
     </row>
-    <row r="977" spans="2:2" ht="14.4">
+    <row r="977" spans="2:2">
       <c r="B977" s="7"/>
     </row>
-    <row r="978" spans="2:2" ht="14.4">
+    <row r="978" spans="2:2">
       <c r="B978" s="7"/>
     </row>
-    <row r="979" spans="2:2" ht="14.4">
+    <row r="979" spans="2:2">
       <c r="B979" s="7"/>
     </row>
-    <row r="980" spans="2:2" ht="14.4">
+    <row r="980" spans="2:2">
       <c r="B980" s="7"/>
     </row>
-    <row r="981" spans="2:2" ht="14.4">
+    <row r="981" spans="2:2">
       <c r="B981" s="7"/>
     </row>
-    <row r="982" spans="2:2" ht="14.4">
+    <row r="982" spans="2:2">
       <c r="B982" s="7"/>
     </row>
-    <row r="983" spans="2:2" ht="14.4">
+    <row r="983" spans="2:2">
       <c r="B983" s="7"/>
     </row>
-    <row r="984" spans="2:2" ht="14.4">
+    <row r="984" spans="2:2">
       <c r="B984" s="7"/>
     </row>
-    <row r="985" spans="2:2" ht="14.4">
+    <row r="985" spans="2:2">
       <c r="B985" s="7"/>
     </row>
-    <row r="986" spans="2:2" ht="14.4">
+    <row r="986" spans="2:2">
       <c r="B986" s="7"/>
     </row>
-    <row r="987" spans="2:2" ht="14.4">
+    <row r="987" spans="2:2">
       <c r="B987" s="7"/>
     </row>
-    <row r="988" spans="2:2" ht="14.4">
+    <row r="988" spans="2:2">
       <c r="B988" s="7"/>
     </row>
-    <row r="989" spans="2:2" ht="14.4">
+    <row r="989" spans="2:2">
       <c r="B989" s="7"/>
     </row>
-    <row r="990" spans="2:2" ht="14.4">
+    <row r="990" spans="2:2">
       <c r="B990" s="7"/>
     </row>
-    <row r="991" spans="2:2" ht="14.4">
+    <row r="991" spans="2:2">
       <c r="B991" s="7"/>
     </row>
-    <row r="992" spans="2:2" ht="14.4">
+    <row r="992" spans="2:2">
       <c r="B992" s="7"/>
     </row>
-    <row r="993" spans="2:2" ht="14.4">
+    <row r="993" spans="2:2">
       <c r="B993" s="7"/>
     </row>
-    <row r="994" spans="2:2" ht="14.4">
+    <row r="994" spans="2:2">
       <c r="B994" s="7"/>
     </row>
-    <row r="995" spans="2:2" ht="14.4">
+    <row r="995" spans="2:2">
       <c r="B995" s="7"/>
     </row>
-    <row r="996" spans="2:2" ht="14.4">
+    <row r="996" spans="2:2">
       <c r="B996" s="7"/>
     </row>
-    <row r="997" spans="2:2" ht="14.4">
+    <row r="997" spans="2:2">
       <c r="B997" s="7"/>
     </row>
-    <row r="998" spans="2:2" ht="14.4">
+    <row r="998" spans="2:2">
       <c r="B998" s="7"/>
     </row>
-    <row r="999" spans="2:2" ht="14.4">
+    <row r="999" spans="2:2">
       <c r="B999" s="7"/>
     </row>
-    <row r="1000" spans="2:2" ht="14.4">
+    <row r="1000" spans="2:2">
       <c r="B1000" s="7"/>
     </row>
-    <row r="1001" spans="2:2" ht="14.4">
+    <row r="1001" spans="2:2">
       <c r="B1001" s="7"/>
     </row>
-    <row r="1002" spans="2:2" ht="14.4">
+    <row r="1002" spans="2:2">
       <c r="B1002" s="7"/>
     </row>
-    <row r="1003" spans="2:2" ht="14.4">
+    <row r="1003" spans="2:2">
       <c r="B1003" s="7"/>
     </row>
-    <row r="1004" spans="2:2" ht="14.4">
+    <row r="1004" spans="2:2">
       <c r="B1004" s="7"/>
     </row>
-    <row r="1005" spans="2:2" ht="14.4">
+    <row r="1005" spans="2:2">
       <c r="B1005" s="7"/>
     </row>
-    <row r="1006" spans="2:2" ht="14.4">
+    <row r="1006" spans="2:2">
       <c r="B1006" s="7"/>
     </row>
-    <row r="1007" spans="2:2" ht="14.4">
+    <row r="1007" spans="2:2">
       <c r="B1007" s="7"/>
     </row>
-    <row r="1008" spans="2:2" ht="14.4">
+    <row r="1008" spans="2:2">
       <c r="B1008" s="7"/>
     </row>
-    <row r="1009" spans="2:2" ht="14.4">
+    <row r="1009" spans="2:2">
       <c r="B1009" s="7"/>
     </row>
-    <row r="1010" spans="2:2" ht="14.4">
+    <row r="1010" spans="2:2">
       <c r="B1010" s="7"/>
     </row>
-    <row r="1011" spans="2:2" ht="14.4">
+    <row r="1011" spans="2:2">
       <c r="B1011" s="7"/>
     </row>
-    <row r="1012" spans="2:2" ht="14.4">
+    <row r="1012" spans="2:2">
       <c r="B1012" s="7"/>
     </row>
-    <row r="1013" spans="2:2" ht="14.4">
+    <row r="1013" spans="2:2">
       <c r="B1013" s="7"/>
     </row>
-    <row r="1014" spans="2:2" ht="14.4">
+    <row r="1014" spans="2:2">
       <c r="B1014" s="7"/>
     </row>
-    <row r="1015" spans="2:2" ht="14.4">
+    <row r="1015" spans="2:2">
       <c r="B1015" s="7"/>
     </row>
-    <row r="1016" spans="2:2" ht="14.4">
+    <row r="1016" spans="2:2">
       <c r="B1016" s="7"/>
     </row>
-    <row r="1017" spans="2:2" ht="14.4">
+    <row r="1017" spans="2:2">
       <c r="B1017" s="7"/>
     </row>
-    <row r="1018" spans="2:2" ht="14.4">
+    <row r="1018" spans="2:2">
       <c r="B1018" s="7"/>
     </row>
-    <row r="1019" spans="2:2" ht="14.4">
+    <row r="1019" spans="2:2">
       <c r="B1019" s="7"/>
     </row>
-    <row r="1020" spans="2:2" ht="14.4">
+    <row r="1020" spans="2:2">
       <c r="B1020" s="7"/>
     </row>
-    <row r="1021" spans="2:2" ht="14.4">
+    <row r="1021" spans="2:2">
       <c r="B1021" s="7"/>
     </row>
-    <row r="1022" spans="2:2" ht="14.4">
+    <row r="1022" spans="2:2">
       <c r="B1022" s="7"/>
     </row>
-    <row r="1023" spans="2:2" ht="14.4">
+    <row r="1023" spans="2:2">
       <c r="B1023" s="7"/>
     </row>
-    <row r="1024" spans="2:2" ht="14.4">
+    <row r="1024" spans="2:2">
       <c r="B1024" s="7"/>
     </row>
-    <row r="1025" spans="2:2" ht="14.4">
+    <row r="1025" spans="2:2">
       <c r="B1025" s="7"/>
     </row>
-    <row r="1026" spans="2:2" ht="14.4">
+    <row r="1026" spans="2:2">
       <c r="B1026" s="7"/>
     </row>
-    <row r="1027" spans="2:2" ht="14.4">
+    <row r="1027" spans="2:2">
       <c r="B1027" s="7"/>
     </row>
-    <row r="1028" spans="2:2" ht="14.4">
+    <row r="1028" spans="2:2">
       <c r="B1028" s="7"/>
     </row>
-    <row r="1029" spans="2:2" ht="14.4">
+    <row r="1029" spans="2:2">
       <c r="B1029" s="7"/>
     </row>
-    <row r="1030" spans="2:2" ht="14.4">
+    <row r="1030" spans="2:2">
       <c r="B1030" s="7"/>
     </row>
-    <row r="1031" spans="2:2" ht="14.4">
+    <row r="1031" spans="2:2">
       <c r="B1031" s="7"/>
     </row>
-    <row r="1032" spans="2:2" ht="14.4">
+    <row r="1032" spans="2:2">
       <c r="B1032" s="7"/>
     </row>
-    <row r="1033" spans="2:2" ht="14.4">
+    <row r="1033" spans="2:2">
       <c r="B1033" s="7"/>
     </row>
-    <row r="1034" spans="2:2" ht="14.4">
+    <row r="1034" spans="2:2">
       <c r="B1034" s="7"/>
     </row>
-    <row r="1035" spans="2:2" ht="14.4">
+    <row r="1035" spans="2:2">
       <c r="B1035" s="7"/>
     </row>
-    <row r="1036" spans="2:2" ht="14.4">
+    <row r="1036" spans="2:2">
       <c r="B1036" s="7"/>
     </row>
-    <row r="1037" spans="2:2" ht="14.4">
+    <row r="1037" spans="2:2">
       <c r="B1037" s="7"/>
     </row>
-    <row r="1038" spans="2:2" ht="14.4">
+    <row r="1038" spans="2:2">
       <c r="B1038" s="7"/>
     </row>
-    <row r="1039" spans="2:2" ht="14.4">
+    <row r="1039" spans="2:2">
       <c r="B1039" s="7"/>
     </row>
-    <row r="1040" spans="2:2" ht="14.4">
+    <row r="1040" spans="2:2">
       <c r="B1040" s="7"/>
     </row>
-    <row r="1041" spans="2:2" ht="14.4">
+    <row r="1041" spans="2:2">
       <c r="B1041" s="7"/>
     </row>
-    <row r="1042" spans="2:2" ht="14.4">
+    <row r="1042" spans="2:2">
       <c r="B1042" s="7"/>
     </row>
-    <row r="1043" spans="2:2" ht="14.4">
+    <row r="1043" spans="2:2">
       <c r="B1043" s="7"/>
     </row>
-    <row r="1044" spans="2:2" ht="14.4">
+    <row r="1044" spans="2:2">
       <c r="B1044" s="7"/>
     </row>
-    <row r="1045" spans="2:2" ht="14.4">
+    <row r="1045" spans="2:2">
       <c r="B1045" s="7"/>
     </row>
-    <row r="1046" spans="2:2" ht="14.4">
+    <row r="1046" spans="2:2">
       <c r="B1046" s="7"/>
     </row>
-    <row r="1047" spans="2:2" ht="14.4">
+    <row r="1047" spans="2:2">
       <c r="B1047" s="7"/>
     </row>
   </sheetData>
@@ -20671,25 +20678,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="39.88671875" customWidth="1"/>
+    <col min="6" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" customWidth="1"/>
     <col min="12" max="12" width="64" customWidth="1"/>
-    <col min="13" max="24" width="7.5546875" customWidth="1"/>
-    <col min="25" max="26" width="12.5546875" customWidth="1"/>
+    <col min="13" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20722,7 +20729,7 @@
     </row>
     <row r="2" spans="1:26" s="57" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="70" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -20750,7 +20757,7 @@
     </row>
     <row r="3" spans="1:26" s="91" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="87" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="89"/>
@@ -20832,13 +20839,13 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
     </row>
-    <row r="5" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="5" spans="1:26" s="21" customFormat="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="72" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="70" t="s">
@@ -20854,7 +20861,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="57" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="25"/>
@@ -20870,13 +20877,13 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="6" spans="1:26" s="21" customFormat="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="72" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="70" t="s">
@@ -20892,7 +20899,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="57" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="25"/>
@@ -20908,13 +20915,13 @@
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
     </row>
-    <row r="7" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="7" spans="1:26" s="21" customFormat="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="72" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="70" t="s">
@@ -20930,7 +20937,7 @@
         <v>27</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="25"/>
@@ -20946,7 +20953,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
     </row>
-    <row r="8" spans="1:26" s="83" customFormat="1" ht="14.4">
+    <row r="8" spans="1:26" s="83" customFormat="1">
       <c r="A8" s="82"/>
       <c r="B8" s="82"/>
       <c r="D8" s="84" t="s">
@@ -20972,7 +20979,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" ht="28.8">
+    <row r="9" spans="1:26" s="21" customFormat="1" ht="30">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -20993,7 +21000,7 @@
       </c>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" ht="28.8">
+    <row r="10" spans="1:26" s="21" customFormat="1" ht="30">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="22"/>
@@ -21010,19 +21017,19 @@
         <v>30</v>
       </c>
       <c r="K10" s="80" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" ht="28.8">
+    <row r="11" spans="1:26" s="21" customFormat="1" ht="30">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="57" t="s">
+        <v>944</v>
+      </c>
+      <c r="E11" s="57" t="s">
         <v>945</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>946</v>
       </c>
       <c r="F11" s="21">
         <v>36</v>
@@ -21034,19 +21041,19 @@
         <v>227</v>
       </c>
       <c r="I11" s="57" t="s">
+        <v>947</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="K11" s="80" t="s">
         <v>948</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="K11" s="80" t="s">
+      <c r="L11" s="23" t="s">
         <v>949</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.4">
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
@@ -21062,7 +21069,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4">
+    <row r="13" spans="1:26">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -21092,7 +21099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14" spans="1:26">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -21108,7 +21115,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14.4">
+    <row r="15" spans="1:26">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -21124,7 +21131,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4">
+    <row r="16" spans="1:26">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
@@ -21140,7 +21147,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="14.4">
+    <row r="17" spans="1:26">
       <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
@@ -21159,7 +21166,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="14.4">
+    <row r="18" spans="1:26">
       <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
@@ -21178,7 +21185,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="14.4">
+    <row r="19" spans="1:26">
       <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
@@ -21197,7 +21204,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="20" spans="1:26" s="21" customFormat="1">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="D20" s="3"/>
@@ -21223,12 +21230,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="21" spans="1:26" s="21" customFormat="1">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -21244,15 +21251,15 @@
         <v>27</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" s="21" customFormat="1" ht="14.4">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F22" s="7">
         <v>90</v>
@@ -21261,16 +21268,16 @@
         <v>109</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="14.4">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="15" t="s">
         <v>23</v>
       </c>
@@ -21289,7 +21296,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="14.4">
+    <row r="24" spans="1:26">
       <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
@@ -21327,7 +21334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="21" customFormat="1" ht="14.4">
+    <row r="25" spans="1:26" s="21" customFormat="1">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="3"/>
@@ -21355,7 +21362,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="14.4">
+    <row r="26" spans="1:26">
       <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
@@ -21363,7 +21370,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>50</v>
@@ -21372,14 +21379,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H26" s="7"/>
       <c r="K26" s="23" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="14.4">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="15" t="s">
         <v>23</v>
       </c>
@@ -21393,7 +21400,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="14.4">
+    <row r="28" spans="1:26">
       <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
@@ -21407,7 +21414,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:26" ht="25.2" customHeight="1">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>23</v>
       </c>
@@ -21433,7 +21440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="25" customFormat="1" ht="72">
+    <row r="30" spans="1:26" s="25" customFormat="1" ht="75">
       <c r="A30" s="81"/>
       <c r="B30" s="81"/>
       <c r="C30" s="19"/>
@@ -21475,7 +21482,7 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26" ht="14.4">
+    <row r="31" spans="1:26">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="D31" s="17" t="s">
@@ -21500,7 +21507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14.4">
+    <row r="32" spans="1:26">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
         <v>24</v>
@@ -21528,7 +21535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="21" customFormat="1" ht="14.4">
+    <row r="33" spans="1:11" s="21" customFormat="1">
       <c r="A33" s="20" t="s">
         <v>23</v>
       </c>
@@ -21556,7 +21563,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="21" customFormat="1" ht="14.4">
+    <row r="34" spans="1:11" s="21" customFormat="1">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="D34" s="22"/>
@@ -21580,12 +21587,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="21" customFormat="1" ht="14.4">
+    <row r="35" spans="1:11" s="21" customFormat="1">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="D35" s="22"/>
       <c r="E35" s="21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="57" t="s">
@@ -21601,10 +21608,10 @@
         <v>27</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.4">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="15" t="s">
         <v>23</v>
       </c>
@@ -21625,7 +21632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4">
+    <row r="37" spans="1:11">
       <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
@@ -21651,7 +21658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.4">
+    <row r="38" spans="1:11">
       <c r="A38" s="15" t="s">
         <v>23</v>
       </c>
@@ -21674,7 +21681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.4">
+    <row r="39" spans="1:11">
       <c r="A39" s="15" t="s">
         <v>23</v>
       </c>
@@ -21697,7 +21704,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4">
+    <row r="40" spans="1:11">
       <c r="A40" s="15" t="s">
         <v>23</v>
       </c>
@@ -21720,129 +21727,124 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.4">
-      <c r="A41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="41" spans="1:11" s="21" customFormat="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
       <c r="E41" s="7" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="F41" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.4">
+        <v>1.3</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>44</v>
+      <c r="C42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F42" s="7">
-        <v>6699</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" ht="14.4">
+      <c r="H42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D43" t="s">
-        <v>909</v>
+      <c r="D43" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>910</v>
-      </c>
+        <v>6699</v>
+      </c>
+      <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="K43" s="23" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="14.4">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
+        <v>908</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="K44" s="23" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>6758</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A45" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I45" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="K45" s="57" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" s="21" customFormat="1">
       <c r="A46" s="20" t="s">
         <v>23</v>
       </c>
@@ -21853,14 +21855,14 @@
         <v>804</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>932</v>
+        <v>801</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H46" s="58" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I46" s="57" t="s">
         <v>26</v>
@@ -21869,10 +21871,10 @@
         <v>27</v>
       </c>
       <c r="K46" s="57" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="21" customFormat="1" ht="14.4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="21" customFormat="1">
       <c r="A47" s="20" t="s">
         <v>23</v>
       </c>
@@ -21880,17 +21882,17 @@
         <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>802</v>
+        <v>804</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>931</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I47" s="57" t="s">
         <v>26</v>
@@ -21899,51 +21901,58 @@
         <v>27</v>
       </c>
       <c r="K47" s="57" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="21" customFormat="1">
+      <c r="A48" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>802</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="57" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="58" t="s">
+    <row r="49" spans="1:11" s="21" customFormat="1">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="58" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="14.4">
-      <c r="A49" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="14.4">
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
         <v>23</v>
       </c>
@@ -21951,102 +21960,105 @@
         <v>24</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="K50" s="17" t="s">
+      <c r="G50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="K51" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="E51" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="21" customFormat="1" ht="14.4">
+    <row r="52" spans="1:11" s="21" customFormat="1">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
-      <c r="E52" s="58" t="s">
-        <v>840</v>
-      </c>
-      <c r="F52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G52" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>475</v>
+        <v>73</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="21" customFormat="1" ht="14.4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="21" customFormat="1">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="E53" s="58" t="s">
-        <v>473</v>
+        <v>840</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H53" s="7" t="s">
         <v>475</v>
       </c>
+      <c r="I53" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="K53" s="23" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="21" customFormat="1" ht="14.4">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="21" customFormat="1">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
-      <c r="E54" s="7" t="s">
-        <v>839</v>
+      <c r="E54" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="I54" s="21" t="s">
-        <v>26</v>
-      </c>
       <c r="K54" s="23" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="21" customFormat="1" ht="14.4">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="21" customFormat="1">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="E55" s="7" t="s">
-        <v>965</v>
+        <v>839</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
@@ -22056,86 +22068,81 @@
         <v>475</v>
       </c>
       <c r="I55" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="21" customFormat="1">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="E56" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I56" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K55" s="23" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="14.4">
-      <c r="A56" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="24" t="s">
+      <c r="K56" s="23" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E57" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="18" t="s">
+      <c r="F57" s="7"/>
+      <c r="G57" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H57" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I57" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="J57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="K57" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A57" s="20"/>
-      <c r="B57" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="21" customFormat="1" ht="14.4">
+    <row r="58" spans="1:11" s="21" customFormat="1">
       <c r="A58" s="20"/>
-      <c r="B58" s="24"/>
+      <c r="B58" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="21" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>407</v>
+        <v>917</v>
       </c>
       <c r="I58" s="23" t="s">
         <v>26</v>
@@ -22144,25 +22151,23 @@
         <v>27</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="21" customFormat="1" ht="14.4">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="21" customFormat="1">
       <c r="A59" s="20"/>
-      <c r="B59" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="B59" s="24"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="21" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="I59" s="23" t="s">
         <v>26</v>
@@ -22171,319 +22176,320 @@
         <v>27</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="43.2">
-      <c r="A60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="15" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="21" customFormat="1">
+      <c r="A60" s="20"/>
+      <c r="B60" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="45">
+      <c r="A61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F61" s="18">
         <v>1</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H61" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="17" t="s">
+      <c r="J61" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K61" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="21" customFormat="1" ht="14.4">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="E61" s="7" t="s">
+    <row r="62" spans="1:11" s="21" customFormat="1">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="E62" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="23" t="s">
         <v>922</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="25" customFormat="1" ht="86.4">
-      <c r="A62" s="81"/>
-      <c r="B62" s="81"/>
-      <c r="E62" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="25">
-        <v>1</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="80" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="25" customFormat="1" ht="14.4">
+    </row>
+    <row r="63" spans="1:11" s="25" customFormat="1" ht="90">
       <c r="A63" s="81"/>
       <c r="B63" s="81"/>
-      <c r="E63" s="72" t="s">
-        <v>924</v>
-      </c>
-      <c r="G63" s="72" t="s">
+      <c r="E63" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="25">
+        <v>1</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="80" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="25" customFormat="1">
+      <c r="A64" s="81"/>
+      <c r="B64" s="81"/>
+      <c r="E64" s="72" t="s">
+        <v>923</v>
+      </c>
+      <c r="G64" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="H63" s="72" t="s">
+      <c r="H64" s="72" t="s">
         <v>475</v>
-      </c>
-      <c r="I63" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="J63" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" s="23" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="25" customFormat="1" ht="28.8">
-      <c r="A64" s="81"/>
-      <c r="B64" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>915</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>129</v>
       </c>
       <c r="I64" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="80" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="7" t="s">
+      <c r="J64" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" s="25" customFormat="1" ht="30">
+      <c r="A65" s="81"/>
+      <c r="B65" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>914</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="19"/>
+      <c r="K65" s="80" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="70" t="s">
+      <c r="F66" s="7"/>
+      <c r="G66" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="70" t="s">
+      <c r="H66" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I65" s="70" t="s">
+      <c r="I66" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="70" t="s">
+      <c r="J66" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="K65" s="57" t="s">
+      <c r="K66" s="57" t="s">
         <v>813</v>
       </c>
-      <c r="L65" s="70" t="s">
+      <c r="L66" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-    </row>
-    <row r="66" spans="1:26" ht="14.4">
-      <c r="A66" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="15" t="s">
+      <c r="M66" s="3"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>-1</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:26" ht="14.4">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="7" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>0.6</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K68" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-    </row>
-    <row r="68" spans="1:26" ht="14.4">
-      <c r="A68" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="15" t="s">
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>1739.927555</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="E69" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I69" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J69" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="K69" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="21" customFormat="1">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="E70" s="7" t="s">
-        <v>497</v>
+        <v>961</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="K70" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="G70" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" s="21" customFormat="1">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="E71" s="7" t="s">
-        <v>854</v>
+        <v>497</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="21" t="s">
-        <v>856</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="K71" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="21" customFormat="1">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="E72" s="7" t="s">
-        <v>919</v>
+        <v>854</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>34</v>
@@ -22492,61 +22498,71 @@
         <v>30</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="14.4">
-      <c r="A73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="73" spans="1:26" s="21" customFormat="1">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
       <c r="E73" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F73" s="7">
-        <v>1</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" ht="14.4">
+      <c r="K73" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C74" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E74" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F74" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:26" ht="14.4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="15" t="s">
         <v>23</v>
       </c>
@@ -22554,121 +22570,104 @@
         <v>24</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F75" s="7">
-        <v>4891208</v>
+        <v>553659</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:26" ht="14.4">
+    <row r="76" spans="1:26">
       <c r="A76" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="E76" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="C77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>1</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="3"/>
-      <c r="E77" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A78" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>65</v>
-      </c>
+    <row r="78" spans="1:26" s="21" customFormat="1">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="3"/>
       <c r="E78" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="F78" s="7">
-        <v>5</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I78" s="3"/>
       <c r="J78" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="L78" s="23" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="21" customFormat="1">
+      <c r="A79" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" ht="14.4">
-      <c r="A79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E79" s="7" t="s">
-        <v>128</v>
+        <v>836</v>
       </c>
       <c r="F79" s="7">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H79" s="7" t="s">
         <v>129</v>
       </c>
@@ -22679,33 +22678,48 @@
         <v>27</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" s="21" customFormat="1" ht="14.4">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="D80" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E80" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="F80" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="I80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K80" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="21" customFormat="1">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="D81" s="3"/>
       <c r="E81" s="7" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -22715,53 +22729,46 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="14.4">
-      <c r="A82" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="15"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="21" customFormat="1">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="E83" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>6772</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="E83" s="7" t="s">
-        <v>955</v>
-      </c>
-      <c r="F83" s="7">
-        <v>5</v>
-      </c>
-      <c r="G83" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J83" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="23" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" s="21" customFormat="1">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
-      <c r="E84" s="58" t="s">
-        <v>957</v>
+      <c r="E84" s="7" t="s">
+        <v>954</v>
       </c>
       <c r="F84" s="7">
         <v>5</v>
@@ -22779,14 +22786,14 @@
         <v>30</v>
       </c>
       <c r="K84" s="23" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="21" customFormat="1">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="E85" s="58" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F85" s="7">
         <v>5</v>
@@ -22804,66 +22811,64 @@
         <v>30</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="21" customFormat="1">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
-      <c r="E86" s="7" t="s">
-        <v>843</v>
+      <c r="E86" s="58" t="s">
+        <v>958</v>
       </c>
       <c r="F86" s="7">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="58" t="s">
         <v>109</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="I86" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J86" s="23" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>129</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="21" customFormat="1">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
-      <c r="D87" s="57" t="s">
-        <v>945</v>
-      </c>
       <c r="E87" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H87" s="58" t="s">
-        <v>84</v>
+      <c r="H87" s="7" t="s">
+        <v>844</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>948</v>
+        <v>26</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="K87" s="23" t="s">
-        <v>953</v>
-      </c>
-      <c r="L87" s="23"/>
-    </row>
-    <row r="88" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="21" customFormat="1">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="D88" s="57" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="58" t="s">
@@ -22873,47 +22878,51 @@
         <v>84</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J88" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="K88" s="57" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>947</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="L88" s="23"/>
+    </row>
+    <row r="89" spans="1:12" s="21" customFormat="1">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
+      <c r="D89" s="57" t="s">
+        <v>944</v>
+      </c>
       <c r="E89" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F89" s="7">
-        <v>10</v>
-      </c>
-      <c r="G89" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H89" s="7" t="s">
-        <v>626</v>
+      <c r="H89" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>26</v>
+        <v>947</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K89" s="23" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>947</v>
+      </c>
+      <c r="K89" s="57" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="21" customFormat="1">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="E90" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="F90" s="7"/>
+        <v>842</v>
+      </c>
+      <c r="F90" s="7">
+        <v>10</v>
+      </c>
       <c r="G90" s="7" t="s">
         <v>109</v>
       </c>
@@ -22921,68 +22930,63 @@
         <v>626</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J90" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K90" s="23" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="21" customFormat="1">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="E91" s="7" t="s">
-        <v>510</v>
+        <v>962</v>
       </c>
       <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
+        <v>626</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="K91" s="23" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="21" customFormat="1" ht="14.4">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="21" customFormat="1">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
-      <c r="D92" s="57" t="s">
-        <v>25</v>
-      </c>
       <c r="E92" s="7" t="s">
-        <v>796</v>
+        <v>510</v>
       </c>
       <c r="F92" s="7"/>
-      <c r="G92" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I92" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J92" s="23" t="s">
-        <v>27</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
       <c r="K92" s="23" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="21" customFormat="1" ht="14.4">
-      <c r="A93" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="21" customFormat="1">
+      <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="D93" s="57" t="s">
         <v>25</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="58" t="s">
@@ -22998,42 +23002,38 @@
         <v>27</v>
       </c>
       <c r="K93" s="23" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="21" customFormat="1">
+      <c r="A94" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="D94" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="23" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.4">
-      <c r="A94" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" s="18">
-        <v>1500</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K94" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="14.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="15" t="s">
         <v>23</v>
       </c>
@@ -23043,16 +23043,16 @@
       <c r="D95" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F95" s="17">
+      <c r="E95" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="18">
         <v>1500</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I95" s="17" t="s">
@@ -23062,10 +23062,10 @@
         <v>30</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="14.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="15" t="s">
         <v>23</v>
       </c>
@@ -23076,7 +23076,7 @@
         <v>133</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F96" s="17">
         <v>1500</v>
@@ -23094,13 +23094,45 @@
         <v>30</v>
       </c>
       <c r="K96" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="17">
+        <v>1500</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="17" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B56:B59">
+  <conditionalFormatting sqref="B57:B60">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B56))&gt;0</formula>
+      <formula>LEN(TRIM(B57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23119,18 +23151,18 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.109375" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" customWidth="1"/>
-    <col min="11" max="22" width="7.5546875" customWidth="1"/>
-    <col min="23" max="26" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="22" width="7.5703125" customWidth="1"/>
+    <col min="23" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -23207,7 +23239,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
     </row>
-    <row r="3" spans="1:26" s="65" customFormat="1" ht="14.4">
+    <row r="3" spans="1:26" s="65" customFormat="1">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -23233,7 +23265,7 @@
       <c r="U3" s="61"/>
       <c r="V3" s="61"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4">
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
@@ -23269,7 +23301,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -23309,7 +23341,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="28.8">
+    <row r="6" spans="1:26" ht="30">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -23349,7 +23381,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="14.4">
+    <row r="7" spans="1:26">
       <c r="A7" s="6" t="s">
         <v>160</v>
       </c>
@@ -23459,7 +23491,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="45"/>
     </row>
-    <row r="10" spans="1:26" ht="14.4">
+    <row r="10" spans="1:26">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -23495,7 +23527,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="14.4">
+    <row r="11" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -23529,7 +23561,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="14.4">
+    <row r="12" spans="1:26">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -23563,7 +23595,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4">
+    <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
         <v>160</v>
       </c>
@@ -23601,7 +23633,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14" spans="1:26">
       <c r="A14" s="6" t="s">
         <v>160</v>
       </c>
@@ -24243,7 +24275,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="14.4">
+    <row r="31" spans="1:26">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
@@ -24257,7 +24289,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="14.4">
+    <row r="32" spans="1:26">
       <c r="A32" s="28" t="s">
         <v>160</v>
       </c>
@@ -24278,7 +24310,7 @@
       </c>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
+    <row r="33" spans="1:10">
       <c r="A33" s="28" t="s">
         <v>160</v>
       </c>
@@ -24299,7 +24331,7 @@
       </c>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
+    <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
         <v>160</v>
       </c>
@@ -24320,7 +24352,7 @@
       </c>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4">
+    <row r="35" spans="1:10">
       <c r="A35" s="28" t="s">
         <v>23</v>
       </c>
@@ -24341,7 +24373,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4">
+    <row r="36" spans="1:10">
       <c r="A36" s="28" t="s">
         <v>23</v>
       </c>
@@ -24364,7 +24396,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
+    <row r="37" spans="1:10">
       <c r="A37" s="28" t="s">
         <v>23</v>
       </c>
@@ -24387,7 +24419,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4">
+    <row r="38" spans="1:10">
       <c r="A38" s="28" t="s">
         <v>23</v>
       </c>
@@ -24410,7 +24442,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
+    <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
         <v>23</v>
       </c>
@@ -24433,7 +24465,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10">
       <c r="A40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -24441,7 +24473,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
+    <row r="41" spans="1:10">
       <c r="A41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -24465,9 +24497,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="12.5546875" customWidth="1"/>
+    <col min="1" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8BE106-7C20-42E4-B2E7-A77FFEB7B355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BAB22-1BA5-43C3-AC4D-D89461AFE430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Conventions" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="982">
   <si>
     <t>LULC_A</t>
   </si>
@@ -2956,12 +2955,6 @@
     <t>VEG_HT_R</t>
   </si>
   <si>
-    <t>vegetation height on left bank, can be input or calculated from VEGCLASS and AGECLASS of BANK_L_IDU</t>
-  </si>
-  <si>
-    <t>vegetation height on right bank, can be input or calculated from VEGCLASS and AGECLASS of BANK_R_IDU</t>
-  </si>
-  <si>
     <t>TOPOELEV_E</t>
   </si>
   <si>
@@ -3014,6 +3007,42 @@
   </si>
   <si>
     <t>m2 leaf/m2</t>
+  </si>
+  <si>
+    <t>VEGHTREACH</t>
+  </si>
+  <si>
+    <t>average vegetation height on banks of reach, can be either from TREE_HT as calculated by MCfire, or from Shade-a-lator input data</t>
+  </si>
+  <si>
+    <t>LAI_REACH</t>
+  </si>
+  <si>
+    <t>can be either from LAI as calculated by VegSTM, or back-calculated from Shade-a-lator canopy density input data</t>
+  </si>
+  <si>
+    <t>WIDTHREACH</t>
+  </si>
+  <si>
+    <t>width of reach</t>
+  </si>
+  <si>
+    <t>can be either from WIDTH as calculated by Flow, or from WIDTHGIVEN from the  Shade-a-lator input data</t>
+  </si>
+  <si>
+    <t>can be either from BeersLaw( LAI as calculated by VegSTM), or from Shade-a-lator  input data for % canopy density</t>
+  </si>
+  <si>
+    <t>VEG_DENS</t>
+  </si>
+  <si>
+    <t>vegetation density, the fraction of light intercepted by canopy</t>
+  </si>
+  <si>
+    <t>vegetation height on left bank of stream from Shade-a-lator data</t>
+  </si>
+  <si>
+    <t>vegetation height on right bank of stream from Shade-a-lator data</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3333,6 +3362,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3666,21 +3703,21 @@
       <selection pane="bottomLeft" activeCell="C60" sqref="C60:I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="21" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="21" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="21" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="9" style="21" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="45.5703125" style="21" customWidth="1"/>
-    <col min="12" max="21" width="6.42578125" style="21" customWidth="1"/>
-    <col min="22" max="26" width="12.5703125" style="21" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="21"/>
+    <col min="8" max="8" width="43.109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" style="21" customWidth="1"/>
+    <col min="12" max="21" width="6.44140625" style="21" customWidth="1"/>
+    <col min="22" max="26" width="12.5546875" style="21" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -5904,7 +5941,7 @@
       <c r="W63" s="25"/>
       <c r="X63" s="25"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="14.4">
       <c r="A64" s="20" t="s">
         <v>23</v>
       </c>
@@ -5934,7 +5971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="14.4">
       <c r="A65" s="20" t="s">
         <v>23</v>
       </c>
@@ -5950,7 +5987,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="14.4">
       <c r="A66" s="20" t="s">
         <v>23</v>
       </c>
@@ -5966,7 +6003,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="14.4">
       <c r="A67" s="20" t="s">
         <v>23</v>
       </c>
@@ -5982,7 +6019,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="14.4">
       <c r="A68" s="20" t="s">
         <v>23</v>
       </c>
@@ -6020,7 +6057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="14.4">
       <c r="A69" s="20" t="s">
         <v>23</v>
       </c>
@@ -6034,7 +6071,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="14.4">
       <c r="A70" s="20" t="s">
         <v>23</v>
       </c>
@@ -6046,7 +6083,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="14.4">
       <c r="A71" s="20" t="s">
         <v>23</v>
       </c>
@@ -6060,7 +6097,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="14.4">
       <c r="A72" s="20" t="s">
         <v>23</v>
       </c>
@@ -6081,7 +6118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="14.4">
       <c r="A73" s="20" t="s">
         <v>23</v>
       </c>
@@ -6111,7 +6148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="14.4">
       <c r="A74" s="20" t="s">
         <v>23</v>
       </c>
@@ -6130,7 +6167,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="14.4">
       <c r="A75" s="20" t="s">
         <v>23</v>
       </c>
@@ -6149,7 +6186,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="14.4">
       <c r="A76" s="20" t="s">
         <v>23</v>
       </c>
@@ -6175,7 +6212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="14.4">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="E77" s="21" t="s">
@@ -6200,7 +6237,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="14.4">
       <c r="A78" s="20" t="s">
         <v>23</v>
       </c>
@@ -6216,7 +6253,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="14.4">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="7" t="s">
@@ -6262,7 +6299,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="14.4">
       <c r="A80" s="20" t="s">
         <v>23</v>
       </c>
@@ -6283,7 +6320,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="14.4">
       <c r="A81" s="20" t="s">
         <v>23</v>
       </c>
@@ -6299,7 +6336,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="14.4">
       <c r="A82" s="20" t="s">
         <v>23</v>
       </c>
@@ -6315,7 +6352,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="14.4">
       <c r="A83" s="20" t="s">
         <v>23</v>
       </c>
@@ -6347,7 +6384,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="14.4">
       <c r="A84" s="20" t="s">
         <v>23</v>
       </c>
@@ -6379,7 +6416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="14.4">
       <c r="A85" s="20" t="s">
         <v>23</v>
       </c>
@@ -6393,7 +6430,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="14.4">
       <c r="A86" s="20" t="s">
         <v>23</v>
       </c>
@@ -6425,7 +6462,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="14.4">
       <c r="A87" s="20" t="s">
         <v>23</v>
       </c>
@@ -6457,7 +6494,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="14.4">
       <c r="A88" s="20" t="s">
         <v>23</v>
       </c>
@@ -6489,7 +6526,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="14.4">
       <c r="A89" s="20" t="s">
         <v>23</v>
       </c>
@@ -6521,7 +6558,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="14.4">
       <c r="A90" s="20" t="s">
         <v>23</v>
       </c>
@@ -6553,7 +6590,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="14.4">
       <c r="A91" s="20" t="s">
         <v>23</v>
       </c>
@@ -6585,7 +6622,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="14.4">
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="59.25" customHeight="1">
@@ -6636,7 +6673,7 @@
       <c r="U93" s="25"/>
       <c r="V93" s="25"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="14.4">
       <c r="A94" s="28" t="s">
         <v>160</v>
       </c>
@@ -6672,7 +6709,7 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="14.4">
       <c r="A95" s="28" t="s">
         <v>160</v>
       </c>
@@ -6712,7 +6749,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="14.4">
       <c r="A96" s="28" t="s">
         <v>160</v>
       </c>
@@ -6822,7 +6859,7 @@
       <c r="U98" s="45"/>
       <c r="V98" s="45"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="14.4">
       <c r="A99" s="28" t="s">
         <v>160</v>
       </c>
@@ -6890,7 +6927,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="14.4">
       <c r="A101" s="28" t="s">
         <v>23</v>
       </c>
@@ -6904,2044 +6941,2044 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="14.4">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="14.4">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="14.4">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="14.4">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="14.4">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="14.4">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="14.4">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="14.4">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="14.4">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="14.4">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="14.4">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" ht="14.4">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" ht="14.4">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" ht="14.4">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" ht="14.4">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" ht="14.4">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" ht="14.4">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" ht="14.4">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" ht="14.4">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" ht="14.4">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" ht="14.4">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" ht="14.4">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" ht="14.4">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" ht="14.4">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" ht="14.4">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" ht="14.4">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" ht="14.4">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" ht="14.4">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" ht="14.4">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" ht="14.4">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" ht="14.4">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" ht="14.4">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" ht="14.4">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" ht="14.4">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" ht="14.4">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" ht="14.4">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" ht="14.4">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" ht="14.4">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" ht="14.4">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" ht="14.4">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" ht="14.4">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" ht="14.4">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" ht="14.4">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" ht="14.4">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" ht="14.4">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" ht="14.4">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" ht="14.4">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" ht="14.4">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" ht="14.4">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" ht="14.4">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" ht="14.4">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" ht="14.4">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" ht="14.4">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" ht="14.4">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" ht="14.4">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" ht="14.4">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" ht="14.4">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" ht="14.4">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" ht="14.4">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" ht="14.4">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" ht="14.4">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" ht="14.4">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" ht="14.4">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" ht="14.4">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" ht="14.4">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" ht="14.4">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" ht="14.4">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" ht="14.4">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" ht="14.4">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" ht="14.4">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" ht="14.4">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" ht="14.4">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" ht="14.4">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" ht="14.4">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" ht="14.4">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" ht="14.4">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" ht="14.4">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" ht="14.4">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" ht="14.4">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" ht="14.4">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" ht="14.4">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" ht="14.4">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" ht="14.4">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" ht="14.4">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" ht="14.4">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" ht="14.4">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" ht="14.4">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" ht="14.4">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" ht="14.4">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" ht="14.4">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" ht="14.4">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" ht="14.4">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" ht="14.4">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" ht="14.4">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" ht="14.4">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" ht="14.4">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" ht="14.4">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" ht="14.4">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" ht="14.4">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" ht="14.4">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" ht="14.4">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" ht="14.4">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" ht="14.4">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" ht="14.4">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:2" ht="14.4">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" ht="14.4">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" ht="14.4">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" ht="14.4">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" ht="14.4">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" ht="14.4">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" ht="14.4">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" ht="14.4">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" ht="14.4">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" ht="14.4">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:2" ht="14.4">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:2" ht="14.4">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:2" ht="14.4">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:2" ht="14.4">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:2" ht="14.4">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" ht="14.4">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" ht="14.4">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" ht="14.4">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" ht="14.4">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" ht="14.4">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" ht="14.4">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" ht="14.4">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" ht="14.4">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" ht="14.4">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" ht="14.4">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" ht="14.4">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" ht="14.4">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" ht="14.4">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" ht="14.4">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" ht="14.4">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" ht="14.4">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" ht="14.4">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" ht="14.4">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" ht="14.4">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" ht="14.4">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" ht="14.4">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" ht="14.4">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" ht="14.4">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" ht="14.4">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" ht="14.4">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" ht="14.4">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" ht="14.4">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" ht="14.4">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" ht="14.4">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" ht="14.4">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" ht="14.4">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" ht="14.4">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" ht="14.4">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" ht="14.4">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" ht="14.4">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" ht="14.4">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="2:2" ht="14.4">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="2:2" ht="14.4">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" ht="14.4">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" ht="14.4">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" ht="14.4">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" ht="14.4">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" ht="14.4">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" ht="14.4">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" ht="14.4">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" ht="14.4">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" ht="14.4">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" ht="14.4">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" ht="14.4">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" ht="14.4">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" ht="14.4">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" ht="14.4">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" ht="14.4">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" ht="14.4">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" ht="14.4">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" ht="14.4">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" ht="14.4">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" ht="14.4">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" ht="14.4">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" ht="14.4">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" ht="14.4">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" ht="14.4">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" ht="14.4">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" ht="14.4">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" ht="14.4">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" ht="14.4">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" ht="14.4">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" ht="14.4">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" ht="14.4">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" ht="14.4">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" ht="14.4">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" ht="14.4">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" ht="14.4">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" ht="14.4">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" ht="14.4">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" ht="14.4">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" ht="14.4">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" ht="14.4">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" ht="14.4">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" ht="14.4">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" ht="14.4">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" ht="14.4">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" ht="14.4">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" ht="14.4">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" ht="14.4">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" ht="14.4">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" ht="14.4">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" ht="14.4">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" ht="14.4">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" ht="14.4">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" ht="14.4">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" ht="14.4">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" ht="14.4">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" ht="14.4">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" ht="14.4">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" ht="14.4">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" ht="14.4">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" ht="14.4">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" ht="14.4">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" ht="14.4">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" ht="14.4">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" ht="14.4">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" ht="14.4">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" ht="14.4">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" ht="14.4">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" ht="14.4">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" ht="14.4">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" ht="14.4">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" ht="14.4">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" ht="14.4">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" ht="14.4">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" ht="14.4">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" ht="14.4">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" ht="14.4">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" ht="14.4">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" ht="14.4">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" ht="14.4">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" ht="14.4">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" ht="14.4">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" ht="14.4">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" ht="14.4">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" ht="14.4">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" ht="14.4">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" ht="14.4">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" ht="14.4">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" ht="14.4">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" ht="14.4">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" ht="14.4">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" ht="14.4">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" ht="14.4">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" ht="14.4">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" ht="14.4">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" ht="14.4">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" ht="14.4">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" ht="14.4">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" ht="14.4">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" ht="14.4">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" ht="14.4">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" ht="14.4">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" ht="14.4">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" ht="14.4">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" ht="14.4">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" ht="14.4">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" ht="14.4">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" ht="14.4">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" ht="14.4">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" ht="14.4">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" ht="14.4">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" ht="14.4">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" ht="14.4">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" ht="14.4">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" ht="14.4">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" ht="14.4">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" ht="14.4">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" ht="14.4">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" ht="14.4">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" ht="14.4">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" ht="14.4">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" ht="14.4">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" ht="14.4">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" ht="14.4">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" ht="14.4">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" ht="14.4">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" ht="14.4">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" ht="14.4">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" ht="14.4">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" ht="14.4">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" ht="14.4">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" ht="14.4">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" ht="14.4">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" ht="14.4">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" ht="14.4">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" ht="14.4">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" ht="14.4">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" ht="14.4">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" ht="14.4">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" ht="14.4">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" ht="14.4">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" ht="14.4">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" ht="14.4">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" ht="14.4">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" ht="14.4">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" ht="14.4">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" ht="14.4">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" ht="14.4">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" ht="14.4">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" ht="14.4">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" ht="14.4">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" ht="14.4">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" ht="14.4">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" ht="14.4">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" ht="14.4">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" ht="14.4">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" ht="14.4">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" ht="14.4">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" ht="14.4">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" ht="14.4">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" ht="14.4">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" ht="14.4">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" ht="14.4">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" ht="14.4">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" ht="14.4">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" ht="14.4">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" ht="14.4">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" ht="14.4">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" ht="14.4">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" ht="14.4">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" ht="14.4">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" ht="14.4">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" ht="14.4">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" ht="14.4">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" ht="14.4">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" ht="14.4">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" ht="14.4">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" ht="14.4">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" ht="14.4">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" ht="14.4">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" ht="14.4">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" ht="14.4">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" ht="14.4">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" ht="14.4">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" ht="14.4">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" ht="14.4">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" ht="14.4">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" ht="14.4">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" ht="14.4">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" ht="14.4">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" ht="14.4">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" ht="14.4">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" ht="14.4">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" ht="14.4">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" ht="14.4">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" ht="14.4">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" ht="14.4">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" ht="14.4">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" ht="14.4">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" ht="14.4">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" ht="14.4">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" ht="14.4">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" ht="14.4">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" ht="14.4">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" ht="14.4">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" ht="14.4">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" ht="14.4">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" ht="14.4">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" ht="14.4">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" ht="14.4">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" ht="14.4">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" ht="14.4">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" ht="14.4">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" ht="14.4">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" ht="14.4">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" ht="14.4">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" ht="14.4">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" ht="14.4">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" ht="14.4">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" ht="14.4">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" ht="14.4">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" ht="14.4">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" ht="14.4">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" ht="14.4">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" ht="14.4">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" ht="14.4">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" ht="14.4">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" ht="14.4">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" ht="14.4">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" ht="14.4">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" ht="14.4">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" ht="14.4">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" ht="14.4">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" ht="14.4">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" ht="14.4">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" ht="14.4">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" ht="14.4">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" ht="14.4">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" ht="14.4">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" ht="14.4">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" ht="14.4">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" ht="14.4">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" ht="14.4">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" ht="14.4">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" ht="14.4">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" ht="14.4">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" ht="14.4">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" ht="14.4">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" ht="14.4">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" ht="14.4">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" ht="14.4">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" ht="14.4">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" ht="14.4">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" ht="14.4">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" ht="14.4">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" ht="14.4">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" ht="14.4">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" ht="14.4">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" ht="14.4">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" ht="14.4">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" ht="14.4">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" ht="14.4">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2">
+    <row r="520" spans="2:2" ht="14.4">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2">
+    <row r="521" spans="2:2" ht="14.4">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2">
+    <row r="522" spans="2:2" ht="14.4">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2">
+    <row r="523" spans="2:2" ht="14.4">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2">
+    <row r="524" spans="2:2" ht="14.4">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2">
+    <row r="525" spans="2:2" ht="14.4">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2">
+    <row r="526" spans="2:2" ht="14.4">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2">
+    <row r="527" spans="2:2" ht="14.4">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2">
+    <row r="528" spans="2:2" ht="14.4">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2">
+    <row r="529" spans="2:2" ht="14.4">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:2" ht="14.4">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2">
+    <row r="531" spans="2:2" ht="14.4">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:2" ht="14.4">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2">
+    <row r="533" spans="2:2" ht="14.4">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:2" ht="14.4">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:2" ht="14.4">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:2" ht="14.4">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:2" ht="14.4">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:2" ht="14.4">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:2" ht="14.4">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:2" ht="14.4">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:2" ht="14.4">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:2" ht="14.4">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:2" ht="14.4">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:2" ht="14.4">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" ht="14.4">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" ht="14.4">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" ht="14.4">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" ht="14.4">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" ht="14.4">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" ht="14.4">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" ht="14.4">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" ht="14.4">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" ht="14.4">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" ht="14.4">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" ht="14.4">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" ht="14.4">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" ht="14.4">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" ht="14.4">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" ht="14.4">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" ht="14.4">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" ht="14.4">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" ht="14.4">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" ht="14.4">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" ht="14.4">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" ht="14.4">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" ht="14.4">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" ht="14.4">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" ht="14.4">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" ht="14.4">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" ht="14.4">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" ht="14.4">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" ht="14.4">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" ht="14.4">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" ht="14.4">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" ht="14.4">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" ht="14.4">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" ht="14.4">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" ht="14.4">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" ht="14.4">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" ht="14.4">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" ht="14.4">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" ht="14.4">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" ht="14.4">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" ht="14.4">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" ht="14.4">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" ht="14.4">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" ht="14.4">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" ht="14.4">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" ht="14.4">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" ht="14.4">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" ht="14.4">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" ht="14.4">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" ht="14.4">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" ht="14.4">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" ht="14.4">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" ht="14.4">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" ht="14.4">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" ht="14.4">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" ht="14.4">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" ht="14.4">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" ht="14.4">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" ht="14.4">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" ht="14.4">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" ht="14.4">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" ht="14.4">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" ht="14.4">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" ht="14.4">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" ht="14.4">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" ht="14.4">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" ht="14.4">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" ht="14.4">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" ht="14.4">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" ht="14.4">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" ht="14.4">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" ht="14.4">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" ht="14.4">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" ht="14.4">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" ht="14.4">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" ht="14.4">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" ht="14.4">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" ht="14.4">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" ht="14.4">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" ht="14.4">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" ht="14.4">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" ht="14.4">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" ht="14.4">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" ht="14.4">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" ht="14.4">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" ht="14.4">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" ht="14.4">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" ht="14.4">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" ht="14.4">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" ht="14.4">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" ht="14.4">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" ht="14.4">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" ht="14.4">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" ht="14.4">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" ht="14.4">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" ht="14.4">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" ht="14.4">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" ht="14.4">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" ht="14.4">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" ht="14.4">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" ht="14.4">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" ht="14.4">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" ht="14.4">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" ht="14.4">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" ht="14.4">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" ht="14.4">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" ht="14.4">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" ht="14.4">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" ht="14.4">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" ht="14.4">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" ht="14.4">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" ht="14.4">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" ht="14.4">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" ht="14.4">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" ht="14.4">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" ht="14.4">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" ht="14.4">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" ht="14.4">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" ht="14.4">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" ht="14.4">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" ht="14.4">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" ht="14.4">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" ht="14.4">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" ht="14.4">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" ht="14.4">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" ht="14.4">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" ht="14.4">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" ht="14.4">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" ht="14.4">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" ht="14.4">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" ht="14.4">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" ht="14.4">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" ht="14.4">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" ht="14.4">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" ht="14.4">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" ht="14.4">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" ht="14.4">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" ht="14.4">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" ht="14.4">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" ht="14.4">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" ht="14.4">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" ht="14.4">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" ht="14.4">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" ht="14.4">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" ht="14.4">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" ht="14.4">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" ht="14.4">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" ht="14.4">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" ht="14.4">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" ht="14.4">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" ht="14.4">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" ht="14.4">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" ht="14.4">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" ht="14.4">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" ht="14.4">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" ht="14.4">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" ht="14.4">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" ht="14.4">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" ht="14.4">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" ht="14.4">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" ht="14.4">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" ht="14.4">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" ht="14.4">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" ht="14.4">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" ht="14.4">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" ht="14.4">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" ht="14.4">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" ht="14.4">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" ht="14.4">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" ht="14.4">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" ht="14.4">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" ht="14.4">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" ht="14.4">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" ht="14.4">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" ht="14.4">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" ht="14.4">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" ht="14.4">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" ht="14.4">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" ht="14.4">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" ht="14.4">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" ht="14.4">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" ht="14.4">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" ht="14.4">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" ht="14.4">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" ht="14.4">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" ht="14.4">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" ht="14.4">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" ht="14.4">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" ht="14.4">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" ht="14.4">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" ht="14.4">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" ht="14.4">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" ht="14.4">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" ht="14.4">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" ht="14.4">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" ht="14.4">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" ht="14.4">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" ht="14.4">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" ht="14.4">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" ht="14.4">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" ht="14.4">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" ht="14.4">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" ht="14.4">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" ht="14.4">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" ht="14.4">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" ht="14.4">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" ht="14.4">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" ht="14.4">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" ht="14.4">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" ht="14.4">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" ht="14.4">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" ht="14.4">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" ht="14.4">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" ht="14.4">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" ht="14.4">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" ht="14.4">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" ht="14.4">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" ht="14.4">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" ht="14.4">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" ht="14.4">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" ht="14.4">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" ht="14.4">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" ht="14.4">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" ht="14.4">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" ht="14.4">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" ht="14.4">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" ht="14.4">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" ht="14.4">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" ht="14.4">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" ht="14.4">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" ht="14.4">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" ht="14.4">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" ht="14.4">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" ht="14.4">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" ht="14.4">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" ht="14.4">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" ht="14.4">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" ht="14.4">
       <c r="B781" s="7"/>
     </row>
   </sheetData>
@@ -8962,20 +8999,20 @@
       <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="45.5703125" customWidth="1"/>
-    <col min="12" max="21" width="6.42578125" customWidth="1"/>
-    <col min="22" max="26" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="45.5546875" customWidth="1"/>
+    <col min="12" max="21" width="6.44140625" customWidth="1"/>
+    <col min="22" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -10680,7 +10717,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" ht="14.4">
       <c r="A50" s="42" t="s">
         <v>218</v>
       </c>
@@ -10703,7 +10740,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="14.4">
       <c r="A51" s="42" t="s">
         <v>218</v>
       </c>
@@ -10726,7 +10763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" ht="14.4">
       <c r="A52" s="42" t="s">
         <v>218</v>
       </c>
@@ -10749,7 +10786,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" ht="14.4">
       <c r="A53" s="42" t="s">
         <v>218</v>
       </c>
@@ -10772,7 +10809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" ht="14.4">
       <c r="A54" s="42" t="s">
         <v>218</v>
       </c>
@@ -11002,7 +11039,7 @@
       <c r="T60" s="64"/>
       <c r="U60" s="64"/>
     </row>
-    <row r="61" spans="1:21" s="25" customFormat="1" ht="30">
+    <row r="61" spans="1:21" s="25" customFormat="1" ht="28.8">
       <c r="A61" s="78" t="s">
         <v>65</v>
       </c>
@@ -18331,7 +18368,7 @@
       <c r="T275" s="7"/>
       <c r="U275" s="7"/>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" ht="14.4">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="7"/>
@@ -18354,2317 +18391,2317 @@
       <c r="T276" s="7"/>
       <c r="U276" s="7"/>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" ht="14.4">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" ht="14.4">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" ht="14.4">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" ht="14.4">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" ht="14.4">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" ht="14.4">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" ht="14.4">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" ht="14.4">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" ht="14.4">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" ht="14.4">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" ht="14.4">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" ht="14.4">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" ht="14.4">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" ht="14.4">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" ht="14.4">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" ht="14.4">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" ht="14.4">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" ht="14.4">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" ht="14.4">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" ht="14.4">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" ht="14.4">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" ht="14.4">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" ht="14.4">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" ht="14.4">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" ht="14.4">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" ht="14.4">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" ht="14.4">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" ht="14.4">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" ht="14.4">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" ht="14.4">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" ht="14.4">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" ht="14.4">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" ht="14.4">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" ht="14.4">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" ht="14.4">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" ht="14.4">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" ht="14.4">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" ht="14.4">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" ht="14.4">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" ht="14.4">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" ht="14.4">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" ht="14.4">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" ht="14.4">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" ht="14.4">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" ht="14.4">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" ht="14.4">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" ht="14.4">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" ht="14.4">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" ht="14.4">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" ht="14.4">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" ht="14.4">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" ht="14.4">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" ht="14.4">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" ht="14.4">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" ht="14.4">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" ht="14.4">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" ht="14.4">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" ht="14.4">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" ht="14.4">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" ht="14.4">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" ht="14.4">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" ht="14.4">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" ht="14.4">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" ht="14.4">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" ht="14.4">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" ht="14.4">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" ht="14.4">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" ht="14.4">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" ht="14.4">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" ht="14.4">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" ht="14.4">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" ht="14.4">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" ht="14.4">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" ht="14.4">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" ht="14.4">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" ht="14.4">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" ht="14.4">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" ht="14.4">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" ht="14.4">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" ht="14.4">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" ht="14.4">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" ht="14.4">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" ht="14.4">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" ht="14.4">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" ht="14.4">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" ht="14.4">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" ht="14.4">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" ht="14.4">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" ht="14.4">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" ht="14.4">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" ht="14.4">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" ht="14.4">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" ht="14.4">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" ht="14.4">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" ht="14.4">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" ht="14.4">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" ht="14.4">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" ht="14.4">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" ht="14.4">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" ht="14.4">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" ht="14.4">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" ht="14.4">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" ht="14.4">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" ht="14.4">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" ht="14.4">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" ht="14.4">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" ht="14.4">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" ht="14.4">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" ht="14.4">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" ht="14.4">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" ht="14.4">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" ht="14.4">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" ht="14.4">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" ht="14.4">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" ht="14.4">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" ht="14.4">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" ht="14.4">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" ht="14.4">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" ht="14.4">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" ht="14.4">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" ht="14.4">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" ht="14.4">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" ht="14.4">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" ht="14.4">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" ht="14.4">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" ht="14.4">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" ht="14.4">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" ht="14.4">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" ht="14.4">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" ht="14.4">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" ht="14.4">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" ht="14.4">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" ht="14.4">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" ht="14.4">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" ht="14.4">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" ht="14.4">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" ht="14.4">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" ht="14.4">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" ht="14.4">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" ht="14.4">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" ht="14.4">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" ht="14.4">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" ht="14.4">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" ht="14.4">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" ht="14.4">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" ht="14.4">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" ht="14.4">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" ht="14.4">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" ht="14.4">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" ht="14.4">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" ht="14.4">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" ht="14.4">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" ht="14.4">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" ht="14.4">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" ht="14.4">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" ht="14.4">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" ht="14.4">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" ht="14.4">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" ht="14.4">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" ht="14.4">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" ht="14.4">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" ht="14.4">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" ht="14.4">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" ht="14.4">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" ht="14.4">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" ht="14.4">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" ht="14.4">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" ht="14.4">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" ht="14.4">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" ht="14.4">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" ht="14.4">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" ht="14.4">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" ht="14.4">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" ht="14.4">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" ht="14.4">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" ht="14.4">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" ht="14.4">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" ht="14.4">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" ht="14.4">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" ht="14.4">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" ht="14.4">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" ht="14.4">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" ht="14.4">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" ht="14.4">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" ht="14.4">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" ht="14.4">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" ht="14.4">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" ht="14.4">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" ht="14.4">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" ht="14.4">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" ht="14.4">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" ht="14.4">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" ht="14.4">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" ht="14.4">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" ht="14.4">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" ht="14.4">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" ht="14.4">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" ht="14.4">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" ht="14.4">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" ht="14.4">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" ht="14.4">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" ht="14.4">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" ht="14.4">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" ht="14.4">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" ht="14.4">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" ht="14.4">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" ht="14.4">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" ht="14.4">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" ht="14.4">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" ht="14.4">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" ht="14.4">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" ht="14.4">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" ht="14.4">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" ht="14.4">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" ht="14.4">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" ht="14.4">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" ht="14.4">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" ht="14.4">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" ht="14.4">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" ht="14.4">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" ht="14.4">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" ht="14.4">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" ht="14.4">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" ht="14.4">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" ht="14.4">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" ht="14.4">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" ht="14.4">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" ht="14.4">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" ht="14.4">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" ht="14.4">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" ht="14.4">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" ht="14.4">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" ht="14.4">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" ht="14.4">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" ht="14.4">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" ht="14.4">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" ht="14.4">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" ht="14.4">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" ht="14.4">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" ht="14.4">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" ht="14.4">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" ht="14.4">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" ht="14.4">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2">
+    <row r="520" spans="2:2" ht="14.4">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2">
+    <row r="521" spans="2:2" ht="14.4">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2">
+    <row r="522" spans="2:2" ht="14.4">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2">
+    <row r="523" spans="2:2" ht="14.4">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2">
+    <row r="524" spans="2:2" ht="14.4">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2">
+    <row r="525" spans="2:2" ht="14.4">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2">
+    <row r="526" spans="2:2" ht="14.4">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2">
+    <row r="527" spans="2:2" ht="14.4">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2">
+    <row r="528" spans="2:2" ht="14.4">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2">
+    <row r="529" spans="2:2" ht="14.4">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:2" ht="14.4">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2">
+    <row r="531" spans="2:2" ht="14.4">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:2" ht="14.4">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2">
+    <row r="533" spans="2:2" ht="14.4">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:2" ht="14.4">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:2" ht="14.4">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:2" ht="14.4">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:2" ht="14.4">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:2" ht="14.4">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:2" ht="14.4">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:2" ht="14.4">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:2" ht="14.4">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:2" ht="14.4">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:2" ht="14.4">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:2" ht="14.4">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" ht="14.4">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" ht="14.4">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" ht="14.4">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" ht="14.4">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" ht="14.4">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" ht="14.4">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" ht="14.4">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" ht="14.4">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" ht="14.4">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" ht="14.4">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" ht="14.4">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" ht="14.4">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" ht="14.4">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" ht="14.4">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" ht="14.4">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" ht="14.4">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" ht="14.4">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" ht="14.4">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" ht="14.4">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" ht="14.4">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" ht="14.4">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" ht="14.4">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" ht="14.4">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" ht="14.4">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" ht="14.4">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" ht="14.4">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" ht="14.4">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" ht="14.4">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" ht="14.4">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" ht="14.4">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" ht="14.4">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" ht="14.4">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" ht="14.4">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" ht="14.4">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" ht="14.4">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" ht="14.4">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" ht="14.4">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" ht="14.4">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" ht="14.4">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" ht="14.4">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" ht="14.4">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" ht="14.4">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" ht="14.4">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" ht="14.4">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" ht="14.4">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" ht="14.4">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" ht="14.4">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" ht="14.4">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" ht="14.4">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" ht="14.4">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" ht="14.4">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" ht="14.4">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" ht="14.4">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" ht="14.4">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" ht="14.4">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" ht="14.4">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" ht="14.4">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" ht="14.4">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" ht="14.4">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" ht="14.4">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" ht="14.4">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" ht="14.4">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" ht="14.4">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" ht="14.4">
       <c r="B608" s="7"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" ht="14.4">
       <c r="B609" s="7"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" ht="14.4">
       <c r="B610" s="7"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" ht="14.4">
       <c r="B611" s="7"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" ht="14.4">
       <c r="B612" s="7"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" ht="14.4">
       <c r="B613" s="7"/>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" ht="14.4">
       <c r="B614" s="7"/>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" ht="14.4">
       <c r="B615" s="7"/>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" ht="14.4">
       <c r="B616" s="7"/>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" ht="14.4">
       <c r="B617" s="7"/>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" ht="14.4">
       <c r="B618" s="7"/>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" ht="14.4">
       <c r="B619" s="7"/>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" ht="14.4">
       <c r="B620" s="7"/>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" ht="14.4">
       <c r="B621" s="7"/>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" ht="14.4">
       <c r="B622" s="7"/>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" ht="14.4">
       <c r="B623" s="7"/>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" ht="14.4">
       <c r="B624" s="7"/>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" ht="14.4">
       <c r="B625" s="7"/>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" ht="14.4">
       <c r="B626" s="7"/>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" ht="14.4">
       <c r="B627" s="7"/>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" ht="14.4">
       <c r="B628" s="7"/>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" ht="14.4">
       <c r="B629" s="7"/>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" ht="14.4">
       <c r="B630" s="7"/>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" ht="14.4">
       <c r="B631" s="7"/>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" ht="14.4">
       <c r="B632" s="7"/>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" ht="14.4">
       <c r="B633" s="7"/>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" ht="14.4">
       <c r="B634" s="7"/>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" ht="14.4">
       <c r="B635" s="7"/>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" ht="14.4">
       <c r="B636" s="7"/>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" ht="14.4">
       <c r="B637" s="7"/>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" ht="14.4">
       <c r="B638" s="7"/>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" ht="14.4">
       <c r="B639" s="7"/>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" ht="14.4">
       <c r="B640" s="7"/>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" ht="14.4">
       <c r="B641" s="7"/>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" ht="14.4">
       <c r="B642" s="7"/>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" ht="14.4">
       <c r="B643" s="7"/>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" ht="14.4">
       <c r="B644" s="7"/>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" ht="14.4">
       <c r="B645" s="7"/>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" ht="14.4">
       <c r="B646" s="7"/>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" ht="14.4">
       <c r="B647" s="7"/>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" ht="14.4">
       <c r="B648" s="7"/>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" ht="14.4">
       <c r="B649" s="7"/>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" ht="14.4">
       <c r="B650" s="7"/>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" ht="14.4">
       <c r="B651" s="7"/>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" ht="14.4">
       <c r="B652" s="7"/>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" ht="14.4">
       <c r="B653" s="7"/>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" ht="14.4">
       <c r="B654" s="7"/>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" ht="14.4">
       <c r="B655" s="7"/>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" ht="14.4">
       <c r="B656" s="7"/>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" ht="14.4">
       <c r="B657" s="7"/>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" ht="14.4">
       <c r="B658" s="7"/>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" ht="14.4">
       <c r="B659" s="7"/>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" ht="14.4">
       <c r="B660" s="7"/>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" ht="14.4">
       <c r="B661" s="7"/>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" ht="14.4">
       <c r="B662" s="7"/>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" ht="14.4">
       <c r="B663" s="7"/>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" ht="14.4">
       <c r="B664" s="7"/>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" ht="14.4">
       <c r="B665" s="7"/>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" ht="14.4">
       <c r="B666" s="7"/>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" ht="14.4">
       <c r="B667" s="7"/>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" ht="14.4">
       <c r="B668" s="7"/>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" ht="14.4">
       <c r="B669" s="7"/>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" ht="14.4">
       <c r="B670" s="7"/>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" ht="14.4">
       <c r="B671" s="7"/>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" ht="14.4">
       <c r="B672" s="7"/>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" ht="14.4">
       <c r="B673" s="7"/>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" ht="14.4">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" ht="14.4">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" ht="14.4">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" ht="14.4">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" ht="14.4">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" ht="14.4">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" ht="14.4">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" ht="14.4">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" ht="14.4">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" ht="14.4">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" ht="14.4">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" ht="14.4">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" ht="14.4">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" ht="14.4">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" ht="14.4">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" ht="14.4">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" ht="14.4">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" ht="14.4">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" ht="14.4">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" ht="14.4">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" ht="14.4">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" ht="14.4">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" ht="14.4">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" ht="14.4">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" ht="14.4">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" ht="14.4">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" ht="14.4">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" ht="14.4">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" ht="14.4">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" ht="14.4">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" ht="14.4">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" ht="14.4">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" ht="14.4">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" ht="14.4">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" ht="14.4">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" ht="14.4">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" ht="14.4">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" ht="14.4">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" ht="14.4">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" ht="14.4">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" ht="14.4">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" ht="14.4">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" ht="14.4">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" ht="14.4">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" ht="14.4">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" ht="14.4">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" ht="14.4">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" ht="14.4">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" ht="14.4">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" ht="14.4">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" ht="14.4">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" ht="14.4">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" ht="14.4">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" ht="14.4">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" ht="14.4">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" ht="14.4">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" ht="14.4">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" ht="14.4">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" ht="14.4">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" ht="14.4">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" ht="14.4">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" ht="14.4">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" ht="14.4">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" ht="14.4">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" ht="14.4">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" ht="14.4">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" ht="14.4">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" ht="14.4">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" ht="14.4">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" ht="14.4">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" ht="14.4">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" ht="14.4">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" ht="14.4">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" ht="14.4">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" ht="14.4">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" ht="14.4">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" ht="14.4">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" ht="14.4">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" ht="14.4">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" ht="14.4">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" ht="14.4">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" ht="14.4">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" ht="14.4">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" ht="14.4">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" ht="14.4">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" ht="14.4">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" ht="14.4">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" ht="14.4">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" ht="14.4">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" ht="14.4">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" ht="14.4">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" ht="14.4">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" ht="14.4">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" ht="14.4">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" ht="14.4">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" ht="14.4">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" ht="14.4">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" ht="14.4">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" ht="14.4">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" ht="14.4">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" ht="14.4">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" ht="14.4">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" ht="14.4">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" ht="14.4">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" ht="14.4">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" ht="14.4">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" ht="14.4">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" ht="14.4">
       <c r="B781" s="7"/>
     </row>
-    <row r="782" spans="2:2">
+    <row r="782" spans="2:2" ht="14.4">
       <c r="B782" s="7"/>
     </row>
-    <row r="783" spans="2:2">
+    <row r="783" spans="2:2" ht="14.4">
       <c r="B783" s="7"/>
     </row>
-    <row r="784" spans="2:2">
+    <row r="784" spans="2:2" ht="14.4">
       <c r="B784" s="7"/>
     </row>
-    <row r="785" spans="2:2">
+    <row r="785" spans="2:2" ht="14.4">
       <c r="B785" s="7"/>
     </row>
-    <row r="786" spans="2:2">
+    <row r="786" spans="2:2" ht="14.4">
       <c r="B786" s="7"/>
     </row>
-    <row r="787" spans="2:2">
+    <row r="787" spans="2:2" ht="14.4">
       <c r="B787" s="7"/>
     </row>
-    <row r="788" spans="2:2">
+    <row r="788" spans="2:2" ht="14.4">
       <c r="B788" s="7"/>
     </row>
-    <row r="789" spans="2:2">
+    <row r="789" spans="2:2" ht="14.4">
       <c r="B789" s="7"/>
     </row>
-    <row r="790" spans="2:2">
+    <row r="790" spans="2:2" ht="14.4">
       <c r="B790" s="7"/>
     </row>
-    <row r="791" spans="2:2">
+    <row r="791" spans="2:2" ht="14.4">
       <c r="B791" s="7"/>
     </row>
-    <row r="792" spans="2:2">
+    <row r="792" spans="2:2" ht="14.4">
       <c r="B792" s="7"/>
     </row>
-    <row r="793" spans="2:2">
+    <row r="793" spans="2:2" ht="14.4">
       <c r="B793" s="7"/>
     </row>
-    <row r="794" spans="2:2">
+    <row r="794" spans="2:2" ht="14.4">
       <c r="B794" s="7"/>
     </row>
-    <row r="795" spans="2:2">
+    <row r="795" spans="2:2" ht="14.4">
       <c r="B795" s="7"/>
     </row>
-    <row r="796" spans="2:2">
+    <row r="796" spans="2:2" ht="14.4">
       <c r="B796" s="7"/>
     </row>
-    <row r="797" spans="2:2">
+    <row r="797" spans="2:2" ht="14.4">
       <c r="B797" s="7"/>
     </row>
-    <row r="798" spans="2:2">
+    <row r="798" spans="2:2" ht="14.4">
       <c r="B798" s="7"/>
     </row>
-    <row r="799" spans="2:2">
+    <row r="799" spans="2:2" ht="14.4">
       <c r="B799" s="7"/>
     </row>
-    <row r="800" spans="2:2">
+    <row r="800" spans="2:2" ht="14.4">
       <c r="B800" s="7"/>
     </row>
-    <row r="801" spans="2:2">
+    <row r="801" spans="2:2" ht="14.4">
       <c r="B801" s="7"/>
     </row>
-    <row r="802" spans="2:2">
+    <row r="802" spans="2:2" ht="14.4">
       <c r="B802" s="7"/>
     </row>
-    <row r="803" spans="2:2">
+    <row r="803" spans="2:2" ht="14.4">
       <c r="B803" s="7"/>
     </row>
-    <row r="804" spans="2:2">
+    <row r="804" spans="2:2" ht="14.4">
       <c r="B804" s="7"/>
     </row>
-    <row r="805" spans="2:2">
+    <row r="805" spans="2:2" ht="14.4">
       <c r="B805" s="7"/>
     </row>
-    <row r="806" spans="2:2">
+    <row r="806" spans="2:2" ht="14.4">
       <c r="B806" s="7"/>
     </row>
-    <row r="807" spans="2:2">
+    <row r="807" spans="2:2" ht="14.4">
       <c r="B807" s="7"/>
     </row>
-    <row r="808" spans="2:2">
+    <row r="808" spans="2:2" ht="14.4">
       <c r="B808" s="7"/>
     </row>
-    <row r="809" spans="2:2">
+    <row r="809" spans="2:2" ht="14.4">
       <c r="B809" s="7"/>
     </row>
-    <row r="810" spans="2:2">
+    <row r="810" spans="2:2" ht="14.4">
       <c r="B810" s="7"/>
     </row>
-    <row r="811" spans="2:2">
+    <row r="811" spans="2:2" ht="14.4">
       <c r="B811" s="7"/>
     </row>
-    <row r="812" spans="2:2">
+    <row r="812" spans="2:2" ht="14.4">
       <c r="B812" s="7"/>
     </row>
-    <row r="813" spans="2:2">
+    <row r="813" spans="2:2" ht="14.4">
       <c r="B813" s="7"/>
     </row>
-    <row r="814" spans="2:2">
+    <row r="814" spans="2:2" ht="14.4">
       <c r="B814" s="7"/>
     </row>
-    <row r="815" spans="2:2">
+    <row r="815" spans="2:2" ht="14.4">
       <c r="B815" s="7"/>
     </row>
-    <row r="816" spans="2:2">
+    <row r="816" spans="2:2" ht="14.4">
       <c r="B816" s="7"/>
     </row>
-    <row r="817" spans="2:2">
+    <row r="817" spans="2:2" ht="14.4">
       <c r="B817" s="7"/>
     </row>
-    <row r="818" spans="2:2">
+    <row r="818" spans="2:2" ht="14.4">
       <c r="B818" s="7"/>
     </row>
-    <row r="819" spans="2:2">
+    <row r="819" spans="2:2" ht="14.4">
       <c r="B819" s="7"/>
     </row>
-    <row r="820" spans="2:2">
+    <row r="820" spans="2:2" ht="14.4">
       <c r="B820" s="7"/>
     </row>
-    <row r="821" spans="2:2">
+    <row r="821" spans="2:2" ht="14.4">
       <c r="B821" s="7"/>
     </row>
-    <row r="822" spans="2:2">
+    <row r="822" spans="2:2" ht="14.4">
       <c r="B822" s="7"/>
     </row>
-    <row r="823" spans="2:2">
+    <row r="823" spans="2:2" ht="14.4">
       <c r="B823" s="7"/>
     </row>
-    <row r="824" spans="2:2">
+    <row r="824" spans="2:2" ht="14.4">
       <c r="B824" s="7"/>
     </row>
-    <row r="825" spans="2:2">
+    <row r="825" spans="2:2" ht="14.4">
       <c r="B825" s="7"/>
     </row>
-    <row r="826" spans="2:2">
+    <row r="826" spans="2:2" ht="14.4">
       <c r="B826" s="7"/>
     </row>
-    <row r="827" spans="2:2">
+    <row r="827" spans="2:2" ht="14.4">
       <c r="B827" s="7"/>
     </row>
-    <row r="828" spans="2:2">
+    <row r="828" spans="2:2" ht="14.4">
       <c r="B828" s="7"/>
     </row>
-    <row r="829" spans="2:2">
+    <row r="829" spans="2:2" ht="14.4">
       <c r="B829" s="7"/>
     </row>
-    <row r="830" spans="2:2">
+    <row r="830" spans="2:2" ht="14.4">
       <c r="B830" s="7"/>
     </row>
-    <row r="831" spans="2:2">
+    <row r="831" spans="2:2" ht="14.4">
       <c r="B831" s="7"/>
     </row>
-    <row r="832" spans="2:2">
+    <row r="832" spans="2:2" ht="14.4">
       <c r="B832" s="7"/>
     </row>
-    <row r="833" spans="2:2">
+    <row r="833" spans="2:2" ht="14.4">
       <c r="B833" s="7"/>
     </row>
-    <row r="834" spans="2:2">
+    <row r="834" spans="2:2" ht="14.4">
       <c r="B834" s="7"/>
     </row>
-    <row r="835" spans="2:2">
+    <row r="835" spans="2:2" ht="14.4">
       <c r="B835" s="7"/>
     </row>
-    <row r="836" spans="2:2">
+    <row r="836" spans="2:2" ht="14.4">
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="2:2">
+    <row r="837" spans="2:2" ht="14.4">
       <c r="B837" s="7"/>
     </row>
-    <row r="838" spans="2:2">
+    <row r="838" spans="2:2" ht="14.4">
       <c r="B838" s="7"/>
     </row>
-    <row r="839" spans="2:2">
+    <row r="839" spans="2:2" ht="14.4">
       <c r="B839" s="7"/>
     </row>
-    <row r="840" spans="2:2">
+    <row r="840" spans="2:2" ht="14.4">
       <c r="B840" s="7"/>
     </row>
-    <row r="841" spans="2:2">
+    <row r="841" spans="2:2" ht="14.4">
       <c r="B841" s="7"/>
     </row>
-    <row r="842" spans="2:2">
+    <row r="842" spans="2:2" ht="14.4">
       <c r="B842" s="7"/>
     </row>
-    <row r="843" spans="2:2">
+    <row r="843" spans="2:2" ht="14.4">
       <c r="B843" s="7"/>
     </row>
-    <row r="844" spans="2:2">
+    <row r="844" spans="2:2" ht="14.4">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="2:2">
+    <row r="845" spans="2:2" ht="14.4">
       <c r="B845" s="7"/>
     </row>
-    <row r="846" spans="2:2">
+    <row r="846" spans="2:2" ht="14.4">
       <c r="B846" s="7"/>
     </row>
-    <row r="847" spans="2:2">
+    <row r="847" spans="2:2" ht="14.4">
       <c r="B847" s="7"/>
     </row>
-    <row r="848" spans="2:2">
+    <row r="848" spans="2:2" ht="14.4">
       <c r="B848" s="7"/>
     </row>
-    <row r="849" spans="2:2">
+    <row r="849" spans="2:2" ht="14.4">
       <c r="B849" s="7"/>
     </row>
-    <row r="850" spans="2:2">
+    <row r="850" spans="2:2" ht="14.4">
       <c r="B850" s="7"/>
     </row>
-    <row r="851" spans="2:2">
+    <row r="851" spans="2:2" ht="14.4">
       <c r="B851" s="7"/>
     </row>
-    <row r="852" spans="2:2">
+    <row r="852" spans="2:2" ht="14.4">
       <c r="B852" s="7"/>
     </row>
-    <row r="853" spans="2:2">
+    <row r="853" spans="2:2" ht="14.4">
       <c r="B853" s="7"/>
     </row>
-    <row r="854" spans="2:2">
+    <row r="854" spans="2:2" ht="14.4">
       <c r="B854" s="7"/>
     </row>
-    <row r="855" spans="2:2">
+    <row r="855" spans="2:2" ht="14.4">
       <c r="B855" s="7"/>
     </row>
-    <row r="856" spans="2:2">
+    <row r="856" spans="2:2" ht="14.4">
       <c r="B856" s="7"/>
     </row>
-    <row r="857" spans="2:2">
+    <row r="857" spans="2:2" ht="14.4">
       <c r="B857" s="7"/>
     </row>
-    <row r="858" spans="2:2">
+    <row r="858" spans="2:2" ht="14.4">
       <c r="B858" s="7"/>
     </row>
-    <row r="859" spans="2:2">
+    <row r="859" spans="2:2" ht="14.4">
       <c r="B859" s="7"/>
     </row>
-    <row r="860" spans="2:2">
+    <row r="860" spans="2:2" ht="14.4">
       <c r="B860" s="7"/>
     </row>
-    <row r="861" spans="2:2">
+    <row r="861" spans="2:2" ht="14.4">
       <c r="B861" s="7"/>
     </row>
-    <row r="862" spans="2:2">
+    <row r="862" spans="2:2" ht="14.4">
       <c r="B862" s="7"/>
     </row>
-    <row r="863" spans="2:2">
+    <row r="863" spans="2:2" ht="14.4">
       <c r="B863" s="7"/>
     </row>
-    <row r="864" spans="2:2">
+    <row r="864" spans="2:2" ht="14.4">
       <c r="B864" s="7"/>
     </row>
-    <row r="865" spans="2:2">
+    <row r="865" spans="2:2" ht="14.4">
       <c r="B865" s="7"/>
     </row>
-    <row r="866" spans="2:2">
+    <row r="866" spans="2:2" ht="14.4">
       <c r="B866" s="7"/>
     </row>
-    <row r="867" spans="2:2">
+    <row r="867" spans="2:2" ht="14.4">
       <c r="B867" s="7"/>
     </row>
-    <row r="868" spans="2:2">
+    <row r="868" spans="2:2" ht="14.4">
       <c r="B868" s="7"/>
     </row>
-    <row r="869" spans="2:2">
+    <row r="869" spans="2:2" ht="14.4">
       <c r="B869" s="7"/>
     </row>
-    <row r="870" spans="2:2">
+    <row r="870" spans="2:2" ht="14.4">
       <c r="B870" s="7"/>
     </row>
-    <row r="871" spans="2:2">
+    <row r="871" spans="2:2" ht="14.4">
       <c r="B871" s="7"/>
     </row>
-    <row r="872" spans="2:2">
+    <row r="872" spans="2:2" ht="14.4">
       <c r="B872" s="7"/>
     </row>
-    <row r="873" spans="2:2">
+    <row r="873" spans="2:2" ht="14.4">
       <c r="B873" s="7"/>
     </row>
-    <row r="874" spans="2:2">
+    <row r="874" spans="2:2" ht="14.4">
       <c r="B874" s="7"/>
     </row>
-    <row r="875" spans="2:2">
+    <row r="875" spans="2:2" ht="14.4">
       <c r="B875" s="7"/>
     </row>
-    <row r="876" spans="2:2">
+    <row r="876" spans="2:2" ht="14.4">
       <c r="B876" s="7"/>
     </row>
-    <row r="877" spans="2:2">
+    <row r="877" spans="2:2" ht="14.4">
       <c r="B877" s="7"/>
     </row>
-    <row r="878" spans="2:2">
+    <row r="878" spans="2:2" ht="14.4">
       <c r="B878" s="7"/>
     </row>
-    <row r="879" spans="2:2">
+    <row r="879" spans="2:2" ht="14.4">
       <c r="B879" s="7"/>
     </row>
-    <row r="880" spans="2:2">
+    <row r="880" spans="2:2" ht="14.4">
       <c r="B880" s="7"/>
     </row>
-    <row r="881" spans="2:2">
+    <row r="881" spans="2:2" ht="14.4">
       <c r="B881" s="7"/>
     </row>
-    <row r="882" spans="2:2">
+    <row r="882" spans="2:2" ht="14.4">
       <c r="B882" s="7"/>
     </row>
-    <row r="883" spans="2:2">
+    <row r="883" spans="2:2" ht="14.4">
       <c r="B883" s="7"/>
     </row>
-    <row r="884" spans="2:2">
+    <row r="884" spans="2:2" ht="14.4">
       <c r="B884" s="7"/>
     </row>
-    <row r="885" spans="2:2">
+    <row r="885" spans="2:2" ht="14.4">
       <c r="B885" s="7"/>
     </row>
-    <row r="886" spans="2:2">
+    <row r="886" spans="2:2" ht="14.4">
       <c r="B886" s="7"/>
     </row>
-    <row r="887" spans="2:2">
+    <row r="887" spans="2:2" ht="14.4">
       <c r="B887" s="7"/>
     </row>
-    <row r="888" spans="2:2">
+    <row r="888" spans="2:2" ht="14.4">
       <c r="B888" s="7"/>
     </row>
-    <row r="889" spans="2:2">
+    <row r="889" spans="2:2" ht="14.4">
       <c r="B889" s="7"/>
     </row>
-    <row r="890" spans="2:2">
+    <row r="890" spans="2:2" ht="14.4">
       <c r="B890" s="7"/>
     </row>
-    <row r="891" spans="2:2">
+    <row r="891" spans="2:2" ht="14.4">
       <c r="B891" s="7"/>
     </row>
-    <row r="892" spans="2:2">
+    <row r="892" spans="2:2" ht="14.4">
       <c r="B892" s="7"/>
     </row>
-    <row r="893" spans="2:2">
+    <row r="893" spans="2:2" ht="14.4">
       <c r="B893" s="7"/>
     </row>
-    <row r="894" spans="2:2">
+    <row r="894" spans="2:2" ht="14.4">
       <c r="B894" s="7"/>
     </row>
-    <row r="895" spans="2:2">
+    <row r="895" spans="2:2" ht="14.4">
       <c r="B895" s="7"/>
     </row>
-    <row r="896" spans="2:2">
+    <row r="896" spans="2:2" ht="14.4">
       <c r="B896" s="7"/>
     </row>
-    <row r="897" spans="2:2">
+    <row r="897" spans="2:2" ht="14.4">
       <c r="B897" s="7"/>
     </row>
-    <row r="898" spans="2:2">
+    <row r="898" spans="2:2" ht="14.4">
       <c r="B898" s="7"/>
     </row>
-    <row r="899" spans="2:2">
+    <row r="899" spans="2:2" ht="14.4">
       <c r="B899" s="7"/>
     </row>
-    <row r="900" spans="2:2">
+    <row r="900" spans="2:2" ht="14.4">
       <c r="B900" s="7"/>
     </row>
-    <row r="901" spans="2:2">
+    <row r="901" spans="2:2" ht="14.4">
       <c r="B901" s="7"/>
     </row>
-    <row r="902" spans="2:2">
+    <row r="902" spans="2:2" ht="14.4">
       <c r="B902" s="7"/>
     </row>
-    <row r="903" spans="2:2">
+    <row r="903" spans="2:2" ht="14.4">
       <c r="B903" s="7"/>
     </row>
-    <row r="904" spans="2:2">
+    <row r="904" spans="2:2" ht="14.4">
       <c r="B904" s="7"/>
     </row>
-    <row r="905" spans="2:2">
+    <row r="905" spans="2:2" ht="14.4">
       <c r="B905" s="7"/>
     </row>
-    <row r="906" spans="2:2">
+    <row r="906" spans="2:2" ht="14.4">
       <c r="B906" s="7"/>
     </row>
-    <row r="907" spans="2:2">
+    <row r="907" spans="2:2" ht="14.4">
       <c r="B907" s="7"/>
     </row>
-    <row r="908" spans="2:2">
+    <row r="908" spans="2:2" ht="14.4">
       <c r="B908" s="7"/>
     </row>
-    <row r="909" spans="2:2">
+    <row r="909" spans="2:2" ht="14.4">
       <c r="B909" s="7"/>
     </row>
-    <row r="910" spans="2:2">
+    <row r="910" spans="2:2" ht="14.4">
       <c r="B910" s="7"/>
     </row>
-    <row r="911" spans="2:2">
+    <row r="911" spans="2:2" ht="14.4">
       <c r="B911" s="7"/>
     </row>
-    <row r="912" spans="2:2">
+    <row r="912" spans="2:2" ht="14.4">
       <c r="B912" s="7"/>
     </row>
-    <row r="913" spans="2:2">
+    <row r="913" spans="2:2" ht="14.4">
       <c r="B913" s="7"/>
     </row>
-    <row r="914" spans="2:2">
+    <row r="914" spans="2:2" ht="14.4">
       <c r="B914" s="7"/>
     </row>
-    <row r="915" spans="2:2">
+    <row r="915" spans="2:2" ht="14.4">
       <c r="B915" s="7"/>
     </row>
-    <row r="916" spans="2:2">
+    <row r="916" spans="2:2" ht="14.4">
       <c r="B916" s="7"/>
     </row>
-    <row r="917" spans="2:2">
+    <row r="917" spans="2:2" ht="14.4">
       <c r="B917" s="7"/>
     </row>
-    <row r="918" spans="2:2">
+    <row r="918" spans="2:2" ht="14.4">
       <c r="B918" s="7"/>
     </row>
-    <row r="919" spans="2:2">
+    <row r="919" spans="2:2" ht="14.4">
       <c r="B919" s="7"/>
     </row>
-    <row r="920" spans="2:2">
+    <row r="920" spans="2:2" ht="14.4">
       <c r="B920" s="7"/>
     </row>
-    <row r="921" spans="2:2">
+    <row r="921" spans="2:2" ht="14.4">
       <c r="B921" s="7"/>
     </row>
-    <row r="922" spans="2:2">
+    <row r="922" spans="2:2" ht="14.4">
       <c r="B922" s="7"/>
     </row>
-    <row r="923" spans="2:2">
+    <row r="923" spans="2:2" ht="14.4">
       <c r="B923" s="7"/>
     </row>
-    <row r="924" spans="2:2">
+    <row r="924" spans="2:2" ht="14.4">
       <c r="B924" s="7"/>
     </row>
-    <row r="925" spans="2:2">
+    <row r="925" spans="2:2" ht="14.4">
       <c r="B925" s="7"/>
     </row>
-    <row r="926" spans="2:2">
+    <row r="926" spans="2:2" ht="14.4">
       <c r="B926" s="7"/>
     </row>
-    <row r="927" spans="2:2">
+    <row r="927" spans="2:2" ht="14.4">
       <c r="B927" s="7"/>
     </row>
-    <row r="928" spans="2:2">
+    <row r="928" spans="2:2" ht="14.4">
       <c r="B928" s="7"/>
     </row>
-    <row r="929" spans="2:2">
+    <row r="929" spans="2:2" ht="14.4">
       <c r="B929" s="7"/>
     </row>
-    <row r="930" spans="2:2">
+    <row r="930" spans="2:2" ht="14.4">
       <c r="B930" s="7"/>
     </row>
-    <row r="931" spans="2:2">
+    <row r="931" spans="2:2" ht="14.4">
       <c r="B931" s="7"/>
     </row>
-    <row r="932" spans="2:2">
+    <row r="932" spans="2:2" ht="14.4">
       <c r="B932" s="7"/>
     </row>
-    <row r="933" spans="2:2">
+    <row r="933" spans="2:2" ht="14.4">
       <c r="B933" s="7"/>
     </row>
-    <row r="934" spans="2:2">
+    <row r="934" spans="2:2" ht="14.4">
       <c r="B934" s="7"/>
     </row>
-    <row r="935" spans="2:2">
+    <row r="935" spans="2:2" ht="14.4">
       <c r="B935" s="7"/>
     </row>
-    <row r="936" spans="2:2">
+    <row r="936" spans="2:2" ht="14.4">
       <c r="B936" s="7"/>
     </row>
-    <row r="937" spans="2:2">
+    <row r="937" spans="2:2" ht="14.4">
       <c r="B937" s="7"/>
     </row>
-    <row r="938" spans="2:2">
+    <row r="938" spans="2:2" ht="14.4">
       <c r="B938" s="7"/>
     </row>
-    <row r="939" spans="2:2">
+    <row r="939" spans="2:2" ht="14.4">
       <c r="B939" s="7"/>
     </row>
-    <row r="940" spans="2:2">
+    <row r="940" spans="2:2" ht="14.4">
       <c r="B940" s="7"/>
     </row>
-    <row r="941" spans="2:2">
+    <row r="941" spans="2:2" ht="14.4">
       <c r="B941" s="7"/>
     </row>
-    <row r="942" spans="2:2">
+    <row r="942" spans="2:2" ht="14.4">
       <c r="B942" s="7"/>
     </row>
-    <row r="943" spans="2:2">
+    <row r="943" spans="2:2" ht="14.4">
       <c r="B943" s="7"/>
     </row>
-    <row r="944" spans="2:2">
+    <row r="944" spans="2:2" ht="14.4">
       <c r="B944" s="7"/>
     </row>
-    <row r="945" spans="2:2">
+    <row r="945" spans="2:2" ht="14.4">
       <c r="B945" s="7"/>
     </row>
-    <row r="946" spans="2:2">
+    <row r="946" spans="2:2" ht="14.4">
       <c r="B946" s="7"/>
     </row>
-    <row r="947" spans="2:2">
+    <row r="947" spans="2:2" ht="14.4">
       <c r="B947" s="7"/>
     </row>
-    <row r="948" spans="2:2">
+    <row r="948" spans="2:2" ht="14.4">
       <c r="B948" s="7"/>
     </row>
-    <row r="949" spans="2:2">
+    <row r="949" spans="2:2" ht="14.4">
       <c r="B949" s="7"/>
     </row>
-    <row r="950" spans="2:2">
+    <row r="950" spans="2:2" ht="14.4">
       <c r="B950" s="7"/>
     </row>
-    <row r="951" spans="2:2">
+    <row r="951" spans="2:2" ht="14.4">
       <c r="B951" s="7"/>
     </row>
-    <row r="952" spans="2:2">
+    <row r="952" spans="2:2" ht="14.4">
       <c r="B952" s="7"/>
     </row>
-    <row r="953" spans="2:2">
+    <row r="953" spans="2:2" ht="14.4">
       <c r="B953" s="7"/>
     </row>
-    <row r="954" spans="2:2">
+    <row r="954" spans="2:2" ht="14.4">
       <c r="B954" s="7"/>
     </row>
-    <row r="955" spans="2:2">
+    <row r="955" spans="2:2" ht="14.4">
       <c r="B955" s="7"/>
     </row>
-    <row r="956" spans="2:2">
+    <row r="956" spans="2:2" ht="14.4">
       <c r="B956" s="7"/>
     </row>
-    <row r="957" spans="2:2">
+    <row r="957" spans="2:2" ht="14.4">
       <c r="B957" s="7"/>
     </row>
-    <row r="958" spans="2:2">
+    <row r="958" spans="2:2" ht="14.4">
       <c r="B958" s="7"/>
     </row>
-    <row r="959" spans="2:2">
+    <row r="959" spans="2:2" ht="14.4">
       <c r="B959" s="7"/>
     </row>
-    <row r="960" spans="2:2">
+    <row r="960" spans="2:2" ht="14.4">
       <c r="B960" s="7"/>
     </row>
-    <row r="961" spans="2:2">
+    <row r="961" spans="2:2" ht="14.4">
       <c r="B961" s="7"/>
     </row>
-    <row r="962" spans="2:2">
+    <row r="962" spans="2:2" ht="14.4">
       <c r="B962" s="7"/>
     </row>
-    <row r="963" spans="2:2">
+    <row r="963" spans="2:2" ht="14.4">
       <c r="B963" s="7"/>
     </row>
-    <row r="964" spans="2:2">
+    <row r="964" spans="2:2" ht="14.4">
       <c r="B964" s="7"/>
     </row>
-    <row r="965" spans="2:2">
+    <row r="965" spans="2:2" ht="14.4">
       <c r="B965" s="7"/>
     </row>
-    <row r="966" spans="2:2">
+    <row r="966" spans="2:2" ht="14.4">
       <c r="B966" s="7"/>
     </row>
-    <row r="967" spans="2:2">
+    <row r="967" spans="2:2" ht="14.4">
       <c r="B967" s="7"/>
     </row>
-    <row r="968" spans="2:2">
+    <row r="968" spans="2:2" ht="14.4">
       <c r="B968" s="7"/>
     </row>
-    <row r="969" spans="2:2">
+    <row r="969" spans="2:2" ht="14.4">
       <c r="B969" s="7"/>
     </row>
-    <row r="970" spans="2:2">
+    <row r="970" spans="2:2" ht="14.4">
       <c r="B970" s="7"/>
     </row>
-    <row r="971" spans="2:2">
+    <row r="971" spans="2:2" ht="14.4">
       <c r="B971" s="7"/>
     </row>
-    <row r="972" spans="2:2">
+    <row r="972" spans="2:2" ht="14.4">
       <c r="B972" s="7"/>
     </row>
-    <row r="973" spans="2:2">
+    <row r="973" spans="2:2" ht="14.4">
       <c r="B973" s="7"/>
     </row>
-    <row r="974" spans="2:2">
+    <row r="974" spans="2:2" ht="14.4">
       <c r="B974" s="7"/>
     </row>
-    <row r="975" spans="2:2">
+    <row r="975" spans="2:2" ht="14.4">
       <c r="B975" s="7"/>
     </row>
-    <row r="976" spans="2:2">
+    <row r="976" spans="2:2" ht="14.4">
       <c r="B976" s="7"/>
     </row>
-    <row r="977" spans="2:2">
+    <row r="977" spans="2:2" ht="14.4">
       <c r="B977" s="7"/>
     </row>
-    <row r="978" spans="2:2">
+    <row r="978" spans="2:2" ht="14.4">
       <c r="B978" s="7"/>
     </row>
-    <row r="979" spans="2:2">
+    <row r="979" spans="2:2" ht="14.4">
       <c r="B979" s="7"/>
     </row>
-    <row r="980" spans="2:2">
+    <row r="980" spans="2:2" ht="14.4">
       <c r="B980" s="7"/>
     </row>
-    <row r="981" spans="2:2">
+    <row r="981" spans="2:2" ht="14.4">
       <c r="B981" s="7"/>
     </row>
-    <row r="982" spans="2:2">
+    <row r="982" spans="2:2" ht="14.4">
       <c r="B982" s="7"/>
     </row>
-    <row r="983" spans="2:2">
+    <row r="983" spans="2:2" ht="14.4">
       <c r="B983" s="7"/>
     </row>
-    <row r="984" spans="2:2">
+    <row r="984" spans="2:2" ht="14.4">
       <c r="B984" s="7"/>
     </row>
-    <row r="985" spans="2:2">
+    <row r="985" spans="2:2" ht="14.4">
       <c r="B985" s="7"/>
     </row>
-    <row r="986" spans="2:2">
+    <row r="986" spans="2:2" ht="14.4">
       <c r="B986" s="7"/>
     </row>
-    <row r="987" spans="2:2">
+    <row r="987" spans="2:2" ht="14.4">
       <c r="B987" s="7"/>
     </row>
-    <row r="988" spans="2:2">
+    <row r="988" spans="2:2" ht="14.4">
       <c r="B988" s="7"/>
     </row>
-    <row r="989" spans="2:2">
+    <row r="989" spans="2:2" ht="14.4">
       <c r="B989" s="7"/>
     </row>
-    <row r="990" spans="2:2">
+    <row r="990" spans="2:2" ht="14.4">
       <c r="B990" s="7"/>
     </row>
-    <row r="991" spans="2:2">
+    <row r="991" spans="2:2" ht="14.4">
       <c r="B991" s="7"/>
     </row>
-    <row r="992" spans="2:2">
+    <row r="992" spans="2:2" ht="14.4">
       <c r="B992" s="7"/>
     </row>
-    <row r="993" spans="2:2">
+    <row r="993" spans="2:2" ht="14.4">
       <c r="B993" s="7"/>
     </row>
-    <row r="994" spans="2:2">
+    <row r="994" spans="2:2" ht="14.4">
       <c r="B994" s="7"/>
     </row>
-    <row r="995" spans="2:2">
+    <row r="995" spans="2:2" ht="14.4">
       <c r="B995" s="7"/>
     </row>
-    <row r="996" spans="2:2">
+    <row r="996" spans="2:2" ht="14.4">
       <c r="B996" s="7"/>
     </row>
-    <row r="997" spans="2:2">
+    <row r="997" spans="2:2" ht="14.4">
       <c r="B997" s="7"/>
     </row>
-    <row r="998" spans="2:2">
+    <row r="998" spans="2:2" ht="14.4">
       <c r="B998" s="7"/>
     </row>
-    <row r="999" spans="2:2">
+    <row r="999" spans="2:2" ht="14.4">
       <c r="B999" s="7"/>
     </row>
-    <row r="1000" spans="2:2">
+    <row r="1000" spans="2:2" ht="14.4">
       <c r="B1000" s="7"/>
     </row>
-    <row r="1001" spans="2:2">
+    <row r="1001" spans="2:2" ht="14.4">
       <c r="B1001" s="7"/>
     </row>
-    <row r="1002" spans="2:2">
+    <row r="1002" spans="2:2" ht="14.4">
       <c r="B1002" s="7"/>
     </row>
-    <row r="1003" spans="2:2">
+    <row r="1003" spans="2:2" ht="14.4">
       <c r="B1003" s="7"/>
     </row>
-    <row r="1004" spans="2:2">
+    <row r="1004" spans="2:2" ht="14.4">
       <c r="B1004" s="7"/>
     </row>
-    <row r="1005" spans="2:2">
+    <row r="1005" spans="2:2" ht="14.4">
       <c r="B1005" s="7"/>
     </row>
-    <row r="1006" spans="2:2">
+    <row r="1006" spans="2:2" ht="14.4">
       <c r="B1006" s="7"/>
     </row>
-    <row r="1007" spans="2:2">
+    <row r="1007" spans="2:2" ht="14.4">
       <c r="B1007" s="7"/>
     </row>
-    <row r="1008" spans="2:2">
+    <row r="1008" spans="2:2" ht="14.4">
       <c r="B1008" s="7"/>
     </row>
-    <row r="1009" spans="2:2">
+    <row r="1009" spans="2:2" ht="14.4">
       <c r="B1009" s="7"/>
     </row>
-    <row r="1010" spans="2:2">
+    <row r="1010" spans="2:2" ht="14.4">
       <c r="B1010" s="7"/>
     </row>
-    <row r="1011" spans="2:2">
+    <row r="1011" spans="2:2" ht="14.4">
       <c r="B1011" s="7"/>
     </row>
-    <row r="1012" spans="2:2">
+    <row r="1012" spans="2:2" ht="14.4">
       <c r="B1012" s="7"/>
     </row>
-    <row r="1013" spans="2:2">
+    <row r="1013" spans="2:2" ht="14.4">
       <c r="B1013" s="7"/>
     </row>
-    <row r="1014" spans="2:2">
+    <row r="1014" spans="2:2" ht="14.4">
       <c r="B1014" s="7"/>
     </row>
-    <row r="1015" spans="2:2">
+    <row r="1015" spans="2:2" ht="14.4">
       <c r="B1015" s="7"/>
     </row>
-    <row r="1016" spans="2:2">
+    <row r="1016" spans="2:2" ht="14.4">
       <c r="B1016" s="7"/>
     </row>
-    <row r="1017" spans="2:2">
+    <row r="1017" spans="2:2" ht="14.4">
       <c r="B1017" s="7"/>
     </row>
-    <row r="1018" spans="2:2">
+    <row r="1018" spans="2:2" ht="14.4">
       <c r="B1018" s="7"/>
     </row>
-    <row r="1019" spans="2:2">
+    <row r="1019" spans="2:2" ht="14.4">
       <c r="B1019" s="7"/>
     </row>
-    <row r="1020" spans="2:2">
+    <row r="1020" spans="2:2" ht="14.4">
       <c r="B1020" s="7"/>
     </row>
-    <row r="1021" spans="2:2">
+    <row r="1021" spans="2:2" ht="14.4">
       <c r="B1021" s="7"/>
     </row>
-    <row r="1022" spans="2:2">
+    <row r="1022" spans="2:2" ht="14.4">
       <c r="B1022" s="7"/>
     </row>
-    <row r="1023" spans="2:2">
+    <row r="1023" spans="2:2" ht="14.4">
       <c r="B1023" s="7"/>
     </row>
-    <row r="1024" spans="2:2">
+    <row r="1024" spans="2:2" ht="14.4">
       <c r="B1024" s="7"/>
     </row>
-    <row r="1025" spans="2:2">
+    <row r="1025" spans="2:2" ht="14.4">
       <c r="B1025" s="7"/>
     </row>
-    <row r="1026" spans="2:2">
+    <row r="1026" spans="2:2" ht="14.4">
       <c r="B1026" s="7"/>
     </row>
-    <row r="1027" spans="2:2">
+    <row r="1027" spans="2:2" ht="14.4">
       <c r="B1027" s="7"/>
     </row>
-    <row r="1028" spans="2:2">
+    <row r="1028" spans="2:2" ht="14.4">
       <c r="B1028" s="7"/>
     </row>
-    <row r="1029" spans="2:2">
+    <row r="1029" spans="2:2" ht="14.4">
       <c r="B1029" s="7"/>
     </row>
-    <row r="1030" spans="2:2">
+    <row r="1030" spans="2:2" ht="14.4">
       <c r="B1030" s="7"/>
     </row>
-    <row r="1031" spans="2:2">
+    <row r="1031" spans="2:2" ht="14.4">
       <c r="B1031" s="7"/>
     </row>
-    <row r="1032" spans="2:2">
+    <row r="1032" spans="2:2" ht="14.4">
       <c r="B1032" s="7"/>
     </row>
-    <row r="1033" spans="2:2">
+    <row r="1033" spans="2:2" ht="14.4">
       <c r="B1033" s="7"/>
     </row>
-    <row r="1034" spans="2:2">
+    <row r="1034" spans="2:2" ht="14.4">
       <c r="B1034" s="7"/>
     </row>
-    <row r="1035" spans="2:2">
+    <row r="1035" spans="2:2" ht="14.4">
       <c r="B1035" s="7"/>
     </row>
-    <row r="1036" spans="2:2">
+    <row r="1036" spans="2:2" ht="14.4">
       <c r="B1036" s="7"/>
     </row>
-    <row r="1037" spans="2:2">
+    <row r="1037" spans="2:2" ht="14.4">
       <c r="B1037" s="7"/>
     </row>
-    <row r="1038" spans="2:2">
+    <row r="1038" spans="2:2" ht="14.4">
       <c r="B1038" s="7"/>
     </row>
-    <row r="1039" spans="2:2">
+    <row r="1039" spans="2:2" ht="14.4">
       <c r="B1039" s="7"/>
     </row>
-    <row r="1040" spans="2:2">
+    <row r="1040" spans="2:2" ht="14.4">
       <c r="B1040" s="7"/>
     </row>
-    <row r="1041" spans="2:2">
+    <row r="1041" spans="2:2" ht="14.4">
       <c r="B1041" s="7"/>
     </row>
-    <row r="1042" spans="2:2">
+    <row r="1042" spans="2:2" ht="14.4">
       <c r="B1042" s="7"/>
     </row>
-    <row r="1043" spans="2:2">
+    <row r="1043" spans="2:2" ht="14.4">
       <c r="B1043" s="7"/>
     </row>
-    <row r="1044" spans="2:2">
+    <row r="1044" spans="2:2" ht="14.4">
       <c r="B1044" s="7"/>
     </row>
-    <row r="1045" spans="2:2">
+    <row r="1045" spans="2:2" ht="14.4">
       <c r="B1045" s="7"/>
     </row>
-    <row r="1046" spans="2:2">
+    <row r="1046" spans="2:2" ht="14.4">
       <c r="B1046" s="7"/>
     </row>
-    <row r="1047" spans="2:2">
+    <row r="1047" spans="2:2" ht="14.4">
       <c r="B1047" s="7"/>
     </row>
   </sheetData>
@@ -20678,25 +20715,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="39.88671875" customWidth="1"/>
     <col min="12" max="12" width="64" customWidth="1"/>
-    <col min="13" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="26" width="12.5703125" customWidth="1"/>
+    <col min="13" max="24" width="7.5546875" customWidth="1"/>
+    <col min="25" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20729,7 +20766,7 @@
     </row>
     <row r="2" spans="1:26" s="57" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="70" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -20757,7 +20794,7 @@
     </row>
     <row r="3" spans="1:26" s="91" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="87" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="89"/>
@@ -20839,7 +20876,7 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
     </row>
-    <row r="5" spans="1:26" s="21" customFormat="1">
+    <row r="5" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -20877,7 +20914,7 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:26" s="21" customFormat="1">
+    <row r="6" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -20915,7 +20952,7 @@
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
     </row>
-    <row r="7" spans="1:26" s="21" customFormat="1">
+    <row r="7" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -20953,7 +20990,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
     </row>
-    <row r="8" spans="1:26" s="83" customFormat="1">
+    <row r="8" spans="1:26" s="83" customFormat="1" ht="14.4">
       <c r="A8" s="82"/>
       <c r="B8" s="82"/>
       <c r="D8" s="84" t="s">
@@ -20979,7 +21016,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" ht="30">
+    <row r="9" spans="1:26" s="21" customFormat="1" ht="28.8">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -21000,7 +21037,7 @@
       </c>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" ht="30">
+    <row r="10" spans="1:26" s="21" customFormat="1" ht="28.8">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="22"/>
@@ -21017,43 +21054,43 @@
         <v>30</v>
       </c>
       <c r="K10" s="80" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" ht="30">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="57" t="s">
+    <row r="11" spans="1:26" s="65" customFormat="1" ht="28.8">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="76" t="s">
         <v>944</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="76" t="s">
         <v>945</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="65">
         <v>36</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="76" t="s">
         <v>947</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="94" t="s">
         <v>946</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="95" t="s">
         <v>948</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="94" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
@@ -21069,7 +21106,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -21099,7 +21136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -21115,7 +21152,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -21131,7 +21168,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
@@ -21147,7 +21184,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="14.4">
       <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
@@ -21166,7 +21203,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="14.4">
       <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
@@ -21185,7 +21222,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.4">
       <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
@@ -21204,7 +21241,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:26" s="21" customFormat="1">
+    <row r="20" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="D20" s="3"/>
@@ -21230,12 +21267,12 @@
         <v>847</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="21" customFormat="1">
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -21251,10 +21288,10 @@
         <v>27</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" s="21" customFormat="1">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="D22" s="3"/>
@@ -21277,7 +21314,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="14.4">
       <c r="A23" s="15" t="s">
         <v>23</v>
       </c>
@@ -21296,7 +21333,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="14.4">
       <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
@@ -21334,7 +21371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="21" customFormat="1">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="3"/>
@@ -21362,7 +21399,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.4">
       <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
@@ -21386,7 +21423,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="14.4">
       <c r="A27" s="15" t="s">
         <v>23</v>
       </c>
@@ -21400,7 +21437,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="14.4">
       <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
@@ -21414,7 +21451,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:26" ht="25.15" customHeight="1">
+    <row r="29" spans="1:26" ht="25.2" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>23</v>
       </c>
@@ -21440,7 +21477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="25" customFormat="1" ht="75">
+    <row r="30" spans="1:26" s="25" customFormat="1" ht="72">
       <c r="A30" s="81"/>
       <c r="B30" s="81"/>
       <c r="C30" s="19"/>
@@ -21482,7 +21519,7 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="D31" s="17" t="s">
@@ -21507,7 +21544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="14.4">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
         <v>24</v>
@@ -21535,7 +21572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="21" customFormat="1">
+    <row r="33" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A33" s="20" t="s">
         <v>23</v>
       </c>
@@ -21563,7 +21600,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="21" customFormat="1">
+    <row r="34" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="D34" s="22"/>
@@ -21587,7 +21624,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="21" customFormat="1">
+    <row r="35" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="D35" s="22"/>
@@ -21611,7 +21648,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12" ht="14.4">
       <c r="A36" s="15" t="s">
         <v>23</v>
       </c>
@@ -21632,7 +21669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12" ht="14.4">
       <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
@@ -21658,7 +21695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12" ht="14.4">
       <c r="A38" s="15" t="s">
         <v>23</v>
       </c>
@@ -21681,7 +21718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12" ht="14.4">
       <c r="A39" s="15" t="s">
         <v>23</v>
       </c>
@@ -21704,7 +21741,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12" ht="14.4">
       <c r="A40" s="15" t="s">
         <v>23</v>
       </c>
@@ -21727,7 +21764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="21" customFormat="1">
+    <row r="41" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="E41" s="7" t="s">
@@ -21740,7 +21777,7 @@
         <v>109</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I41" s="21" t="s">
         <v>26</v>
@@ -21749,132 +21786,128 @@
         <v>27</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
       <c r="E42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1739.9274680000001</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>972</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.4">
       <c r="A43" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>44</v>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F43" s="7">
-        <v>6699</v>
+        <v>1739.9274680000001</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="H43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.4">
       <c r="A44" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
-        <v>908</v>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>909</v>
-      </c>
+        <v>6699</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="K44" s="23" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:12" ht="14.4">
       <c r="A45" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
+        <v>908</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="K45" s="23" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.4">
+      <c r="A46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>6758</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" s="21" customFormat="1">
-      <c r="A46" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I46" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="57" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="21" customFormat="1">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A47" s="20" t="s">
         <v>23</v>
       </c>
@@ -21885,14 +21918,14 @@
         <v>804</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>931</v>
+        <v>801</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I47" s="57" t="s">
         <v>26</v>
@@ -21901,10 +21934,10 @@
         <v>27</v>
       </c>
       <c r="K47" s="57" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="21" customFormat="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A48" s="20" t="s">
         <v>23</v>
       </c>
@@ -21912,17 +21945,17 @@
         <v>24</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>802</v>
+        <v>804</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>931</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H48" s="58" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I48" s="57" t="s">
         <v>26</v>
@@ -21931,51 +21964,58 @@
         <v>27</v>
       </c>
       <c r="K48" s="57" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A49" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>802</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="57" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="21" customFormat="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="58" t="s">
+    <row r="50" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="58" t="s">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57" t="s">
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="14.4">
       <c r="A51" s="15" t="s">
         <v>23</v>
       </c>
@@ -21983,102 +22023,105 @@
         <v>24</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F51" s="7">
         <v>0</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="K51" s="17" t="s">
+      <c r="G51" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4">
+      <c r="A52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="K52" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="21" customFormat="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="E52" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="21" customFormat="1">
+    <row r="53" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
-      <c r="E53" s="58" t="s">
-        <v>840</v>
-      </c>
-      <c r="F53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.08</v>
+      </c>
       <c r="G53" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>475</v>
+        <v>73</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="21" customFormat="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="E54" s="58" t="s">
-        <v>473</v>
+        <v>840</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H54" s="7" t="s">
         <v>475</v>
       </c>
+      <c r="I54" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="K54" s="23" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="21" customFormat="1">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
-      <c r="E55" s="7" t="s">
-        <v>839</v>
+      <c r="E55" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="I55" s="21" t="s">
-        <v>26</v>
-      </c>
       <c r="K55" s="23" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="21" customFormat="1">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="E56" s="7" t="s">
-        <v>964</v>
+        <v>839</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
@@ -22088,86 +22131,81 @@
         <v>475</v>
       </c>
       <c r="I56" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="E57" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K56" s="23" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="24" t="s">
+      <c r="K57" s="23" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4">
+      <c r="A58" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D58" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E58" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="18" t="s">
+      <c r="F58" s="7"/>
+      <c r="G58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H58" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K57" s="17" t="s">
+      <c r="K58" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="21" customFormat="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="21" customFormat="1">
+    <row r="59" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A59" s="20"/>
-      <c r="B59" s="24"/>
+      <c r="B59" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="21" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>407</v>
+        <v>917</v>
       </c>
       <c r="I59" s="23" t="s">
         <v>26</v>
@@ -22176,25 +22214,23 @@
         <v>27</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="21" customFormat="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="21" customFormat="1" ht="14.4">
       <c r="A60" s="20"/>
-      <c r="B60" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="B60" s="24"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="21" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>26</v>
@@ -22203,319 +22239,320 @@
         <v>27</v>
       </c>
       <c r="K60" s="23" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A61" s="20"/>
+      <c r="B61" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="23" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45">
-      <c r="A61" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="15" t="s">
+    <row r="62" spans="1:11" ht="43.2">
+      <c r="A62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F62" s="18">
         <v>1</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G62" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H62" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J61" s="17" t="s">
+      <c r="J62" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="19" t="s">
+      <c r="K62" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="21" customFormat="1">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="E62" s="7" t="s">
+    <row r="63" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="E63" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G63" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I63" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="23" t="s">
+      <c r="J63" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K63" s="23" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="25" customFormat="1" ht="90">
-      <c r="A63" s="81"/>
-      <c r="B63" s="81"/>
-      <c r="E63" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="25">
-        <v>1</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="80" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="25" customFormat="1">
+    <row r="64" spans="1:11" s="25" customFormat="1" ht="86.4">
       <c r="A64" s="81"/>
       <c r="B64" s="81"/>
-      <c r="E64" s="72" t="s">
+      <c r="E64" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="25">
+        <v>1</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="80" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" s="25" customFormat="1" ht="14.4">
+      <c r="A65" s="81"/>
+      <c r="B65" s="81"/>
+      <c r="E65" s="72" t="s">
         <v>923</v>
       </c>
-      <c r="G64" s="72" t="s">
+      <c r="G65" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="H64" s="72" t="s">
+      <c r="H65" s="72" t="s">
         <v>475</v>
-      </c>
-      <c r="I64" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" s="25" customFormat="1" ht="30">
-      <c r="A65" s="81"/>
-      <c r="B65" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>914</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>129</v>
       </c>
       <c r="I65" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="J65" s="19"/>
-      <c r="K65" s="80" t="s">
+      <c r="J65" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" s="25" customFormat="1" ht="28.8">
+      <c r="A66" s="81"/>
+      <c r="B66" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>914</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I66" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="19"/>
+      <c r="K66" s="80" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="7" t="s">
+    <row r="67" spans="1:26" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="70" t="s">
+      <c r="F67" s="7"/>
+      <c r="G67" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="70" t="s">
+      <c r="H67" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I66" s="70" t="s">
+      <c r="I67" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="70" t="s">
+      <c r="J67" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="57" t="s">
+      <c r="K67" s="57" t="s">
         <v>813</v>
       </c>
-      <c r="L66" s="70" t="s">
+      <c r="L67" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="15" t="s">
+      <c r="M67" s="3"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+    </row>
+    <row r="68" spans="1:26" ht="14.4">
+      <c r="A68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>-1</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:26">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="7" t="s">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:26" ht="14.4">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>0.6</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I69" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-    </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="15" t="s">
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+    </row>
+    <row r="70" spans="1:26" ht="14.4">
+      <c r="A70" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>1739.927555</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" s="21" customFormat="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="E70" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I70" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J70" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:26" s="21" customFormat="1">
+      <c r="K70" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="E71" s="7" t="s">
-        <v>497</v>
+        <v>959</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="K71" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" s="21" customFormat="1">
+      <c r="G71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="E72" s="7" t="s">
-        <v>854</v>
+        <v>497</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>856</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" s="21" customFormat="1">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="K72" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" s="21" customFormat="1" ht="14.4">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="E73" s="7" t="s">
-        <v>918</v>
+        <v>854</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I73" s="21" t="s">
         <v>34</v>
@@ -22524,61 +22561,71 @@
         <v>30</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>903</v>
+        <v>856</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
-      <c r="A74" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="74" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
       <c r="E74" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="K74" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="14.4">
       <c r="A75" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="C75" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E75" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F75" s="7">
-        <v>553659</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="14.4">
       <c r="A76" s="15" t="s">
         <v>23</v>
       </c>
@@ -22586,121 +22633,104 @@
         <v>24</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F76" s="7">
-        <v>4891208</v>
+        <v>553659</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="14.4">
       <c r="A77" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="E77" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="7">
+        <v>4891208</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:26" ht="14.4">
+      <c r="A78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="C78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>1</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J78" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="21" customFormat="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="3"/>
-      <c r="E78" s="7" t="s">
+    <row r="79" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="3"/>
+      <c r="E79" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" s="21" customFormat="1">
-      <c r="A79" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="F79" s="7">
-        <v>5</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I79" s="3"/>
       <c r="J79" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="L79" s="23" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A80" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
-      <c r="A80" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E80" s="7" t="s">
-        <v>128</v>
+        <v>836</v>
       </c>
       <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="H80" s="7" t="s">
         <v>129</v>
       </c>
@@ -22711,33 +22741,48 @@
         <v>27</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="21" customFormat="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="D81" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="14.4">
+      <c r="A81" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E81" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="F81" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="I81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K81" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="21" customFormat="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="D82" s="3"/>
       <c r="E82" s="7" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -22747,53 +22792,46 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="15"/>
-      <c r="E83" s="7" t="s">
+    <row r="84" spans="1:12" ht="14.4">
+      <c r="A84" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="E84" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>6772</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:12" s="21" customFormat="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="E84" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="F84" s="7">
-        <v>5</v>
-      </c>
-      <c r="G84" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="21" customFormat="1">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
-      <c r="E85" s="58" t="s">
-        <v>956</v>
+      <c r="E85" s="7" t="s">
+        <v>952</v>
       </c>
       <c r="F85" s="7">
         <v>5</v>
@@ -22811,14 +22849,14 @@
         <v>30</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="21" customFormat="1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="E86" s="58" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F86" s="7">
         <v>5</v>
@@ -22836,114 +22874,107 @@
         <v>30</v>
       </c>
       <c r="K86" s="23" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="21" customFormat="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
-      <c r="E87" s="7" t="s">
-        <v>843</v>
+      <c r="E87" s="58" t="s">
+        <v>956</v>
       </c>
       <c r="F87" s="7">
-        <v>1</v>
-      </c>
-      <c r="G87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="58" t="s">
         <v>109</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="I87" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J87" s="23" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="21" customFormat="1">
+        <v>129</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="23" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
-      <c r="D88" s="57" t="s">
-        <v>944</v>
-      </c>
       <c r="E88" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H88" s="58" t="s">
-        <v>84</v>
+      <c r="H88" s="7" t="s">
+        <v>844</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>947</v>
+        <v>26</v>
       </c>
       <c r="J88" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="K88" s="23" t="s">
-        <v>952</v>
-      </c>
-      <c r="L88" s="23"/>
-    </row>
-    <row r="89" spans="1:12" s="21" customFormat="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
-      <c r="D89" s="57" t="s">
-        <v>944</v>
-      </c>
       <c r="E89" s="7" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="58" t="s">
+      <c r="G89" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H89" s="58" t="s">
-        <v>84</v>
+      <c r="H89" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>947</v>
+        <v>26</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>947</v>
-      </c>
-      <c r="K89" s="57" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="21" customFormat="1">
+        <v>27</v>
+      </c>
+      <c r="K89" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="E90" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F90" s="7">
-        <v>10</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="I90" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J90" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
       <c r="K90" s="23" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="21" customFormat="1">
+        <v>980</v>
+      </c>
+      <c r="L90" s="23"/>
+    </row>
+    <row r="91" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="E91" s="7" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7" t="s">
@@ -22952,48 +22983,54 @@
       <c r="H91" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="I91" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
       <c r="K91" s="23" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="21" customFormat="1">
+        <v>981</v>
+      </c>
+      <c r="L91" s="23"/>
+    </row>
+    <row r="92" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
+      <c r="D92" s="57" t="s">
+        <v>944</v>
+      </c>
       <c r="E92" s="7" t="s">
-        <v>510</v>
+        <v>970</v>
       </c>
       <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
+      <c r="G92" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>947</v>
+      </c>
       <c r="K92" s="23" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="21" customFormat="1">
+        <v>971</v>
+      </c>
+      <c r="L92" s="23"/>
+    </row>
+    <row r="93" spans="1:12" s="21" customFormat="1" ht="14.4">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
-      <c r="D93" s="57" t="s">
-        <v>25</v>
-      </c>
       <c r="E93" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="58" t="s">
-        <v>29</v>
+        <v>842</v>
+      </c>
+      <c r="F93" s="7">
+        <v>10</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>73</v>
+        <v>626</v>
       </c>
       <c r="I93" s="23" t="s">
         <v>26</v>
@@ -23002,137 +23039,227 @@
         <v>27</v>
       </c>
       <c r="K93" s="23" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="E94" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K94" s="23" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="E95" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="21" customFormat="1" ht="14.4">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="E96" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="D97" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="23" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="21" customFormat="1">
-      <c r="A94" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="20"/>
-      <c r="D94" s="57" t="s">
+    <row r="98" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A98" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="D98" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="58" t="s">
+      <c r="F98" s="7"/>
+      <c r="G98" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I94" s="23" t="s">
+      <c r="I98" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J94" s="23" t="s">
+      <c r="J98" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K94" s="23" t="s">
+      <c r="K98" s="23" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="16" t="s">
+    <row r="99" spans="1:11" ht="14.4">
+      <c r="A99" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D99" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E99" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F99" s="18">
         <v>1500</v>
       </c>
-      <c r="G95" s="18" t="s">
+      <c r="G99" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H95" s="18" t="s">
+      <c r="H99" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I95" s="17" t="s">
+      <c r="I99" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J95" s="17" t="s">
+      <c r="J99" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K95" s="17" t="s">
+      <c r="K99" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="16" t="s">
+    <row r="100" spans="1:11" ht="14.4">
+      <c r="A100" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D100" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E100" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F100" s="17">
         <v>1500</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G100" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H100" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="I100" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J96" s="17" t="s">
+      <c r="J100" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K96" s="17" t="s">
+      <c r="K100" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="16" t="s">
+    <row r="101" spans="1:11" ht="14.4">
+      <c r="A101" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D101" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E101" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F101" s="17">
         <v>1500</v>
       </c>
-      <c r="G97" s="18" t="s">
+      <c r="G101" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H97" s="17" t="s">
+      <c r="H101" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I97" s="17" t="s">
+      <c r="I101" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J97" s="17" t="s">
+      <c r="J101" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K97" s="17" t="s">
+      <c r="K101" s="17" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B57:B60">
+  <conditionalFormatting sqref="B58:B61">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B57))&gt;0</formula>
+      <formula>LEN(TRIM(B58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23151,18 +23278,18 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" customWidth="1"/>
+    <col min="2" max="4" width="7.5546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="22" width="7.5703125" customWidth="1"/>
-    <col min="23" max="26" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" customWidth="1"/>
+    <col min="11" max="22" width="7.5546875" customWidth="1"/>
+    <col min="23" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -23239,7 +23366,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
     </row>
-    <row r="3" spans="1:26" s="65" customFormat="1">
+    <row r="3" spans="1:26" s="65" customFormat="1" ht="14.4">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -23265,7 +23392,7 @@
       <c r="U3" s="61"/>
       <c r="V3" s="61"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
@@ -23301,7 +23428,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -23341,7 +23468,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="30">
+    <row r="6" spans="1:26" ht="28.8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -23381,7 +23508,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="6" t="s">
         <v>160</v>
       </c>
@@ -23491,7 +23618,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="45"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -23527,7 +23654,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -23561,7 +23688,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -23595,7 +23722,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="6" t="s">
         <v>160</v>
       </c>
@@ -23633,7 +23760,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="6" t="s">
         <v>160</v>
       </c>
@@ -24275,7 +24402,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
@@ -24289,7 +24416,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="14.4">
       <c r="A32" s="28" t="s">
         <v>160</v>
       </c>
@@ -24310,7 +24437,7 @@
       </c>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="14.4">
       <c r="A33" s="28" t="s">
         <v>160</v>
       </c>
@@ -24331,7 +24458,7 @@
       </c>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="14.4">
       <c r="A34" s="28" t="s">
         <v>160</v>
       </c>
@@ -24352,7 +24479,7 @@
       </c>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="14.4">
       <c r="A35" s="28" t="s">
         <v>23</v>
       </c>
@@ -24373,7 +24500,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="14.4">
       <c r="A36" s="28" t="s">
         <v>23</v>
       </c>
@@ -24396,7 +24523,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="14.4">
       <c r="A37" s="28" t="s">
         <v>23</v>
       </c>
@@ -24419,7 +24546,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="14.4">
       <c r="A38" s="28" t="s">
         <v>23</v>
       </c>
@@ -24442,7 +24569,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="14.4">
       <c r="A39" s="28" t="s">
         <v>23</v>
       </c>
@@ -24465,7 +24592,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="14.4">
       <c r="A40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -24473,7 +24600,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="14.4">
       <c r="A41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -24497,9 +24624,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" customWidth="1"/>
+    <col min="1" max="26" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3MdataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BAB22-1BA5-43C3-AC4D-D89461AFE430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DD3A8-80AA-4275-B7AB-12B63BE2FD42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Necessary input data" sheetId="7" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="985">
   <si>
     <t>LULC_A</t>
   </si>
@@ -3043,6 +3043,15 @@
   </si>
   <si>
     <t>vegetation height on right bank of stream from Shade-a-lator data</t>
+  </si>
+  <si>
+    <t>SAL_REACH</t>
+  </si>
+  <si>
+    <t>1 or 0</t>
+  </si>
+  <si>
+    <t>1 =&gt; this reach is completely covered by  the Shade-a-lator data</t>
   </si>
 </sst>
 </file>
@@ -20715,11 +20724,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -22440,145 +22449,136 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:26" ht="14.4">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="7" t="s">
+    <row r="69" spans="1:26" s="21" customFormat="1" ht="14.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="E69" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="K69" s="21" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="14.4">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>0.6</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I70" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-    </row>
-    <row r="70" spans="1:26" ht="14.4">
-      <c r="A70" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="15" t="s">
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+    </row>
+    <row r="71" spans="1:26" ht="14.4">
+      <c r="A71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>1739.927555</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" s="21" customFormat="1